--- a/ProgrammePrincipal/generateur de noms de trame.xlsx
+++ b/ProgrammePrincipal/generateur de noms de trame.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="COM" sheetId="1" r:id="rId1"/>
+    <sheet name="TRIS" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
   <si>
     <t>CON</t>
   </si>
@@ -109,6 +109,138 @@
   </si>
   <si>
     <t>ANGLE_HORS_INTERVALLE</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>LED_HAUT</t>
+  </si>
+  <si>
+    <t>sortie 0?</t>
+  </si>
+  <si>
+    <t>accès</t>
+  </si>
+  <si>
+    <t>paramétrage</t>
+  </si>
+  <si>
+    <t>param ANSEL</t>
+  </si>
+  <si>
+    <t>Appel CH0</t>
+  </si>
+  <si>
+    <t>RECHARGER_COEF</t>
+  </si>
+  <si>
+    <t>ana: Lequel?</t>
+  </si>
+  <si>
+    <t>LED_BAS</t>
+  </si>
+  <si>
+    <t>LED_DROITE</t>
+  </si>
+  <si>
+    <t>LED_GAUCHE</t>
+  </si>
+  <si>
+    <t>LED_CENTRE_ORANGE</t>
+  </si>
+  <si>
+    <t>LED_ERREUR</t>
+  </si>
+  <si>
+    <t>LED_TEMOIN</t>
+  </si>
+  <si>
+    <t>BOUTON_VERT</t>
+  </si>
+  <si>
+    <t>BOUTON_ROUGE</t>
+  </si>
+  <si>
+    <t>GYRO</t>
+  </si>
+  <si>
+    <t>ACC_X</t>
+  </si>
+  <si>
+    <t>ACC_Z</t>
+  </si>
+  <si>
+    <t>ACC_CENTRIFUGE</t>
+  </si>
+  <si>
+    <t>BATTERIE</t>
+  </si>
+  <si>
+    <t>PRESENCE_UTILISATEUR</t>
+  </si>
+  <si>
+    <t>CODEUR_A_GAUCHE</t>
+  </si>
+  <si>
+    <t>CODEUR_A_DROITE</t>
+  </si>
+  <si>
+    <t>CODEUR_B_GAUCHE</t>
+  </si>
+  <si>
+    <t>CODEUR_B_DROITE</t>
+  </si>
+  <si>
+    <t>USART_RX1</t>
+  </si>
+  <si>
+    <t>USART_RX2</t>
+  </si>
+  <si>
+    <t>USART_TX1</t>
+  </si>
+  <si>
+    <t>USART_TX2</t>
+  </si>
+  <si>
+    <t>LED_USART1</t>
+  </si>
+  <si>
+    <t>LED_USART2</t>
+  </si>
+  <si>
+    <t>PATTE_PGD</t>
+  </si>
+  <si>
+    <t>PATTE_PGC</t>
+  </si>
+  <si>
+    <t>BOUTON_LIMITATION</t>
+  </si>
+  <si>
+    <t>POTENTIOMETRE_GUIDON</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>LED_CENTRE_VERTE</t>
   </si>
 </sst>
 </file>
@@ -500,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -550,8 +682,8 @@
         <v>#define TYPE_TRAME_CON_COUPLEG 138</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>IF(A2&lt;&gt;"",CONCATENATE("#define LGT_TRAME_",A2,"_",B2," ",D2),"")</f>
-        <v>#define LGT_TRAME_CON_COUPLEG 1</v>
+        <f>IF(A2&lt;&gt;"",CONCATENATE("#define LG_TRAME_",A2,"_",B2," ",D2),"")</f>
+        <v>#define LG_TRAME_CON_COUPLEG 1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -572,8 +704,8 @@
         <v>#define TYPE_TRAME_CON_COUPLED 139</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F26" si="1">IF(A3&lt;&gt;"",CONCATENATE("#define LGT_TRAME_",A3,"_",B3," ",D3),"")</f>
-        <v>#define LGT_TRAME_CON_COUPLED 1</v>
+        <f t="shared" ref="F3:F58" si="1">IF(A3&lt;&gt;"",CONCATENATE("#define LG_TRAME_",A3,"_",B3," ",D3),"")</f>
+        <v>#define LG_TRAME_CON_COUPLED 1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -595,7 +727,7 @@
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_INF_COUPLEG 1</v>
+        <v>#define LG_TRAME_INF_COUPLEG 1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -617,7 +749,7 @@
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_INF_COUPLED 1</v>
+        <v>#define LG_TRAME_INF_COUPLED 1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -639,7 +771,7 @@
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_INF_ERREUR_CARTE_COURANT 1</v>
+        <v>#define LG_TRAME_INF_ERREUR_CARTE_COURANT 1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -671,7 +803,7 @@
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_INF_VITESSEG 2</v>
+        <v>#define LG_TRAME_INF_VITESSEG 2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -693,7 +825,7 @@
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_INF_VITESSED 2</v>
+        <v>#define LG_TRAME_INF_VITESSED 2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -715,7 +847,7 @@
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_INF_PRINC_PID_K 2</v>
+        <v>#define LG_TRAME_INF_PRINC_PID_K 2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -737,7 +869,7 @@
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_CON_PRINC_PID_K 2</v>
+        <v>#define LG_TRAME_CON_PRINC_PID_K 2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -759,7 +891,7 @@
       </c>
       <c r="F12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_INF_PRINC_PID_I 2</v>
+        <v>#define LG_TRAME_INF_PRINC_PID_I 2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -781,7 +913,7 @@
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_CON_PRINC_PID_I 2</v>
+        <v>#define LG_TRAME_CON_PRINC_PID_I 2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -803,7 +935,7 @@
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_INF_PRINC_PID_D 2</v>
+        <v>#define LG_TRAME_INF_PRINC_PID_D 2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -825,7 +957,7 @@
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_CON_PRINC_PID_D 2</v>
+        <v>#define LG_TRAME_CON_PRINC_PID_D 2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -847,7 +979,7 @@
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_INF_PRINC_DIR 2</v>
+        <v>#define LG_TRAME_INF_PRINC_DIR 2</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -869,7 +1001,7 @@
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_CON_PRINC_DIR 2</v>
+        <v>#define LG_TRAME_CON_PRINC_DIR 2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -891,7 +1023,7 @@
       </c>
       <c r="F18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_INF_ANGLE 2</v>
+        <v>#define LG_TRAME_INF_ANGLE 2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -902,18 +1034,18 @@
         <v>17</v>
       </c>
       <c r="C19" s="11">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D19" s="9">
         <v>2</v>
       </c>
       <c r="E19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_INF_VITESSE_ANGULAIRE 19</v>
+        <v>#define TYPE_TRAME_INF_VITESSE_ANGULAIRE 30</v>
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_INF_VITESSE_ANGULAIRE 2</v>
+        <v>#define LG_TRAME_INF_VITESSE_ANGULAIRE 2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -935,7 +1067,7 @@
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_INF_ACCELERATION 2</v>
+        <v>#define LG_TRAME_INF_ACCELERATION 2</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -957,7 +1089,7 @@
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_CON_ACCELERATION_COEF_FILTRE 2</v>
+        <v>#define LG_TRAME_CON_ACCELERATION_COEF_FILTRE 2</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -979,7 +1111,7 @@
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_INF_COEF_KALMAN 1</v>
+        <v>#define LG_TRAME_INF_COEF_KALMAN 1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1001,7 +1133,7 @@
       </c>
       <c r="F23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_CON_COEF_KALMAN 1</v>
+        <v>#define LG_TRAME_CON_COEF_KALMAN 1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1023,7 +1155,7 @@
       </c>
       <c r="F24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_CON_SAUVEGARDER_COEF 0</v>
+        <v>#define LG_TRAME_CON_SAUVEGARDER_COEF 0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1045,7 +1177,7 @@
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_INF_DISTANCE_PARCOURUE 2</v>
+        <v>#define LG_TRAME_INF_DISTANCE_PARCOURUE 2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1067,7 +1199,7 @@
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LGT_TRAME_INF_ETAT_BATTERIE 2</v>
+        <v>#define LG_TRAME_INF_ETAT_BATTERIE 2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1076,7 +1208,7 @@
         <v/>
       </c>
       <c r="F27" s="1" t="str">
-        <f t="shared" ref="F27:F74" si="3">IF(A27&lt;&gt;"",CONCATENATE("#define LGT_TRAME_",A27,"_",B27," ",D27),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1098,8 +1230,8 @@
         <v>#define TYPE_TRAME_CON_STOP 153</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>#define LGT_TRAME_CON_STOP 0</v>
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_STOP 0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1120,8 +1252,8 @@
         <v>#define TYPE_TRAME_CON_DEPART 154</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>#define LGT_TRAME_CON_DEPART 0</v>
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_DEPART 0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1142,8 +1274,8 @@
         <v>#define TYPE_TRAME_INF_PRET 25</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>#define LGT_TRAME_INF_PRET 0</v>
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_INF_PRET 0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1164,8 +1296,8 @@
         <v>#define TYPE_TRAME_INF_ETAT 26</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>#define LGT_TRAME_INF_ETAT 1</v>
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_INF_ETAT 1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1186,8 +1318,8 @@
         <v>#define TYPE_TRAME_CON_TEST_COM 155</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>#define LGT_TRAME_CON_TEST_COM 1</v>
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_TEST_COM 1</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1208,8 +1340,8 @@
         <v>#define TYPE_TRAME_INF_SATURATION_VITESSE 28</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>#define LGT_TRAME_INF_SATURATION_VITESSE 2</v>
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_INF_SATURATION_VITESSE 2</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1230,8 +1362,8 @@
         <v>#define TYPE_TRAME_CON_SATURATION_VITESSE 156</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>#define LGT_TRAME_CON_SATURATION_VITESSE 2</v>
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_SATURATION_VITESSE 2</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1252,18 +1384,30 @@
         <v>#define TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE 29</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>#define LGT_TRAME_INF_ANGLE_HORS_INTERVALLE 1</v>
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_INF_ANGLE_HORS_INTERVALLE 1</v>
       </c>
     </row>
     <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="11">
+        <v>22</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
       <c r="E36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>#define TYPE_TRAME_CON_RECHARGER_COEF 150</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_RECHARGER_COEF 1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1272,7 +1416,7 @@
         <v/>
       </c>
       <c r="F37" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1282,7 +1426,7 @@
         <v/>
       </c>
       <c r="F38" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1292,7 +1436,7 @@
         <v/>
       </c>
       <c r="F39" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1302,7 +1446,7 @@
         <v/>
       </c>
       <c r="F40" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1312,7 +1456,7 @@
         <v/>
       </c>
       <c r="F41" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1322,7 +1466,7 @@
         <v/>
       </c>
       <c r="F42" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1332,7 +1476,7 @@
         <v/>
       </c>
       <c r="F43" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1342,7 +1486,7 @@
         <v/>
       </c>
       <c r="F44" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1352,7 +1496,7 @@
         <v/>
       </c>
       <c r="F45" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1362,7 +1506,7 @@
         <v/>
       </c>
       <c r="F46" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1372,7 +1516,7 @@
         <v/>
       </c>
       <c r="F47" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1382,7 +1526,7 @@
         <v/>
       </c>
       <c r="F48" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1392,7 +1536,7 @@
         <v/>
       </c>
       <c r="F49" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1402,7 +1546,7 @@
         <v/>
       </c>
       <c r="F50" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1412,7 +1556,7 @@
         <v/>
       </c>
       <c r="F51" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1422,7 +1566,7 @@
         <v/>
       </c>
       <c r="F52" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1432,7 +1576,7 @@
         <v/>
       </c>
       <c r="F53" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1442,7 +1586,7 @@
         <v/>
       </c>
       <c r="F54" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1452,7 +1596,7 @@
         <v/>
       </c>
       <c r="F55" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1462,7 +1606,7 @@
         <v/>
       </c>
       <c r="F56" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1472,7 +1616,7 @@
         <v/>
       </c>
       <c r="F57" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1482,7 +1626,7 @@
         <v/>
       </c>
       <c r="F58" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1492,7 +1636,7 @@
         <v/>
       </c>
       <c r="F59" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F27:F74" si="3">IF(A59&lt;&gt;"",CONCATENATE("#define LGT_TRAME_",A59,"_",B59," ",D59),"")</f>
         <v/>
       </c>
     </row>
@@ -1654,12 +1798,1890 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="5" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(C2&lt;&gt;"",CONCATENATE("#define ",C2," ",IF(D2=0,"LAT","PORT"),A2,"bits.",IF(D2=0,"LAT","R"),A2,B2),"")</f>
+        <v>#define GYRO PORTAbits.RA0</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(C2&lt;&gt;"",CONCATENATE("TRIS",A2,"bits.","R",A2,B2,"=",D2,"; //",C2),"")</f>
+        <v>TRISAbits.RA0=1; //GYRO</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(E2&lt;&gt;"",CONCATENATE("ANSEL",A2,"bits.","ANS",A2,B2,"=",D2,"; //",C2),"")</f>
+        <v>ANSELAbits.ANSA0=1; //GYRO</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(E2&lt;&gt;"",CONCATENATE("#define CH_",C2," ADC_CH",E2),"")</f>
+        <v>#define CH_GYRO ADC_CH0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(C3&lt;&gt;"",CONCATENATE("#define ",C3," ",IF(D3=0,"LAT","PORT"),A3,"bits.",IF(D3=0,"LAT","R"),A3,B3),"")</f>
+        <v>#define ACC_X PORTAbits.RA1</v>
+      </c>
+      <c r="H3" t="str">
+        <f>IF(C3&lt;&gt;"",CONCATENATE("TRIS",A3,"bits.","R",A3,B3,"=",D3,"; //",C3),"")</f>
+        <v>TRISAbits.RA1=1; //ACC_X</v>
+      </c>
+      <c r="I3" t="str">
+        <f>IF(E3&lt;&gt;"",CONCATENATE("ANSEL",A3,"bits.","ANS",A3,B3,"=",D3,"; //",C3),"")</f>
+        <v>ANSELAbits.ANSA1=1; //ACC_X</v>
+      </c>
+      <c r="J3" t="str">
+        <f>IF(E3&lt;&gt;"",CONCATENATE("#define CH_",C3," ADC_CH",E3),"")</f>
+        <v>#define CH_ACC_X ADC_CH1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(C4&lt;&gt;"",CONCATENATE("#define ",C4," ",IF(D4=0,"LAT","PORT"),A4,"bits.",IF(D4=0,"LAT","R"),A4,B4),"")</f>
+        <v>#define LED_HAUT LATAbits.LATA4</v>
+      </c>
+      <c r="H4" t="str">
+        <f>IF(C4&lt;&gt;"",CONCATENATE("TRIS",A4,"bits.","R",A4,B4,"=",D4,"; //",C4),"")</f>
+        <v>TRISAbits.RA4=0; //LED_HAUT</v>
+      </c>
+      <c r="I4" t="str">
+        <f>IF(E4&lt;&gt;"",CONCATENATE("ANSEL",A4,"bits.","ANS",A4,B4,"=",D4,"; //",C4),"")</f>
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <f>IF(E4&lt;&gt;"",CONCATENATE("#define CH_",C4," ADC_CH",E4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(C5&lt;&gt;"",CONCATENATE("#define ",C5," ",IF(D5=0,"LAT","PORT"),A5,"bits.",IF(D5=0,"LAT","R"),A5,B5),"")</f>
+        <v>#define ACC_Z PORTAbits.RA5</v>
+      </c>
+      <c r="H5" t="str">
+        <f>IF(C5&lt;&gt;"",CONCATENATE("TRIS",A5,"bits.","R",A5,B5,"=",D5,"; //",C5),"")</f>
+        <v>TRISAbits.RA5=1; //ACC_Z</v>
+      </c>
+      <c r="I5" t="str">
+        <f>IF(E5&lt;&gt;"",CONCATENATE("ANSEL",A5,"bits.","ANS",A5,B5,"=",D5,"; //",C5),"")</f>
+        <v>ANSELAbits.ANSA5=1; //ACC_Z</v>
+      </c>
+      <c r="J5" t="str">
+        <f>IF(E5&lt;&gt;"",CONCATENATE("#define CH_",C5," ADC_CH",E5),"")</f>
+        <v>#define CH_ACC_Z ADC_CH4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <f>IF(C6&lt;&gt;"",CONCATENATE("#define ",C6," ",IF(D6=0,"LAT","PORT"),A6,"bits.",IF(D6=0,"LAT","R"),A6,B6),"")</f>
+        <v>#define LED_CENTRE_VERTE LATAbits.LATA6</v>
+      </c>
+      <c r="H6" t="str">
+        <f>IF(C6&lt;&gt;"",CONCATENATE("TRIS",A6,"bits.","R",A6,B6,"=",D6,"; //",C6),"")</f>
+        <v>TRISAbits.RA6=0; //LED_CENTRE_VERTE</v>
+      </c>
+      <c r="I6" t="str">
+        <f>IF(E6&lt;&gt;"",CONCATENATE("ANSEL",A6,"bits.","ANS",A6,B6,"=",D6,"; //",C6),"")</f>
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <f>IF(E6&lt;&gt;"",CONCATENATE("#define CH_",C6," ADC_CH",E6),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <f>IF(C7&lt;&gt;"",CONCATENATE("#define ",C7," ",IF(D7=0,"LAT","PORT"),A7,"bits.",IF(D7=0,"LAT","R"),A7,B7),"")</f>
+        <v>#define LED_CENTRE_ORANGE LATAbits.LATA7</v>
+      </c>
+      <c r="H7" t="str">
+        <f>IF(C7&lt;&gt;"",CONCATENATE("TRIS",A7,"bits.","R",A7,B7,"=",D7,"; //",C7),"")</f>
+        <v>TRISAbits.RA7=0; //LED_CENTRE_ORANGE</v>
+      </c>
+      <c r="I7" t="str">
+        <f>IF(E7&lt;&gt;"",CONCATENATE("ANSEL",A7,"bits.","ANS",A7,B7,"=",D7,"; //",C7),"")</f>
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <f>IF(E7&lt;&gt;"",CONCATENATE("#define CH_",C7," ADC_CH",E7),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="str">
+        <f>IF(C8&lt;&gt;"",CONCATENATE("#define ",C8," ",IF(D8=0,"LAT","PORT"),A8,"bits.",IF(D8=0,"LAT","R"),A8,B8),"")</f>
+        <v>#define CODEUR_A_DROITE PORTBbits.RB0</v>
+      </c>
+      <c r="H8" t="str">
+        <f>IF(C8&lt;&gt;"",CONCATENATE("TRIS",A8,"bits.","R",A8,B8,"=",D8,"; //",C8),"")</f>
+        <v>TRISBbits.RB0=1; //CODEUR_A_DROITE</v>
+      </c>
+      <c r="I8" t="str">
+        <f>IF(E8&lt;&gt;"",CONCATENATE("ANSEL",A8,"bits.","ANS",A8,B8,"=",D8,"; //",C8),"")</f>
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <f>IF(E8&lt;&gt;"",CONCATENATE("#define CH_",C8," ADC_CH",E8),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="str">
+        <f>IF(C9&lt;&gt;"",CONCATENATE("#define ",C9," ",IF(D9=0,"LAT","PORT"),A9,"bits.",IF(D9=0,"LAT","R"),A9,B9),"")</f>
+        <v>#define CODEUR_A_GAUCHE PORTBbits.RB1</v>
+      </c>
+      <c r="H9" t="str">
+        <f>IF(C9&lt;&gt;"",CONCATENATE("TRIS",A9,"bits.","R",A9,B9,"=",D9,"; //",C9),"")</f>
+        <v>TRISBbits.RB1=1; //CODEUR_A_GAUCHE</v>
+      </c>
+      <c r="I9" t="str">
+        <f>IF(E9&lt;&gt;"",CONCATENATE("ANSEL",A9,"bits.","ANS",A9,B9,"=",D9,"; //",C9),"")</f>
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <f>IF(E9&lt;&gt;"",CONCATENATE("#define CH_",C9," ADC_CH",E9),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(C10&lt;&gt;"",CONCATENATE("#define ",C10," ",IF(D10=0,"LAT","PORT"),A10,"bits.",IF(D10=0,"LAT","R"),A10,B10),"")</f>
+        <v>#define CODEUR_B_DROITE PORTBbits.RB3</v>
+      </c>
+      <c r="H10" t="str">
+        <f>IF(C10&lt;&gt;"",CONCATENATE("TRIS",A10,"bits.","R",A10,B10,"=",D10,"; //",C10),"")</f>
+        <v>TRISBbits.RB3=1; //CODEUR_B_DROITE</v>
+      </c>
+      <c r="I10" t="str">
+        <f>IF(E10&lt;&gt;"",CONCATENATE("ANSEL",A10,"bits.","ANS",A10,B10,"=",D10,"; //",C10),"")</f>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f>IF(E10&lt;&gt;"",CONCATENATE("#define CH_",C10," ADC_CH",E10),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(C11&lt;&gt;"",CONCATENATE("#define ",C11," ",IF(D11=0,"LAT","PORT"),A11,"bits.",IF(D11=0,"LAT","R"),A11,B11),"")</f>
+        <v>#define CODEUR_B_GAUCHE PORTBbits.RB4</v>
+      </c>
+      <c r="H11" t="str">
+        <f>IF(C11&lt;&gt;"",CONCATENATE("TRIS",A11,"bits.","R",A11,B11,"=",D11,"; //",C11),"")</f>
+        <v>TRISBbits.RB4=1; //CODEUR_B_GAUCHE</v>
+      </c>
+      <c r="I11" t="str">
+        <f>IF(E11&lt;&gt;"",CONCATENATE("ANSEL",A11,"bits.","ANS",A11,B11,"=",D11,"; //",C11),"")</f>
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <f>IF(E11&lt;&gt;"",CONCATENATE("#define CH_",C11," ADC_CH",E11),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(C12&lt;&gt;"",CONCATENATE("#define ",C12," ",IF(D12=0,"LAT","PORT"),A12,"bits.",IF(D12=0,"LAT","R"),A12,B12),"")</f>
+        <v>#define PATTE_PGC PORTBbits.RB6</v>
+      </c>
+      <c r="H12" t="str">
+        <f>IF(C12&lt;&gt;"",CONCATENATE("TRIS",A12,"bits.","R",A12,B12,"=",D12,"; //",C12),"")</f>
+        <v>TRISBbits.RB6=1; //PATTE_PGC</v>
+      </c>
+      <c r="I12" t="str">
+        <f>IF(E12&lt;&gt;"",CONCATENATE("ANSEL",A12,"bits.","ANS",A12,B12,"=",D12,"; //",#REF!),"")</f>
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <f>IF(E12&lt;&gt;"",CONCATENATE("#define CH_",#REF!," ADC_CH",E12),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(C13&lt;&gt;"",CONCATENATE("#define ",C13," ",IF(D13=0,"LAT","PORT"),A13,"bits.",IF(D13=0,"LAT","R"),A13,B13),"")</f>
+        <v>#define PATTE_PGD PORTBbits.RB7</v>
+      </c>
+      <c r="H13" t="str">
+        <f>IF(C13&lt;&gt;"",CONCATENATE("TRIS",A13,"bits.","R",A13,B13,"=",D13,"; //",C13),"")</f>
+        <v>TRISBbits.RB7=1; //PATTE_PGD</v>
+      </c>
+      <c r="I13" t="str">
+        <f>IF(E13&lt;&gt;"",CONCATENATE("ANSEL",A13,"bits.","ANS",A13,B13,"=",D13,"; //",#REF!),"")</f>
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <f>IF(E13&lt;&gt;"",CONCATENATE("#define CH_",#REF!," ADC_CH",E13),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <f>IF(C14&lt;&gt;"",CONCATENATE("#define ",C14," ",IF(D14=0,"LAT","PORT"),A14,"bits.",IF(D14=0,"LAT","R"),A14,B14),"")</f>
+        <v>#define LED_DROITE LATCbits.LATC0</v>
+      </c>
+      <c r="H14" t="str">
+        <f>IF(C14&lt;&gt;"",CONCATENATE("TRIS",A14,"bits.","R",A14,B14,"=",D14,"; //",C14),"")</f>
+        <v>TRISCbits.RC0=0; //LED_DROITE</v>
+      </c>
+      <c r="I14" t="str">
+        <f>IF(E14&lt;&gt;"",CONCATENATE("ANSEL",A14,"bits.","ANS",A14,B14,"=",D14,"; //",C14),"")</f>
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <f>IF(E14&lt;&gt;"",CONCATENATE("#define CH_",C14," ADC_CH",E14),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <f>IF(C15&lt;&gt;"",CONCATENATE("#define ",C15," ",IF(D15=0,"LAT","PORT"),A15,"bits.",IF(D15=0,"LAT","R"),A15,B15),"")</f>
+        <v>#define LED_TEMOIN LATCbits.LATC1</v>
+      </c>
+      <c r="H15" t="str">
+        <f>IF(C15&lt;&gt;"",CONCATENATE("TRIS",A15,"bits.","R",A15,B15,"=",D15,"; //",C15),"")</f>
+        <v>TRISCbits.RC1=0; //LED_TEMOIN</v>
+      </c>
+      <c r="I15" t="str">
+        <f>IF(E15&lt;&gt;"",CONCATENATE("ANSEL",A15,"bits.","ANS",A15,B15,"=",D15,"; //",C15),"")</f>
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <f>IF(E15&lt;&gt;"",CONCATENATE("#define CH_",C15," ADC_CH",E15),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="str">
+        <f>IF(C16&lt;&gt;"",CONCATENATE("#define ",C16," ",IF(D16=0,"LAT","PORT"),A16,"bits.",IF(D16=0,"LAT","R"),A16,B16),"")</f>
+        <v>#define BOUTON_VERT PORTCbits.RC2</v>
+      </c>
+      <c r="H16" t="str">
+        <f>IF(C16&lt;&gt;"",CONCATENATE("TRIS",A16,"bits.","R",A16,B16,"=",D16,"; //",C16),"")</f>
+        <v>TRISCbits.RC2=1; //BOUTON_VERT</v>
+      </c>
+      <c r="I16" t="str">
+        <f>IF(E16&lt;&gt;"",CONCATENATE("ANSEL",A16,"bits.","ANS",A16,B16,"=",D16,"; //",C16),"")</f>
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <f>IF(E16&lt;&gt;"",CONCATENATE("#define CH_",C16," ADC_CH",E16),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f>IF(C17&lt;&gt;"",CONCATENATE("#define ",C17," ",IF(D17=0,"LAT","PORT"),A17,"bits.",IF(D17=0,"LAT","R"),A17,B17),"")</f>
+        <v>#define BOUTON_ROUGE PORTCbits.RC3</v>
+      </c>
+      <c r="H17" t="str">
+        <f>IF(C17&lt;&gt;"",CONCATENATE("TRIS",A17,"bits.","R",A17,B17,"=",D17,"; //",C17),"")</f>
+        <v>TRISCbits.RC3=1; //BOUTON_ROUGE</v>
+      </c>
+      <c r="I17" t="str">
+        <f>IF(E17&lt;&gt;"",CONCATENATE("ANSEL",A17,"bits.","ANS",A17,B17,"=",D17,"; //",C17),"")</f>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f>IF(E17&lt;&gt;"",CONCATENATE("#define CH_",C17," ADC_CH",E17),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
+        <f>IF(C18&lt;&gt;"",CONCATENATE("#define ",C18," ",IF(D18=0,"LAT","PORT"),A18,"bits.",IF(D18=0,"LAT","R"),A18,B18),"")</f>
+        <v>#define LED_ERREUR LATCbits.LATC4</v>
+      </c>
+      <c r="H18" t="str">
+        <f>IF(C18&lt;&gt;"",CONCATENATE("TRIS",A18,"bits.","R",A18,B18,"=",D18,"; //",C18),"")</f>
+        <v>TRISCbits.RC4=0; //LED_ERREUR</v>
+      </c>
+      <c r="I18" t="str">
+        <f>IF(E18&lt;&gt;"",CONCATENATE("ANSEL",A18,"bits.","ANS",A18,B18,"=",D18,"; //",C18),"")</f>
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <f>IF(E18&lt;&gt;"",CONCATENATE("#define CH_",C18," ADC_CH",E18),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(C19&lt;&gt;"",CONCATENATE("#define ",C19," ",IF(D19=0,"LAT","PORT"),A19,"bits.",IF(D19=0,"LAT","R"),A19,B19),"")</f>
+        <v>#define USART_TX1 LATCbits.LATC6</v>
+      </c>
+      <c r="H19" t="str">
+        <f>IF(C19&lt;&gt;"",CONCATENATE("TRIS",A19,"bits.","R",A19,B19,"=",D19,"; //",C19),"")</f>
+        <v>TRISCbits.RC6=0; //USART_TX1</v>
+      </c>
+      <c r="I19" t="str">
+        <f>IF(E19&lt;&gt;"",CONCATENATE("ANSEL",A19,"bits.","ANS",A19,B19,"=",D19,"; //",C19),"")</f>
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <f>IF(E19&lt;&gt;"",CONCATENATE("#define CH_",C19," ADC_CH",E19),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="str">
+        <f>IF(C20&lt;&gt;"",CONCATENATE("#define ",C20," ",IF(D20=0,"LAT","PORT"),A20,"bits.",IF(D20=0,"LAT","R"),A20,B20),"")</f>
+        <v>#define USART_RX1 PORTCbits.RC7</v>
+      </c>
+      <c r="H20" t="str">
+        <f>IF(C20&lt;&gt;"",CONCATENATE("TRIS",A20,"bits.","R",A20,B20,"=",D20,"; //",C20),"")</f>
+        <v>TRISCbits.RC7=1; //USART_RX1</v>
+      </c>
+      <c r="I20" t="str">
+        <f>IF(E20&lt;&gt;"",CONCATENATE("ANSEL",A20,"bits.","ANS",A20,B20,"=",D20,"; //",C20),"")</f>
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <f>IF(E20&lt;&gt;"",CONCATENATE("#define CH_",C20," ADC_CH",E20),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="str">
+        <f>IF(C21&lt;&gt;"",CONCATENATE("#define ",C21," ",IF(D21=0,"LAT","PORT"),A21,"bits.",IF(D21=0,"LAT","R"),A21,B21),"")</f>
+        <v>#define LED_BAS LATDbits.LATD0</v>
+      </c>
+      <c r="H21" t="str">
+        <f>IF(C21&lt;&gt;"",CONCATENATE("TRIS",A21,"bits.","R",A21,B21,"=",D21,"; //",C21),"")</f>
+        <v>TRISDbits.RD0=0; //LED_BAS</v>
+      </c>
+      <c r="I21" t="str">
+        <f>IF(E21&lt;&gt;"",CONCATENATE("ANSEL",A21,"bits.","ANS",A21,B21,"=",D21,"; //",C21),"")</f>
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <f>IF(E21&lt;&gt;"",CONCATENATE("#define CH_",C21," ADC_CH",E21),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <f>IF(C22&lt;&gt;"",CONCATENATE("#define ",C22," ",IF(D22=0,"LAT","PORT"),A22,"bits.",IF(D22=0,"LAT","R"),A22,B22),"")</f>
+        <v>#define LED_GAUCHE LATDbits.LATD1</v>
+      </c>
+      <c r="H22" t="str">
+        <f>IF(C22&lt;&gt;"",CONCATENATE("TRIS",A22,"bits.","R",A22,B22,"=",D22,"; //",C22),"")</f>
+        <v>TRISDbits.RD1=0; //LED_GAUCHE</v>
+      </c>
+      <c r="I22" t="str">
+        <f>IF(E22&lt;&gt;"",CONCATENATE("ANSEL",A22,"bits.","ANS",A22,B22,"=",D22,"; //",C22),"")</f>
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <f>IF(E22&lt;&gt;"",CONCATENATE("#define CH_",C22," ADC_CH",E22),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(C23&lt;&gt;"",CONCATENATE("#define ",C23," ",IF(D23=0,"LAT","PORT"),A23,"bits.",IF(D23=0,"LAT","R"),A23,B23),"")</f>
+        <v>#define LED_USART2 LATDbits.LATD2</v>
+      </c>
+      <c r="H23" t="str">
+        <f>IF(C23&lt;&gt;"",CONCATENATE("TRIS",A23,"bits.","R",A23,B23,"=",D23,"; //",C23),"")</f>
+        <v>TRISDbits.RD2=0; //LED_USART2</v>
+      </c>
+      <c r="I23" t="str">
+        <f>IF(E23&lt;&gt;"",CONCATENATE("ANSEL",A23,"bits.","ANS",A23,B23,"=",D23,"; //",C23),"")</f>
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <f>IF(E23&lt;&gt;"",CONCATENATE("#define CH_",C23," ADC_CH",E23),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <f>IF(C24&lt;&gt;"",CONCATENATE("#define ",C24," ",IF(D24=0,"LAT","PORT"),A24,"bits.",IF(D24=0,"LAT","R"),A24,B24),"")</f>
+        <v>#define LED_USART1 LATDbits.LATD3</v>
+      </c>
+      <c r="H24" t="str">
+        <f>IF(C24&lt;&gt;"",CONCATENATE("TRIS",A24,"bits.","R",A24,B24,"=",D24,"; //",C24),"")</f>
+        <v>TRISDbits.RD3=0; //LED_USART1</v>
+      </c>
+      <c r="I24" t="str">
+        <f>IF(E24&lt;&gt;"",CONCATENATE("ANSEL",A24,"bits.","ANS",A24,B24,"=",D24,"; //",C24),"")</f>
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <f>IF(E24&lt;&gt;"",CONCATENATE("#define CH_",C24," ADC_CH",E24),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>13</v>
+      </c>
+      <c r="G25" t="str">
+        <f>IF(C25&lt;&gt;"",CONCATENATE("#define ",C25," ",IF(D25=0,"LAT","PORT"),A25,"bits.",IF(D25=0,"LAT","R"),A25,B25),"")</f>
+        <v>#define PRESENCE_UTILISATEUR PORTDbits.RD5</v>
+      </c>
+      <c r="H25" t="str">
+        <f>IF(C25&lt;&gt;"",CONCATENATE("TRIS",A25,"bits.","R",A25,B25,"=",D25,"; //",C25),"")</f>
+        <v>TRISDbits.RD5=1; //PRESENCE_UTILISATEUR</v>
+      </c>
+      <c r="I25" t="str">
+        <f>IF(E25&lt;&gt;"",CONCATENATE("ANSEL",A25,"bits.","ANS",A25,B25,"=",D25,"; //",C25),"")</f>
+        <v>ANSELDbits.ANSD5=1; //PRESENCE_UTILISATEUR</v>
+      </c>
+      <c r="J25" t="str">
+        <f>IF(E25&lt;&gt;"",CONCATENATE("#define CH_",C25," ADC_CH",E25),"")</f>
+        <v>#define CH_PRESENCE_UTILISATEUR ADC_CH13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <f>IF(C26&lt;&gt;"",CONCATENATE("#define ",C26," ",IF(D26=0,"LAT","PORT"),A26,"bits.",IF(D26=0,"LAT","R"),A26,B26),"")</f>
+        <v>#define BOUTON_LIMITATION PORTDbits.RD5</v>
+      </c>
+      <c r="H26" t="str">
+        <f>IF(C26&lt;&gt;"",CONCATENATE("TRIS",A26,"bits.","R",A26,B26,"=",D26,"; //",C26),"")</f>
+        <v>TRISDbits.RD5=1; //BOUTON_LIMITATION</v>
+      </c>
+      <c r="I26" t="str">
+        <f>IF(E26&lt;&gt;"",CONCATENATE("ANSEL",A26,"bits.","ANS",A26,B26,"=",D26,"; //",C26),"")</f>
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <f>IF(E26&lt;&gt;"",CONCATENATE("#define CH_",C26," ADC_CH",E26),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
+        <f>IF(C27&lt;&gt;"",CONCATENATE("#define ",C27," ",IF(D27=0,"LAT","PORT"),A27,"bits.",IF(D27=0,"LAT","R"),A27,B27),"")</f>
+        <v>#define USART_TX2 LATDbits.LATD6</v>
+      </c>
+      <c r="H27" t="str">
+        <f>IF(C27&lt;&gt;"",CONCATENATE("TRIS",A27,"bits.","R",A27,B27,"=",D27,"; //",C27),"")</f>
+        <v>TRISDbits.RD6=0; //USART_TX2</v>
+      </c>
+      <c r="I27" t="str">
+        <f>IF(E27&lt;&gt;"",CONCATENATE("ANSEL",A27,"bits.","ANS",A27,B27,"=",D27,"; //",C27),"")</f>
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <f>IF(E27&lt;&gt;"",CONCATENATE("#define CH_",C27," ADC_CH",E27),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" ref="G28:G35" si="0">IF(C28&lt;&gt;"",CONCATENATE("#define ",C28," ",IF(D28=0,"LAT","PORT"),A28,"bits.",IF(D28=0,"LAT","R"),A28,B28),"")</f>
+        <v>#define USART_RX2 PORTDbits.RD7</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" ref="H28:H35" si="1">IF(C28&lt;&gt;"",CONCATENATE("TRIS",A28,"bits.","R",A28,B28,"=",D28,"; //",C28),"")</f>
+        <v>TRISDbits.RD7=1; //USART_RX2</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" ref="I28:I35" si="2">IF(E28&lt;&gt;"",CONCATENATE("ANSEL",A28,"bits.","ANS",A28,B28,"=",D28,"; //",C28),"")</f>
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" ref="J28:J35" si="3">IF(E28&lt;&gt;"",CONCATENATE("#define CH_",C28," ADC_CH",E28),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>#define POTENTIOMETRE_GUIDON PORTEbits.RE0</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>TRISEbits.RE0=1; //POTENTIOMETRE_GUIDON</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>ANSELEbits.ANSE0=1; //POTENTIOMETRE_GUIDON</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="3"/>
+        <v>#define CH_POTENTIOMETRE_GUIDON ADC_CH5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>#define BATTERIE PORTEbits.RE1</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>TRISEbits.RE1=1; //BATTERIE</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>ANSELEbits.ANSE1=1; //BATTERIE</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="3"/>
+        <v>#define CH_BATTERIE ADC_CH6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>#define ACC_CENTRIFUGE PORTEbits.RE2</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>TRISEbits.RE2=1; //ACC_CENTRIFUGE</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>ANSELEbits.ANSE2=1; //ACC_CENTRIFUGE</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="3"/>
+        <v>#define CH_ACC_CENTRIFUGE ADC_CH7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="7:10">
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="7:10">
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="7:10">
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="7:10">
+      <c r="G36" t="str">
+        <f>IF(C36&lt;&gt;"",CONCATENATE("#define ",C36," ",IF(D36=0,"LAT","PORT"),A36,"bits.",IF(D36=0,"LAT","R"),A36,B36),"")</f>
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <f>IF(C36&lt;&gt;"",CONCATENATE("TRIS",A36,"bits.","R",A36,B36,"=",D36,"; //",C36),"")</f>
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <f>IF(E36&lt;&gt;"",CONCATENATE("ANSEL",A36,"bits.","ANS",A36,B36,"=",D36,"; //",C36),"")</f>
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <f>IF(E36&lt;&gt;"",CONCATENATE("#define CH_",C36," ADC_CH",E36),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="7:10">
+      <c r="G37" t="str">
+        <f>IF(C37&lt;&gt;"",CONCATENATE("#define ",C37," ",IF(D37=1,"LAT","PORT"),A37,"bits.",IF(D37=1,"LAT","R"),A37,B37),"")</f>
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <f>IF(C37&lt;&gt;"",CONCATENATE("TRIS",A37,"bits.","R",A37,B37,"=",D37,"; //",C37),"")</f>
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <f>IF(E37&lt;&gt;"",CONCATENATE("ANSEL",A37,"bits.","ANS",A37,B37,"=",D37,"; //",C37),"")</f>
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <f>IF(E37&lt;&gt;"",CONCATENATE("#define CH_",C37," ADC_CH",E37),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="7:10">
+      <c r="I38" t="str">
+        <f>IF(E38&lt;&gt;"",CONCATENATE("ANSEL",A38,"bits.","ANS",A38,B38,"=",D38,"; //",C38),"")</f>
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <f>IF(E38&lt;&gt;"",CONCATENATE("#define CH_",C38," ADC_CH",E38),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="7:10">
+      <c r="I39" t="str">
+        <f>IF(E39&lt;&gt;"",CONCATENATE("ANSEL",A39,"bits.","ANS",A39,B39,"=",D39,"; //",C39),"")</f>
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <f>IF(E39&lt;&gt;"",CONCATENATE("#define CH_",C39," ADC_CH",E39),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="7:10">
+      <c r="I40" t="str">
+        <f>IF(E40&lt;&gt;"",CONCATENATE("ANSEL",A40,"bits.","ANS",A40,B40,"=",D40,"; //",C40),"")</f>
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <f>IF(E40&lt;&gt;"",CONCATENATE("#define CH_",C40," ADC_CH",E40),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="7:10">
+      <c r="I41" t="str">
+        <f>IF(E41&lt;&gt;"",CONCATENATE("ANSEL",A41,"bits.","ANS",A41,B41,"=",D41,"; //",C41),"")</f>
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <f>IF(E41&lt;&gt;"",CONCATENATE("#define CH_",C41," ADC_CH",E41),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="7:10">
+      <c r="I42" t="str">
+        <f>IF(E42&lt;&gt;"",CONCATENATE("ANSEL",A42,"bits.","ANS",A42,B42,"=",D42,"; //",C42),"")</f>
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <f>IF(E42&lt;&gt;"",CONCATENATE("#define CH_",C42," ADC_CH",E42),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="7:10">
+      <c r="I43" t="str">
+        <f>IF(E43&lt;&gt;"",CONCATENATE("ANSEL",A43,"bits.","ANS",A43,B43,"=",D43,"; //",C43),"")</f>
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <f>IF(E43&lt;&gt;"",CONCATENATE("#define CH_",C43," ADC_CH",E43),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="7:10">
+      <c r="I44" t="str">
+        <f>IF(E44&lt;&gt;"",CONCATENATE("ANSEL",A44,"bits.","ANS",A44,B44,"=",D44,"; //",C44),"")</f>
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <f>IF(E44&lt;&gt;"",CONCATENATE("#define CH_",C44," ADC_CH",E44),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="7:10">
+      <c r="I45" t="str">
+        <f>IF(E45&lt;&gt;"",CONCATENATE("ANSEL",A45,"bits.","ANS",A45,B45,"=",D45,"; //",C45),"")</f>
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <f>IF(E45&lt;&gt;"",CONCATENATE("#define CH_",C45," ADC_CH",E45),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="7:10">
+      <c r="I46" t="str">
+        <f>IF(E46&lt;&gt;"",CONCATENATE("ANSEL",A46,"bits.","ANS",A46,B46,"=",D46,"; //",C46),"")</f>
+        <v/>
+      </c>
+      <c r="J46" t="str">
+        <f>IF(E46&lt;&gt;"",CONCATENATE("#define CH_",C46," ADC_CH",E46),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="7:10">
+      <c r="I47" t="str">
+        <f>IF(E47&lt;&gt;"",CONCATENATE("ANSEL",A47,"bits.","ANS",A47,B47,"=",D47,"; //",C47),"")</f>
+        <v/>
+      </c>
+      <c r="J47" t="str">
+        <f>IF(E47&lt;&gt;"",CONCATENATE("#define CH_",C47," ADC_CH",E47),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="7:10">
+      <c r="G48" t="str">
+        <f>IF(C48&lt;&gt;"",CONCATENATE("#define ",C48," ",IF(D48=1,"LAT","PORT"),A48,"bits.",IF(D48=1,"LAT","R"),A48,B48),"")</f>
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <f>IF(C48&lt;&gt;"",CONCATENATE("TRIS",A48,"bits.","R",A48,B48,"=",D48,"; //",C48),"")</f>
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <f>IF(E48&lt;&gt;"",CONCATENATE("ANSEL",A48,"bits.","ANS",A48,B48,"=",D48,"; //",C48),"")</f>
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <f>IF(E48&lt;&gt;"",CONCATENATE("#define CH_",C48," ADC_CH",E48),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="7:10">
+      <c r="G49" t="str">
+        <f>IF(C49&lt;&gt;"",CONCATENATE("#define ",C49," ",IF(D49=1,"LAT","PORT"),A49,"bits.",IF(D49=1,"LAT","R"),A49,B49),"")</f>
+        <v/>
+      </c>
+      <c r="H49" t="str">
+        <f>IF(C49&lt;&gt;"",CONCATENATE("TRIS",A49,"bits.","R",A49,B49,"=",D49,"; //",C49),"")</f>
+        <v/>
+      </c>
+      <c r="I49" t="str">
+        <f>IF(E49&lt;&gt;"",CONCATENATE("ANSEL",A49,"bits.","ANS",A49,B49,"=",D49,"; //",C49),"")</f>
+        <v/>
+      </c>
+      <c r="J49" t="str">
+        <f>IF(E49&lt;&gt;"",CONCATENATE("#define CH_",C49," ADC_CH",E49),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="7:10">
+      <c r="G50" t="str">
+        <f>IF(C50&lt;&gt;"",CONCATENATE("#define ",C50," ",IF(D50=1,"LAT","PORT"),A50,"bits.",IF(D50=1,"LAT","R"),A50,B50),"")</f>
+        <v/>
+      </c>
+      <c r="H50" t="str">
+        <f>IF(C50&lt;&gt;"",CONCATENATE("TRIS",A50,"bits.","R",A50,B50,"=",D50,"; //",C50),"")</f>
+        <v/>
+      </c>
+      <c r="I50" t="str">
+        <f>IF(E50&lt;&gt;"",CONCATENATE("ANSEL",A50,"bits.","ANS",A50,B50,"=",D50,"; //",C50),"")</f>
+        <v/>
+      </c>
+      <c r="J50" t="str">
+        <f>IF(E50&lt;&gt;"",CONCATENATE("#define CH_",C50," ADC_CH",E50),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="7:10">
+      <c r="G51" t="str">
+        <f>IF(C51&lt;&gt;"",CONCATENATE("#define ",C51," ",IF(D51=1,"LAT","PORT"),A51,"bits.",IF(D51=1,"LAT","R"),A51,B51),"")</f>
+        <v/>
+      </c>
+      <c r="H51" t="str">
+        <f>IF(C51&lt;&gt;"",CONCATENATE("TRIS",A51,"bits.","R",A51,B51,"=",D51,"; //",C51),"")</f>
+        <v/>
+      </c>
+      <c r="I51" t="str">
+        <f>IF(E51&lt;&gt;"",CONCATENATE("ANSEL",A51,"bits.","ANS",A51,B51,"=",D51,"; //",C51),"")</f>
+        <v/>
+      </c>
+      <c r="J51" t="str">
+        <f>IF(E51&lt;&gt;"",CONCATENATE("#define CH_",C51," ADC_CH",E51),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="7:10">
+      <c r="G52" t="str">
+        <f>IF(C52&lt;&gt;"",CONCATENATE("#define ",C52," ",IF(D52=1,"LAT","PORT"),A52,"bits.",IF(D52=1,"LAT","R"),A52,B52),"")</f>
+        <v/>
+      </c>
+      <c r="H52" t="str">
+        <f>IF(C52&lt;&gt;"",CONCATENATE("TRIS",A52,"bits.","R",A52,B52,"=",D52,"; //",C52),"")</f>
+        <v/>
+      </c>
+      <c r="I52" t="str">
+        <f>IF(E52&lt;&gt;"",CONCATENATE("ANSEL",A52,"bits.","ANS",A52,B52,"=",D52,"; //",C52),"")</f>
+        <v/>
+      </c>
+      <c r="J52" t="str">
+        <f>IF(E52&lt;&gt;"",CONCATENATE("#define CH_",C52," ADC_CH",E52),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="7:10">
+      <c r="G53" t="str">
+        <f>IF(C53&lt;&gt;"",CONCATENATE("#define ",C53," ",IF(D53=1,"LAT","PORT"),A53,"bits.",IF(D53=1,"LAT","R"),A53,B53),"")</f>
+        <v/>
+      </c>
+      <c r="H53" t="str">
+        <f>IF(C53&lt;&gt;"",CONCATENATE("TRIS",A53,"bits.","R",A53,B53,"=",D53,"; //",C53),"")</f>
+        <v/>
+      </c>
+      <c r="I53" t="str">
+        <f>IF(E53&lt;&gt;"",CONCATENATE("ANSEL",A53,"bits.","ANS",A53,B53,"=",D53,"; //",C53),"")</f>
+        <v/>
+      </c>
+      <c r="J53" t="str">
+        <f>IF(E53&lt;&gt;"",CONCATENATE("#define CH_",C53," ADC_CH",E53),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="7:10">
+      <c r="G54" t="str">
+        <f>IF(C54&lt;&gt;"",CONCATENATE("#define ",C54," ",IF(D54=1,"LAT","PORT"),A54,"bits.",IF(D54=1,"LAT","R"),A54,B54),"")</f>
+        <v/>
+      </c>
+      <c r="H54" t="str">
+        <f>IF(C54&lt;&gt;"",CONCATENATE("TRIS",A54,"bits.","R",A54,B54,"=",D54,"; //",C54),"")</f>
+        <v/>
+      </c>
+      <c r="I54" t="str">
+        <f>IF(E54&lt;&gt;"",CONCATENATE("ANSEL",A54,"bits.","ANS",A54,B54,"=",D54,"; //",C54),"")</f>
+        <v/>
+      </c>
+      <c r="J54" t="str">
+        <f>IF(E54&lt;&gt;"",CONCATENATE("#define CH_",C54," ADC_CH",E54),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="7:10">
+      <c r="G55" t="str">
+        <f>IF(C55&lt;&gt;"",CONCATENATE("#define ",C55," ",IF(D55=1,"LAT","PORT"),A55,"bits.",IF(D55=1,"LAT","R"),A55,B55),"")</f>
+        <v/>
+      </c>
+      <c r="H55" t="str">
+        <f>IF(C55&lt;&gt;"",CONCATENATE("TRIS",A55,"bits.","R",A55,B55,"=",D55,"; //",C55),"")</f>
+        <v/>
+      </c>
+      <c r="I55" t="str">
+        <f>IF(E55&lt;&gt;"",CONCATENATE("ANSEL",A55,"bits.","ANS",A55,B55,"=",D55,"; //",C55),"")</f>
+        <v/>
+      </c>
+      <c r="J55" t="str">
+        <f>IF(E55&lt;&gt;"",CONCATENATE("#define CH_",C55," ADC_CH",E55),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="7:10">
+      <c r="G56" t="str">
+        <f>IF(C56&lt;&gt;"",CONCATENATE("#define ",C56," ",IF(D56=1,"LAT","PORT"),A56,"bits.",IF(D56=1,"LAT","R"),A56,B56),"")</f>
+        <v/>
+      </c>
+      <c r="H56" t="str">
+        <f>IF(C56&lt;&gt;"",CONCATENATE("TRIS",A56,"bits.","R",A56,B56,"=",D56,"; //",C56),"")</f>
+        <v/>
+      </c>
+      <c r="I56" t="str">
+        <f>IF(E56&lt;&gt;"",CONCATENATE("ANSEL",A56,"bits.","ANS",A56,B56,"=",D56,"; //",C56),"")</f>
+        <v/>
+      </c>
+      <c r="J56" t="str">
+        <f>IF(E56&lt;&gt;"",CONCATENATE("#define CH_",C56," ADC_CH",E56),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="7:10">
+      <c r="G57" t="str">
+        <f>IF(C57&lt;&gt;"",CONCATENATE("#define ",C57," ",IF(D57=1,"LAT","PORT"),A57,"bits.",IF(D57=1,"LAT","R"),A57,B57),"")</f>
+        <v/>
+      </c>
+      <c r="H57" t="str">
+        <f>IF(C57&lt;&gt;"",CONCATENATE("TRIS",A57,"bits.","R",A57,B57,"=",D57,"; //",C57),"")</f>
+        <v/>
+      </c>
+      <c r="I57" t="str">
+        <f>IF(E57&lt;&gt;"",CONCATENATE("ANSEL",A57,"bits.","ANS",A57,B57,"=",D57,"; //",C57),"")</f>
+        <v/>
+      </c>
+      <c r="J57" t="str">
+        <f>IF(E57&lt;&gt;"",CONCATENATE("#define CH_",C57," ADC_CH",E57),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="7:10">
+      <c r="G58" t="str">
+        <f>IF(C58&lt;&gt;"",CONCATENATE("#define ",C58," ",IF(D58=1,"LAT","PORT"),A58,"bits.",IF(D58=1,"LAT","R"),A58,B58),"")</f>
+        <v/>
+      </c>
+      <c r="H58" t="str">
+        <f>IF(C58&lt;&gt;"",CONCATENATE("TRIS",A58,"bits.","R",A58,B58,"=",D58,"; //",C58),"")</f>
+        <v/>
+      </c>
+      <c r="I58" t="str">
+        <f>IF(E58&lt;&gt;"",CONCATENATE("ANSEL",A58,"bits.","ANS",A58,B58,"=",D58,"; //",C58),"")</f>
+        <v/>
+      </c>
+      <c r="J58" t="str">
+        <f>IF(E58&lt;&gt;"",CONCATENATE("#define CH_",C58," ADC_CH",E58),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="7:10">
+      <c r="G59" t="str">
+        <f>IF(C59&lt;&gt;"",CONCATENATE("#define ",C59," ",IF(D59=1,"LAT","PORT"),A59,"bits.",IF(D59=1,"LAT","R"),A59,B59),"")</f>
+        <v/>
+      </c>
+      <c r="H59" t="str">
+        <f>IF(C59&lt;&gt;"",CONCATENATE("TRIS",A59,"bits.","R",A59,B59,"=",D59,"; //",C59),"")</f>
+        <v/>
+      </c>
+      <c r="I59" t="str">
+        <f>IF(E59&lt;&gt;"",CONCATENATE("ANSEL",A59,"bits.","ANS",A59,B59,"=",D59,"; //",C59),"")</f>
+        <v/>
+      </c>
+      <c r="J59" t="str">
+        <f>IF(E59&lt;&gt;"",CONCATENATE("#define CH_",C59," ADC_CH",E59),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="7:10">
+      <c r="G60" t="str">
+        <f>IF(C60&lt;&gt;"",CONCATENATE("#define ",C60," ",IF(D60=1,"LAT","PORT"),A60,"bits.",IF(D60=1,"LAT","R"),A60,B60),"")</f>
+        <v/>
+      </c>
+      <c r="H60" t="str">
+        <f>IF(C60&lt;&gt;"",CONCATENATE("TRIS",A60,"bits.","R",A60,B60,"=",D60,"; //",C60),"")</f>
+        <v/>
+      </c>
+      <c r="I60" t="str">
+        <f>IF(E60&lt;&gt;"",CONCATENATE("ANSEL",A60,"bits.","ANS",A60,B60,"=",D60,"; //",C60),"")</f>
+        <v/>
+      </c>
+      <c r="J60" t="str">
+        <f>IF(E60&lt;&gt;"",CONCATENATE("#define CH_",C60," ADC_CH",E60),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="7:10">
+      <c r="G61" t="str">
+        <f>IF(C61&lt;&gt;"",CONCATENATE("#define ",C61," ",IF(D61=1,"LAT","PORT"),A61,"bits.",IF(D61=1,"LAT","R"),A61,B61),"")</f>
+        <v/>
+      </c>
+      <c r="H61" t="str">
+        <f>IF(C61&lt;&gt;"",CONCATENATE("TRIS",A61,"bits.","R",A61,B61,"=",D61,"; //",C61),"")</f>
+        <v/>
+      </c>
+      <c r="I61" t="str">
+        <f>IF(E61&lt;&gt;"",CONCATENATE("ANSEL",A61,"bits.","ANS",A61,B61,"=",D61,"; //",C61),"")</f>
+        <v/>
+      </c>
+      <c r="J61" t="str">
+        <f>IF(E61&lt;&gt;"",CONCATENATE("#define CH_",C61," ADC_CH",E61),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="7:10">
+      <c r="G62" t="str">
+        <f>IF(C62&lt;&gt;"",CONCATENATE("#define ",C62," ",IF(D62=1,"LAT","PORT"),A62,"bits.",IF(D62=1,"LAT","R"),A62,B62),"")</f>
+        <v/>
+      </c>
+      <c r="H62" t="str">
+        <f>IF(C62&lt;&gt;"",CONCATENATE("TRIS",A62,"bits.","R",A62,B62,"=",D62,"; //",C62),"")</f>
+        <v/>
+      </c>
+      <c r="I62" t="str">
+        <f>IF(E62&lt;&gt;"",CONCATENATE("ANSEL",A62,"bits.","ANS",A62,B62,"=",D62,"; //",C62),"")</f>
+        <v/>
+      </c>
+      <c r="J62" t="str">
+        <f>IF(E62&lt;&gt;"",CONCATENATE("#define CH_",C62," ADC_CH",E62),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="7:10">
+      <c r="G63" t="str">
+        <f>IF(C63&lt;&gt;"",CONCATENATE("#define ",C63," ",IF(D63=1,"LAT","PORT"),A63,"bits.",IF(D63=1,"LAT","R"),A63,B63),"")</f>
+        <v/>
+      </c>
+      <c r="H63" t="str">
+        <f>IF(C63&lt;&gt;"",CONCATENATE("TRIS",A63,"bits.","R",A63,B63,"=",D63,"; //",C63),"")</f>
+        <v/>
+      </c>
+      <c r="I63" t="str">
+        <f>IF(E63&lt;&gt;"",CONCATENATE("ANSEL",A63,"bits.","ANS",A63,B63,"=",D63,"; //",C63),"")</f>
+        <v/>
+      </c>
+      <c r="J63" t="str">
+        <f>IF(E63&lt;&gt;"",CONCATENATE("#define CH_",C63," ADC_CH",E63),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="7:10">
+      <c r="G64" t="str">
+        <f>IF(C64&lt;&gt;"",CONCATENATE("#define ",C64," ",IF(D64=1,"LAT","PORT"),A64,"bits.",IF(D64=1,"LAT","R"),A64,B64),"")</f>
+        <v/>
+      </c>
+      <c r="H64" t="str">
+        <f>IF(C64&lt;&gt;"",CONCATENATE("TRIS",A64,"bits.","R",A64,B64,"=",D64,"; //",C64),"")</f>
+        <v/>
+      </c>
+      <c r="I64" t="str">
+        <f>IF(E64&lt;&gt;"",CONCATENATE("ANSEL",A64,"bits.","ANS",A64,B64,"=",D64,"; //",C64),"")</f>
+        <v/>
+      </c>
+      <c r="J64" t="str">
+        <f>IF(E64&lt;&gt;"",CONCATENATE("#define CH_",C64," ADC_CH",E64),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="7:10">
+      <c r="G65" t="str">
+        <f>IF(C65&lt;&gt;"",CONCATENATE("#define ",C65," ",IF(D65=1,"LAT","PORT"),A65,"bits.",IF(D65=1,"LAT","R"),A65,B65),"")</f>
+        <v/>
+      </c>
+      <c r="H65" t="str">
+        <f>IF(C65&lt;&gt;"",CONCATENATE("TRIS",A65,"bits.","R",A65,B65,"=",D65,"; //",C65),"")</f>
+        <v/>
+      </c>
+      <c r="I65" t="str">
+        <f>IF(E65&lt;&gt;"",CONCATENATE("ANSEL",A65,"bits.","ANS",A65,B65,"=",D65,"; //",C65),"")</f>
+        <v/>
+      </c>
+      <c r="J65" t="str">
+        <f>IF(E65&lt;&gt;"",CONCATENATE("#define CH_",C65," ADC_CH",E65),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="7:10">
+      <c r="G66" t="str">
+        <f>IF(C66&lt;&gt;"",CONCATENATE("#define ",C66," ",IF(D66=1,"LAT","PORT"),A66,"bits.",IF(D66=1,"LAT","R"),A66,B66),"")</f>
+        <v/>
+      </c>
+      <c r="H66" t="str">
+        <f>IF(C66&lt;&gt;"",CONCATENATE("TRIS",A66,"bits.","R",A66,B66,"=",D66,"; //",C66),"")</f>
+        <v/>
+      </c>
+      <c r="I66" t="str">
+        <f>IF(E66&lt;&gt;"",CONCATENATE("ANSEL",A66,"bits.","ANS",A66,B66,"=",D66,"; //",C66),"")</f>
+        <v/>
+      </c>
+      <c r="J66" t="str">
+        <f>IF(E66&lt;&gt;"",CONCATENATE("#define CH_",C66," ADC_CH",E66),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="7:10">
+      <c r="G67" t="str">
+        <f>IF(C67&lt;&gt;"",CONCATENATE("#define ",C67," ",IF(D67=1,"LAT","PORT"),A67,"bits.",IF(D67=1,"LAT","R"),A67,B67),"")</f>
+        <v/>
+      </c>
+      <c r="H67" t="str">
+        <f>IF(C67&lt;&gt;"",CONCATENATE("TRIS",A67,"bits.","R",A67,B67,"=",D67,"; //",C67),"")</f>
+        <v/>
+      </c>
+      <c r="I67" t="str">
+        <f>IF(E67&lt;&gt;"",CONCATENATE("ANSEL",A67,"bits.","ANS",A67,B67,"=",D67,"; //",C67),"")</f>
+        <v/>
+      </c>
+      <c r="J67" t="str">
+        <f>IF(E67&lt;&gt;"",CONCATENATE("#define CH_",C67," ADC_CH",E67),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="7:10">
+      <c r="G68" t="str">
+        <f>IF(C68&lt;&gt;"",CONCATENATE("#define ",C68," ",IF(D68=1,"LAT","PORT"),A68,"bits.",IF(D68=1,"LAT","R"),A68,B68),"")</f>
+        <v/>
+      </c>
+      <c r="H68" t="str">
+        <f>IF(C68&lt;&gt;"",CONCATENATE("TRIS",A68,"bits.","R",A68,B68,"=",D68,"; //",C68),"")</f>
+        <v/>
+      </c>
+      <c r="I68" t="str">
+        <f>IF(E68&lt;&gt;"",CONCATENATE("ANSEL",A68,"bits.","ANS",A68,B68,"=",D68,"; //",C68),"")</f>
+        <v/>
+      </c>
+      <c r="J68" t="str">
+        <f>IF(E68&lt;&gt;"",CONCATENATE("#define CH_",C68," ADC_CH",E68),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="7:10">
+      <c r="G69" t="str">
+        <f>IF(C69&lt;&gt;"",CONCATENATE("#define ",C69," ",IF(D69=1,"LAT","PORT"),A69,"bits.",IF(D69=1,"LAT","R"),A69,B69),"")</f>
+        <v/>
+      </c>
+      <c r="H69" t="str">
+        <f>IF(C69&lt;&gt;"",CONCATENATE("TRIS",A69,"bits.","R",A69,B69,"=",D69,"; //",C69),"")</f>
+        <v/>
+      </c>
+      <c r="I69" t="str">
+        <f>IF(E69&lt;&gt;"",CONCATENATE("ANSEL",A69,"bits.","ANS",A69,B69,"=",D69,"; //",C69),"")</f>
+        <v/>
+      </c>
+      <c r="J69" t="str">
+        <f>IF(E69&lt;&gt;"",CONCATENATE("#define CH_",C69," ADC_CH",E69),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="7:10">
+      <c r="G70" t="str">
+        <f>IF(C70&lt;&gt;"",CONCATENATE("#define ",C70," ",IF(D70=1,"LAT","PORT"),A70,"bits.",IF(D70=1,"LAT","R"),A70,B70),"")</f>
+        <v/>
+      </c>
+      <c r="H70" t="str">
+        <f>IF(C70&lt;&gt;"",CONCATENATE("TRIS",A70,"bits.","R",A70,B70,"=",D70,"; //",C70),"")</f>
+        <v/>
+      </c>
+      <c r="I70" t="str">
+        <f>IF(E70&lt;&gt;"",CONCATENATE("ANSEL",A70,"bits.","ANS",A70,B70,"=",D70,"; //",C70),"")</f>
+        <v/>
+      </c>
+      <c r="J70" t="str">
+        <f>IF(E70&lt;&gt;"",CONCATENATE("#define CH_",C70," ADC_CH",E70),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="7:10">
+      <c r="G71" t="str">
+        <f>IF(C71&lt;&gt;"",CONCATENATE("#define ",C71," ",IF(D71=1,"LAT","PORT"),A71,"bits.",IF(D71=1,"LAT","R"),A71,B71),"")</f>
+        <v/>
+      </c>
+      <c r="H71" t="str">
+        <f>IF(C71&lt;&gt;"",CONCATENATE("TRIS",A71,"bits.","R",A71,B71,"=",D71,"; //",C71),"")</f>
+        <v/>
+      </c>
+      <c r="I71" t="str">
+        <f>IF(E71&lt;&gt;"",CONCATENATE("ANSEL",A71,"bits.","ANS",A71,B71,"=",D71,"; //",C71),"")</f>
+        <v/>
+      </c>
+      <c r="J71" t="str">
+        <f>IF(E71&lt;&gt;"",CONCATENATE("#define CH_",C71," ADC_CH",E71),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="7:10">
+      <c r="G72" t="str">
+        <f>IF(C72&lt;&gt;"",CONCATENATE("#define ",C72," ",IF(D72=1,"LAT","PORT"),A72,"bits.",IF(D72=1,"LAT","R"),A72,B72),"")</f>
+        <v/>
+      </c>
+      <c r="H72" t="str">
+        <f>IF(C72&lt;&gt;"",CONCATENATE("TRIS",A72,"bits.","R",A72,B72,"=",D72,"; //",C72),"")</f>
+        <v/>
+      </c>
+      <c r="I72" t="str">
+        <f>IF(E72&lt;&gt;"",CONCATENATE("ANSEL",A72,"bits.","ANS",A72,B72,"=",D72,"; //",C72),"")</f>
+        <v/>
+      </c>
+      <c r="J72" t="str">
+        <f>IF(E72&lt;&gt;"",CONCATENATE("#define CH_",C72," ADC_CH",E72),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="7:10">
+      <c r="G73" t="str">
+        <f>IF(C73&lt;&gt;"",CONCATENATE("#define ",C73," ",IF(D73=1,"LAT","PORT"),A73,"bits.",IF(D73=1,"LAT","R"),A73,B73),"")</f>
+        <v/>
+      </c>
+      <c r="H73" t="str">
+        <f>IF(C73&lt;&gt;"",CONCATENATE("TRIS",A73,"bits.","R",A73,B73,"=",D73,"; //",C73),"")</f>
+        <v/>
+      </c>
+      <c r="I73" t="str">
+        <f>IF(E73&lt;&gt;"",CONCATENATE("ANSEL",A73,"bits.","ANS",A73,B73,"=",D73,"; //",C73),"")</f>
+        <v/>
+      </c>
+      <c r="J73" t="str">
+        <f>IF(E73&lt;&gt;"",CONCATENATE("#define CH_",C73," ADC_CH",E73),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="7:10">
+      <c r="G74" t="str">
+        <f>IF(C74&lt;&gt;"",CONCATENATE("#define ",C74," ",IF(D74=1,"LAT","PORT"),A74,"bits.",IF(D74=1,"LAT","R"),A74,B74),"")</f>
+        <v/>
+      </c>
+      <c r="H74" t="str">
+        <f>IF(C74&lt;&gt;"",CONCATENATE("TRIS",A74,"bits.","R",A74,B74,"=",D74,"; //",C74),"")</f>
+        <v/>
+      </c>
+      <c r="I74" t="str">
+        <f>IF(E74&lt;&gt;"",CONCATENATE("ANSEL",A74,"bits.","ANS",A74,B74,"=",D74,"; //",C74),"")</f>
+        <v/>
+      </c>
+      <c r="J74" t="str">
+        <f>IF(E74&lt;&gt;"",CONCATENATE("#define CH_",C74," ADC_CH",E74),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="7:10">
+      <c r="G75" t="str">
+        <f>IF(C75&lt;&gt;"",CONCATENATE("#define ",C75," ",IF(D75=1,"LAT","PORT"),A75,"bits.",IF(D75=1,"LAT","R"),A75,B75),"")</f>
+        <v/>
+      </c>
+      <c r="H75" t="str">
+        <f>IF(C75&lt;&gt;"",CONCATENATE("TRIS",A75,"bits.","R",A75,B75,"=",D75,"; //",C75),"")</f>
+        <v/>
+      </c>
+      <c r="I75" t="str">
+        <f>IF(E75&lt;&gt;"",CONCATENATE("ANSEL",A75,"bits.","ANS",A75,B75,"=",D75,"; //",C75),"")</f>
+        <v/>
+      </c>
+      <c r="J75" t="str">
+        <f>IF(E75&lt;&gt;"",CONCATENATE("#define CH_",C75," ADC_CH",E75),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="7:10">
+      <c r="G76" t="str">
+        <f>IF(C76&lt;&gt;"",CONCATENATE("#define ",C76," ",IF(D76=1,"LAT","PORT"),A76,"bits.",IF(D76=1,"LAT","R"),A76,B76),"")</f>
+        <v/>
+      </c>
+      <c r="H76" t="str">
+        <f>IF(C76&lt;&gt;"",CONCATENATE("TRIS",A76,"bits.","R",A76,B76,"=",D76,"; //",C76),"")</f>
+        <v/>
+      </c>
+      <c r="I76" t="str">
+        <f>IF(E76&lt;&gt;"",CONCATENATE("ANSEL",A76,"bits.","ANS",A76,B76,"=",D76,"; //",C76),"")</f>
+        <v/>
+      </c>
+      <c r="J76" t="str">
+        <f>IF(E76&lt;&gt;"",CONCATENATE("#define CH_",C76," ADC_CH",E76),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="7:10">
+      <c r="G77" t="str">
+        <f>IF(C77&lt;&gt;"",CONCATENATE("#define ",C77," ",IF(D77=1,"LAT","PORT"),A77,"bits.",IF(D77=1,"LAT","R"),A77,B77),"")</f>
+        <v/>
+      </c>
+      <c r="H77" t="str">
+        <f>IF(C77&lt;&gt;"",CONCATENATE("TRIS",A77,"bits.","R",A77,B77,"=",D77,"; //",C77),"")</f>
+        <v/>
+      </c>
+      <c r="I77" t="str">
+        <f>IF(E77&lt;&gt;"",CONCATENATE("ANSEL",A77,"bits.","ANS",A77,B77,"=",D77,"; //",C77),"")</f>
+        <v/>
+      </c>
+      <c r="J77" t="str">
+        <f>IF(E77&lt;&gt;"",CONCATENATE("#define CH_",C77," ADC_CH",E77),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="7:10">
+      <c r="G78" t="str">
+        <f>IF(C78&lt;&gt;"",CONCATENATE("#define ",C78," ",IF(D78=1,"LAT","PORT"),A78,"bits.",IF(D78=1,"LAT","R"),A78,B78),"")</f>
+        <v/>
+      </c>
+      <c r="H78" t="str">
+        <f>IF(C78&lt;&gt;"",CONCATENATE("TRIS",A78,"bits.","R",A78,B78,"=",D78,"; //",C78),"")</f>
+        <v/>
+      </c>
+      <c r="I78" t="str">
+        <f>IF(E78&lt;&gt;"",CONCATENATE("ANSEL",A78,"bits.","ANS",A78,B78,"=",D78,"; //",C78),"")</f>
+        <v/>
+      </c>
+      <c r="J78" t="str">
+        <f>IF(E78&lt;&gt;"",CONCATENATE("#define CH_",C78," ADC_CH",E78),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="7:10">
+      <c r="G79" t="str">
+        <f>IF(C79&lt;&gt;"",CONCATENATE("#define ",C79," ",IF(D79=1,"LAT","PORT"),A79,"bits.",IF(D79=1,"LAT","R"),A79,B79),"")</f>
+        <v/>
+      </c>
+      <c r="H79" t="str">
+        <f>IF(C79&lt;&gt;"",CONCATENATE("TRIS",A79,"bits.","R",A79,B79,"=",D79,"; //",C79),"")</f>
+        <v/>
+      </c>
+      <c r="I79" t="str">
+        <f>IF(E79&lt;&gt;"",CONCATENATE("ANSEL",A79,"bits.","ANS",A79,B79,"=",D79,"; //",C79),"")</f>
+        <v/>
+      </c>
+      <c r="J79" t="str">
+        <f>IF(E79&lt;&gt;"",CONCATENATE("#define CH_",C79," ADC_CH",E79),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="7:10">
+      <c r="G80" t="str">
+        <f>IF(C80&lt;&gt;"",CONCATENATE("#define ",C80," ",IF(D80=1,"LAT","PORT"),A80,"bits.",IF(D80=1,"LAT","R"),A80,B80),"")</f>
+        <v/>
+      </c>
+      <c r="H80" t="str">
+        <f>IF(C80&lt;&gt;"",CONCATENATE("TRIS",A80,"bits.","R",A80,B80,"=",D80,"; //",C80),"")</f>
+        <v/>
+      </c>
+      <c r="I80" t="str">
+        <f>IF(E80&lt;&gt;"",CONCATENATE("ANSEL",A80,"bits.","ANS",A80,B80,"=",D80,"; //",C80),"")</f>
+        <v/>
+      </c>
+      <c r="J80" t="str">
+        <f>IF(E80&lt;&gt;"",CONCATENATE("#define CH_",C80," ADC_CH",E80),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="7:10">
+      <c r="G81" t="str">
+        <f>IF(C81&lt;&gt;"",CONCATENATE("#define ",C81," ",IF(D81=1,"LAT","PORT"),A81,"bits.",IF(D81=1,"LAT","R"),A81,B81),"")</f>
+        <v/>
+      </c>
+      <c r="H81" t="str">
+        <f>IF(C81&lt;&gt;"",CONCATENATE("TRIS",A81,"bits.","R",A81,B81,"=",D81,"; //",C81),"")</f>
+        <v/>
+      </c>
+      <c r="I81" t="str">
+        <f>IF(E81&lt;&gt;"",CONCATENATE("ANSEL",A81,"bits.","ANS",A81,B81,"=",D81,"; //",C81),"")</f>
+        <v/>
+      </c>
+      <c r="J81" t="str">
+        <f>IF(E81&lt;&gt;"",CONCATENATE("#define CH_",C81," ADC_CH",E81),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="7:10">
+      <c r="G82" t="str">
+        <f>IF(C82&lt;&gt;"",CONCATENATE("#define ",C82," ",IF(D82=1,"LAT","PORT"),A82,"bits.",IF(D82=1,"LAT","R"),A82,B82),"")</f>
+        <v/>
+      </c>
+      <c r="H82" t="str">
+        <f>IF(C82&lt;&gt;"",CONCATENATE("TRIS",A82,"bits.","R",A82,B82,"=",D82,"; //",C82),"")</f>
+        <v/>
+      </c>
+      <c r="I82" t="str">
+        <f>IF(E82&lt;&gt;"",CONCATENATE("ANSEL",A82,"bits.","ANS",A82,B82,"=",D82,"; //",C82),"")</f>
+        <v/>
+      </c>
+      <c r="J82" t="str">
+        <f>IF(E82&lt;&gt;"",CONCATENATE("#define CH_",C82," ADC_CH",E82),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="7:10">
+      <c r="G83" t="str">
+        <f>IF(C83&lt;&gt;"",CONCATENATE("#define ",C83," ",IF(D83=1,"LAT","PORT"),A83,"bits.",IF(D83=1,"LAT","R"),A83,B83),"")</f>
+        <v/>
+      </c>
+      <c r="H83" t="str">
+        <f>IF(C83&lt;&gt;"",CONCATENATE("TRIS",A83,"bits.","R",A83,B83,"=",D83,"; //",C83),"")</f>
+        <v/>
+      </c>
+      <c r="I83" t="str">
+        <f>IF(E83&lt;&gt;"",CONCATENATE("ANSEL",A83,"bits.","ANS",A83,B83,"=",D83,"; //",C83),"")</f>
+        <v/>
+      </c>
+      <c r="J83" t="str">
+        <f>IF(E83&lt;&gt;"",CONCATENATE("#define CH_",C83," ADC_CH",E83),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="7:10">
+      <c r="G84" t="str">
+        <f>IF(C84&lt;&gt;"",CONCATENATE("#define ",C84," ",IF(D84=1,"LAT","PORT"),A84,"bits.",IF(D84=1,"LAT","R"),A84,B84),"")</f>
+        <v/>
+      </c>
+      <c r="H84" t="str">
+        <f>IF(C84&lt;&gt;"",CONCATENATE("TRIS",A84,"bits.","R",A84,B84,"=",D84,"; //",C84),"")</f>
+        <v/>
+      </c>
+      <c r="I84" t="str">
+        <f>IF(E84&lt;&gt;"",CONCATENATE("ANSEL",A84,"bits.","ANS",A84,B84,"=",D84,"; //",C84),"")</f>
+        <v/>
+      </c>
+      <c r="J84" t="str">
+        <f>IF(E84&lt;&gt;"",CONCATENATE("#define CH_",C84," ADC_CH",E84),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="7:10">
+      <c r="G85" t="str">
+        <f>IF(C85&lt;&gt;"",CONCATENATE("#define ",C85," ",IF(D85=1,"LAT","PORT"),A85,"bits.",IF(D85=1,"LAT","R"),A85,B85),"")</f>
+        <v/>
+      </c>
+      <c r="H85" t="str">
+        <f>IF(C85&lt;&gt;"",CONCATENATE("TRIS",A85,"bits.","R",A85,B85,"=",D85,"; //",C85),"")</f>
+        <v/>
+      </c>
+      <c r="I85" t="str">
+        <f>IF(E85&lt;&gt;"",CONCATENATE("ANSEL",A85,"bits.","ANS",A85,B85,"=",D85,"; //",C85),"")</f>
+        <v/>
+      </c>
+      <c r="J85" t="str">
+        <f>IF(E85&lt;&gt;"",CONCATENATE("#define CH_",C85," ADC_CH",E85),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="7:10">
+      <c r="G86" t="str">
+        <f>IF(C86&lt;&gt;"",CONCATENATE("#define ",C86," ",IF(D86=1,"LAT","PORT"),A86,"bits.",IF(D86=1,"LAT","R"),A86,B86),"")</f>
+        <v/>
+      </c>
+      <c r="H86" t="str">
+        <f>IF(C86&lt;&gt;"",CONCATENATE("TRIS",A86,"bits.","R",A86,B86,"=",D86,"; //",C86),"")</f>
+        <v/>
+      </c>
+      <c r="I86" t="str">
+        <f>IF(E86&lt;&gt;"",CONCATENATE("ANSEL",A86,"bits.","ANS",A86,B86,"=",D86,"; //",C86),"")</f>
+        <v/>
+      </c>
+      <c r="J86" t="str">
+        <f>IF(E86&lt;&gt;"",CONCATENATE("#define CH_",C86," ADC_CH",E86),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:J86">
+    <sortCondition ref="A2:A86"/>
+    <sortCondition ref="B2:B86"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ProgrammePrincipal/generateur de noms de trame.xlsx
+++ b/ProgrammePrincipal/generateur de noms de trame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="COM" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
   <si>
     <t>CON</t>
   </si>
@@ -183,9 +183,6 @@
     <t>BATTERIE</t>
   </si>
   <si>
-    <t>PRESENCE_UTILISATEUR</t>
-  </si>
-  <si>
     <t>CODEUR_A_GAUCHE</t>
   </si>
   <si>
@@ -241,6 +238,27 @@
   </si>
   <si>
     <t>LED_CENTRE_VERTE</t>
+  </si>
+  <si>
+    <t>ULTRASON_INT</t>
+  </si>
+  <si>
+    <t>ULTRASON_TRIG</t>
+  </si>
+  <si>
+    <t>VREF_MOINS</t>
+  </si>
+  <si>
+    <t>VREF_PLUS</t>
+  </si>
+  <si>
+    <t>MCLR_VPP</t>
+  </si>
+  <si>
+    <t>SDA2_RES</t>
+  </si>
+  <si>
+    <t>SCL2_RES</t>
   </si>
 </sst>
 </file>
@@ -630,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:F36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -646,7 +664,7 @@
     <col min="6" max="6" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1">
+    <row r="1" spans="1:7" s="5" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -664,7 +682,7 @@
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -685,8 +703,12 @@
         <f>IF(A2&lt;&gt;"",CONCATENATE("#define LG_TRAME_",A2,"_",B2," ",D2),"")</f>
         <v>#define LG_TRAME_CON_COUPLEG 1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="str">
+        <f>IF(A2&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",A2,"_",B2,": ","curTrameLength= LG_TRAME_",A2,"_",B2," ; break;"),"")</f>
+        <v>case TYPE_TRAME_CON_COUPLEG: curTrameLength= LG_TRAME_CON_COUPLEG ; break;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -707,8 +729,12 @@
         <f t="shared" ref="F3:F58" si="1">IF(A3&lt;&gt;"",CONCATENATE("#define LG_TRAME_",A3,"_",B3," ",D3),"")</f>
         <v>#define LG_TRAME_CON_COUPLED 1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G65" si="2">IF(A3&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",A3,"_",B3,": ","curTrameLength= LG_TRAME_",A3,"_",B3," ; break;"),"")</f>
+        <v>case TYPE_TRAME_CON_COUPLED: curTrameLength= LG_TRAME_CON_COUPLED ; break;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -729,8 +755,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_COUPLEG 1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_COUPLEG: curTrameLength= LG_TRAME_INF_COUPLEG ; break;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -751,8 +781,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_COUPLED 1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_COUPLED: curTrameLength= LG_TRAME_INF_COUPLED ; break;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -773,8 +807,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ERREUR_CARTE_COURANT 1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_ERREUR_CARTE_COURANT: curTrameLength= LG_TRAME_INF_ERREUR_CARTE_COURANT ; break;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="E7" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -783,8 +821,12 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -805,8 +847,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_VITESSEG 2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_VITESSEG: curTrameLength= LG_TRAME_INF_VITESSEG ; break;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -827,8 +873,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_VITESSED 2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_VITESSED: curTrameLength= LG_TRAME_INF_VITESSED ; break;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -849,8 +899,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_PID_K 2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_PRINC_PID_K: curTrameLength= LG_TRAME_INF_PRINC_PID_K ; break;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -871,8 +925,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_PRINC_PID_K 2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_PRINC_PID_K: curTrameLength= LG_TRAME_CON_PRINC_PID_K ; break;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -893,8 +951,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_PID_I 2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_PRINC_PID_I: curTrameLength= LG_TRAME_INF_PRINC_PID_I ; break;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -915,8 +977,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_PRINC_PID_I 2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_PRINC_PID_I: curTrameLength= LG_TRAME_CON_PRINC_PID_I ; break;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -937,8 +1003,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_PID_D 2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_PRINC_PID_D: curTrameLength= LG_TRAME_INF_PRINC_PID_D ; break;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -959,8 +1029,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_PRINC_PID_D 2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_PRINC_PID_D: curTrameLength= LG_TRAME_CON_PRINC_PID_D ; break;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -981,8 +1055,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_DIR 2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_PRINC_DIR: curTrameLength= LG_TRAME_INF_PRINC_DIR ; break;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -1003,8 +1081,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_PRINC_DIR 2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_PRINC_DIR: curTrameLength= LG_TRAME_CON_PRINC_DIR ; break;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1107,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ANGLE 2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_ANGLE: curTrameLength= LG_TRAME_INF_ANGLE ; break;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1047,8 +1133,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_VITESSE_ANGULAIRE 2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_VITESSE_ANGULAIRE: curTrameLength= LG_TRAME_INF_VITESSE_ANGULAIRE ; break;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -1069,8 +1159,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ACCELERATION 2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_ACCELERATION: curTrameLength= LG_TRAME_INF_ACCELERATION ; break;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -1091,8 +1185,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_ACCELERATION_COEF_FILTRE 2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_ACCELERATION_COEF_FILTRE: curTrameLength= LG_TRAME_CON_ACCELERATION_COEF_FILTRE ; break;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -1113,8 +1211,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_COEF_KALMAN 1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_COEF_KALMAN: curTrameLength= LG_TRAME_INF_COEF_KALMAN ; break;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1135,8 +1237,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_COEF_KALMAN 1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_COEF_KALMAN: curTrameLength= LG_TRAME_CON_COEF_KALMAN ; break;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1157,8 +1263,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_SAUVEGARDER_COEF 0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_SAUVEGARDER_COEF: curTrameLength= LG_TRAME_CON_SAUVEGARDER_COEF ; break;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
@@ -1179,8 +1289,12 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_DISTANCE_PARCOURUE 2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_DISTANCE_PARCOURUE: curTrameLength= LG_TRAME_INF_DISTANCE_PARCOURUE ; break;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
@@ -1201,18 +1315,26 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ETAT_BATTERIE 2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_ETAT_BATTERIE: curTrameLength= LG_TRAME_INF_ETAT_BATTERIE ; break;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="E27" s="1" t="str">
-        <f t="shared" ref="E27:E74" si="2">IF(A27&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",A27,"_",B27," ",IF(A27="CON",128,0)+C27),"")</f>
+        <f t="shared" ref="E27:E74" si="3">IF(A27&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",A27,"_",B27," ",IF(A27="CON",128,0)+C27),"")</f>
         <v/>
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
@@ -1226,15 +1348,19 @@
         <v>0</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#define TYPE_TRAME_CON_STOP 153</v>
       </c>
       <c r="F28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_STOP 0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_STOP: curTrameLength= LG_TRAME_CON_STOP ; break;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1248,15 +1374,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#define TYPE_TRAME_CON_DEPART 154</v>
       </c>
       <c r="F29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_DEPART 0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_DEPART: curTrameLength= LG_TRAME_CON_DEPART ; break;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
@@ -1270,15 +1400,19 @@
         <v>0</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#define TYPE_TRAME_INF_PRET 25</v>
       </c>
       <c r="F30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRET 0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_PRET: curTrameLength= LG_TRAME_INF_PRET ; break;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -1292,15 +1426,19 @@
         <v>1</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#define TYPE_TRAME_INF_ETAT 26</v>
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ETAT 1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_ETAT: curTrameLength= LG_TRAME_INF_ETAT ; break;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
@@ -1314,15 +1452,19 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#define TYPE_TRAME_CON_TEST_COM 155</v>
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_TEST_COM 1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_TEST_COM: curTrameLength= LG_TRAME_CON_TEST_COM ; break;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -1336,15 +1478,19 @@
         <v>2</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#define TYPE_TRAME_INF_SATURATION_VITESSE 28</v>
       </c>
       <c r="F33" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_SATURATION_VITESSE 2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_SATURATION_VITESSE: curTrameLength= LG_TRAME_INF_SATURATION_VITESSE ; break;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
@@ -1358,15 +1504,19 @@
         <v>2</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#define TYPE_TRAME_CON_SATURATION_VITESSE 156</v>
       </c>
       <c r="F34" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_SATURATION_VITESSE 2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_SATURATION_VITESSE: curTrameLength= LG_TRAME_CON_SATURATION_VITESSE ; break;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>8</v>
       </c>
@@ -1380,15 +1530,19 @@
         <v>1</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#define TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE 29</v>
       </c>
       <c r="F35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ANGLE_HORS_INTERVALLE 1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE: curTrameLength= LG_TRAME_INF_ANGLE_HORS_INTERVALLE ; break;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
@@ -1396,397 +1550,517 @@
         <v>40</v>
       </c>
       <c r="C36" s="11">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D36" s="9">
         <v>1</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>#define TYPE_TRAME_CON_RECHARGER_COEF 150</v>
+        <f t="shared" si="3"/>
+        <v>#define TYPE_TRAME_CON_RECHARGER_COEF 159</v>
       </c>
       <c r="F36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_RECHARGER_COEF 1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_RECHARGER_COEF: curTrameLength= LG_TRAME_CON_RECHARGER_COEF ; break;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="E37" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F37" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="E38" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F38" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="E39" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F39" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="E40" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F40" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="E41" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F41" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="E42" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F42" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="E43" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F43" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="E44" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F44" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="E45" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F45" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="E46" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F46" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="E47" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F47" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="E48" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F48" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="5:6">
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="5:7">
       <c r="E49" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F49" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="5:6">
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="5:7">
       <c r="E50" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F50" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="5:6">
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="5:7">
       <c r="E51" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F51" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="5:6">
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="5:7">
       <c r="E52" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F52" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="5:6">
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="5:7">
       <c r="E53" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F53" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="5:6">
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="5:7">
       <c r="E54" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F54" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="5:6">
+      <c r="G54" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="5:7">
       <c r="E55" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F55" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="5:6">
+      <c r="G55" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="5:7">
       <c r="E56" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F56" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="5:6">
+      <c r="G56" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="5:7">
       <c r="E57" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F57" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="5:6">
+      <c r="G57" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="5:7">
       <c r="E58" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F58" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="5:6">
+      <c r="G58" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="5:7">
       <c r="E59" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F59" s="1" t="str">
-        <f t="shared" ref="F27:F74" si="3">IF(A59&lt;&gt;"",CONCATENATE("#define LGT_TRAME_",A59,"_",B59," ",D59),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="5:6">
+        <f t="shared" ref="F59:F74" si="4">IF(A59&lt;&gt;"",CONCATENATE("#define LGT_TRAME_",A59,"_",B59," ",D59),"")</f>
+        <v/>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="5:7">
       <c r="E60" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F60" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="5:6">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="5:7">
       <c r="E61" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F61" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="5:6">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="5:7">
       <c r="E62" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F62" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="5:6">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="5:7">
       <c r="E63" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F63" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="5:6">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="5:7">
       <c r="E64" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F64" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="5:6">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="5:7">
       <c r="E65" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F65" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="5:6">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="5:7">
       <c r="E66" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="5:6">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="5:7">
       <c r="E67" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="5:6">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="5:7">
       <c r="E68" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F68" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="5:6">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="5:7">
       <c r="E69" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F69" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="5:6">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="5:7">
       <c r="E70" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="5:6">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="5:7">
       <c r="E71" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F71" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="5:6">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="5:7">
       <c r="E72" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F72" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="5:6">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="5:7">
       <c r="E73" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F73" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="5:6">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="5:7">
       <c r="E74" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F74" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1798,10 +2072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1863,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <f>IF(C2&lt;&gt;"",CONCATENATE("#define ",C2," ",IF(D2=0,"LAT","PORT"),A2,"bits.",IF(D2=0,"LAT","R"),A2,B2),"")</f>
+        <f t="shared" ref="G2" si="0">IF(C2&lt;&gt;"",CONCATENATE("#define ",C2," ",IF(D2=0,"LAT","PORT"),A2,"bits.",IF(D2=0,"LAT","R"),A2,B2),"")</f>
         <v>#define GYRO PORTAbits.RA0</v>
       </c>
       <c r="H2" t="str">
-        <f>IF(C2&lt;&gt;"",CONCATENATE("TRIS",A2,"bits.","R",A2,B2,"=",D2,"; //",C2),"")</f>
+        <f t="shared" ref="H2" si="1">IF(C2&lt;&gt;"",CONCATENATE("TRIS",A2,"bits.","R",A2,B2,"=",D2,"; //",C2),"")</f>
         <v>TRISAbits.RA0=1; //GYRO</v>
       </c>
       <c r="I2" t="str">
-        <f>IF(E2&lt;&gt;"",CONCATENATE("ANSEL",A2,"bits.","ANS",A2,B2,"=",D2,"; //",C2),"")</f>
+        <f t="shared" ref="I2" si="2">IF(E2&lt;&gt;"",CONCATENATE("ANSEL",A2,"bits.","ANS",A2,B2,"=",D2,"; //",C2),"")</f>
         <v>ANSELAbits.ANSA0=1; //GYRO</v>
       </c>
       <c r="J2" t="str">
-        <f>IF(E2&lt;&gt;"",CONCATENATE("#define CH_",C2," ADC_CH",E2),"")</f>
+        <f t="shared" ref="J2" si="3">IF(E2&lt;&gt;"",CONCATENATE("#define CH_",C2," ADC_CH",E2),"")</f>
         <v>#define CH_GYRO ADC_CH0</v>
       </c>
     </row>
@@ -1896,19 +2170,19 @@
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f>IF(C3&lt;&gt;"",CONCATENATE("#define ",C3," ",IF(D3=0,"LAT","PORT"),A3,"bits.",IF(D3=0,"LAT","R"),A3,B3),"")</f>
+        <f t="shared" ref="G3:G64" si="4">IF(C3&lt;&gt;"",CONCATENATE("#define ",C3," ",IF(D3=0,"LAT","PORT"),A3,"bits.",IF(D3=0,"LAT","R"),A3,B3),"")</f>
         <v>#define ACC_X PORTAbits.RA1</v>
       </c>
       <c r="H3" t="str">
-        <f>IF(C3&lt;&gt;"",CONCATENATE("TRIS",A3,"bits.","R",A3,B3,"=",D3,"; //",C3),"")</f>
+        <f t="shared" ref="H3:H64" si="5">IF(C3&lt;&gt;"",CONCATENATE("TRIS",A3,"bits.","R",A3,B3,"=",D3,"; //",C3),"")</f>
         <v>TRISAbits.RA1=1; //ACC_X</v>
       </c>
       <c r="I3" t="str">
-        <f>IF(E3&lt;&gt;"",CONCATENATE("ANSEL",A3,"bits.","ANS",A3,B3,"=",D3,"; //",C3),"")</f>
+        <f t="shared" ref="I3:I64" si="6">IF(E3&lt;&gt;"",CONCATENATE("ANSEL",A3,"bits.","ANS",A3,B3,"=",D3,"; //",C3),"")</f>
         <v>ANSELAbits.ANSA1=1; //ACC_X</v>
       </c>
       <c r="J3" t="str">
-        <f>IF(E3&lt;&gt;"",CONCATENATE("#define CH_",C3," ADC_CH",E3),"")</f>
+        <f t="shared" ref="J3:J64" si="7">IF(E3&lt;&gt;"",CONCATENATE("#define CH_",C3," ADC_CH",E3),"")</f>
         <v>#define CH_ACC_X ADC_CH1</v>
       </c>
     </row>
@@ -1917,28 +2191,28 @@
         <v>33</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f>IF(C4&lt;&gt;"",CONCATENATE("#define ",C4," ",IF(D4=0,"LAT","PORT"),A4,"bits.",IF(D4=0,"LAT","R"),A4,B4),"")</f>
-        <v>#define LED_HAUT LATAbits.LATA4</v>
+        <f t="shared" si="4"/>
+        <v>#define VREF_MOINS PORTAbits.RA2</v>
       </c>
       <c r="H4" t="str">
-        <f>IF(C4&lt;&gt;"",CONCATENATE("TRIS",A4,"bits.","R",A4,B4,"=",D4,"; //",C4),"")</f>
-        <v>TRISAbits.RA4=0; //LED_HAUT</v>
+        <f t="shared" si="5"/>
+        <v>TRISAbits.RA2=1; //VREF_MOINS</v>
       </c>
       <c r="I4" t="str">
-        <f>IF(E4&lt;&gt;"",CONCATENATE("ANSEL",A4,"bits.","ANS",A4,B4,"=",D4,"; //",C4),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J4" t="str">
-        <f>IF(E4&lt;&gt;"",CONCATENATE("#define CH_",C4," ADC_CH",E4),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -1947,32 +2221,29 @@
         <v>33</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
       <c r="G5" t="str">
-        <f>IF(C5&lt;&gt;"",CONCATENATE("#define ",C5," ",IF(D5=0,"LAT","PORT"),A5,"bits.",IF(D5=0,"LAT","R"),A5,B5),"")</f>
-        <v>#define ACC_Z PORTAbits.RA5</v>
+        <f t="shared" si="4"/>
+        <v>#define VREF_PLUS PORTAbits.RA3</v>
       </c>
       <c r="H5" t="str">
-        <f>IF(C5&lt;&gt;"",CONCATENATE("TRIS",A5,"bits.","R",A5,B5,"=",D5,"; //",C5),"")</f>
-        <v>TRISAbits.RA5=1; //ACC_Z</v>
+        <f t="shared" si="5"/>
+        <v>TRISAbits.RA3=1; //VREF_PLUS</v>
       </c>
       <c r="I5" t="str">
-        <f>IF(E5&lt;&gt;"",CONCATENATE("ANSEL",A5,"bits.","ANS",A5,B5,"=",D5,"; //",C5),"")</f>
-        <v>ANSELAbits.ANSA5=1; //ACC_Z</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="J5" t="str">
-        <f>IF(E5&lt;&gt;"",CONCATENATE("#define CH_",C5," ADC_CH",E5),"")</f>
-        <v>#define CH_ACC_Z ADC_CH4</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1980,28 +2251,28 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="G6" t="str">
-        <f>IF(C6&lt;&gt;"",CONCATENATE("#define ",C6," ",IF(D6=0,"LAT","PORT"),A6,"bits.",IF(D6=0,"LAT","R"),A6,B6),"")</f>
-        <v>#define LED_CENTRE_VERTE LATAbits.LATA6</v>
+        <f t="shared" si="4"/>
+        <v>#define LED_HAUT LATAbits.LATA4</v>
       </c>
       <c r="H6" t="str">
-        <f>IF(C6&lt;&gt;"",CONCATENATE("TRIS",A6,"bits.","R",A6,B6,"=",D6,"; //",C6),"")</f>
-        <v>TRISAbits.RA6=0; //LED_CENTRE_VERTE</v>
+        <f t="shared" si="5"/>
+        <v>TRISAbits.RA4=0; //LED_HAUT</v>
       </c>
       <c r="I6" t="str">
-        <f>IF(E6&lt;&gt;"",CONCATENATE("ANSEL",A6,"bits.","ANS",A6,B6,"=",D6,"; //",C6),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J6" t="str">
-        <f>IF(E6&lt;&gt;"",CONCATENATE("#define CH_",C6," ADC_CH",E6),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2010,1670 +2281,1915 @@
         <v>33</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
       </c>
       <c r="G7" t="str">
-        <f>IF(C7&lt;&gt;"",CONCATENATE("#define ",C7," ",IF(D7=0,"LAT","PORT"),A7,"bits.",IF(D7=0,"LAT","R"),A7,B7),"")</f>
-        <v>#define LED_CENTRE_ORANGE LATAbits.LATA7</v>
+        <f t="shared" si="4"/>
+        <v>#define ACC_Z PORTAbits.RA5</v>
       </c>
       <c r="H7" t="str">
-        <f>IF(C7&lt;&gt;"",CONCATENATE("TRIS",A7,"bits.","R",A7,B7,"=",D7,"; //",C7),"")</f>
-        <v>TRISAbits.RA7=0; //LED_CENTRE_ORANGE</v>
+        <f t="shared" si="5"/>
+        <v>TRISAbits.RA5=1; //ACC_Z</v>
       </c>
       <c r="I7" t="str">
-        <f>IF(E7&lt;&gt;"",CONCATENATE("ANSEL",A7,"bits.","ANS",A7,B7,"=",D7,"; //",C7),"")</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>ANSELAbits.ANSA5=1; //ACC_Z</v>
       </c>
       <c r="J7" t="str">
-        <f>IF(E7&lt;&gt;"",CONCATENATE("#define CH_",C7," ADC_CH",E7),"")</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>#define CH_ACC_Z ADC_CH4</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>73</v>
       </c>
-      <c r="B8">
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
       <c r="G8" t="str">
-        <f>IF(C8&lt;&gt;"",CONCATENATE("#define ",C8," ",IF(D8=0,"LAT","PORT"),A8,"bits.",IF(D8=0,"LAT","R"),A8,B8),"")</f>
-        <v>#define CODEUR_A_DROITE PORTBbits.RB0</v>
+        <f t="shared" si="4"/>
+        <v>#define LED_CENTRE_VERTE LATAbits.LATA6</v>
       </c>
       <c r="H8" t="str">
-        <f>IF(C8&lt;&gt;"",CONCATENATE("TRIS",A8,"bits.","R",A8,B8,"=",D8,"; //",C8),"")</f>
-        <v>TRISBbits.RB0=1; //CODEUR_A_DROITE</v>
+        <f t="shared" si="5"/>
+        <v>TRISAbits.RA6=0; //LED_CENTRE_VERTE</v>
       </c>
       <c r="I8" t="str">
-        <f>IF(E8&lt;&gt;"",CONCATENATE("ANSEL",A8,"bits.","ANS",A8,B8,"=",D8,"; //",C8),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J8" t="str">
-        <f>IF(E8&lt;&gt;"",CONCATENATE("#define CH_",C8," ADC_CH",E8),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="str">
-        <f>IF(C9&lt;&gt;"",CONCATENATE("#define ",C9," ",IF(D9=0,"LAT","PORT"),A9,"bits.",IF(D9=0,"LAT","R"),A9,B9),"")</f>
-        <v>#define CODEUR_A_GAUCHE PORTBbits.RB1</v>
+        <f t="shared" si="4"/>
+        <v>#define LED_CENTRE_ORANGE LATAbits.LATA7</v>
       </c>
       <c r="H9" t="str">
-        <f>IF(C9&lt;&gt;"",CONCATENATE("TRIS",A9,"bits.","R",A9,B9,"=",D9,"; //",C9),"")</f>
-        <v>TRISBbits.RB1=1; //CODEUR_A_GAUCHE</v>
+        <f t="shared" si="5"/>
+        <v>TRISAbits.RA7=0; //LED_CENTRE_ORANGE</v>
       </c>
       <c r="I9" t="str">
-        <f>IF(E9&lt;&gt;"",CONCATENATE("ANSEL",A9,"bits.","ANS",A9,B9,"=",D9,"; //",C9),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J9" t="str">
-        <f>IF(E9&lt;&gt;"",CONCATENATE("#define CH_",C9," ADC_CH",E9),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="G10" t="str">
-        <f>IF(C10&lt;&gt;"",CONCATENATE("#define ",C10," ",IF(D10=0,"LAT","PORT"),A10,"bits.",IF(D10=0,"LAT","R"),A10,B10),"")</f>
-        <v>#define CODEUR_B_DROITE PORTBbits.RB3</v>
+        <f t="shared" si="4"/>
+        <v>#define CODEUR_A_DROITE PORTBbits.RB0</v>
       </c>
       <c r="H10" t="str">
-        <f>IF(C10&lt;&gt;"",CONCATENATE("TRIS",A10,"bits.","R",A10,B10,"=",D10,"; //",C10),"")</f>
-        <v>TRISBbits.RB3=1; //CODEUR_B_DROITE</v>
+        <f t="shared" si="5"/>
+        <v>TRISBbits.RB0=1; //CODEUR_A_DROITE</v>
       </c>
       <c r="I10" t="str">
-        <f>IF(E10&lt;&gt;"",CONCATENATE("ANSEL",A10,"bits.","ANS",A10,B10,"=",D10,"; //",C10),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J10" t="str">
-        <f>IF(E10&lt;&gt;"",CONCATENATE("#define CH_",C10," ADC_CH",E10),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="G11" t="str">
-        <f>IF(C11&lt;&gt;"",CONCATENATE("#define ",C11," ",IF(D11=0,"LAT","PORT"),A11,"bits.",IF(D11=0,"LAT","R"),A11,B11),"")</f>
-        <v>#define CODEUR_B_GAUCHE PORTBbits.RB4</v>
+        <f t="shared" si="4"/>
+        <v>#define CODEUR_A_GAUCHE PORTBbits.RB1</v>
       </c>
       <c r="H11" t="str">
-        <f>IF(C11&lt;&gt;"",CONCATENATE("TRIS",A11,"bits.","R",A11,B11,"=",D11,"; //",C11),"")</f>
-        <v>TRISBbits.RB4=1; //CODEUR_B_GAUCHE</v>
+        <f t="shared" si="5"/>
+        <v>TRISBbits.RB1=1; //CODEUR_A_GAUCHE</v>
       </c>
       <c r="I11" t="str">
-        <f>IF(E11&lt;&gt;"",CONCATENATE("ANSEL",A11,"bits.","ANS",A11,B11,"=",D11,"; //",C11),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J11" t="str">
-        <f>IF(E11&lt;&gt;"",CONCATENATE("#define CH_",C11," ADC_CH",E11),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="G12" t="str">
-        <f>IF(C12&lt;&gt;"",CONCATENATE("#define ",C12," ",IF(D12=0,"LAT","PORT"),A12,"bits.",IF(D12=0,"LAT","R"),A12,B12),"")</f>
-        <v>#define PATTE_PGC PORTBbits.RB6</v>
+        <f t="shared" si="4"/>
+        <v>#define ULTRASON_INT PORTBbits.RB2</v>
       </c>
       <c r="H12" t="str">
-        <f>IF(C12&lt;&gt;"",CONCATENATE("TRIS",A12,"bits.","R",A12,B12,"=",D12,"; //",C12),"")</f>
-        <v>TRISBbits.RB6=1; //PATTE_PGC</v>
+        <f t="shared" si="5"/>
+        <v>TRISBbits.RB2=1; //ULTRASON_INT</v>
       </c>
       <c r="I12" t="str">
-        <f>IF(E12&lt;&gt;"",CONCATENATE("ANSEL",A12,"bits.","ANS",A12,B12,"=",D12,"; //",#REF!),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J12" t="str">
-        <f>IF(E12&lt;&gt;"",CONCATENATE("#define CH_",#REF!," ADC_CH",E12),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="G13" t="str">
-        <f>IF(C13&lt;&gt;"",CONCATENATE("#define ",C13," ",IF(D13=0,"LAT","PORT"),A13,"bits.",IF(D13=0,"LAT","R"),A13,B13),"")</f>
-        <v>#define PATTE_PGD PORTBbits.RB7</v>
+        <f t="shared" si="4"/>
+        <v>#define CODEUR_B_DROITE PORTBbits.RB3</v>
       </c>
       <c r="H13" t="str">
-        <f>IF(C13&lt;&gt;"",CONCATENATE("TRIS",A13,"bits.","R",A13,B13,"=",D13,"; //",C13),"")</f>
-        <v>TRISBbits.RB7=1; //PATTE_PGD</v>
+        <f t="shared" si="5"/>
+        <v>TRISBbits.RB3=1; //CODEUR_B_DROITE</v>
       </c>
       <c r="I13" t="str">
-        <f>IF(E13&lt;&gt;"",CONCATENATE("ANSEL",A13,"bits.","ANS",A13,B13,"=",D13,"; //",#REF!),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J13" t="str">
-        <f>IF(E13&lt;&gt;"",CONCATENATE("#define CH_",#REF!," ADC_CH",E13),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="str">
-        <f>IF(C14&lt;&gt;"",CONCATENATE("#define ",C14," ",IF(D14=0,"LAT","PORT"),A14,"bits.",IF(D14=0,"LAT","R"),A14,B14),"")</f>
-        <v>#define LED_DROITE LATCbits.LATC0</v>
+        <f t="shared" si="4"/>
+        <v>#define CODEUR_B_GAUCHE PORTBbits.RB4</v>
       </c>
       <c r="H14" t="str">
-        <f>IF(C14&lt;&gt;"",CONCATENATE("TRIS",A14,"bits.","R",A14,B14,"=",D14,"; //",C14),"")</f>
-        <v>TRISCbits.RC0=0; //LED_DROITE</v>
+        <f t="shared" si="5"/>
+        <v>TRISBbits.RB4=1; //CODEUR_B_GAUCHE</v>
       </c>
       <c r="I14" t="str">
-        <f>IF(E14&lt;&gt;"",CONCATENATE("ANSEL",A14,"bits.","ANS",A14,B14,"=",D14,"; //",C14),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J14" t="str">
-        <f>IF(E14&lt;&gt;"",CONCATENATE("#define CH_",C14," ADC_CH",E14),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="G15" t="str">
-        <f>IF(C15&lt;&gt;"",CONCATENATE("#define ",C15," ",IF(D15=0,"LAT","PORT"),A15,"bits.",IF(D15=0,"LAT","R"),A15,B15),"")</f>
-        <v>#define LED_TEMOIN LATCbits.LATC1</v>
+        <f t="shared" si="4"/>
+        <v>#define LED_GAUCHE LATBbits.LATB5</v>
       </c>
       <c r="H15" t="str">
-        <f>IF(C15&lt;&gt;"",CONCATENATE("TRIS",A15,"bits.","R",A15,B15,"=",D15,"; //",C15),"")</f>
-        <v>TRISCbits.RC1=0; //LED_TEMOIN</v>
+        <f t="shared" si="5"/>
+        <v>TRISBbits.RB5=0; //LED_GAUCHE</v>
       </c>
       <c r="I15" t="str">
-        <f>IF(E15&lt;&gt;"",CONCATENATE("ANSEL",A15,"bits.","ANS",A15,B15,"=",D15,"; //",C15),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J15" t="str">
-        <f>IF(E15&lt;&gt;"",CONCATENATE("#define CH_",C15," ADC_CH",E15),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="G16" t="str">
-        <f>IF(C16&lt;&gt;"",CONCATENATE("#define ",C16," ",IF(D16=0,"LAT","PORT"),A16,"bits.",IF(D16=0,"LAT","R"),A16,B16),"")</f>
-        <v>#define BOUTON_VERT PORTCbits.RC2</v>
+        <f t="shared" si="4"/>
+        <v>#define PATTE_PGC PORTBbits.RB6</v>
       </c>
       <c r="H16" t="str">
-        <f>IF(C16&lt;&gt;"",CONCATENATE("TRIS",A16,"bits.","R",A16,B16,"=",D16,"; //",C16),"")</f>
-        <v>TRISCbits.RC2=1; //BOUTON_VERT</v>
+        <f t="shared" si="5"/>
+        <v>TRISBbits.RB6=1; //PATTE_PGC</v>
       </c>
       <c r="I16" t="str">
-        <f>IF(E16&lt;&gt;"",CONCATENATE("ANSEL",A16,"bits.","ANS",A16,B16,"=",D16,"; //",C16),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J16" t="str">
-        <f>IF(E16&lt;&gt;"",CONCATENATE("#define CH_",C16," ADC_CH",E16),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="G17" t="str">
-        <f>IF(C17&lt;&gt;"",CONCATENATE("#define ",C17," ",IF(D17=0,"LAT","PORT"),A17,"bits.",IF(D17=0,"LAT","R"),A17,B17),"")</f>
-        <v>#define BOUTON_ROUGE PORTCbits.RC3</v>
+        <f t="shared" si="4"/>
+        <v>#define PATTE_PGD PORTBbits.RB7</v>
       </c>
       <c r="H17" t="str">
-        <f>IF(C17&lt;&gt;"",CONCATENATE("TRIS",A17,"bits.","R",A17,B17,"=",D17,"; //",C17),"")</f>
-        <v>TRISCbits.RC3=1; //BOUTON_ROUGE</v>
+        <f t="shared" si="5"/>
+        <v>TRISBbits.RB7=1; //PATTE_PGD</v>
       </c>
       <c r="I17" t="str">
-        <f>IF(E17&lt;&gt;"",CONCATENATE("ANSEL",A17,"bits.","ANS",A17,B17,"=",D17,"; //",C17),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J17" t="str">
-        <f>IF(E17&lt;&gt;"",CONCATENATE("#define CH_",C17," ADC_CH",E17),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="G18" t="str">
-        <f>IF(C18&lt;&gt;"",CONCATENATE("#define ",C18," ",IF(D18=0,"LAT","PORT"),A18,"bits.",IF(D18=0,"LAT","R"),A18,B18),"")</f>
-        <v>#define LED_ERREUR LATCbits.LATC4</v>
+        <f t="shared" si="4"/>
+        <v>#define LED_DROITE LATCbits.LATC0</v>
       </c>
       <c r="H18" t="str">
-        <f>IF(C18&lt;&gt;"",CONCATENATE("TRIS",A18,"bits.","R",A18,B18,"=",D18,"; //",C18),"")</f>
-        <v>TRISCbits.RC4=0; //LED_ERREUR</v>
+        <f t="shared" si="5"/>
+        <v>TRISCbits.RC0=0; //LED_DROITE</v>
       </c>
       <c r="I18" t="str">
-        <f>IF(E18&lt;&gt;"",CONCATENATE("ANSEL",A18,"bits.","ANS",A18,B18,"=",D18,"; //",C18),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J18" t="str">
-        <f>IF(E18&lt;&gt;"",CONCATENATE("#define CH_",C18," ADC_CH",E18),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="G19" t="str">
-        <f>IF(C19&lt;&gt;"",CONCATENATE("#define ",C19," ",IF(D19=0,"LAT","PORT"),A19,"bits.",IF(D19=0,"LAT","R"),A19,B19),"")</f>
-        <v>#define USART_TX1 LATCbits.LATC6</v>
+        <f t="shared" si="4"/>
+        <v>#define LED_TEMOIN LATCbits.LATC1</v>
       </c>
       <c r="H19" t="str">
-        <f>IF(C19&lt;&gt;"",CONCATENATE("TRIS",A19,"bits.","R",A19,B19,"=",D19,"; //",C19),"")</f>
-        <v>TRISCbits.RC6=0; //USART_TX1</v>
+        <f t="shared" si="5"/>
+        <v>TRISCbits.RC1=0; //LED_TEMOIN</v>
       </c>
       <c r="I19" t="str">
-        <f>IF(E19&lt;&gt;"",CONCATENATE("ANSEL",A19,"bits.","ANS",A19,B19,"=",D19,"; //",C19),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J19" t="str">
-        <f>IF(E19&lt;&gt;"",CONCATENATE("#define CH_",C19," ADC_CH",E19),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="G20" t="str">
-        <f>IF(C20&lt;&gt;"",CONCATENATE("#define ",C20," ",IF(D20=0,"LAT","PORT"),A20,"bits.",IF(D20=0,"LAT","R"),A20,B20),"")</f>
-        <v>#define USART_RX1 PORTCbits.RC7</v>
+        <f t="shared" si="4"/>
+        <v>#define BOUTON_VERT PORTCbits.RC2</v>
       </c>
       <c r="H20" t="str">
-        <f>IF(C20&lt;&gt;"",CONCATENATE("TRIS",A20,"bits.","R",A20,B20,"=",D20,"; //",C20),"")</f>
-        <v>TRISCbits.RC7=1; //USART_RX1</v>
+        <f t="shared" si="5"/>
+        <v>TRISCbits.RC2=1; //BOUTON_VERT</v>
       </c>
       <c r="I20" t="str">
-        <f>IF(E20&lt;&gt;"",CONCATENATE("ANSEL",A20,"bits.","ANS",A20,B20,"=",D20,"; //",C20),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J20" t="str">
-        <f>IF(E20&lt;&gt;"",CONCATENATE("#define CH_",C20," ADC_CH",E20),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="str">
-        <f>IF(C21&lt;&gt;"",CONCATENATE("#define ",C21," ",IF(D21=0,"LAT","PORT"),A21,"bits.",IF(D21=0,"LAT","R"),A21,B21),"")</f>
-        <v>#define LED_BAS LATDbits.LATD0</v>
+        <f t="shared" si="4"/>
+        <v>#define BOUTON_ROUGE PORTCbits.RC3</v>
       </c>
       <c r="H21" t="str">
-        <f>IF(C21&lt;&gt;"",CONCATENATE("TRIS",A21,"bits.","R",A21,B21,"=",D21,"; //",C21),"")</f>
-        <v>TRISDbits.RD0=0; //LED_BAS</v>
+        <f t="shared" si="5"/>
+        <v>TRISCbits.RC3=1; //BOUTON_ROUGE</v>
       </c>
       <c r="I21" t="str">
-        <f>IF(E21&lt;&gt;"",CONCATENATE("ANSEL",A21,"bits.","ANS",A21,B21,"=",D21,"; //",C21),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J21" t="str">
-        <f>IF(E21&lt;&gt;"",CONCATENATE("#define CH_",C21," ADC_CH",E21),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="G22" t="str">
-        <f>IF(C22&lt;&gt;"",CONCATENATE("#define ",C22," ",IF(D22=0,"LAT","PORT"),A22,"bits.",IF(D22=0,"LAT","R"),A22,B22),"")</f>
-        <v>#define LED_GAUCHE LATDbits.LATD1</v>
+        <f t="shared" si="4"/>
+        <v>#define LED_ERREUR LATCbits.LATC4</v>
       </c>
       <c r="H22" t="str">
-        <f>IF(C22&lt;&gt;"",CONCATENATE("TRIS",A22,"bits.","R",A22,B22,"=",D22,"; //",C22),"")</f>
-        <v>TRISDbits.RD1=0; //LED_GAUCHE</v>
+        <f t="shared" si="5"/>
+        <v>TRISCbits.RC4=0; //LED_ERREUR</v>
       </c>
       <c r="I22" t="str">
-        <f>IF(E22&lt;&gt;"",CONCATENATE("ANSEL",A22,"bits.","ANS",A22,B22,"=",D22,"; //",C22),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J22" t="str">
-        <f>IF(E22&lt;&gt;"",CONCATENATE("#define CH_",C22," ADC_CH",E22),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="G23" t="str">
-        <f>IF(C23&lt;&gt;"",CONCATENATE("#define ",C23," ",IF(D23=0,"LAT","PORT"),A23,"bits.",IF(D23=0,"LAT","R"),A23,B23),"")</f>
-        <v>#define LED_USART2 LATDbits.LATD2</v>
+        <f t="shared" si="4"/>
+        <v>#define LED_BAS LATCbits.LATC5</v>
       </c>
       <c r="H23" t="str">
-        <f>IF(C23&lt;&gt;"",CONCATENATE("TRIS",A23,"bits.","R",A23,B23,"=",D23,"; //",C23),"")</f>
-        <v>TRISDbits.RD2=0; //LED_USART2</v>
+        <f t="shared" si="5"/>
+        <v>TRISCbits.RC5=0; //LED_BAS</v>
       </c>
       <c r="I23" t="str">
-        <f>IF(E23&lt;&gt;"",CONCATENATE("ANSEL",A23,"bits.","ANS",A23,B23,"=",D23,"; //",C23),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J23" t="str">
-        <f>IF(E23&lt;&gt;"",CONCATENATE("#define CH_",C23," ADC_CH",E23),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="G24" t="str">
-        <f>IF(C24&lt;&gt;"",CONCATENATE("#define ",C24," ",IF(D24=0,"LAT","PORT"),A24,"bits.",IF(D24=0,"LAT","R"),A24,B24),"")</f>
-        <v>#define LED_USART1 LATDbits.LATD3</v>
+        <f t="shared" si="4"/>
+        <v>#define USART_TX1 LATCbits.LATC6</v>
       </c>
       <c r="H24" t="str">
-        <f>IF(C24&lt;&gt;"",CONCATENATE("TRIS",A24,"bits.","R",A24,B24,"=",D24,"; //",C24),"")</f>
-        <v>TRISDbits.RD3=0; //LED_USART1</v>
+        <f t="shared" si="5"/>
+        <v>TRISCbits.RC6=0; //USART_TX1</v>
       </c>
       <c r="I24" t="str">
-        <f>IF(E24&lt;&gt;"",CONCATENATE("ANSEL",A24,"bits.","ANS",A24,B24,"=",D24,"; //",C24),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J24" t="str">
-        <f>IF(E24&lt;&gt;"",CONCATENATE("#define CH_",C24," ADC_CH",E24),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25">
-        <v>13</v>
-      </c>
       <c r="G25" t="str">
-        <f>IF(C25&lt;&gt;"",CONCATENATE("#define ",C25," ",IF(D25=0,"LAT","PORT"),A25,"bits.",IF(D25=0,"LAT","R"),A25,B25),"")</f>
-        <v>#define PRESENCE_UTILISATEUR PORTDbits.RD5</v>
+        <f t="shared" si="4"/>
+        <v>#define USART_RX1 PORTCbits.RC7</v>
       </c>
       <c r="H25" t="str">
-        <f>IF(C25&lt;&gt;"",CONCATENATE("TRIS",A25,"bits.","R",A25,B25,"=",D25,"; //",C25),"")</f>
-        <v>TRISDbits.RD5=1; //PRESENCE_UTILISATEUR</v>
+        <f t="shared" si="5"/>
+        <v>TRISCbits.RC7=1; //USART_RX1</v>
       </c>
       <c r="I25" t="str">
-        <f>IF(E25&lt;&gt;"",CONCATENATE("ANSEL",A25,"bits.","ANS",A25,B25,"=",D25,"; //",C25),"")</f>
-        <v>ANSELDbits.ANSD5=1; //PRESENCE_UTILISATEUR</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="J25" t="str">
-        <f>IF(E25&lt;&gt;"",CONCATENATE("#define CH_",C25," ADC_CH",E25),"")</f>
-        <v>#define CH_PRESENCE_UTILISATEUR ADC_CH13</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="G26" t="str">
-        <f>IF(C26&lt;&gt;"",CONCATENATE("#define ",C26," ",IF(D26=0,"LAT","PORT"),A26,"bits.",IF(D26=0,"LAT","R"),A26,B26),"")</f>
-        <v>#define BOUTON_LIMITATION PORTDbits.RD5</v>
+        <f t="shared" si="4"/>
+        <v>#define SCL2_RES PORTDbits.RD0</v>
       </c>
       <c r="H26" t="str">
-        <f>IF(C26&lt;&gt;"",CONCATENATE("TRIS",A26,"bits.","R",A26,B26,"=",D26,"; //",C26),"")</f>
-        <v>TRISDbits.RD5=1; //BOUTON_LIMITATION</v>
+        <f t="shared" si="5"/>
+        <v>TRISDbits.RD0=1; //SCL2_RES</v>
       </c>
       <c r="I26" t="str">
-        <f>IF(E26&lt;&gt;"",CONCATENATE("ANSEL",A26,"bits.","ANS",A26,B26,"=",D26,"; //",C26),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J26" t="str">
-        <f>IF(E26&lt;&gt;"",CONCATENATE("#define CH_",C26," ADC_CH",E26),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="str">
-        <f>IF(C27&lt;&gt;"",CONCATENATE("#define ",C27," ",IF(D27=0,"LAT","PORT"),A27,"bits.",IF(D27=0,"LAT","R"),A27,B27),"")</f>
-        <v>#define USART_TX2 LATDbits.LATD6</v>
+        <f t="shared" si="4"/>
+        <v>#define SDA2_RES PORTDbits.RD1</v>
       </c>
       <c r="H27" t="str">
-        <f>IF(C27&lt;&gt;"",CONCATENATE("TRIS",A27,"bits.","R",A27,B27,"=",D27,"; //",C27),"")</f>
-        <v>TRISDbits.RD6=0; //USART_TX2</v>
+        <f t="shared" si="5"/>
+        <v>TRISDbits.RD1=1; //SDA2_RES</v>
       </c>
       <c r="I27" t="str">
-        <f>IF(E27&lt;&gt;"",CONCATENATE("ANSEL",A27,"bits.","ANS",A27,B27,"=",D27,"; //",C27),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J27" t="str">
-        <f>IF(E27&lt;&gt;"",CONCATENATE("#define CH_",C27," ADC_CH",E27),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" ref="G28:G35" si="0">IF(C28&lt;&gt;"",CONCATENATE("#define ",C28," ",IF(D28=0,"LAT","PORT"),A28,"bits.",IF(D28=0,"LAT","R"),A28,B28),"")</f>
-        <v>#define USART_RX2 PORTDbits.RD7</v>
+        <f t="shared" si="4"/>
+        <v>#define LED_USART2 LATDbits.LATD2</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" ref="H28:H35" si="1">IF(C28&lt;&gt;"",CONCATENATE("TRIS",A28,"bits.","R",A28,B28,"=",D28,"; //",C28),"")</f>
-        <v>TRISDbits.RD7=1; //USART_RX2</v>
+        <f t="shared" si="5"/>
+        <v>TRISDbits.RD2=0; //LED_USART2</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" ref="I28:I35" si="2">IF(E28&lt;&gt;"",CONCATENATE("ANSEL",A28,"bits.","ANS",A28,B28,"=",D28,"; //",C28),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J28" t="str">
-        <f t="shared" ref="J28:J35" si="3">IF(E28&lt;&gt;"",CONCATENATE("#define CH_",C28," ADC_CH",E28),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29">
         <v>0</v>
       </c>
-      <c r="C29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>5</v>
-      </c>
       <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v>#define POTENTIOMETRE_GUIDON PORTEbits.RE0</v>
+        <f t="shared" si="4"/>
+        <v>#define LED_USART1 LATDbits.LATD3</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="1"/>
-        <v>TRISEbits.RE0=1; //POTENTIOMETRE_GUIDON</v>
+        <f t="shared" si="5"/>
+        <v>TRISDbits.RD3=0; //LED_USART1</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="2"/>
-        <v>ANSELEbits.ANSE0=1; //POTENTIOMETRE_GUIDON</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="3"/>
-        <v>#define CH_POTENTIOMETRE_GUIDON ADC_CH5</v>
+        <f t="shared" si="7"/>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v>#define BATTERIE PORTEbits.RE1</v>
+        <f t="shared" si="4"/>
+        <v>#define ULTRASON_TRIG LATDbits.LATD4</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="1"/>
-        <v>TRISEbits.RE1=1; //BATTERIE</v>
+        <f t="shared" si="5"/>
+        <v>TRISDbits.RD4=0; //ULTRASON_TRIG</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="2"/>
-        <v>ANSELEbits.ANSE1=1; //BATTERIE</v>
+        <f t="shared" si="6"/>
+        <v>ANSELDbits.ANSD4=0; //ULTRASON_TRIG</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="3"/>
-        <v>#define CH_BATTERIE ADC_CH6</v>
+        <f t="shared" si="7"/>
+        <v>#define CH_ULTRASON_TRIG ADC_CH13</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31">
+      <c r="G31" t="str">
+        <f t="shared" si="4"/>
+        <v>#define BOUTON_LIMITATION PORTDbits.RD5</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="5"/>
+        <v>TRISDbits.RD5=1; //BOUTON_LIMITATION</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="4"/>
+        <v>#define USART_TX2 LATDbits.LATD6</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="5"/>
+        <v>TRISDbits.RD6=0; //USART_TX2</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33">
         <v>7</v>
       </c>
-      <c r="G31" t="str">
-        <f t="shared" si="0"/>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="4"/>
+        <v>#define USART_RX2 PORTDbits.RD7</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="5"/>
+        <v>TRISDbits.RD7=1; //USART_RX2</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="4"/>
+        <v>#define POTENTIOMETRE_GUIDON PORTEbits.RE0</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="5"/>
+        <v>TRISEbits.RE0=1; //POTENTIOMETRE_GUIDON</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="6"/>
+        <v>ANSELEbits.ANSE0=1; //POTENTIOMETRE_GUIDON</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="7"/>
+        <v>#define CH_POTENTIOMETRE_GUIDON ADC_CH5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="4"/>
+        <v>#define BATTERIE PORTEbits.RE1</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="5"/>
+        <v>TRISEbits.RE1=1; //BATTERIE</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="6"/>
+        <v>ANSELEbits.ANSE1=1; //BATTERIE</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="7"/>
+        <v>#define CH_BATTERIE ADC_CH6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="4"/>
         <v>#define ACC_CENTRIFUGE PORTEbits.RE2</v>
       </c>
-      <c r="H31" t="str">
-        <f t="shared" si="1"/>
+      <c r="H36" t="str">
+        <f t="shared" si="5"/>
         <v>TRISEbits.RE2=1; //ACC_CENTRIFUGE</v>
       </c>
-      <c r="I31" t="str">
-        <f t="shared" si="2"/>
+      <c r="I36" t="str">
+        <f t="shared" si="6"/>
         <v>ANSELEbits.ANSE2=1; //ACC_CENTRIFUGE</v>
       </c>
-      <c r="J31" t="str">
-        <f t="shared" si="3"/>
+      <c r="J36" t="str">
+        <f t="shared" si="7"/>
         <v>#define CH_ACC_CENTRIFUGE ADC_CH7</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="G32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="7:10">
-      <c r="G33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="7:10">
-      <c r="G34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="7:10">
-      <c r="G35" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="7:10">
-      <c r="G36" t="str">
-        <f>IF(C36&lt;&gt;"",CONCATENATE("#define ",C36," ",IF(D36=0,"LAT","PORT"),A36,"bits.",IF(D36=0,"LAT","R"),A36,B36),"")</f>
-        <v/>
-      </c>
-      <c r="H36" t="str">
-        <f>IF(C36&lt;&gt;"",CONCATENATE("TRIS",A36,"bits.","R",A36,B36,"=",D36,"; //",C36),"")</f>
-        <v/>
-      </c>
-      <c r="I36" t="str">
-        <f>IF(E36&lt;&gt;"",CONCATENATE("ANSEL",A36,"bits.","ANS",A36,B36,"=",D36,"; //",C36),"")</f>
-        <v/>
-      </c>
-      <c r="J36" t="str">
-        <f>IF(E36&lt;&gt;"",CONCATENATE("#define CH_",C36," ADC_CH",E36),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="7:10">
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
       <c r="G37" t="str">
-        <f>IF(C37&lt;&gt;"",CONCATENATE("#define ",C37," ",IF(D37=1,"LAT","PORT"),A37,"bits.",IF(D37=1,"LAT","R"),A37,B37),"")</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>#define MCLR_VPP PORTEbits.RE3</v>
       </c>
       <c r="H37" t="str">
-        <f>IF(C37&lt;&gt;"",CONCATENATE("TRIS",A37,"bits.","R",A37,B37,"=",D37,"; //",C37),"")</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>TRISEbits.RE3=1; //MCLR_VPP</v>
       </c>
       <c r="I37" t="str">
-        <f>IF(E37&lt;&gt;"",CONCATENATE("ANSEL",A37,"bits.","ANS",A37,B37,"=",D37,"; //",C37),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J37" t="str">
-        <f>IF(E37&lt;&gt;"",CONCATENATE("#define CH_",C37," ADC_CH",E37),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="7:10">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="G38" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I38" t="str">
-        <f>IF(E38&lt;&gt;"",CONCATENATE("ANSEL",A38,"bits.","ANS",A38,B38,"=",D38,"; //",C38),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J38" t="str">
-        <f>IF(E38&lt;&gt;"",CONCATENATE("#define CH_",C38," ADC_CH",E38),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="7:10">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="G39" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I39" t="str">
-        <f>IF(E39&lt;&gt;"",CONCATENATE("ANSEL",A39,"bits.","ANS",A39,B39,"=",D39,"; //",C39),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J39" t="str">
-        <f>IF(E39&lt;&gt;"",CONCATENATE("#define CH_",C39," ADC_CH",E39),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="7:10">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="G40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I40" t="str">
-        <f>IF(E40&lt;&gt;"",CONCATENATE("ANSEL",A40,"bits.","ANS",A40,B40,"=",D40,"; //",C40),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J40" t="str">
-        <f>IF(E40&lt;&gt;"",CONCATENATE("#define CH_",C40," ADC_CH",E40),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="7:10">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="G41" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I41" t="str">
-        <f>IF(E41&lt;&gt;"",CONCATENATE("ANSEL",A41,"bits.","ANS",A41,B41,"=",D41,"; //",C41),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J41" t="str">
-        <f>IF(E41&lt;&gt;"",CONCATENATE("#define CH_",C41," ADC_CH",E41),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="7:10">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="G42" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I42" t="str">
-        <f>IF(E42&lt;&gt;"",CONCATENATE("ANSEL",A42,"bits.","ANS",A42,B42,"=",D42,"; //",C42),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J42" t="str">
-        <f>IF(E42&lt;&gt;"",CONCATENATE("#define CH_",C42," ADC_CH",E42),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="7:10">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="G43" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I43" t="str">
-        <f>IF(E43&lt;&gt;"",CONCATENATE("ANSEL",A43,"bits.","ANS",A43,B43,"=",D43,"; //",C43),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J43" t="str">
-        <f>IF(E43&lt;&gt;"",CONCATENATE("#define CH_",C43," ADC_CH",E43),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="7:10">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="G44" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I44" t="str">
-        <f>IF(E44&lt;&gt;"",CONCATENATE("ANSEL",A44,"bits.","ANS",A44,B44,"=",D44,"; //",C44),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J44" t="str">
-        <f>IF(E44&lt;&gt;"",CONCATENATE("#define CH_",C44," ADC_CH",E44),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="7:10">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="G45" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I45" t="str">
-        <f>IF(E45&lt;&gt;"",CONCATENATE("ANSEL",A45,"bits.","ANS",A45,B45,"=",D45,"; //",C45),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J45" t="str">
-        <f>IF(E45&lt;&gt;"",CONCATENATE("#define CH_",C45," ADC_CH",E45),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="7:10">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="G46" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I46" t="str">
-        <f>IF(E46&lt;&gt;"",CONCATENATE("ANSEL",A46,"bits.","ANS",A46,B46,"=",D46,"; //",C46),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J46" t="str">
-        <f>IF(E46&lt;&gt;"",CONCATENATE("#define CH_",C46," ADC_CH",E46),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="7:10">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="G47" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I47" t="str">
-        <f>IF(E47&lt;&gt;"",CONCATENATE("ANSEL",A47,"bits.","ANS",A47,B47,"=",D47,"; //",C47),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J47" t="str">
-        <f>IF(E47&lt;&gt;"",CONCATENATE("#define CH_",C47," ADC_CH",E47),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="7:10">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="G48" t="str">
-        <f>IF(C48&lt;&gt;"",CONCATENATE("#define ",C48," ",IF(D48=1,"LAT","PORT"),A48,"bits.",IF(D48=1,"LAT","R"),A48,B48),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H48" t="str">
-        <f>IF(C48&lt;&gt;"",CONCATENATE("TRIS",A48,"bits.","R",A48,B48,"=",D48,"; //",C48),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I48" t="str">
-        <f>IF(E48&lt;&gt;"",CONCATENATE("ANSEL",A48,"bits.","ANS",A48,B48,"=",D48,"; //",C48),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J48" t="str">
-        <f>IF(E48&lt;&gt;"",CONCATENATE("#define CH_",C48," ADC_CH",E48),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="7:10">
       <c r="G49" t="str">
-        <f>IF(C49&lt;&gt;"",CONCATENATE("#define ",C49," ",IF(D49=1,"LAT","PORT"),A49,"bits.",IF(D49=1,"LAT","R"),A49,B49),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H49" t="str">
-        <f>IF(C49&lt;&gt;"",CONCATENATE("TRIS",A49,"bits.","R",A49,B49,"=",D49,"; //",C49),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I49" t="str">
-        <f>IF(E49&lt;&gt;"",CONCATENATE("ANSEL",A49,"bits.","ANS",A49,B49,"=",D49,"; //",C49),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J49" t="str">
-        <f>IF(E49&lt;&gt;"",CONCATENATE("#define CH_",C49," ADC_CH",E49),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="7:10">
       <c r="G50" t="str">
-        <f>IF(C50&lt;&gt;"",CONCATENATE("#define ",C50," ",IF(D50=1,"LAT","PORT"),A50,"bits.",IF(D50=1,"LAT","R"),A50,B50),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H50" t="str">
-        <f>IF(C50&lt;&gt;"",CONCATENATE("TRIS",A50,"bits.","R",A50,B50,"=",D50,"; //",C50),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I50" t="str">
-        <f>IF(E50&lt;&gt;"",CONCATENATE("ANSEL",A50,"bits.","ANS",A50,B50,"=",D50,"; //",C50),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J50" t="str">
-        <f>IF(E50&lt;&gt;"",CONCATENATE("#define CH_",C50," ADC_CH",E50),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="7:10">
       <c r="G51" t="str">
-        <f>IF(C51&lt;&gt;"",CONCATENATE("#define ",C51," ",IF(D51=1,"LAT","PORT"),A51,"bits.",IF(D51=1,"LAT","R"),A51,B51),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H51" t="str">
-        <f>IF(C51&lt;&gt;"",CONCATENATE("TRIS",A51,"bits.","R",A51,B51,"=",D51,"; //",C51),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I51" t="str">
-        <f>IF(E51&lt;&gt;"",CONCATENATE("ANSEL",A51,"bits.","ANS",A51,B51,"=",D51,"; //",C51),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J51" t="str">
-        <f>IF(E51&lt;&gt;"",CONCATENATE("#define CH_",C51," ADC_CH",E51),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="7:10">
       <c r="G52" t="str">
-        <f>IF(C52&lt;&gt;"",CONCATENATE("#define ",C52," ",IF(D52=1,"LAT","PORT"),A52,"bits.",IF(D52=1,"LAT","R"),A52,B52),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H52" t="str">
-        <f>IF(C52&lt;&gt;"",CONCATENATE("TRIS",A52,"bits.","R",A52,B52,"=",D52,"; //",C52),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I52" t="str">
-        <f>IF(E52&lt;&gt;"",CONCATENATE("ANSEL",A52,"bits.","ANS",A52,B52,"=",D52,"; //",C52),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J52" t="str">
-        <f>IF(E52&lt;&gt;"",CONCATENATE("#define CH_",C52," ADC_CH",E52),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="7:10">
       <c r="G53" t="str">
-        <f>IF(C53&lt;&gt;"",CONCATENATE("#define ",C53," ",IF(D53=1,"LAT","PORT"),A53,"bits.",IF(D53=1,"LAT","R"),A53,B53),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H53" t="str">
-        <f>IF(C53&lt;&gt;"",CONCATENATE("TRIS",A53,"bits.","R",A53,B53,"=",D53,"; //",C53),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I53" t="str">
-        <f>IF(E53&lt;&gt;"",CONCATENATE("ANSEL",A53,"bits.","ANS",A53,B53,"=",D53,"; //",C53),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J53" t="str">
-        <f>IF(E53&lt;&gt;"",CONCATENATE("#define CH_",C53," ADC_CH",E53),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="7:10">
       <c r="G54" t="str">
-        <f>IF(C54&lt;&gt;"",CONCATENATE("#define ",C54," ",IF(D54=1,"LAT","PORT"),A54,"bits.",IF(D54=1,"LAT","R"),A54,B54),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H54" t="str">
-        <f>IF(C54&lt;&gt;"",CONCATENATE("TRIS",A54,"bits.","R",A54,B54,"=",D54,"; //",C54),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I54" t="str">
-        <f>IF(E54&lt;&gt;"",CONCATENATE("ANSEL",A54,"bits.","ANS",A54,B54,"=",D54,"; //",C54),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J54" t="str">
-        <f>IF(E54&lt;&gt;"",CONCATENATE("#define CH_",C54," ADC_CH",E54),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="7:10">
       <c r="G55" t="str">
-        <f>IF(C55&lt;&gt;"",CONCATENATE("#define ",C55," ",IF(D55=1,"LAT","PORT"),A55,"bits.",IF(D55=1,"LAT","R"),A55,B55),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H55" t="str">
-        <f>IF(C55&lt;&gt;"",CONCATENATE("TRIS",A55,"bits.","R",A55,B55,"=",D55,"; //",C55),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I55" t="str">
-        <f>IF(E55&lt;&gt;"",CONCATENATE("ANSEL",A55,"bits.","ANS",A55,B55,"=",D55,"; //",C55),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J55" t="str">
-        <f>IF(E55&lt;&gt;"",CONCATENATE("#define CH_",C55," ADC_CH",E55),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="7:10">
       <c r="G56" t="str">
-        <f>IF(C56&lt;&gt;"",CONCATENATE("#define ",C56," ",IF(D56=1,"LAT","PORT"),A56,"bits.",IF(D56=1,"LAT","R"),A56,B56),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H56" t="str">
-        <f>IF(C56&lt;&gt;"",CONCATENATE("TRIS",A56,"bits.","R",A56,B56,"=",D56,"; //",C56),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I56" t="str">
-        <f>IF(E56&lt;&gt;"",CONCATENATE("ANSEL",A56,"bits.","ANS",A56,B56,"=",D56,"; //",C56),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J56" t="str">
-        <f>IF(E56&lt;&gt;"",CONCATENATE("#define CH_",C56," ADC_CH",E56),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="7:10">
       <c r="G57" t="str">
-        <f>IF(C57&lt;&gt;"",CONCATENATE("#define ",C57," ",IF(D57=1,"LAT","PORT"),A57,"bits.",IF(D57=1,"LAT","R"),A57,B57),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H57" t="str">
-        <f>IF(C57&lt;&gt;"",CONCATENATE("TRIS",A57,"bits.","R",A57,B57,"=",D57,"; //",C57),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I57" t="str">
-        <f>IF(E57&lt;&gt;"",CONCATENATE("ANSEL",A57,"bits.","ANS",A57,B57,"=",D57,"; //",C57),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J57" t="str">
-        <f>IF(E57&lt;&gt;"",CONCATENATE("#define CH_",C57," ADC_CH",E57),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="7:10">
       <c r="G58" t="str">
-        <f>IF(C58&lt;&gt;"",CONCATENATE("#define ",C58," ",IF(D58=1,"LAT","PORT"),A58,"bits.",IF(D58=1,"LAT","R"),A58,B58),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H58" t="str">
-        <f>IF(C58&lt;&gt;"",CONCATENATE("TRIS",A58,"bits.","R",A58,B58,"=",D58,"; //",C58),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I58" t="str">
-        <f>IF(E58&lt;&gt;"",CONCATENATE("ANSEL",A58,"bits.","ANS",A58,B58,"=",D58,"; //",C58),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J58" t="str">
-        <f>IF(E58&lt;&gt;"",CONCATENATE("#define CH_",C58," ADC_CH",E58),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="7:10">
       <c r="G59" t="str">
-        <f>IF(C59&lt;&gt;"",CONCATENATE("#define ",C59," ",IF(D59=1,"LAT","PORT"),A59,"bits.",IF(D59=1,"LAT","R"),A59,B59),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H59" t="str">
-        <f>IF(C59&lt;&gt;"",CONCATENATE("TRIS",A59,"bits.","R",A59,B59,"=",D59,"; //",C59),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I59" t="str">
-        <f>IF(E59&lt;&gt;"",CONCATENATE("ANSEL",A59,"bits.","ANS",A59,B59,"=",D59,"; //",C59),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J59" t="str">
-        <f>IF(E59&lt;&gt;"",CONCATENATE("#define CH_",C59," ADC_CH",E59),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="7:10">
       <c r="G60" t="str">
-        <f>IF(C60&lt;&gt;"",CONCATENATE("#define ",C60," ",IF(D60=1,"LAT","PORT"),A60,"bits.",IF(D60=1,"LAT","R"),A60,B60),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H60" t="str">
-        <f>IF(C60&lt;&gt;"",CONCATENATE("TRIS",A60,"bits.","R",A60,B60,"=",D60,"; //",C60),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I60" t="str">
-        <f>IF(E60&lt;&gt;"",CONCATENATE("ANSEL",A60,"bits.","ANS",A60,B60,"=",D60,"; //",C60),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J60" t="str">
-        <f>IF(E60&lt;&gt;"",CONCATENATE("#define CH_",C60," ADC_CH",E60),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="7:10">
       <c r="G61" t="str">
-        <f>IF(C61&lt;&gt;"",CONCATENATE("#define ",C61," ",IF(D61=1,"LAT","PORT"),A61,"bits.",IF(D61=1,"LAT","R"),A61,B61),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H61" t="str">
-        <f>IF(C61&lt;&gt;"",CONCATENATE("TRIS",A61,"bits.","R",A61,B61,"=",D61,"; //",C61),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I61" t="str">
-        <f>IF(E61&lt;&gt;"",CONCATENATE("ANSEL",A61,"bits.","ANS",A61,B61,"=",D61,"; //",C61),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J61" t="str">
-        <f>IF(E61&lt;&gt;"",CONCATENATE("#define CH_",C61," ADC_CH",E61),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="7:10">
       <c r="G62" t="str">
-        <f>IF(C62&lt;&gt;"",CONCATENATE("#define ",C62," ",IF(D62=1,"LAT","PORT"),A62,"bits.",IF(D62=1,"LAT","R"),A62,B62),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H62" t="str">
-        <f>IF(C62&lt;&gt;"",CONCATENATE("TRIS",A62,"bits.","R",A62,B62,"=",D62,"; //",C62),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I62" t="str">
-        <f>IF(E62&lt;&gt;"",CONCATENATE("ANSEL",A62,"bits.","ANS",A62,B62,"=",D62,"; //",C62),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J62" t="str">
-        <f>IF(E62&lt;&gt;"",CONCATENATE("#define CH_",C62," ADC_CH",E62),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="7:10">
       <c r="G63" t="str">
-        <f>IF(C63&lt;&gt;"",CONCATENATE("#define ",C63," ",IF(D63=1,"LAT","PORT"),A63,"bits.",IF(D63=1,"LAT","R"),A63,B63),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H63" t="str">
-        <f>IF(C63&lt;&gt;"",CONCATENATE("TRIS",A63,"bits.","R",A63,B63,"=",D63,"; //",C63),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I63" t="str">
-        <f>IF(E63&lt;&gt;"",CONCATENATE("ANSEL",A63,"bits.","ANS",A63,B63,"=",D63,"; //",C63),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J63" t="str">
-        <f>IF(E63&lt;&gt;"",CONCATENATE("#define CH_",C63," ADC_CH",E63),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="7:10">
       <c r="G64" t="str">
-        <f>IF(C64&lt;&gt;"",CONCATENATE("#define ",C64," ",IF(D64=1,"LAT","PORT"),A64,"bits.",IF(D64=1,"LAT","R"),A64,B64),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H64" t="str">
-        <f>IF(C64&lt;&gt;"",CONCATENATE("TRIS",A64,"bits.","R",A64,B64,"=",D64,"; //",C64),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I64" t="str">
-        <f>IF(E64&lt;&gt;"",CONCATENATE("ANSEL",A64,"bits.","ANS",A64,B64,"=",D64,"; //",C64),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J64" t="str">
-        <f>IF(E64&lt;&gt;"",CONCATENATE("#define CH_",C64," ADC_CH",E64),"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="7:10">
       <c r="G65" t="str">
-        <f>IF(C65&lt;&gt;"",CONCATENATE("#define ",C65," ",IF(D65=1,"LAT","PORT"),A65,"bits.",IF(D65=1,"LAT","R"),A65,B65),"")</f>
+        <f t="shared" ref="G65:G91" si="8">IF(C65&lt;&gt;"",CONCATENATE("#define ",C65," ",IF(D65=1,"LAT","PORT"),A65,"bits.",IF(D65=1,"LAT","R"),A65,B65),"")</f>
         <v/>
       </c>
       <c r="H65" t="str">
-        <f>IF(C65&lt;&gt;"",CONCATENATE("TRIS",A65,"bits.","R",A65,B65,"=",D65,"; //",C65),"")</f>
+        <f t="shared" ref="H65:H91" si="9">IF(C65&lt;&gt;"",CONCATENATE("TRIS",A65,"bits.","R",A65,B65,"=",D65,"; //",C65),"")</f>
         <v/>
       </c>
       <c r="I65" t="str">
-        <f>IF(E65&lt;&gt;"",CONCATENATE("ANSEL",A65,"bits.","ANS",A65,B65,"=",D65,"; //",C65),"")</f>
+        <f t="shared" ref="I65:I72" si="10">IF(E65&lt;&gt;"",CONCATENATE("ANSEL",A65,"bits.","ANS",A65,B65,"=",D65,"; //",C65),"")</f>
         <v/>
       </c>
       <c r="J65" t="str">
-        <f>IF(E65&lt;&gt;"",CONCATENATE("#define CH_",C65," ADC_CH",E65),"")</f>
+        <f t="shared" ref="J65:J72" si="11">IF(E65&lt;&gt;"",CONCATENATE("#define CH_",C65," ADC_CH",E65),"")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="7:10">
       <c r="G66" t="str">
-        <f>IF(C66&lt;&gt;"",CONCATENATE("#define ",C66," ",IF(D66=1,"LAT","PORT"),A66,"bits.",IF(D66=1,"LAT","R"),A66,B66),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H66" t="str">
-        <f>IF(C66&lt;&gt;"",CONCATENATE("TRIS",A66,"bits.","R",A66,B66,"=",D66,"; //",C66),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I66" t="str">
-        <f>IF(E66&lt;&gt;"",CONCATENATE("ANSEL",A66,"bits.","ANS",A66,B66,"=",D66,"; //",C66),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J66" t="str">
-        <f>IF(E66&lt;&gt;"",CONCATENATE("#define CH_",C66," ADC_CH",E66),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="7:10">
       <c r="G67" t="str">
-        <f>IF(C67&lt;&gt;"",CONCATENATE("#define ",C67," ",IF(D67=1,"LAT","PORT"),A67,"bits.",IF(D67=1,"LAT","R"),A67,B67),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H67" t="str">
-        <f>IF(C67&lt;&gt;"",CONCATENATE("TRIS",A67,"bits.","R",A67,B67,"=",D67,"; //",C67),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I67" t="str">
-        <f>IF(E67&lt;&gt;"",CONCATENATE("ANSEL",A67,"bits.","ANS",A67,B67,"=",D67,"; //",C67),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J67" t="str">
-        <f>IF(E67&lt;&gt;"",CONCATENATE("#define CH_",C67," ADC_CH",E67),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="7:10">
       <c r="G68" t="str">
-        <f>IF(C68&lt;&gt;"",CONCATENATE("#define ",C68," ",IF(D68=1,"LAT","PORT"),A68,"bits.",IF(D68=1,"LAT","R"),A68,B68),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H68" t="str">
-        <f>IF(C68&lt;&gt;"",CONCATENATE("TRIS",A68,"bits.","R",A68,B68,"=",D68,"; //",C68),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I68" t="str">
-        <f>IF(E68&lt;&gt;"",CONCATENATE("ANSEL",A68,"bits.","ANS",A68,B68,"=",D68,"; //",C68),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J68" t="str">
-        <f>IF(E68&lt;&gt;"",CONCATENATE("#define CH_",C68," ADC_CH",E68),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="7:10">
       <c r="G69" t="str">
-        <f>IF(C69&lt;&gt;"",CONCATENATE("#define ",C69," ",IF(D69=1,"LAT","PORT"),A69,"bits.",IF(D69=1,"LAT","R"),A69,B69),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H69" t="str">
-        <f>IF(C69&lt;&gt;"",CONCATENATE("TRIS",A69,"bits.","R",A69,B69,"=",D69,"; //",C69),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I69" t="str">
-        <f>IF(E69&lt;&gt;"",CONCATENATE("ANSEL",A69,"bits.","ANS",A69,B69,"=",D69,"; //",C69),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J69" t="str">
-        <f>IF(E69&lt;&gt;"",CONCATENATE("#define CH_",C69," ADC_CH",E69),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="7:10">
       <c r="G70" t="str">
-        <f>IF(C70&lt;&gt;"",CONCATENATE("#define ",C70," ",IF(D70=1,"LAT","PORT"),A70,"bits.",IF(D70=1,"LAT","R"),A70,B70),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H70" t="str">
-        <f>IF(C70&lt;&gt;"",CONCATENATE("TRIS",A70,"bits.","R",A70,B70,"=",D70,"; //",C70),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I70" t="str">
-        <f>IF(E70&lt;&gt;"",CONCATENATE("ANSEL",A70,"bits.","ANS",A70,B70,"=",D70,"; //",C70),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J70" t="str">
-        <f>IF(E70&lt;&gt;"",CONCATENATE("#define CH_",C70," ADC_CH",E70),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="7:10">
       <c r="G71" t="str">
-        <f>IF(C71&lt;&gt;"",CONCATENATE("#define ",C71," ",IF(D71=1,"LAT","PORT"),A71,"bits.",IF(D71=1,"LAT","R"),A71,B71),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H71" t="str">
-        <f>IF(C71&lt;&gt;"",CONCATENATE("TRIS",A71,"bits.","R",A71,B71,"=",D71,"; //",C71),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I71" t="str">
-        <f>IF(E71&lt;&gt;"",CONCATENATE("ANSEL",A71,"bits.","ANS",A71,B71,"=",D71,"; //",C71),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J71" t="str">
-        <f>IF(E71&lt;&gt;"",CONCATENATE("#define CH_",C71," ADC_CH",E71),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="7:10">
       <c r="G72" t="str">
-        <f>IF(C72&lt;&gt;"",CONCATENATE("#define ",C72," ",IF(D72=1,"LAT","PORT"),A72,"bits.",IF(D72=1,"LAT","R"),A72,B72),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H72" t="str">
-        <f>IF(C72&lt;&gt;"",CONCATENATE("TRIS",A72,"bits.","R",A72,B72,"=",D72,"; //",C72),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I72" t="str">
-        <f>IF(E72&lt;&gt;"",CONCATENATE("ANSEL",A72,"bits.","ANS",A72,B72,"=",D72,"; //",C72),"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J72" t="str">
-        <f>IF(E72&lt;&gt;"",CONCATENATE("#define CH_",C72," ADC_CH",E72),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="7:10">
       <c r="G73" t="str">
-        <f>IF(C73&lt;&gt;"",CONCATENATE("#define ",C73," ",IF(D73=1,"LAT","PORT"),A73,"bits.",IF(D73=1,"LAT","R"),A73,B73),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H73" t="str">
-        <f>IF(C73&lt;&gt;"",CONCATENATE("TRIS",A73,"bits.","R",A73,B73,"=",D73,"; //",C73),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I73" t="str">
-        <f>IF(E73&lt;&gt;"",CONCATENATE("ANSEL",A73,"bits.","ANS",A73,B73,"=",D73,"; //",C73),"")</f>
+        <f t="shared" ref="I73:I91" si="12">IF(E73&lt;&gt;"",CONCATENATE("ANSEL",A73,"bits.","ANS",A73,B73,"=",D73,"; //",C73),"")</f>
         <v/>
       </c>
       <c r="J73" t="str">
-        <f>IF(E73&lt;&gt;"",CONCATENATE("#define CH_",C73," ADC_CH",E73),"")</f>
+        <f t="shared" ref="J73:J91" si="13">IF(E73&lt;&gt;"",CONCATENATE("#define CH_",C73," ADC_CH",E73),"")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="7:10">
       <c r="G74" t="str">
-        <f>IF(C74&lt;&gt;"",CONCATENATE("#define ",C74," ",IF(D74=1,"LAT","PORT"),A74,"bits.",IF(D74=1,"LAT","R"),A74,B74),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H74" t="str">
-        <f>IF(C74&lt;&gt;"",CONCATENATE("TRIS",A74,"bits.","R",A74,B74,"=",D74,"; //",C74),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I74" t="str">
-        <f>IF(E74&lt;&gt;"",CONCATENATE("ANSEL",A74,"bits.","ANS",A74,B74,"=",D74,"; //",C74),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J74" t="str">
-        <f>IF(E74&lt;&gt;"",CONCATENATE("#define CH_",C74," ADC_CH",E74),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="7:10">
       <c r="G75" t="str">
-        <f>IF(C75&lt;&gt;"",CONCATENATE("#define ",C75," ",IF(D75=1,"LAT","PORT"),A75,"bits.",IF(D75=1,"LAT","R"),A75,B75),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H75" t="str">
-        <f>IF(C75&lt;&gt;"",CONCATENATE("TRIS",A75,"bits.","R",A75,B75,"=",D75,"; //",C75),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I75" t="str">
-        <f>IF(E75&lt;&gt;"",CONCATENATE("ANSEL",A75,"bits.","ANS",A75,B75,"=",D75,"; //",C75),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J75" t="str">
-        <f>IF(E75&lt;&gt;"",CONCATENATE("#define CH_",C75," ADC_CH",E75),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="7:10">
       <c r="G76" t="str">
-        <f>IF(C76&lt;&gt;"",CONCATENATE("#define ",C76," ",IF(D76=1,"LAT","PORT"),A76,"bits.",IF(D76=1,"LAT","R"),A76,B76),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H76" t="str">
-        <f>IF(C76&lt;&gt;"",CONCATENATE("TRIS",A76,"bits.","R",A76,B76,"=",D76,"; //",C76),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I76" t="str">
-        <f>IF(E76&lt;&gt;"",CONCATENATE("ANSEL",A76,"bits.","ANS",A76,B76,"=",D76,"; //",C76),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J76" t="str">
-        <f>IF(E76&lt;&gt;"",CONCATENATE("#define CH_",C76," ADC_CH",E76),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="7:10">
       <c r="G77" t="str">
-        <f>IF(C77&lt;&gt;"",CONCATENATE("#define ",C77," ",IF(D77=1,"LAT","PORT"),A77,"bits.",IF(D77=1,"LAT","R"),A77,B77),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H77" t="str">
-        <f>IF(C77&lt;&gt;"",CONCATENATE("TRIS",A77,"bits.","R",A77,B77,"=",D77,"; //",C77),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I77" t="str">
-        <f>IF(E77&lt;&gt;"",CONCATENATE("ANSEL",A77,"bits.","ANS",A77,B77,"=",D77,"; //",C77),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J77" t="str">
-        <f>IF(E77&lt;&gt;"",CONCATENATE("#define CH_",C77," ADC_CH",E77),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="7:10">
       <c r="G78" t="str">
-        <f>IF(C78&lt;&gt;"",CONCATENATE("#define ",C78," ",IF(D78=1,"LAT","PORT"),A78,"bits.",IF(D78=1,"LAT","R"),A78,B78),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H78" t="str">
-        <f>IF(C78&lt;&gt;"",CONCATENATE("TRIS",A78,"bits.","R",A78,B78,"=",D78,"; //",C78),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I78" t="str">
-        <f>IF(E78&lt;&gt;"",CONCATENATE("ANSEL",A78,"bits.","ANS",A78,B78,"=",D78,"; //",C78),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J78" t="str">
-        <f>IF(E78&lt;&gt;"",CONCATENATE("#define CH_",C78," ADC_CH",E78),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="7:10">
       <c r="G79" t="str">
-        <f>IF(C79&lt;&gt;"",CONCATENATE("#define ",C79," ",IF(D79=1,"LAT","PORT"),A79,"bits.",IF(D79=1,"LAT","R"),A79,B79),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H79" t="str">
-        <f>IF(C79&lt;&gt;"",CONCATENATE("TRIS",A79,"bits.","R",A79,B79,"=",D79,"; //",C79),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I79" t="str">
-        <f>IF(E79&lt;&gt;"",CONCATENATE("ANSEL",A79,"bits.","ANS",A79,B79,"=",D79,"; //",C79),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J79" t="str">
-        <f>IF(E79&lt;&gt;"",CONCATENATE("#define CH_",C79," ADC_CH",E79),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="7:10">
       <c r="G80" t="str">
-        <f>IF(C80&lt;&gt;"",CONCATENATE("#define ",C80," ",IF(D80=1,"LAT","PORT"),A80,"bits.",IF(D80=1,"LAT","R"),A80,B80),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H80" t="str">
-        <f>IF(C80&lt;&gt;"",CONCATENATE("TRIS",A80,"bits.","R",A80,B80,"=",D80,"; //",C80),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I80" t="str">
-        <f>IF(E80&lt;&gt;"",CONCATENATE("ANSEL",A80,"bits.","ANS",A80,B80,"=",D80,"; //",C80),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J80" t="str">
-        <f>IF(E80&lt;&gt;"",CONCATENATE("#define CH_",C80," ADC_CH",E80),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="7:10">
       <c r="G81" t="str">
-        <f>IF(C81&lt;&gt;"",CONCATENATE("#define ",C81," ",IF(D81=1,"LAT","PORT"),A81,"bits.",IF(D81=1,"LAT","R"),A81,B81),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H81" t="str">
-        <f>IF(C81&lt;&gt;"",CONCATENATE("TRIS",A81,"bits.","R",A81,B81,"=",D81,"; //",C81),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I81" t="str">
-        <f>IF(E81&lt;&gt;"",CONCATENATE("ANSEL",A81,"bits.","ANS",A81,B81,"=",D81,"; //",C81),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J81" t="str">
-        <f>IF(E81&lt;&gt;"",CONCATENATE("#define CH_",C81," ADC_CH",E81),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="7:10">
       <c r="G82" t="str">
-        <f>IF(C82&lt;&gt;"",CONCATENATE("#define ",C82," ",IF(D82=1,"LAT","PORT"),A82,"bits.",IF(D82=1,"LAT","R"),A82,B82),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H82" t="str">
-        <f>IF(C82&lt;&gt;"",CONCATENATE("TRIS",A82,"bits.","R",A82,B82,"=",D82,"; //",C82),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I82" t="str">
-        <f>IF(E82&lt;&gt;"",CONCATENATE("ANSEL",A82,"bits.","ANS",A82,B82,"=",D82,"; //",C82),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J82" t="str">
-        <f>IF(E82&lt;&gt;"",CONCATENATE("#define CH_",C82," ADC_CH",E82),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="7:10">
       <c r="G83" t="str">
-        <f>IF(C83&lt;&gt;"",CONCATENATE("#define ",C83," ",IF(D83=1,"LAT","PORT"),A83,"bits.",IF(D83=1,"LAT","R"),A83,B83),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H83" t="str">
-        <f>IF(C83&lt;&gt;"",CONCATENATE("TRIS",A83,"bits.","R",A83,B83,"=",D83,"; //",C83),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I83" t="str">
-        <f>IF(E83&lt;&gt;"",CONCATENATE("ANSEL",A83,"bits.","ANS",A83,B83,"=",D83,"; //",C83),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J83" t="str">
-        <f>IF(E83&lt;&gt;"",CONCATENATE("#define CH_",C83," ADC_CH",E83),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="7:10">
       <c r="G84" t="str">
-        <f>IF(C84&lt;&gt;"",CONCATENATE("#define ",C84," ",IF(D84=1,"LAT","PORT"),A84,"bits.",IF(D84=1,"LAT","R"),A84,B84),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H84" t="str">
-        <f>IF(C84&lt;&gt;"",CONCATENATE("TRIS",A84,"bits.","R",A84,B84,"=",D84,"; //",C84),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I84" t="str">
-        <f>IF(E84&lt;&gt;"",CONCATENATE("ANSEL",A84,"bits.","ANS",A84,B84,"=",D84,"; //",C84),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J84" t="str">
-        <f>IF(E84&lt;&gt;"",CONCATENATE("#define CH_",C84," ADC_CH",E84),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="7:10">
       <c r="G85" t="str">
-        <f>IF(C85&lt;&gt;"",CONCATENATE("#define ",C85," ",IF(D85=1,"LAT","PORT"),A85,"bits.",IF(D85=1,"LAT","R"),A85,B85),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H85" t="str">
-        <f>IF(C85&lt;&gt;"",CONCATENATE("TRIS",A85,"bits.","R",A85,B85,"=",D85,"; //",C85),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I85" t="str">
-        <f>IF(E85&lt;&gt;"",CONCATENATE("ANSEL",A85,"bits.","ANS",A85,B85,"=",D85,"; //",C85),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J85" t="str">
-        <f>IF(E85&lt;&gt;"",CONCATENATE("#define CH_",C85," ADC_CH",E85),"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="7:10">
       <c r="G86" t="str">
-        <f>IF(C86&lt;&gt;"",CONCATENATE("#define ",C86," ",IF(D86=1,"LAT","PORT"),A86,"bits.",IF(D86=1,"LAT","R"),A86,B86),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H86" t="str">
-        <f>IF(C86&lt;&gt;"",CONCATENATE("TRIS",A86,"bits.","R",A86,B86,"=",D86,"; //",C86),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I86" t="str">
-        <f>IF(E86&lt;&gt;"",CONCATENATE("ANSEL",A86,"bits.","ANS",A86,B86,"=",D86,"; //",C86),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J86" t="str">
-        <f>IF(E86&lt;&gt;"",CONCATENATE("#define CH_",C86," ADC_CH",E86),"")</f>
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="7:10">
+      <c r="G87" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="7:10">
+      <c r="G88" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="7:10">
+      <c r="G89" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="7:10">
+      <c r="G90" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="7:10">
+      <c r="G91" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>

--- a/ProgrammePrincipal/generateur de noms de trame.xlsx
+++ b/ProgrammePrincipal/generateur de noms de trame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="COM" sheetId="1" r:id="rId1"/>
@@ -341,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -354,6 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -2074,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2339,153 +2340,153 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" s="12" customFormat="1">
+      <c r="A9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="12">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="12">
         <v>0</v>
       </c>
-      <c r="G9" t="str">
-        <f t="shared" si="4"/>
+      <c r="G9" s="12" t="str">
+        <f t="shared" ref="G9:G14" si="8">IF(C9&lt;&gt;"",CONCATENATE("#define ",C9," ",IF(D9=0,"LAT","PORT"),A9,"bits.",IF(D9=0,"LAT","R"),A9,B9),"")</f>
         <v>#define LED_CENTRE_ORANGE LATAbits.LATA7</v>
       </c>
-      <c r="H9" t="str">
-        <f t="shared" si="5"/>
+      <c r="H9" s="12" t="str">
+        <f t="shared" ref="H9:H14" si="9">IF(C9&lt;&gt;"",CONCATENATE("TRIS",A9,"bits.","R",A9,B9,"=",D9,"; //",C9),"")</f>
         <v>TRISAbits.RA7=0; //LED_CENTRE_ORANGE</v>
       </c>
-      <c r="I9" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
+      <c r="I9" s="12" t="str">
+        <f t="shared" ref="I9:I14" si="10">IF(E9&lt;&gt;"",CONCATENATE("ANSEL",A9,"bits.","ANS",A9,B9,"=",D9,"; //",C9),"")</f>
+        <v/>
+      </c>
+      <c r="J9" s="12" t="str">
+        <f t="shared" ref="J9:J14" si="11">IF(E9&lt;&gt;"",CONCATENATE("#define CH_",C9," ADC_CH",E9),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="12" customFormat="1">
+      <c r="A10" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="12">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>#define ULTRASON_INT PORTBbits.RB0</v>
+      </c>
+      <c r="H10" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>TRISBbits.RB0=1; //ULTRASON_INT</v>
+      </c>
+      <c r="I10" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J10" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="12" customFormat="1">
+      <c r="A11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>#define CODEUR_A_GAUCHE PORTBbits.RB1</v>
+      </c>
+      <c r="H11" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>TRISBbits.RB1=1; //CODEUR_A_GAUCHE</v>
+      </c>
+      <c r="I11" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J11" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="12" customFormat="1">
+      <c r="A12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D10">
+      <c r="D12" s="12">
         <v>1</v>
       </c>
-      <c r="G10" t="str">
-        <f t="shared" si="4"/>
-        <v>#define CODEUR_A_DROITE PORTBbits.RB0</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="5"/>
-        <v>TRISBbits.RB0=1; //CODEUR_A_DROITE</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
+      <c r="G12" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>#define CODEUR_A_DROITE PORTBbits.RB2</v>
+      </c>
+      <c r="H12" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>TRISBbits.RB2=1; //CODEUR_A_DROITE</v>
+      </c>
+      <c r="I12" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J12" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="12" customFormat="1">
+      <c r="A13" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B11">
+      <c r="B13" s="12">
+        <v>3</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="12">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="4"/>
-        <v>#define CODEUR_A_GAUCHE PORTBbits.RB1</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="5"/>
-        <v>TRISBbits.RB1=1; //CODEUR_A_GAUCHE</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="4"/>
-        <v>#define ULTRASON_INT PORTBbits.RB2</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="5"/>
-        <v>TRISBbits.RB2=1; //ULTRASON_INT</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="4"/>
+      <c r="G13" s="12" t="str">
+        <f t="shared" si="8"/>
         <v>#define CODEUR_B_DROITE PORTBbits.RB3</v>
       </c>
-      <c r="H13" t="str">
-        <f t="shared" si="5"/>
+      <c r="H13" s="12" t="str">
+        <f t="shared" si="9"/>
         <v>TRISBbits.RB3=1; //CODEUR_B_DROITE</v>
       </c>
-      <c r="I13" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="7"/>
+      <c r="I13" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J13" s="12" t="str">
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2503,19 +2504,19 @@
         <v>1</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#define CODEUR_B_GAUCHE PORTBbits.RB4</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>TRISBbits.RB4=1; //CODEUR_B_GAUCHE</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2982,9 +2983,6 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30">
-        <v>13</v>
-      </c>
       <c r="G30" t="str">
         <f t="shared" si="4"/>
         <v>#define ULTRASON_TRIG LATDbits.LATD4</v>
@@ -2995,11 +2993,11 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" si="6"/>
-        <v>ANSELDbits.ANSD4=0; //ULTRASON_TRIG</v>
+        <v/>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="7"/>
-        <v>#define CH_ULTRASON_TRIG ADC_CH13</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3709,487 +3707,487 @@
     </row>
     <row r="65" spans="7:10">
       <c r="G65" t="str">
-        <f t="shared" ref="G65:G91" si="8">IF(C65&lt;&gt;"",CONCATENATE("#define ",C65," ",IF(D65=1,"LAT","PORT"),A65,"bits.",IF(D65=1,"LAT","R"),A65,B65),"")</f>
+        <f t="shared" ref="G65:G91" si="12">IF(C65&lt;&gt;"",CONCATENATE("#define ",C65," ",IF(D65=1,"LAT","PORT"),A65,"bits.",IF(D65=1,"LAT","R"),A65,B65),"")</f>
         <v/>
       </c>
       <c r="H65" t="str">
-        <f t="shared" ref="H65:H91" si="9">IF(C65&lt;&gt;"",CONCATENATE("TRIS",A65,"bits.","R",A65,B65,"=",D65,"; //",C65),"")</f>
+        <f t="shared" ref="H65:H91" si="13">IF(C65&lt;&gt;"",CONCATENATE("TRIS",A65,"bits.","R",A65,B65,"=",D65,"; //",C65),"")</f>
         <v/>
       </c>
       <c r="I65" t="str">
-        <f t="shared" ref="I65:I72" si="10">IF(E65&lt;&gt;"",CONCATENATE("ANSEL",A65,"bits.","ANS",A65,B65,"=",D65,"; //",C65),"")</f>
+        <f t="shared" ref="I65:I72" si="14">IF(E65&lt;&gt;"",CONCATENATE("ANSEL",A65,"bits.","ANS",A65,B65,"=",D65,"; //",C65),"")</f>
         <v/>
       </c>
       <c r="J65" t="str">
-        <f t="shared" ref="J65:J72" si="11">IF(E65&lt;&gt;"",CONCATENATE("#define CH_",C65," ADC_CH",E65),"")</f>
+        <f t="shared" ref="J65:J72" si="15">IF(E65&lt;&gt;"",CONCATENATE("#define CH_",C65," ADC_CH",E65),"")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="7:10">
       <c r="G66" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="7:10">
       <c r="G67" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="7:10">
       <c r="G68" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="7:10">
       <c r="G69" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="7:10">
       <c r="G70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="7:10">
       <c r="G71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="7:10">
       <c r="G72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="7:10">
       <c r="G73" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I73" t="str">
-        <f t="shared" ref="I73:I91" si="12">IF(E73&lt;&gt;"",CONCATENATE("ANSEL",A73,"bits.","ANS",A73,B73,"=",D73,"; //",C73),"")</f>
+        <f t="shared" ref="I73:I91" si="16">IF(E73&lt;&gt;"",CONCATENATE("ANSEL",A73,"bits.","ANS",A73,B73,"=",D73,"; //",C73),"")</f>
         <v/>
       </c>
       <c r="J73" t="str">
-        <f t="shared" ref="J73:J91" si="13">IF(E73&lt;&gt;"",CONCATENATE("#define CH_",C73," ADC_CH",E73),"")</f>
+        <f t="shared" ref="J73:J91" si="17">IF(E73&lt;&gt;"",CONCATENATE("#define CH_",C73," ADC_CH",E73),"")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="7:10">
       <c r="G74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="7:10">
       <c r="G75" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="7:10">
       <c r="G76" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="7:10">
       <c r="G77" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="7:10">
       <c r="G78" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="7:10">
       <c r="G79" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="7:10">
       <c r="G80" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="7:10">
       <c r="G81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="7:10">
       <c r="G82" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="7:10">
       <c r="G83" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="7:10">
       <c r="G84" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="7:10">
       <c r="G85" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="7:10">
       <c r="G86" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="7:10">
       <c r="G87" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="7:10">
       <c r="G88" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="7:10">
       <c r="G89" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J89" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="7:10">
       <c r="G90" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J90" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="7:10">
       <c r="G91" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I91" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J91" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>

--- a/ProgrammePrincipal/generateur de noms de trame.xlsx
+++ b/ProgrammePrincipal/generateur de noms de trame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="COM" sheetId="1" r:id="rId1"/>
@@ -651,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -2075,7 +2075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/ProgrammePrincipal/generateur de noms de trame.xlsx
+++ b/ProgrammePrincipal/generateur de noms de trame.xlsx
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>IF(A2&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",A2,"_",B2," ",IF(A2="CON",128,0)+C2),"")</f>
@@ -702,7 +702,7 @@
       </c>
       <c r="F2" s="1" t="str">
         <f>IF(A2&lt;&gt;"",CONCATENATE("#define LG_TRAME_",A2,"_",B2," ",D2),"")</f>
-        <v>#define LG_TRAME_CON_COUPLEG 1</v>
+        <v>#define LG_TRAME_CON_COUPLEG 2</v>
       </c>
       <c r="G2" t="str">
         <f>IF(A2&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",A2,"_",B2,": ","curTrameLength= LG_TRAME_",A2,"_",B2," ; break;"),"")</f>
@@ -720,7 +720,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="str">
         <f t="shared" ref="E3:E26" si="0">IF(A3&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",A3,"_",B3," ",IF(A3="CON",128,0)+C3),"")</f>
@@ -728,7 +728,7 @@
       </c>
       <c r="F3" s="1" t="str">
         <f t="shared" ref="F3:F58" si="1">IF(A3&lt;&gt;"",CONCATENATE("#define LG_TRAME_",A3,"_",B3," ",D3),"")</f>
-        <v>#define LG_TRAME_CON_COUPLED 1</v>
+        <v>#define LG_TRAME_CON_COUPLED 2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G65" si="2">IF(A3&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",A3,"_",B3,": ","curTrameLength= LG_TRAME_",A3,"_",B3," ; break;"),"")</f>
@@ -746,7 +746,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -754,7 +754,7 @@
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_COUPLEG 1</v>
+        <v>#define LG_TRAME_INF_COUPLEG 2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="2"/>
@@ -772,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -780,7 +780,7 @@
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_COUPLED 1</v>
+        <v>#define LG_TRAME_INF_COUPLED 2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="2"/>
@@ -838,7 +838,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -846,7 +846,7 @@
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_VITESSEG 2</v>
+        <v>#define LG_TRAME_INF_VITESSEG 4</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="2"/>
@@ -864,7 +864,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -872,7 +872,7 @@
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_VITESSED 2</v>
+        <v>#define LG_TRAME_INF_VITESSED 4</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="2"/>
@@ -890,7 +890,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -898,7 +898,7 @@
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_PRINC_PID_K 2</v>
+        <v>#define LG_TRAME_INF_PRINC_PID_K 4</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="2"/>
@@ -916,7 +916,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_PRINC_PID_K 2</v>
+        <v>#define LG_TRAME_CON_PRINC_PID_K 4</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="2"/>
@@ -942,7 +942,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -950,7 +950,7 @@
       </c>
       <c r="F12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_PRINC_PID_I 2</v>
+        <v>#define LG_TRAME_INF_PRINC_PID_I 4</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="2"/>
@@ -968,7 +968,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -976,7 +976,7 @@
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_PRINC_PID_I 2</v>
+        <v>#define LG_TRAME_CON_PRINC_PID_I 4</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="2"/>
@@ -994,7 +994,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_PRINC_PID_D 2</v>
+        <v>#define LG_TRAME_INF_PRINC_PID_D 4</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="2"/>
@@ -1020,7 +1020,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_PRINC_PID_D 2</v>
+        <v>#define LG_TRAME_CON_PRINC_PID_D 4</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="2"/>
@@ -1046,7 +1046,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_PRINC_DIR 2</v>
+        <v>#define LG_TRAME_INF_PRINC_DIR 4</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="2"/>
@@ -1072,7 +1072,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_PRINC_DIR 2</v>
+        <v>#define LG_TRAME_CON_PRINC_DIR 4</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="2"/>
@@ -1098,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="F18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_ANGLE 2</v>
+        <v>#define LG_TRAME_INF_ANGLE 4</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="2"/>
@@ -1124,7 +1124,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_VITESSE_ANGULAIRE 2</v>
+        <v>#define LG_TRAME_INF_VITESSE_ANGULAIRE 4</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
@@ -1150,7 +1150,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_ACCELERATION 2</v>
+        <v>#define LG_TRAME_INF_ACCELERATION 4</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
@@ -1176,7 +1176,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_ACCELERATION_COEF_FILTRE 2</v>
+        <v>#define LG_TRAME_CON_ACCELERATION_COEF_FILTRE 4</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
@@ -1202,7 +1202,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_COEF_KALMAN 1</v>
+        <v>#define LG_TRAME_INF_COEF_KALMAN 4</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
@@ -1228,7 +1228,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="F23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_COEF_KALMAN 1</v>
+        <v>#define LG_TRAME_CON_COEF_KALMAN 4</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="2"/>
@@ -1254,7 +1254,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="F24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_SAUVEGARDER_COEF 0</v>
+        <v>#define LG_TRAME_CON_SAUVEGARDER_COEF 4</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="2"/>
@@ -1280,7 +1280,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_DISTANCE_PARCOURUE 2</v>
+        <v>#define LG_TRAME_INF_DISTANCE_PARCOURUE 4</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="2"/>
@@ -1306,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_ETAT_BATTERIE 2</v>
+        <v>#define LG_TRAME_INF_ETAT_BATTERIE 4</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
@@ -1450,7 +1450,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="1" t="str">
         <f t="shared" si="3"/>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_TEST_COM 1</v>
+        <v>#define LG_TRAME_CON_TEST_COM 2</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>

--- a/ProgrammePrincipal/generateur de noms de trame.xlsx
+++ b/ProgrammePrincipal/generateur de noms de trame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="COM" sheetId="1" r:id="rId1"/>
@@ -183,18 +183,6 @@
     <t>BATTERIE</t>
   </si>
   <si>
-    <t>CODEUR_A_GAUCHE</t>
-  </si>
-  <si>
-    <t>CODEUR_A_DROITE</t>
-  </si>
-  <si>
-    <t>CODEUR_B_GAUCHE</t>
-  </si>
-  <si>
-    <t>CODEUR_B_DROITE</t>
-  </si>
-  <si>
     <t>USART_RX1</t>
   </si>
   <si>
@@ -259,6 +247,18 @@
   </si>
   <si>
     <t>SCL2_RES</t>
+  </si>
+  <si>
+    <t>CODEUR_GAUCHE</t>
+  </si>
+  <si>
+    <t>CODEUR_DROITE</t>
+  </si>
+  <si>
+    <t>SENS_G</t>
+  </si>
+  <si>
+    <t>SENS_D</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -2075,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2172,19 +2172,19 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G64" si="4">IF(C3&lt;&gt;"",CONCATENATE("#define ",C3," ",IF(D3=0,"LAT","PORT"),A3,"bits.",IF(D3=0,"LAT","R"),A3,B3),"")</f>
-        <v>#define ACC_X PORTAbits.RA1</v>
+        <v>#define ACC_CENTRIFUGE PORTAbits.RA1</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H64" si="5">IF(C3&lt;&gt;"",CONCATENATE("TRIS",A3,"bits.","R",A3,B3,"=",D3,"; //",C3),"")</f>
-        <v>TRISAbits.RA1=1; //ACC_X</v>
+        <v>TRISAbits.RA1=1; //ACC_CENTRIFUGE</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I64" si="6">IF(E3&lt;&gt;"",CONCATENATE("ANSEL",A3,"bits.","ANS",A3,B3,"=",D3,"; //",C3),"")</f>
-        <v>ANSELAbits.ANSA1=1; //ACC_X</v>
+        <v>ANSELAbits.ANSA1=1; //ACC_CENTRIFUGE</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J64" si="7">IF(E3&lt;&gt;"",CONCATENATE("#define CH_",C3," ADC_CH",E3),"")</f>
-        <v>#define CH_ACC_X ADC_CH1</v>
+        <v>#define CH_ACC_CENTRIFUGE ADC_CH1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2195,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2225,7 +2225,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2318,7 +2318,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2354,31 +2354,31 @@
         <v>0</v>
       </c>
       <c r="G9" s="12" t="str">
-        <f t="shared" ref="G9:G14" si="8">IF(C9&lt;&gt;"",CONCATENATE("#define ",C9," ",IF(D9=0,"LAT","PORT"),A9,"bits.",IF(D9=0,"LAT","R"),A9,B9),"")</f>
+        <f t="shared" ref="G9:G12" si="8">IF(C9&lt;&gt;"",CONCATENATE("#define ",C9," ",IF(D9=0,"LAT","PORT"),A9,"bits.",IF(D9=0,"LAT","R"),A9,B9),"")</f>
         <v>#define LED_CENTRE_ORANGE LATAbits.LATA7</v>
       </c>
       <c r="H9" s="12" t="str">
-        <f t="shared" ref="H9:H14" si="9">IF(C9&lt;&gt;"",CONCATENATE("TRIS",A9,"bits.","R",A9,B9,"=",D9,"; //",C9),"")</f>
+        <f t="shared" ref="H9:H12" si="9">IF(C9&lt;&gt;"",CONCATENATE("TRIS",A9,"bits.","R",A9,B9,"=",D9,"; //",C9),"")</f>
         <v>TRISAbits.RA7=0; //LED_CENTRE_ORANGE</v>
       </c>
       <c r="I9" s="12" t="str">
-        <f t="shared" ref="I9:I14" si="10">IF(E9&lt;&gt;"",CONCATENATE("ANSEL",A9,"bits.","ANS",A9,B9,"=",D9,"; //",C9),"")</f>
+        <f t="shared" ref="I9:I12" si="10">IF(E9&lt;&gt;"",CONCATENATE("ANSEL",A9,"bits.","ANS",A9,B9,"=",D9,"; //",C9),"")</f>
         <v/>
       </c>
       <c r="J9" s="12" t="str">
-        <f t="shared" ref="J9:J14" si="11">IF(E9&lt;&gt;"",CONCATENATE("#define CH_",C9," ADC_CH",E9),"")</f>
+        <f t="shared" ref="J9:J12" si="11">IF(E9&lt;&gt;"",CONCATENATE("#define CH_",C9," ADC_CH",E9),"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1">
       <c r="A10" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B10" s="12">
         <v>0</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D10" s="12">
         <v>1</v>
@@ -2402,24 +2402,24 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1">
       <c r="A11" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D11" s="12">
         <v>1</v>
       </c>
       <c r="G11" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>#define CODEUR_A_GAUCHE PORTBbits.RB1</v>
+        <v>#define SENS_G PORTBbits.RB1</v>
       </c>
       <c r="H11" s="12" t="str">
         <f t="shared" si="9"/>
-        <v>TRISBbits.RB1=1; //CODEUR_A_GAUCHE</v>
+        <v>TRISBbits.RB1=1; //SENS_G</v>
       </c>
       <c r="I11" s="12" t="str">
         <f t="shared" si="10"/>
@@ -2432,24 +2432,24 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1">
       <c r="A12" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B12" s="12">
         <v>2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D12" s="12">
         <v>1</v>
       </c>
       <c r="G12" s="12" t="str">
         <f t="shared" si="8"/>
-        <v>#define CODEUR_A_DROITE PORTBbits.RB2</v>
+        <v>#define SENS_D PORTBbits.RB2</v>
       </c>
       <c r="H12" s="12" t="str">
         <f t="shared" si="9"/>
-        <v>TRISBbits.RB2=1; //CODEUR_A_DROITE</v>
+        <v>TRISBbits.RB2=1; //SENS_D</v>
       </c>
       <c r="I12" s="12" t="str">
         <f t="shared" si="10"/>
@@ -2462,133 +2462,133 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1">
       <c r="A13" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B13" s="12">
         <v>3</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1</v>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="G13" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>#define CODEUR_B_DROITE PORTBbits.RB3</v>
+        <f t="shared" ref="G13:G16" si="12">IF(C13&lt;&gt;"",CONCATENATE("#define ",C13," ",IF(D13=0,"LAT","PORT"),A13,"bits.",IF(D13=0,"LAT","R"),A13,B13),"")</f>
+        <v>#define LED_GAUCHE LATBbits.LATB3</v>
       </c>
       <c r="H13" s="12" t="str">
-        <f t="shared" si="9"/>
-        <v>TRISBbits.RB3=1; //CODEUR_B_DROITE</v>
+        <f t="shared" ref="H13:H16" si="13">IF(C13&lt;&gt;"",CONCATENATE("TRIS",A13,"bits.","R",A13,B13,"=",D13,"; //",C13),"")</f>
+        <v>TRISBbits.RB3=0; //LED_GAUCHE</v>
       </c>
       <c r="I13" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I13:I16" si="14">IF(E13&lt;&gt;"",CONCATENATE("ANSEL",A13,"bits.","ANS",A13,B13,"=",D13,"; //",C13),"")</f>
         <v/>
       </c>
       <c r="J13" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="J13:J16" si="15">IF(E13&lt;&gt;"",CONCATENATE("#define CH_",C13," ADC_CH",E13),"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="8"/>
-        <v>#define CODEUR_B_GAUCHE PORTBbits.RB4</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="9"/>
-        <v>TRISBbits.RB4=1; //CODEUR_B_GAUCHE</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>#define LED_DROITE LATBbits.LATB4</v>
+      </c>
+      <c r="H14" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v>TRISBbits.RB4=0; //LED_DROITE</v>
+      </c>
+      <c r="I14" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="J14" s="12" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="4"/>
-        <v>#define LED_GAUCHE LATBbits.LATB5</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="5"/>
-        <v>TRISBbits.RB5=0; //LED_GAUCHE</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>#define CODEUR_GAUCHE PORTBbits.RB5</v>
+      </c>
+      <c r="H15" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v>TRISBbits.RB5=1; //CODEUR_GAUCHE</v>
+      </c>
+      <c r="I15" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="J15" s="12" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="G16" t="str">
-        <f t="shared" si="4"/>
+      <c r="G16" s="12" t="str">
+        <f t="shared" si="12"/>
         <v>#define PATTE_PGC PORTBbits.RB6</v>
       </c>
-      <c r="H16" t="str">
-        <f t="shared" si="5"/>
+      <c r="H16" s="12" t="str">
+        <f t="shared" si="13"/>
         <v>TRISBbits.RB6=1; //PATTE_PGC</v>
       </c>
-      <c r="I16" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J16" t="str">
-        <f t="shared" si="7"/>
+      <c r="I16" s="12" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="J16" s="12" t="str">
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2612,24 +2612,24 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="4"/>
-        <v>#define LED_DROITE LATCbits.LATC0</v>
+        <v>#define CODEUR_DROITE PORTCbits.RC0</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="5"/>
-        <v>TRISCbits.RC0=0; //LED_DROITE</v>
+        <v>TRISCbits.RC0=1; //CODEUR_DROITE</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="6"/>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -2792,13 +2792,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2822,13 +2822,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B25">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2852,13 +2852,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2882,13 +2882,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2942,13 +2942,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2972,13 +2972,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3002,13 +3002,13 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3032,13 +3032,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3062,13 +3062,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B33">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3092,13 +3092,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3158,13 +3158,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3174,30 +3174,30 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="4"/>
-        <v>#define ACC_CENTRIFUGE PORTEbits.RE2</v>
+        <v>#define ACC_X PORTEbits.RE2</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="5"/>
-        <v>TRISEbits.RE2=1; //ACC_CENTRIFUGE</v>
+        <v>TRISEbits.RE2=1; //ACC_X</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="6"/>
-        <v>ANSELEbits.ANSE2=1; //ACC_CENTRIFUGE</v>
+        <v>ANSELEbits.ANSE2=1; //ACC_X</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="7"/>
-        <v>#define CH_ACC_CENTRIFUGE ADC_CH7</v>
+        <v>#define CH_ACC_X ADC_CH7</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3707,487 +3707,487 @@
     </row>
     <row r="65" spans="7:10">
       <c r="G65" t="str">
-        <f t="shared" ref="G65:G91" si="12">IF(C65&lt;&gt;"",CONCATENATE("#define ",C65," ",IF(D65=1,"LAT","PORT"),A65,"bits.",IF(D65=1,"LAT","R"),A65,B65),"")</f>
+        <f t="shared" ref="G65:G91" si="16">IF(C65&lt;&gt;"",CONCATENATE("#define ",C65," ",IF(D65=1,"LAT","PORT"),A65,"bits.",IF(D65=1,"LAT","R"),A65,B65),"")</f>
         <v/>
       </c>
       <c r="H65" t="str">
-        <f t="shared" ref="H65:H91" si="13">IF(C65&lt;&gt;"",CONCATENATE("TRIS",A65,"bits.","R",A65,B65,"=",D65,"; //",C65),"")</f>
+        <f t="shared" ref="H65:H91" si="17">IF(C65&lt;&gt;"",CONCATENATE("TRIS",A65,"bits.","R",A65,B65,"=",D65,"; //",C65),"")</f>
         <v/>
       </c>
       <c r="I65" t="str">
-        <f t="shared" ref="I65:I72" si="14">IF(E65&lt;&gt;"",CONCATENATE("ANSEL",A65,"bits.","ANS",A65,B65,"=",D65,"; //",C65),"")</f>
+        <f t="shared" ref="I65:I72" si="18">IF(E65&lt;&gt;"",CONCATENATE("ANSEL",A65,"bits.","ANS",A65,B65,"=",D65,"; //",C65),"")</f>
         <v/>
       </c>
       <c r="J65" t="str">
-        <f t="shared" ref="J65:J72" si="15">IF(E65&lt;&gt;"",CONCATENATE("#define CH_",C65," ADC_CH",E65),"")</f>
+        <f t="shared" ref="J65:J72" si="19">IF(E65&lt;&gt;"",CONCATENATE("#define CH_",C65," ADC_CH",E65),"")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="7:10">
       <c r="G66" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="7:10">
       <c r="G67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="7:10">
       <c r="G68" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="7:10">
       <c r="G69" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="7:10">
       <c r="G70" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="7:10">
       <c r="G71" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="7:10">
       <c r="G72" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="7:10">
       <c r="G73" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I73" t="str">
-        <f t="shared" ref="I73:I91" si="16">IF(E73&lt;&gt;"",CONCATENATE("ANSEL",A73,"bits.","ANS",A73,B73,"=",D73,"; //",C73),"")</f>
+        <f t="shared" ref="I73:I91" si="20">IF(E73&lt;&gt;"",CONCATENATE("ANSEL",A73,"bits.","ANS",A73,B73,"=",D73,"; //",C73),"")</f>
         <v/>
       </c>
       <c r="J73" t="str">
-        <f t="shared" ref="J73:J91" si="17">IF(E73&lt;&gt;"",CONCATENATE("#define CH_",C73," ADC_CH",E73),"")</f>
+        <f t="shared" ref="J73:J91" si="21">IF(E73&lt;&gt;"",CONCATENATE("#define CH_",C73," ADC_CH",E73),"")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="7:10">
       <c r="G74" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="7:10">
       <c r="G75" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="7:10">
       <c r="G76" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="7:10">
       <c r="G77" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="7:10">
       <c r="G78" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="7:10">
       <c r="G79" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="7:10">
       <c r="G80" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="7:10">
       <c r="G81" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="7:10">
       <c r="G82" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="7:10">
       <c r="G83" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="7:10">
       <c r="G84" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="7:10">
       <c r="G85" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="7:10">
       <c r="G86" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="7:10">
       <c r="G87" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="7:10">
       <c r="G88" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="7:10">
       <c r="G89" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J89" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="7:10">
       <c r="G90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J90" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="7:10">
       <c r="G91" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I91" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J91" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>

--- a/ProgrammePrincipal/generateur de noms de trame.xlsx
+++ b/ProgrammePrincipal/generateur de noms de trame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="COM" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
   <si>
     <t>CON</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>SENS_D</t>
+  </si>
+  <si>
+    <t>Codé</t>
   </si>
 </sst>
 </file>
@@ -649,1418 +652,1422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="9" customWidth="1"/>
-    <col min="5" max="5" width="55.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="55.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11">
+      <c r="D2" s="11">
         <v>10</v>
       </c>
-      <c r="D2" s="9">
+      <c r="E2" s="9">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>IF(B2&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B2,"_",C2," ",IF(B2="CON",128,0)+D2),"")</f>
+        <v>#define TYPE_TRAME_CON_COUPLEG 138</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>IF(B2&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B2,"_",C2," ",E2),"")</f>
+        <v>#define LG_TRAME_CON_COUPLEG 4</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(B2&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B2,"_",C2,": ","curTrameLength= LG_TRAME_",B2,"_",C2," ; break;"),"")</f>
+        <v>case TYPE_TRAME_CON_COUPLEG: curTrameLength= LG_TRAME_CON_COUPLEG ; break;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F26" si="0">IF(B3&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B3,"_",C3," ",IF(B3="CON",128,0)+D3),"")</f>
+        <v>#define TYPE_TRAME_CON_COUPLED 139</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G58" si="1">IF(B3&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B3,"_",C3," ",E3),"")</f>
+        <v>#define LG_TRAME_CON_COUPLED 4</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H65" si="2">IF(B3&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B3,"_",C3,": ","curTrameLength= LG_TRAME_",B3,"_",C3," ; break;"),"")</f>
+        <v>case TYPE_TRAME_CON_COUPLED: curTrameLength= LG_TRAME_CON_COUPLED ; break;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="str">
-        <f>IF(A2&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",A2,"_",B2," ",IF(A2="CON",128,0)+C2),"")</f>
-        <v>#define TYPE_TRAME_CON_COUPLEG 138</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <f>IF(A2&lt;&gt;"",CONCATENATE("#define LG_TRAME_",A2,"_",B2," ",D2),"")</f>
-        <v>#define LG_TRAME_CON_COUPLEG 2</v>
-      </c>
-      <c r="G2" t="str">
-        <f>IF(A2&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",A2,"_",B2,": ","curTrameLength= LG_TRAME_",A2,"_",B2," ; break;"),"")</f>
-        <v>case TYPE_TRAME_CON_COUPLEG: curTrameLength= LG_TRAME_CON_COUPLEG ; break;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="11">
-        <v>11</v>
-      </c>
-      <c r="D3" s="9">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E26" si="0">IF(A3&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",A3,"_",B3," ",IF(A3="CON",128,0)+C3),"")</f>
-        <v>#define TYPE_TRAME_CON_COUPLED 139</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F58" si="1">IF(A3&lt;&gt;"",CONCATENATE("#define LG_TRAME_",A3,"_",B3," ",D3),"")</f>
-        <v>#define LG_TRAME_CON_COUPLED 2</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G65" si="2">IF(A3&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",A3,"_",B3,": ","curTrameLength= LG_TRAME_",A3,"_",B3," ; break;"),"")</f>
-        <v>case TYPE_TRAME_CON_COUPLED: curTrameLength= LG_TRAME_CON_COUPLED ; break;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="D4" s="11">
         <v>10</v>
       </c>
-      <c r="D4" s="9">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="9">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_COUPLEG 10</v>
       </c>
-      <c r="F4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_COUPLEG 2</v>
-      </c>
-      <c r="G4" t="str">
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_INF_COUPLEG 4</v>
+      </c>
+      <c r="H4" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_COUPLEG: curTrameLength= LG_TRAME_INF_COUPLEG ; break;</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11">
+      <c r="D5" s="11">
         <v>11</v>
       </c>
-      <c r="D5" s="9">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="9">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_COUPLED 11</v>
       </c>
-      <c r="F5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_COUPLED 2</v>
-      </c>
-      <c r="G5" t="str">
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_INF_COUPLED 4</v>
+      </c>
+      <c r="H5" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_COUPLED: curTrameLength= LG_TRAME_INF_COUPLED ; break;</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11">
+      <c r="D6" s="11">
         <v>12</v>
       </c>
-      <c r="D6" s="9">
+      <c r="E6" s="9">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_ERREUR_CARTE_COURANT 12</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="G6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ERREUR_CARTE_COURANT 1</v>
       </c>
-      <c r="G6" t="str">
+      <c r="H6" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_ERREUR_CARTE_COURANT: curTrameLength= LG_TRAME_INF_ERREUR_CARTE_COURANT ; break;</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="E7" s="1" t="str">
+    <row r="7" spans="1:8">
+      <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11">
+      <c r="D8" s="11">
         <v>13</v>
       </c>
-      <c r="D8" s="9">
+      <c r="E8" s="9">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="F8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_VITESSEG 13</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="G8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_VITESSEG 4</v>
       </c>
-      <c r="G8" t="str">
+      <c r="H8" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_VITESSEG: curTrameLength= LG_TRAME_INF_VITESSEG ; break;</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:8">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11">
+      <c r="D9" s="11">
         <v>14</v>
       </c>
-      <c r="D9" s="9">
+      <c r="E9" s="9">
         <v>4</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="F9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_VITESSED 14</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_VITESSED 4</v>
       </c>
-      <c r="G9" t="str">
+      <c r="H9" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_VITESSED: curTrameLength= LG_TRAME_INF_VITESSED ; break;</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:8">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11">
+      <c r="D10" s="11">
         <v>15</v>
       </c>
-      <c r="D10" s="9">
+      <c r="E10" s="9">
         <v>4</v>
       </c>
-      <c r="E10" s="1" t="str">
+      <c r="F10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_PRINC_PID_K 15</v>
       </c>
-      <c r="F10" s="1" t="str">
+      <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_PID_K 4</v>
       </c>
-      <c r="G10" t="str">
+      <c r="H10" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_PRINC_PID_K: curTrameLength= LG_TRAME_INF_PRINC_PID_K ; break;</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8">
+      <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="11">
+      <c r="D11" s="11">
         <v>15</v>
       </c>
-      <c r="D11" s="9">
+      <c r="E11" s="9">
         <v>4</v>
       </c>
-      <c r="E11" s="1" t="str">
+      <c r="F11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_PRINC_PID_K 143</v>
       </c>
-      <c r="F11" s="1" t="str">
+      <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_PRINC_PID_K 4</v>
       </c>
-      <c r="G11" t="str">
+      <c r="H11" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_PRINC_PID_K: curTrameLength= LG_TRAME_CON_PRINC_PID_K ; break;</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:8">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11">
+      <c r="D12" s="11">
         <v>16</v>
       </c>
-      <c r="D12" s="9">
+      <c r="E12" s="9">
         <v>4</v>
       </c>
-      <c r="E12" s="1" t="str">
+      <c r="F12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_PRINC_PID_I 16</v>
       </c>
-      <c r="F12" s="1" t="str">
+      <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_PID_I 4</v>
       </c>
-      <c r="G12" t="str">
+      <c r="H12" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_PRINC_PID_I: curTrameLength= LG_TRAME_INF_PRINC_PID_I ; break;</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:8">
+      <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="11">
+      <c r="D13" s="11">
         <v>16</v>
       </c>
-      <c r="D13" s="9">
+      <c r="E13" s="9">
         <v>4</v>
       </c>
-      <c r="E13" s="1" t="str">
+      <c r="F13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_PRINC_PID_I 144</v>
       </c>
-      <c r="F13" s="1" t="str">
+      <c r="G13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_PRINC_PID_I 4</v>
       </c>
-      <c r="G13" t="str">
+      <c r="H13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_PRINC_PID_I: curTrameLength= LG_TRAME_CON_PRINC_PID_I ; break;</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:8">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="11">
+      <c r="D14" s="11">
         <v>17</v>
       </c>
-      <c r="D14" s="9">
+      <c r="E14" s="9">
         <v>4</v>
       </c>
-      <c r="E14" s="1" t="str">
+      <c r="F14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_PRINC_PID_D 17</v>
       </c>
-      <c r="F14" s="1" t="str">
+      <c r="G14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_PID_D 4</v>
       </c>
-      <c r="G14" t="str">
+      <c r="H14" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_PRINC_PID_D: curTrameLength= LG_TRAME_INF_PRINC_PID_D ; break;</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:8">
+      <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11">
+      <c r="D15" s="11">
         <v>17</v>
       </c>
-      <c r="D15" s="9">
+      <c r="E15" s="9">
         <v>4</v>
       </c>
-      <c r="E15" s="1" t="str">
+      <c r="F15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_PRINC_PID_D 145</v>
       </c>
-      <c r="F15" s="1" t="str">
+      <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_PRINC_PID_D 4</v>
       </c>
-      <c r="G15" t="str">
+      <c r="H15" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_PRINC_PID_D: curTrameLength= LG_TRAME_CON_PRINC_PID_D ; break;</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:8">
+      <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="11">
+      <c r="D16" s="11">
         <v>18</v>
       </c>
-      <c r="D16" s="9">
+      <c r="E16" s="9">
         <v>4</v>
       </c>
-      <c r="E16" s="1" t="str">
+      <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_PRINC_DIR 18</v>
       </c>
-      <c r="F16" s="1" t="str">
+      <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_DIR 4</v>
       </c>
-      <c r="G16" t="str">
+      <c r="H16" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_PRINC_DIR: curTrameLength= LG_TRAME_INF_PRINC_DIR ; break;</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="2:8">
+      <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="11">
+      <c r="D17" s="11">
         <v>18</v>
       </c>
-      <c r="D17" s="9">
+      <c r="E17" s="9">
         <v>4</v>
       </c>
-      <c r="E17" s="1" t="str">
+      <c r="F17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_PRINC_DIR 146</v>
       </c>
-      <c r="F17" s="1" t="str">
+      <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_PRINC_DIR 4</v>
       </c>
-      <c r="G17" t="str">
+      <c r="H17" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_PRINC_DIR: curTrameLength= LG_TRAME_CON_PRINC_DIR ; break;</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="2:8">
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="11">
+      <c r="D18" s="11">
         <v>19</v>
       </c>
-      <c r="D18" s="9">
+      <c r="E18" s="9">
         <v>4</v>
       </c>
-      <c r="E18" s="1" t="str">
+      <c r="F18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_ANGLE 19</v>
       </c>
-      <c r="F18" s="1" t="str">
+      <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ANGLE 4</v>
       </c>
-      <c r="G18" t="str">
+      <c r="H18" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_ANGLE: curTrameLength= LG_TRAME_INF_ANGLE ; break;</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="2:8">
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="11">
+      <c r="D19" s="11">
         <v>30</v>
       </c>
-      <c r="D19" s="9">
+      <c r="E19" s="9">
         <v>4</v>
       </c>
-      <c r="E19" s="1" t="str">
+      <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_VITESSE_ANGULAIRE 30</v>
       </c>
-      <c r="F19" s="1" t="str">
+      <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_VITESSE_ANGULAIRE 4</v>
       </c>
-      <c r="G19" t="str">
+      <c r="H19" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_VITESSE_ANGULAIRE: curTrameLength= LG_TRAME_INF_VITESSE_ANGULAIRE ; break;</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="2:8">
+      <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="11">
+      <c r="D20" s="11">
         <v>20</v>
       </c>
-      <c r="D20" s="9">
+      <c r="E20" s="9">
         <v>4</v>
       </c>
-      <c r="E20" s="1" t="str">
+      <c r="F20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_ACCELERATION 20</v>
       </c>
-      <c r="F20" s="1" t="str">
+      <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ACCELERATION 4</v>
       </c>
-      <c r="G20" t="str">
+      <c r="H20" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_ACCELERATION: curTrameLength= LG_TRAME_INF_ACCELERATION ; break;</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="2:8">
+      <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="11">
+      <c r="D21" s="11">
         <v>20</v>
       </c>
-      <c r="D21" s="9">
+      <c r="E21" s="9">
         <v>4</v>
       </c>
-      <c r="E21" s="1" t="str">
+      <c r="F21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_ACCELERATION_COEF_FILTRE 148</v>
       </c>
-      <c r="F21" s="1" t="str">
+      <c r="G21" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_ACCELERATION_COEF_FILTRE 4</v>
       </c>
-      <c r="G21" t="str">
+      <c r="H21" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_ACCELERATION_COEF_FILTRE: curTrameLength= LG_TRAME_CON_ACCELERATION_COEF_FILTRE ; break;</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="2:8">
+      <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="11">
+      <c r="D22" s="11">
         <v>21</v>
       </c>
-      <c r="D22" s="9">
+      <c r="E22" s="9">
         <v>4</v>
       </c>
-      <c r="E22" s="1" t="str">
+      <c r="F22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_COEF_KALMAN 21</v>
       </c>
-      <c r="F22" s="1" t="str">
+      <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_COEF_KALMAN 4</v>
       </c>
-      <c r="G22" t="str">
+      <c r="H22" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_COEF_KALMAN: curTrameLength= LG_TRAME_INF_COEF_KALMAN ; break;</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="2:8">
+      <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="11">
+      <c r="D23" s="11">
         <v>21</v>
       </c>
-      <c r="D23" s="9">
+      <c r="E23" s="9">
         <v>4</v>
       </c>
-      <c r="E23" s="1" t="str">
+      <c r="F23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_COEF_KALMAN 149</v>
       </c>
-      <c r="F23" s="1" t="str">
+      <c r="G23" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_COEF_KALMAN 4</v>
       </c>
-      <c r="G23" t="str">
+      <c r="H23" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_COEF_KALMAN: curTrameLength= LG_TRAME_CON_COEF_KALMAN ; break;</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="2:8">
+      <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="11">
+      <c r="D24" s="11">
         <v>22</v>
       </c>
-      <c r="D24" s="9">
+      <c r="E24" s="9">
         <v>4</v>
       </c>
-      <c r="E24" s="1" t="str">
+      <c r="F24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_SAUVEGARDER_COEF 150</v>
       </c>
-      <c r="F24" s="1" t="str">
+      <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_SAUVEGARDER_COEF 4</v>
       </c>
-      <c r="G24" t="str">
+      <c r="H24" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_SAUVEGARDER_COEF: curTrameLength= LG_TRAME_CON_SAUVEGARDER_COEF ; break;</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="2:8">
+      <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="11">
+      <c r="D25" s="11">
         <v>23</v>
       </c>
-      <c r="D25" s="9">
+      <c r="E25" s="9">
         <v>4</v>
       </c>
-      <c r="E25" s="1" t="str">
+      <c r="F25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_DISTANCE_PARCOURUE 23</v>
       </c>
-      <c r="F25" s="1" t="str">
+      <c r="G25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_DISTANCE_PARCOURUE 4</v>
       </c>
-      <c r="G25" t="str">
+      <c r="H25" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_DISTANCE_PARCOURUE: curTrameLength= LG_TRAME_INF_DISTANCE_PARCOURUE ; break;</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="2:8">
+      <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="11">
+      <c r="D26" s="11">
         <v>24</v>
       </c>
-      <c r="D26" s="9">
+      <c r="E26" s="9">
         <v>4</v>
       </c>
-      <c r="E26" s="1" t="str">
+      <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_ETAT_BATTERIE 24</v>
       </c>
-      <c r="F26" s="1" t="str">
+      <c r="G26" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ETAT_BATTERIE 4</v>
       </c>
-      <c r="G26" t="str">
+      <c r="H26" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_ETAT_BATTERIE: curTrameLength= LG_TRAME_INF_ETAT_BATTERIE ; break;</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="E27" s="1" t="str">
-        <f t="shared" ref="E27:E74" si="3">IF(A27&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",A27,"_",B27," ",IF(A27="CON",128,0)+C27),"")</f>
-        <v/>
-      </c>
+    <row r="27" spans="2:8">
       <c r="F27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2" t="s">
+        <f t="shared" ref="F27:F74" si="3">IF(B27&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B27,"_",C27," ",IF(B27="CON",128,0)+D27),"")</f>
+        <v/>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="11">
+      <c r="D28" s="11">
         <v>25</v>
       </c>
-      <c r="D28" s="9">
+      <c r="E28" s="9">
         <v>0</v>
       </c>
-      <c r="E28" s="1" t="str">
+      <c r="F28" s="1" t="str">
         <f t="shared" si="3"/>
         <v>#define TYPE_TRAME_CON_STOP 153</v>
       </c>
-      <c r="F28" s="1" t="str">
+      <c r="G28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_STOP 0</v>
       </c>
-      <c r="G28" t="str">
+      <c r="H28" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_STOP: curTrameLength= LG_TRAME_CON_STOP ; break;</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="2:8">
+      <c r="B29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="11">
+      <c r="D29" s="11">
         <v>26</v>
       </c>
-      <c r="D29" s="9">
+      <c r="E29" s="9">
         <v>0</v>
       </c>
-      <c r="E29" s="1" t="str">
+      <c r="F29" s="1" t="str">
         <f t="shared" si="3"/>
         <v>#define TYPE_TRAME_CON_DEPART 154</v>
       </c>
-      <c r="F29" s="1" t="str">
+      <c r="G29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_DEPART 0</v>
       </c>
-      <c r="G29" t="str">
+      <c r="H29" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_DEPART: curTrameLength= LG_TRAME_CON_DEPART ; break;</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="2:8">
+      <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="11">
+      <c r="D30" s="11">
         <v>25</v>
       </c>
-      <c r="D30" s="9">
+      <c r="E30" s="9">
         <v>0</v>
       </c>
-      <c r="E30" s="1" t="str">
+      <c r="F30" s="1" t="str">
         <f t="shared" si="3"/>
         <v>#define TYPE_TRAME_INF_PRET 25</v>
       </c>
-      <c r="F30" s="1" t="str">
+      <c r="G30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRET 0</v>
       </c>
-      <c r="G30" t="str">
+      <c r="H30" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_PRET: curTrameLength= LG_TRAME_INF_PRET ; break;</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="2:8">
+      <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="11">
+      <c r="D31" s="11">
         <v>26</v>
       </c>
-      <c r="D31" s="9">
+      <c r="E31" s="9">
         <v>1</v>
       </c>
-      <c r="E31" s="1" t="str">
+      <c r="F31" s="1" t="str">
         <f t="shared" si="3"/>
         <v>#define TYPE_TRAME_INF_ETAT 26</v>
       </c>
-      <c r="F31" s="1" t="str">
+      <c r="G31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ETAT 1</v>
       </c>
-      <c r="G31" t="str">
+      <c r="H31" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_ETAT: curTrameLength= LG_TRAME_INF_ETAT ; break;</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="2:8">
+      <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="11">
+      <c r="D32" s="11">
         <v>27</v>
       </c>
-      <c r="D32" s="9">
+      <c r="E32" s="9">
         <v>2</v>
       </c>
-      <c r="E32" s="1" t="str">
+      <c r="F32" s="1" t="str">
         <f t="shared" si="3"/>
         <v>#define TYPE_TRAME_CON_TEST_COM 155</v>
       </c>
-      <c r="F32" s="1" t="str">
+      <c r="G32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_TEST_COM 2</v>
       </c>
-      <c r="G32" t="str">
+      <c r="H32" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_TEST_COM: curTrameLength= LG_TRAME_CON_TEST_COM ; break;</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="2:8">
+      <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="11">
+      <c r="D33" s="11">
         <v>28</v>
       </c>
-      <c r="D33" s="9">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1" t="str">
+      <c r="E33" s="9">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1" t="str">
         <f t="shared" si="3"/>
         <v>#define TYPE_TRAME_INF_SATURATION_VITESSE 28</v>
       </c>
-      <c r="F33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_SATURATION_VITESSE 2</v>
-      </c>
-      <c r="G33" t="str">
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_INF_SATURATION_VITESSE 4</v>
+      </c>
+      <c r="H33" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_SATURATION_VITESSE: curTrameLength= LG_TRAME_INF_SATURATION_VITESSE ; break;</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="2:8">
+      <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="11">
+      <c r="D34" s="11">
         <v>28</v>
       </c>
-      <c r="D34" s="9">
-        <v>2</v>
-      </c>
-      <c r="E34" s="1" t="str">
+      <c r="E34" s="9">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1" t="str">
         <f t="shared" si="3"/>
         <v>#define TYPE_TRAME_CON_SATURATION_VITESSE 156</v>
       </c>
-      <c r="F34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_SATURATION_VITESSE 2</v>
-      </c>
-      <c r="G34" t="str">
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_SATURATION_VITESSE 4</v>
+      </c>
+      <c r="H34" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_SATURATION_VITESSE: curTrameLength= LG_TRAME_CON_SATURATION_VITESSE ; break;</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="2:8">
+      <c r="B35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="11">
+      <c r="D35" s="11">
         <v>29</v>
       </c>
-      <c r="D35" s="9">
+      <c r="E35" s="9">
         <v>1</v>
       </c>
-      <c r="E35" s="1" t="str">
+      <c r="F35" s="1" t="str">
         <f t="shared" si="3"/>
         <v>#define TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE 29</v>
       </c>
-      <c r="F35" s="1" t="str">
+      <c r="G35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ANGLE_HORS_INTERVALLE 1</v>
       </c>
-      <c r="G35" t="str">
+      <c r="H35" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE: curTrameLength= LG_TRAME_INF_ANGLE_HORS_INTERVALLE ; break;</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="2:8">
+      <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="11">
+      <c r="D36" s="11">
         <v>31</v>
       </c>
-      <c r="D36" s="9">
+      <c r="E36" s="9">
         <v>1</v>
       </c>
-      <c r="E36" s="1" t="str">
+      <c r="F36" s="1" t="str">
         <f t="shared" si="3"/>
         <v>#define TYPE_TRAME_CON_RECHARGER_COEF 159</v>
       </c>
-      <c r="F36" s="1" t="str">
+      <c r="G36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_RECHARGER_COEF 1</v>
       </c>
-      <c r="G36" t="str">
+      <c r="H36" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_RECHARGER_COEF: curTrameLength= LG_TRAME_CON_RECHARGER_COEF ; break;</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="E37" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+    <row r="37" spans="2:8">
       <c r="F37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="E38" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
       <c r="F38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="E39" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
       <c r="F39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="E40" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
       <c r="F40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="E41" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
       <c r="F41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="E42" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
       <c r="F42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="E43" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
       <c r="F43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="E44" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
       <c r="F44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="E45" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
       <c r="F45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="E46" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
       <c r="F46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="E47" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
       <c r="F47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="E48" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
       <c r="F48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="5:7">
-      <c r="E49" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:8">
       <c r="F49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="5:7">
-      <c r="E50" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:8">
       <c r="F50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="5:7">
-      <c r="E51" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:8">
       <c r="F51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="5:7">
-      <c r="E52" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="6:8">
       <c r="F52" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="5:7">
-      <c r="E53" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:8">
       <c r="F53" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G53" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="5:7">
-      <c r="E54" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:8">
       <c r="F54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="5:7">
-      <c r="E55" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="6:8">
       <c r="F55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="5:7">
-      <c r="E56" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="6:8">
       <c r="F56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G56" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="5:7">
-      <c r="E57" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:8">
       <c r="F57" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="5:7">
-      <c r="E58" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:8">
       <c r="F58" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G58" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="5:7">
-      <c r="E59" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:8">
       <c r="F59" s="1" t="str">
-        <f t="shared" ref="F59:F74" si="4">IF(A59&lt;&gt;"",CONCATENATE("#define LGT_TRAME_",A59,"_",B59," ",D59),"")</f>
-        <v/>
-      </c>
-      <c r="G59" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="5:7">
-      <c r="E60" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G59" s="1" t="str">
+        <f t="shared" ref="G59:G74" si="4">IF(B59&lt;&gt;"",CONCATENATE("#define LGT_TRAME_",B59,"_",C59," ",E59),"")</f>
+        <v/>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:8">
       <c r="F60" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G60" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="5:7">
-      <c r="E61" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G60" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:8">
       <c r="F61" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G61" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="5:7">
-      <c r="E62" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:8">
       <c r="F62" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G62" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="5:7">
-      <c r="E63" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G62" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:8">
       <c r="F63" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G63" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="5:7">
-      <c r="E64" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G63" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:8">
       <c r="F64" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G64" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="5:7">
-      <c r="E65" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G64" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:8">
       <c r="F65" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G65" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="5:7">
-      <c r="E66" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G65" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:8">
       <c r="F66" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="5:7">
-      <c r="E67" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G66" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="6:8">
       <c r="F67" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="5:7">
-      <c r="E68" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G67" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:8">
       <c r="F68" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="5:7">
-      <c r="E69" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G68" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="6:8">
       <c r="F69" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="5:7">
-      <c r="E70" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G69" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="6:8">
       <c r="F70" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="5:7">
-      <c r="E71" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G70" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="6:8">
       <c r="F71" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="5:7">
-      <c r="E72" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G71" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="6:8">
       <c r="F72" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="5:7">
-      <c r="E73" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G72" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="6:8">
       <c r="F73" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="5:7">
-      <c r="E74" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G73" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="6:8">
       <c r="F74" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G74" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -2075,7 +2082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ProgrammePrincipal/generateur de noms de trame.xlsx
+++ b/ProgrammePrincipal/generateur de noms de trame.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="96">
   <si>
     <t>CON</t>
   </si>
@@ -57,18 +57,12 @@
     <t>PRINC_PID_K</t>
   </si>
   <si>
-    <t>PRINC_PID_I</t>
-  </si>
-  <si>
     <t>PRINC_PID_D</t>
   </si>
   <si>
     <t>PRINC_DIR</t>
   </si>
   <si>
-    <t>ANGLE</t>
-  </si>
-  <si>
     <t>VITESSE_ANGULAIRE</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>PRET</t>
   </si>
   <si>
-    <t>SAUVEGARDER_COEF</t>
-  </si>
-  <si>
     <t>ETAT</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>ETAT_BATTERIE</t>
   </si>
   <si>
-    <t>SATURATION_VITESSE</t>
-  </si>
-  <si>
     <t>ANGLE_HORS_INTERVALLE</t>
   </si>
   <si>
@@ -138,9 +126,6 @@
     <t>Appel CH0</t>
   </si>
   <si>
-    <t>RECHARGER_COEF</t>
-  </si>
-  <si>
     <t>ana: Lequel?</t>
   </si>
   <si>
@@ -262,6 +247,63 @@
   </si>
   <si>
     <t>Codé</t>
+  </si>
+  <si>
+    <t>ANGLE_TANGAGE</t>
+  </si>
+  <si>
+    <t>CHARGER_VITESSE</t>
+  </si>
+  <si>
+    <t>ENREGISTRER_VITESSE</t>
+  </si>
+  <si>
+    <t>CHARGER_ASSERVISSEMENT</t>
+  </si>
+  <si>
+    <t>ENREGISTRER_ASSERVISSEMENT</t>
+  </si>
+  <si>
+    <t>CHARGER_DEMARRAGE</t>
+  </si>
+  <si>
+    <t>ENREGISTRER_DEMARRAGE</t>
+  </si>
+  <si>
+    <t>GUIDONMAX</t>
+  </si>
+  <si>
+    <t>LIMITE_DISTANCE_UTILISATEUR</t>
+  </si>
+  <si>
+    <t>DEMARRAGE_TOL_ANGLE</t>
+  </si>
+  <si>
+    <t>DEMARRAGE_TOL_GUIDON</t>
+  </si>
+  <si>
+    <t>DEMARRAGE_DELAI_EQUILIBRE</t>
+  </si>
+  <si>
+    <t>VITESSE_TROITTOIR_MAX</t>
+  </si>
+  <si>
+    <t>POURCENT_SECURITE_MOTEUR</t>
+  </si>
+  <si>
+    <t>COEF_HYSTERISIS_SECURITE</t>
+  </si>
+  <si>
+    <t>COEF_COURANT_1</t>
+  </si>
+  <si>
+    <t>COEF_COURANT_2</t>
+  </si>
+  <si>
+    <t>VERBOSE</t>
+  </si>
+  <si>
+    <t>DEMANDE_COEFFICIENTS</t>
   </si>
 </sst>
 </file>
@@ -652,26 +694,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="2"/>
-    <col min="3" max="3" width="26.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="9" customWidth="1"/>
     <col min="6" max="6" width="55.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1">
+    <row r="1" spans="1:9" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -690,1389 +732,4073 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D2" s="11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E2" s="9">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>IF(B2&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B2,"_",C2," ",IF(B2="CON",128,0)+D2),"")</f>
-        <v>#define TYPE_TRAME_CON_COUPLEG 138</v>
+        <v>#define TYPE_TRAME_CON_TEST_COM 129</v>
       </c>
       <c r="G2" s="1" t="str">
         <f>IF(B2&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B2,"_",C2," ",E2),"")</f>
-        <v>#define LG_TRAME_CON_COUPLEG 4</v>
+        <v>#define LG_TRAME_CON_TEST_COM 4</v>
       </c>
       <c r="H2" t="str">
         <f>IF(B2&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B2,"_",C2,": ","curTrameLength= LG_TRAME_",B2,"_",C2," ; break;"),"")</f>
-        <v>case TYPE_TRAME_CON_COUPLEG: curTrameLength= LG_TRAME_CON_COUPLEG ; break;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>case TYPE_TRAME_CON_TEST_COM: curTrameLength= LG_TRAME_CON_TEST_COM ; break;</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(B2&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B2,"_",C2,":   ; break;"),"")</f>
+        <v>case TYPE_TRAME_CON_TEST_COM:   ; break;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D3" s="11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E3" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F26" si="0">IF(B3&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B3,"_",C3," ",IF(B3="CON",128,0)+D3),"")</f>
-        <v>#define TYPE_TRAME_CON_COUPLED 139</v>
+        <f t="shared" ref="F3:F66" si="0">IF(B3&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B3,"_",C3," ",IF(B3="CON",128,0)+D3),"")</f>
+        <v>#define TYPE_TRAME_CON_DEPART 130</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G58" si="1">IF(B3&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B3,"_",C3," ",E3),"")</f>
-        <v>#define LG_TRAME_CON_COUPLED 4</v>
+        <f t="shared" ref="G3:G66" si="1">IF(B3&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B3,"_",C3," ",E3),"")</f>
+        <v>#define LG_TRAME_CON_DEPART 0</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H65" si="2">IF(B3&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B3,"_",C3,": ","curTrameLength= LG_TRAME_",B3,"_",C3," ; break;"),"")</f>
-        <v>case TYPE_TRAME_CON_COUPLED: curTrameLength= LG_TRAME_CON_COUPLED ; break;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <f t="shared" ref="H3:H66" si="2">IF(B3&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B3,"_",C3,": ","curTrameLength= LG_TRAME_",B3,"_",C3," ; break;"),"")</f>
+        <v>case TYPE_TRAME_CON_DEPART: curTrameLength= LG_TRAME_CON_DEPART ; break;</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I66" si="3">IF(B3&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B3,"_",C3,":   ; break;"),"")</f>
+        <v>case TYPE_TRAME_CON_DEPART:   ; break;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D4" s="11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E4" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_INF_COUPLEG 10</v>
+        <v>#define TYPE_TRAME_CON_STOP 131</v>
       </c>
       <c r="G4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_COUPLEG 4</v>
+        <v>#define LG_TRAME_CON_STOP 0</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_INF_COUPLEG: curTrameLength= LG_TRAME_INF_COUPLEG ; break;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>case TYPE_TRAME_CON_STOP: curTrameLength= LG_TRAME_CON_STOP ; break;</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_STOP:   ; break;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D5" s="11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E5" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_INF_COUPLED 11</v>
+        <v>#define TYPE_TRAME_INF_ETAT 1</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_COUPLED 4</v>
+        <v>#define LG_TRAME_INF_ETAT 1</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_INF_COUPLED: curTrameLength= LG_TRAME_INF_COUPLED ; break;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>case TYPE_TRAME_INF_ETAT: curTrameLength= LG_TRAME_INF_ETAT ; break;</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_ETAT:   ; break;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D6" s="11">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E6" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_INF_ERREUR_CARTE_COURANT 12</v>
+        <v>#define TYPE_TRAME_INF_ETAT_BATTERIE 4</v>
       </c>
       <c r="G6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_ERREUR_CARTE_COURANT 1</v>
+        <v>#define LG_TRAME_INF_ETAT_BATTERIE 4</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_INF_ERREUR_CARTE_COURANT: curTrameLength= LG_TRAME_INF_ERREUR_CARTE_COURANT ; break;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>case TYPE_TRAME_INF_ETAT_BATTERIE: curTrameLength= LG_TRAME_INF_ETAT_BATTERIE ; break;</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_ETAT_BATTERIE:   ; break;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="11">
+        <v>5</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#define TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE 5</v>
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>#define LG_TRAME_INF_ANGLE_HORS_INTERVALLE 1</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>case TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE: curTrameLength= LG_TRAME_INF_ANGLE_HORS_INTERVALLE ; break;</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE:   ; break;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D8" s="11">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E8" s="9">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_INF_VITESSEG 13</v>
+        <v>#define TYPE_TRAME_INF_ANGLE_TANGAGE 6</v>
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_VITESSEG 4</v>
+        <v>#define LG_TRAME_INF_ANGLE_TANGAGE 4</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_INF_VITESSEG: curTrameLength= LG_TRAME_INF_VITESSEG ; break;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>case TYPE_TRAME_INF_ANGLE_TANGAGE: curTrameLength= LG_TRAME_INF_ANGLE_TANGAGE ; break;</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_ANGLE_TANGAGE:   ; break;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D9" s="11">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E9" s="9">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_INF_VITESSED 14</v>
+        <v>#define TYPE_TRAME_INF_VITESSE_ANGULAIRE 7</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_VITESSED 4</v>
+        <v>#define LG_TRAME_INF_VITESSE_ANGULAIRE 4</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_INF_VITESSED: curTrameLength= LG_TRAME_INF_VITESSED ; break;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>case TYPE_TRAME_INF_VITESSE_ANGULAIRE: curTrameLength= LG_TRAME_INF_VITESSE_ANGULAIRE ; break;</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_VITESSE_ANGULAIRE:   ; break;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="11">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" ref="F10:F15" si="4">IF(B10&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B10,"_",C10," ",IF(B10="CON",128,0)+D10),"")</f>
+        <v>#define TYPE_TRAME_INF_VERBOSE 8</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" ref="G10:G15" si="5">IF(B10&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B10,"_",C10," ",E10),"")</f>
+        <v>#define LG_TRAME_INF_VERBOSE 1</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ref="H10:H15" si="6">IF(B10&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B10,"_",C10,": ","curTrameLength= LG_TRAME_",B10,"_",C10," ; break;"),"")</f>
+        <v>case TYPE_TRAME_INF_VERBOSE: curTrameLength= LG_TRAME_INF_VERBOSE ; break;</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" ref="I10:I15" si="7">IF(B10&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B10,"_",C10,":   ; break;"),"")</f>
+        <v>case TYPE_TRAME_INF_VERBOSE:   ; break;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="11">
+        <v>8</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#define TYPE_TRAME_CON_VERBOSE 136</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>#define LG_TRAME_CON_VERBOSE 1</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="6"/>
+        <v>case TYPE_TRAME_CON_VERBOSE: curTrameLength= LG_TRAME_CON_VERBOSE ; break;</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="7"/>
+        <v>case TYPE_TRAME_CON_VERBOSE:   ; break;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="11">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>#define TYPE_TRAME_CON_DEMANDE_COEFFICIENTS 137</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>#define LG_TRAME_CON_DEMANDE_COEFFICIENTS 1</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="6"/>
+        <v>case TYPE_TRAME_CON_DEMANDE_COEFFICIENTS: curTrameLength= LG_TRAME_CON_DEMANDE_COEFFICIENTS ; break;</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="7"/>
+        <v>case TYPE_TRAME_CON_DEMANDE_COEFFICIENTS:   ; break;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="11">
         <v>12</v>
       </c>
-      <c r="D10" s="11">
+      <c r="E16" s="9">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_INF_VITESSED 12</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_INF_VITESSED 4</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_VITESSED: curTrameLength= LG_TRAME_INF_VITESSED ; break;</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_VITESSED:   ; break;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="11">
+        <v>13</v>
+      </c>
+      <c r="E17" s="9">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_INF_VITESSEG 13</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_INF_VITESSEG 4</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_VITESSEG: curTrameLength= LG_TRAME_INF_VITESSEG ; break;</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_VITESSEG:   ; break;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="11">
+        <v>14</v>
+      </c>
+      <c r="E18" s="9">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_INF_DISTANCE_PARCOURUE 14</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_INF_DISTANCE_PARCOURUE 4</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_DISTANCE_PARCOURUE: curTrameLength= LG_TRAME_INF_DISTANCE_PARCOURUE ; break;</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_DISTANCE_PARCOURUE:   ; break;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="11">
         <v>15</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E19" s="9">
         <v>4</v>
       </c>
-      <c r="F10" s="1" t="str">
+      <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_INF_PRINC_PID_K 15</v>
-      </c>
-      <c r="G10" s="1" t="str">
+        <v>#define TYPE_TRAME_INF_ACCELERATION 15</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_INF_ACCELERATION 4</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_INF_ACCELERATION: curTrameLength= LG_TRAME_INF_ACCELERATION ; break;</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_ACCELERATION:   ; break;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="11">
+        <v>16</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_CHARGER_VITESSE 144</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_CHARGER_VITESSE 0</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_CHARGER_VITESSE: curTrameLength= LG_TRAME_CON_CHARGER_VITESSE ; break;</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_CHARGER_VITESSE:   ; break;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="11">
+        <v>17</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_ENREGISTRER_VITESSE 145</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_ENREGISTRER_VITESSE 0</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_ENREGISTRER_VITESSE: curTrameLength= LG_TRAME_CON_ENREGISTRER_VITESSE ; break;</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_ENREGISTRER_VITESSE:   ; break;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="11">
+        <v>18</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_CHARGER_ASSERVISSEMENT 146</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_CHARGER_ASSERVISSEMENT 0</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_CHARGER_ASSERVISSEMENT: curTrameLength= LG_TRAME_CON_CHARGER_ASSERVISSEMENT ; break;</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_CHARGER_ASSERVISSEMENT:   ; break;</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="11">
+        <v>19</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_ENREGISTRER_ASSERVISSEMENT 147</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_ENREGISTRER_ASSERVISSEMENT 0</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_ENREGISTRER_ASSERVISSEMENT: curTrameLength= LG_TRAME_CON_ENREGISTRER_ASSERVISSEMENT ; break;</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_ENREGISTRER_ASSERVISSEMENT:   ; break;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="11">
+        <v>20</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_CHARGER_DEMARRAGE 148</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_CHARGER_DEMARRAGE 0</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_CHARGER_DEMARRAGE: curTrameLength= LG_TRAME_CON_CHARGER_DEMARRAGE ; break;</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_CHARGER_DEMARRAGE:   ; break;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="11">
+        <v>21</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_ENREGISTRER_DEMARRAGE 149</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_ENREGISTRER_DEMARRAGE 0</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_ENREGISTRER_DEMARRAGE: curTrameLength= LG_TRAME_CON_ENREGISTRER_DEMARRAGE ; break;</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_ENREGISTRER_DEMARRAGE:   ; break;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="11">
+        <v>22</v>
+      </c>
+      <c r="E26" s="9">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_PRINC_PID_K 150</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_PRINC_PID_K 4</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_PRINC_PID_K: curTrameLength= LG_TRAME_CON_PRINC_PID_K ; break;</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_PRINC_PID_K:   ; break;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="11">
+        <v>23</v>
+      </c>
+      <c r="E27" s="9">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_PRINC_PID_D 151</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_PRINC_PID_D 4</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_PRINC_PID_D: curTrameLength= LG_TRAME_CON_PRINC_PID_D ; break;</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_PRINC_PID_D:   ; break;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="11">
+        <v>24</v>
+      </c>
+      <c r="E28" s="9">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_PRINC_DIR 152</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_PRINC_DIR 4</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_PRINC_DIR: curTrameLength= LG_TRAME_CON_PRINC_DIR ; break;</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_PRINC_DIR:   ; break;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="11">
+        <v>25</v>
+      </c>
+      <c r="E29" s="9">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_COEF_KALMAN 153</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_COEF_KALMAN 4</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_COEF_KALMAN: curTrameLength= LG_TRAME_CON_COEF_KALMAN ; break;</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_COEF_KALMAN:   ; break;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="11">
+        <v>26</v>
+      </c>
+      <c r="E30" s="9">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_ACCELERATION_COEF_FILTRE 154</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_ACCELERATION_COEF_FILTRE 4</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_ACCELERATION_COEF_FILTRE: curTrameLength= LG_TRAME_CON_ACCELERATION_COEF_FILTRE ; break;</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_ACCELERATION_COEF_FILTRE:   ; break;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="11">
+        <v>27</v>
+      </c>
+      <c r="E31" s="9">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_GUIDONMAX 155</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_GUIDONMAX 4</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_GUIDONMAX: curTrameLength= LG_TRAME_CON_GUIDONMAX ; break;</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_GUIDONMAX:   ; break;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="11">
+        <v>28</v>
+      </c>
+      <c r="E32" s="9">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR 156</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR 4</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR: curTrameLength= LG_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR ; break;</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR:   ; break;</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="11">
+        <v>29</v>
+      </c>
+      <c r="E33" s="9">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_DEMARRAGE_TOL_ANGLE 157</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_DEMARRAGE_TOL_ANGLE 4</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_DEMARRAGE_TOL_ANGLE: curTrameLength= LG_TRAME_CON_DEMARRAGE_TOL_ANGLE ; break;</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_DEMARRAGE_TOL_ANGLE:   ; break;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="11">
+        <v>30</v>
+      </c>
+      <c r="E34" s="9">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_DEMARRAGE_TOL_GUIDON 158</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_DEMARRAGE_TOL_GUIDON 4</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_DEMARRAGE_TOL_GUIDON: curTrameLength= LG_TRAME_CON_DEMARRAGE_TOL_GUIDON ; break;</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_DEMARRAGE_TOL_GUIDON:   ; break;</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="11">
+        <v>31</v>
+      </c>
+      <c r="E35" s="9">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE 159</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE 4</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE: curTrameLength= LG_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE ; break;</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE:   ; break;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="11">
+        <v>32</v>
+      </c>
+      <c r="E36" s="9">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_VITESSE_TROITTOIR_MAX 160</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_VITESSE_TROITTOIR_MAX 4</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_VITESSE_TROITTOIR_MAX: curTrameLength= LG_TRAME_CON_VITESSE_TROITTOIR_MAX ; break;</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_VITESSE_TROITTOIR_MAX:   ; break;</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="11">
+        <v>33</v>
+      </c>
+      <c r="E37" s="9">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_POURCENT_SECURITE_MOTEUR 161</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_POURCENT_SECURITE_MOTEUR 4</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_POURCENT_SECURITE_MOTEUR: curTrameLength= LG_TRAME_CON_POURCENT_SECURITE_MOTEUR ; break;</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_POURCENT_SECURITE_MOTEUR:   ; break;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="11">
+        <v>34</v>
+      </c>
+      <c r="E38" s="9">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_COEF_HYSTERISIS_SECURITE 162</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>#define LG_TRAME_CON_COEF_HYSTERISIS_SECURITE 4</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>case TYPE_TRAME_CON_COEF_HYSTERISIS_SECURITE: curTrameLength= LG_TRAME_CON_COEF_HYSTERISIS_SECURITE ; break;</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_COEF_HYSTERISIS_SECURITE:   ; break;</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="11">
+        <f>D26</f>
+        <v>22</v>
+      </c>
+      <c r="E39" s="9">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_INF_PRINC_PID_K 22</v>
+      </c>
+      <c r="G39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_PID_K 4</v>
       </c>
-      <c r="H10" t="str">
+      <c r="H39" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_PRINC_PID_K: curTrameLength= LG_TRAME_INF_PRINC_PID_K ; break;</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="11">
-        <v>15</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="I39" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_PRINC_PID_K:   ; break;</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="11">
+        <f t="shared" ref="D40:D51" si="8">D27</f>
+        <v>23</v>
+      </c>
+      <c r="E40" s="9">
         <v>4</v>
       </c>
-      <c r="F11" s="1" t="str">
+      <c r="F40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_CON_PRINC_PID_K 143</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_PRINC_PID_K 4</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_CON_PRINC_PID_K: curTrameLength= LG_TRAME_CON_PRINC_PID_K ; break;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="11">
-        <v>16</v>
-      </c>
-      <c r="E12" s="9">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_INF_PRINC_PID_I 16</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_PRINC_PID_I 4</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_INF_PRINC_PID_I: curTrameLength= LG_TRAME_INF_PRINC_PID_I ; break;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="11">
-        <v>16</v>
-      </c>
-      <c r="E13" s="9">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_CON_PRINC_PID_I 144</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_PRINC_PID_I 4</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_CON_PRINC_PID_I: curTrameLength= LG_TRAME_CON_PRINC_PID_I ; break;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="11">
-        <v>17</v>
-      </c>
-      <c r="E14" s="9">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_INF_PRINC_PID_D 17</v>
-      </c>
-      <c r="G14" s="1" t="str">
+        <v>#define TYPE_TRAME_INF_PRINC_PID_D 23</v>
+      </c>
+      <c r="G40" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_PID_D 4</v>
       </c>
-      <c r="H14" t="str">
+      <c r="H40" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_PRINC_PID_D: curTrameLength= LG_TRAME_INF_PRINC_PID_D ; break;</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="I40" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_PRINC_PID_D:   ; break;</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="11">
-        <v>17</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D41" s="11">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="E41" s="9">
         <v>4</v>
       </c>
-      <c r="F15" s="1" t="str">
+      <c r="F41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_CON_PRINC_PID_D 145</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_PRINC_PID_D 4</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_CON_PRINC_PID_D: curTrameLength= LG_TRAME_CON_PRINC_PID_D ; break;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="11">
-        <v>18</v>
-      </c>
-      <c r="E16" s="9">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_INF_PRINC_DIR 18</v>
-      </c>
-      <c r="G16" s="1" t="str">
+        <v>#define TYPE_TRAME_INF_PRINC_DIR 24</v>
+      </c>
+      <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_DIR 4</v>
       </c>
-      <c r="H16" t="str">
+      <c r="H41" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_PRINC_DIR: curTrameLength= LG_TRAME_INF_PRINC_DIR ; break;</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="I41" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_PRINC_DIR:   ; break;</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="9">
+      <c r="D42" s="11">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="E42" s="9">
         <v>4</v>
       </c>
-      <c r="F17" s="1" t="str">
+      <c r="F42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_CON_PRINC_DIR 146</v>
-      </c>
-      <c r="G17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_PRINC_DIR 4</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_CON_PRINC_DIR: curTrameLength= LG_TRAME_CON_PRINC_DIR ; break;</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="11">
-        <v>19</v>
-      </c>
-      <c r="E18" s="9">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_INF_ANGLE 19</v>
-      </c>
-      <c r="G18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_ANGLE 4</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_INF_ANGLE: curTrameLength= LG_TRAME_INF_ANGLE ; break;</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="11">
-        <v>30</v>
-      </c>
-      <c r="E19" s="9">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_INF_VITESSE_ANGULAIRE 30</v>
-      </c>
-      <c r="G19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_VITESSE_ANGULAIRE 4</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_INF_VITESSE_ANGULAIRE: curTrameLength= LG_TRAME_INF_VITESSE_ANGULAIRE ; break;</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="11">
-        <v>20</v>
-      </c>
-      <c r="E20" s="9">
-        <v>4</v>
-      </c>
-      <c r="F20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_INF_ACCELERATION 20</v>
-      </c>
-      <c r="G20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_ACCELERATION 4</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_INF_ACCELERATION: curTrameLength= LG_TRAME_INF_ACCELERATION ; break;</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="11">
-        <v>20</v>
-      </c>
-      <c r="E21" s="9">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_CON_ACCELERATION_COEF_FILTRE 148</v>
-      </c>
-      <c r="G21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_ACCELERATION_COEF_FILTRE 4</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_CON_ACCELERATION_COEF_FILTRE: curTrameLength= LG_TRAME_CON_ACCELERATION_COEF_FILTRE ; break;</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="11">
-        <v>21</v>
-      </c>
-      <c r="E22" s="9">
-        <v>4</v>
-      </c>
-      <c r="F22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_INF_COEF_KALMAN 21</v>
-      </c>
-      <c r="G22" s="1" t="str">
+        <v>#define TYPE_TRAME_INF_COEF_KALMAN 25</v>
+      </c>
+      <c r="G42" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_COEF_KALMAN 4</v>
       </c>
-      <c r="H22" t="str">
+      <c r="H42" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_COEF_KALMAN: curTrameLength= LG_TRAME_INF_COEF_KALMAN ; break;</v>
       </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="11">
-        <v>21</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="I42" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_COEF_KALMAN:   ; break;</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="11">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="E43" s="9">
         <v>4</v>
       </c>
-      <c r="F23" s="1" t="str">
+      <c r="F43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_CON_COEF_KALMAN 149</v>
-      </c>
-      <c r="G23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_COEF_KALMAN 4</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_CON_COEF_KALMAN: curTrameLength= LG_TRAME_CON_COEF_KALMAN ; break;</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="11">
-        <v>22</v>
-      </c>
-      <c r="E24" s="9">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_CON_SAUVEGARDER_COEF 150</v>
-      </c>
-      <c r="G24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_SAUVEGARDER_COEF 4</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_CON_SAUVEGARDER_COEF: curTrameLength= LG_TRAME_CON_SAUVEGARDER_COEF ; break;</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="11">
-        <v>23</v>
-      </c>
-      <c r="E25" s="9">
-        <v>4</v>
-      </c>
-      <c r="F25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_INF_DISTANCE_PARCOURUE 23</v>
-      </c>
-      <c r="G25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_DISTANCE_PARCOURUE 4</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_INF_DISTANCE_PARCOURUE: curTrameLength= LG_TRAME_INF_DISTANCE_PARCOURUE ; break;</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="11">
-        <v>24</v>
-      </c>
-      <c r="E26" s="9">
-        <v>4</v>
-      </c>
-      <c r="F26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>#define TYPE_TRAME_INF_ETAT_BATTERIE 24</v>
-      </c>
-      <c r="G26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_ETAT_BATTERIE 4</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_INF_ETAT_BATTERIE: curTrameLength= LG_TRAME_INF_ETAT_BATTERIE ; break;</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="F27" s="1" t="str">
-        <f t="shared" ref="F27:F74" si="3">IF(B27&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B27,"_",C27," ",IF(B27="CON",128,0)+D27),"")</f>
-        <v/>
-      </c>
-      <c r="G27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="11">
-        <v>25</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>#define TYPE_TRAME_CON_STOP 153</v>
-      </c>
-      <c r="G28" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_STOP 0</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_CON_STOP: curTrameLength= LG_TRAME_CON_STOP ; break;</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="11">
-        <v>26</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>#define TYPE_TRAME_CON_DEPART 154</v>
-      </c>
-      <c r="G29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_DEPART 0</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_CON_DEPART: curTrameLength= LG_TRAME_CON_DEPART ; break;</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="11">
-        <v>25</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>#define TYPE_TRAME_INF_PRET 25</v>
-      </c>
-      <c r="G30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_PRET 0</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_INF_PRET: curTrameLength= LG_TRAME_INF_PRET ; break;</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="11">
-        <v>26</v>
-      </c>
-      <c r="E31" s="9">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>#define TYPE_TRAME_INF_ETAT 26</v>
-      </c>
-      <c r="G31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_ETAT 1</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_INF_ETAT: curTrameLength= LG_TRAME_INF_ETAT ; break;</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="11">
-        <v>27</v>
-      </c>
-      <c r="E32" s="9">
-        <v>2</v>
-      </c>
-      <c r="F32" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>#define TYPE_TRAME_CON_TEST_COM 155</v>
-      </c>
-      <c r="G32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_TEST_COM 2</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_CON_TEST_COM: curTrameLength= LG_TRAME_CON_TEST_COM ; break;</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="11">
-        <v>28</v>
-      </c>
-      <c r="E33" s="9">
-        <v>4</v>
-      </c>
-      <c r="F33" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>#define TYPE_TRAME_INF_SATURATION_VITESSE 28</v>
-      </c>
-      <c r="G33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_SATURATION_VITESSE 4</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_INF_SATURATION_VITESSE: curTrameLength= LG_TRAME_INF_SATURATION_VITESSE ; break;</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="11">
-        <v>28</v>
-      </c>
-      <c r="E34" s="9">
-        <v>4</v>
-      </c>
-      <c r="F34" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>#define TYPE_TRAME_CON_SATURATION_VITESSE 156</v>
-      </c>
-      <c r="G34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_SATURATION_VITESSE 4</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_CON_SATURATION_VITESSE: curTrameLength= LG_TRAME_CON_SATURATION_VITESSE ; break;</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="11">
-        <v>29</v>
-      </c>
-      <c r="E35" s="9">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>#define TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE 29</v>
-      </c>
-      <c r="G35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_INF_ANGLE_HORS_INTERVALLE 1</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE: curTrameLength= LG_TRAME_INF_ANGLE_HORS_INTERVALLE ; break;</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="11">
-        <v>31</v>
-      </c>
-      <c r="E36" s="9">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>#define TYPE_TRAME_CON_RECHARGER_COEF 159</v>
-      </c>
-      <c r="G36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>#define LG_TRAME_CON_RECHARGER_COEF 1</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="2"/>
-        <v>case TYPE_TRAME_CON_RECHARGER_COEF: curTrameLength= LG_TRAME_CON_RECHARGER_COEF ; break;</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="F37" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="F38" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="F39" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="F40" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="F41" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="F42" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="F43" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>#define TYPE_TRAME_INF_ACCELERATION_COEF_FILTRE 26</v>
       </c>
       <c r="G43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>#define LG_TRAME_INF_ACCELERATION_COEF_FILTRE 4</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
+        <v>case TYPE_TRAME_INF_ACCELERATION_COEF_FILTRE: curTrameLength= LG_TRAME_INF_ACCELERATION_COEF_FILTRE ; break;</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_ACCELERATION_COEF_FILTRE:   ; break;</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="11">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="E44" s="9">
+        <v>4</v>
+      </c>
       <c r="F44" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_INF_GUIDONMAX 27</v>
       </c>
       <c r="G44" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>#define LG_TRAME_INF_GUIDONMAX 4</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
+        <v>case TYPE_TRAME_INF_GUIDONMAX: curTrameLength= LG_TRAME_INF_GUIDONMAX ; break;</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_GUIDONMAX:   ; break;</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="11">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="E45" s="9">
+        <v>4</v>
+      </c>
       <c r="F45" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR 28</v>
       </c>
       <c r="G45" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>#define LG_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR 4</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
+        <v>case TYPE_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR: curTrameLength= LG_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR ; break;</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR:   ; break;</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="11">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="E46" s="9">
+        <v>4</v>
+      </c>
       <c r="F46" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_INF_DEMARRAGE_TOL_ANGLE 29</v>
       </c>
       <c r="G46" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>#define LG_TRAME_INF_DEMARRAGE_TOL_ANGLE 4</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
+        <v>case TYPE_TRAME_INF_DEMARRAGE_TOL_ANGLE: curTrameLength= LG_TRAME_INF_DEMARRAGE_TOL_ANGLE ; break;</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_DEMARRAGE_TOL_ANGLE:   ; break;</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="11">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="E47" s="9">
+        <v>4</v>
+      </c>
       <c r="F47" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_INF_DEMARRAGE_TOL_GUIDON 30</v>
       </c>
       <c r="G47" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>#define LG_TRAME_INF_DEMARRAGE_TOL_GUIDON 4</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
+        <v>case TYPE_TRAME_INF_DEMARRAGE_TOL_GUIDON: curTrameLength= LG_TRAME_INF_DEMARRAGE_TOL_GUIDON ; break;</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_DEMARRAGE_TOL_GUIDON:   ; break;</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="11">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="E48" s="9">
+        <v>4</v>
+      </c>
       <c r="F48" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE 31</v>
       </c>
       <c r="G48" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>#define LG_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE 4</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="6:8">
+        <v>case TYPE_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE: curTrameLength= LG_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE ; break;</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE:   ; break;</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="11">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="E49" s="9">
+        <v>4</v>
+      </c>
       <c r="F49" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_INF_VITESSE_TROITTOIR_MAX 32</v>
       </c>
       <c r="G49" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>#define LG_TRAME_INF_VITESSE_TROITTOIR_MAX 4</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="6:8">
+        <v>case TYPE_TRAME_INF_VITESSE_TROITTOIR_MAX: curTrameLength= LG_TRAME_INF_VITESSE_TROITTOIR_MAX ; break;</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_VITESSE_TROITTOIR_MAX:   ; break;</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="11">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="E50" s="9">
+        <v>4</v>
+      </c>
       <c r="F50" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_INF_POURCENT_SECURITE_MOTEUR 33</v>
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>#define LG_TRAME_INF_POURCENT_SECURITE_MOTEUR 4</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="6:8">
+        <v>case TYPE_TRAME_INF_POURCENT_SECURITE_MOTEUR: curTrameLength= LG_TRAME_INF_POURCENT_SECURITE_MOTEUR ; break;</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_POURCENT_SECURITE_MOTEUR:   ; break;</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="11">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="E51" s="9">
+        <v>4</v>
+      </c>
       <c r="F51" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_INF_COEF_HYSTERISIS_SECURITE 34</v>
       </c>
       <c r="G51" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>#define LG_TRAME_INF_COEF_HYSTERISIS_SECURITE 4</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="6:8">
+        <v>case TYPE_TRAME_INF_COEF_HYSTERISIS_SECURITE: curTrameLength= LG_TRAME_INF_COEF_HYSTERISIS_SECURITE ; break;</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_COEF_HYSTERISIS_SECURITE:   ; break;</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="11">
+        <v>35</v>
+      </c>
+      <c r="E52" s="9">
+        <v>4</v>
+      </c>
       <c r="F52" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_COEF_COURANT_1 163</v>
       </c>
       <c r="G52" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>#define LG_TRAME_CON_COEF_COURANT_1 4</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="6:8">
+        <v>case TYPE_TRAME_CON_COEF_COURANT_1: curTrameLength= LG_TRAME_CON_COEF_COURANT_1 ; break;</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_COEF_COURANT_1:   ; break;</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="11">
+        <v>35</v>
+      </c>
+      <c r="E53" s="9">
+        <v>4</v>
+      </c>
       <c r="F53" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_INF_COEF_COURANT_1 35</v>
       </c>
       <c r="G53" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>#define LG_TRAME_INF_COEF_COURANT_1 4</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="6:8">
+        <v>case TYPE_TRAME_INF_COEF_COURANT_1: curTrameLength= LG_TRAME_INF_COEF_COURANT_1 ; break;</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_COEF_COURANT_1:   ; break;</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="11">
+        <v>36</v>
+      </c>
+      <c r="E54" s="9">
+        <v>4</v>
+      </c>
       <c r="F54" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_CON_COEF_COURANT_2 164</v>
       </c>
       <c r="G54" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>#define LG_TRAME_CON_COEF_COURANT_2 4</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="6:8">
+        <v>case TYPE_TRAME_CON_COEF_COURANT_2: curTrameLength= LG_TRAME_CON_COEF_COURANT_2 ; break;</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_CON_COEF_COURANT_2:   ; break;</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="11">
+        <v>36</v>
+      </c>
+      <c r="E55" s="9">
+        <v>4</v>
+      </c>
       <c r="F55" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>#define TYPE_TRAME_INF_COEF_COURANT_2 36</v>
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>#define LG_TRAME_INF_COEF_COURANT_2 4</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="6:8">
+        <v>case TYPE_TRAME_INF_COEF_COURANT_2: curTrameLength= LG_TRAME_INF_COEF_COURANT_2 ; break;</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="3"/>
+        <v>case TYPE_TRAME_INF_COEF_COURANT_2:   ; break;</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="11">
+        <v>50</v>
+      </c>
+      <c r="E56" s="9">
+        <v>4</v>
+      </c>
       <c r="F56" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" ref="F56:F61" si="9">IF(B56&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B56,"_",C56," ",IF(B56="CON",128,0)+D56),"")</f>
+        <v>#define TYPE_TRAME_CON_COUPLED 178</v>
       </c>
       <c r="G56" s="1" t="str">
+        <f t="shared" ref="G56:G61" si="10">IF(B56&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B56,"_",C56," ",E56),"")</f>
+        <v>#define LG_TRAME_CON_COUPLED 4</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" ref="H56:H61" si="11">IF(B56&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B56,"_",C56,": ","curTrameLength= LG_TRAME_",B56,"_",C56," ; break;"),"")</f>
+        <v>case TYPE_TRAME_CON_COUPLED: curTrameLength= LG_TRAME_CON_COUPLED ; break;</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" ref="I56:I61" si="12">IF(B56&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B56,"_",C56,":   ; break;"),"")</f>
+        <v>case TYPE_TRAME_CON_COUPLED:   ; break;</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="11">
+        <v>50</v>
+      </c>
+      <c r="E57" s="9">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>#define TYPE_TRAME_INF_COUPLED 50</v>
+      </c>
+      <c r="G57" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>#define LG_TRAME_INF_COUPLED 4</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="11"/>
+        <v>case TYPE_TRAME_INF_COUPLED: curTrameLength= LG_TRAME_INF_COUPLED ; break;</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="12"/>
+        <v>case TYPE_TRAME_INF_COUPLED:   ; break;</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="11">
+        <v>51</v>
+      </c>
+      <c r="E58" s="9">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>#define TYPE_TRAME_CON_COUPLEG 179</v>
+      </c>
+      <c r="G58" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>#define LG_TRAME_CON_COUPLEG 4</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="11"/>
+        <v>case TYPE_TRAME_CON_COUPLEG: curTrameLength= LG_TRAME_CON_COUPLEG ; break;</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="12"/>
+        <v>case TYPE_TRAME_CON_COUPLEG:   ; break;</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="11">
+        <v>51</v>
+      </c>
+      <c r="E59" s="9">
+        <v>4</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>#define TYPE_TRAME_INF_COUPLEG 51</v>
+      </c>
+      <c r="G59" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>#define LG_TRAME_INF_COUPLEG 4</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="11"/>
+        <v>case TYPE_TRAME_INF_COUPLEG: curTrameLength= LG_TRAME_INF_COUPLEG ; break;</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="12"/>
+        <v>case TYPE_TRAME_INF_COUPLEG:   ; break;</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="11">
+        <v>52</v>
+      </c>
+      <c r="E60" s="9">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>#define TYPE_TRAME_INF_ERREUR_CARTE_COURANT 52</v>
+      </c>
+      <c r="G60" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>#define LG_TRAME_INF_ERREUR_CARTE_COURANT 1</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="11"/>
+        <v>case TYPE_TRAME_INF_ERREUR_CARTE_COURANT: curTrameLength= LG_TRAME_INF_ERREUR_CARTE_COURANT ; break;</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="12"/>
+        <v>case TYPE_TRAME_INF_ERREUR_CARTE_COURANT:   ; break;</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="11">
+        <v>53</v>
+      </c>
+      <c r="E61" s="9">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>#define TYPE_TRAME_INF_PRET 53</v>
+      </c>
+      <c r="G61" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>#define LG_TRAME_INF_PRET 1</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="11"/>
+        <v>case TYPE_TRAME_INF_PRET: curTrameLength= LG_TRAME_INF_PRET ; break;</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="12"/>
+        <v>case TYPE_TRAME_INF_PRET:   ; break;</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="F62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G62" s="1" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="6:8">
-      <c r="F57" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G57" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="6:8">
-      <c r="F58" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G58" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H58" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="6:8">
-      <c r="F59" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G59" s="1" t="str">
-        <f t="shared" ref="G59:G74" si="4">IF(B59&lt;&gt;"",CONCATENATE("#define LGT_TRAME_",B59,"_",C59," ",E59),"")</f>
-        <v/>
-      </c>
-      <c r="H59" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="6:8">
-      <c r="F60" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G60" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H60" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="6:8">
-      <c r="F61" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G61" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H61" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="6:8">
-      <c r="F62" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G62" s="1" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="6:8">
+      <c r="I62" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
       <c r="F63" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G63" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="6:8">
+      <c r="I63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
       <c r="F64" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G64" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="6:8">
+      <c r="I64" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:9">
       <c r="F65" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G65" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="6:8">
+      <c r="I65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:9">
       <c r="F66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I66" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G66" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="6:8">
+    </row>
+    <row r="67" spans="6:9">
       <c r="F67" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F67:F130" si="13">IF(B67&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B67,"_",C67," ",IF(B67="CON",128,0)+D67),"")</f>
         <v/>
       </c>
       <c r="G67" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="6:8">
+        <f t="shared" ref="G67:G130" si="14">IF(B67&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B67,"_",C67," ",E67),"")</f>
+        <v/>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H130" si="15">IF(B67&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B67,"_",C67,": ","curTrameLength= LG_TRAME_",B67,"_",C67," ; break;"),"")</f>
+        <v/>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" ref="I67:I130" si="16">IF(B67&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B67,"_",C67,":   ; break;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:9">
       <c r="F68" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G68" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="6:8">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="6:9">
       <c r="F69" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G69" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="6:8">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="6:9">
       <c r="F70" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G70" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="6:8">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="6:9">
       <c r="F71" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G71" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="6:8">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="6:9">
       <c r="F72" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G72" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="6:8">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="6:9">
       <c r="F73" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G73" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="6:8">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="6:9">
       <c r="F74" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G74" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="6:9">
+      <c r="F75" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G75" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="6:9">
+      <c r="F76" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G76" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="6:9">
+      <c r="F77" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G77" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="6:9">
+      <c r="F78" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G78" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="6:9">
+      <c r="F79" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G79" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="6:9">
+      <c r="F80" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G80" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="6:9">
+      <c r="F81" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G81" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="6:9">
+      <c r="F82" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G82" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="6:9">
+      <c r="F83" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G83" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="6:9">
+      <c r="F84" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G84" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="6:9">
+      <c r="F85" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G85" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="6:9">
+      <c r="F86" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G86" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="6:9">
+      <c r="F87" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G87" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="6:9">
+      <c r="F88" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G88" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="6:9">
+      <c r="F89" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G89" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="6:9">
+      <c r="F90" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G90" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="6:9">
+      <c r="F91" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G91" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="6:9">
+      <c r="F92" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G92" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="6:9">
+      <c r="F93" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G93" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="6:9">
+      <c r="F94" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G94" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="6:9">
+      <c r="F95" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G95" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="6:9">
+      <c r="F96" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G96" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="6:9">
+      <c r="F97" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G97" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="6:9">
+      <c r="F98" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G98" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="6:9">
+      <c r="F99" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G99" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="6:9">
+      <c r="F100" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G100" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="6:9">
+      <c r="F101" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G101" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="6:9">
+      <c r="F102" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G102" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="6:9">
+      <c r="F103" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G103" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="6:9">
+      <c r="F104" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G104" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="6:9">
+      <c r="F105" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G105" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="6:9">
+      <c r="F106" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G106" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="6:9">
+      <c r="F107" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G107" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="6:9">
+      <c r="F108" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G108" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="6:9">
+      <c r="F109" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G109" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H109" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I109" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="6:9">
+      <c r="F110" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G110" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I110" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="6:9">
+      <c r="F111" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G111" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="6:9">
+      <c r="F112" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G112" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="6:9">
+      <c r="F113" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G113" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="6:9">
+      <c r="F114" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G114" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="6:9">
+      <c r="F115" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G115" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="6:9">
+      <c r="F116" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G116" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="6:9">
+      <c r="F117" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G117" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="6:9">
+      <c r="F118" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G118" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I118" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="6:9">
+      <c r="F119" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G119" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I119" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="6:9">
+      <c r="F120" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G120" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I120" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="6:9">
+      <c r="F121" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G121" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I121" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="6:9">
+      <c r="F122" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G122" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I122" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="6:9">
+      <c r="F123" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G123" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I123" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="6:9">
+      <c r="F124" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G124" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I124" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="6:9">
+      <c r="F125" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G125" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I125" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="6:9">
+      <c r="F126" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G126" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H126" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I126" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="6:9">
+      <c r="F127" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G127" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H127" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I127" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="6:9">
+      <c r="F128" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G128" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I128" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="6:9">
+      <c r="F129" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G129" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I129" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="6:9">
+      <c r="F130" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G130" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I130" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="6:9">
+      <c r="F131" s="1" t="str">
+        <f t="shared" ref="F131:F160" si="17">IF(B131&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B131,"_",C131," ",IF(B131="CON",128,0)+D131),"")</f>
+        <v/>
+      </c>
+      <c r="G131" s="1" t="str">
+        <f t="shared" ref="G131:G160" si="18">IF(B131&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B131,"_",C131," ",E131),"")</f>
+        <v/>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" ref="H131:H160" si="19">IF(B131&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B131,"_",C131,": ","curTrameLength= LG_TRAME_",B131,"_",C131," ; break;"),"")</f>
+        <v/>
+      </c>
+      <c r="I131" t="str">
+        <f t="shared" ref="I131:I160" si="20">IF(B131&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B131,"_",C131,":   ; break;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="6:9">
+      <c r="F132" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G132" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H132" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I132" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="6:9">
+      <c r="F133" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G133" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H133" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I133" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="6:9">
+      <c r="F134" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G134" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H134" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I134" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="6:9">
+      <c r="F135" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G135" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H135" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I135" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="6:9">
+      <c r="F136" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G136" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H136" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I136" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="6:9">
+      <c r="F137" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G137" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H137" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I137" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="6:9">
+      <c r="F138" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G138" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H138" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I138" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="6:9">
+      <c r="F139" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G139" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H139" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I139" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="6:9">
+      <c r="F140" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G140" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H140" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I140" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="6:9">
+      <c r="F141" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G141" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H141" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I141" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="6:9">
+      <c r="F142" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G142" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H142" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I142" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="6:9">
+      <c r="F143" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G143" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H143" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I143" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="6:9">
+      <c r="F144" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G144" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H144" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I144" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="6:9">
+      <c r="F145" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G145" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H145" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I145" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="6:9">
+      <c r="F146" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G146" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H146" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I146" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="6:9">
+      <c r="F147" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G147" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H147" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I147" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="6:9">
+      <c r="F148" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G148" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H148" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I148" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="6:9">
+      <c r="F149" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G149" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H149" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I149" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="6:9">
+      <c r="F150" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G150" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H150" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I150" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="6:9">
+      <c r="F151" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G151" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H151" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I151" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="6:9">
+      <c r="F152" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G152" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H152" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I152" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="6:9">
+      <c r="F153" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G153" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H153" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I153" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="6:9">
+      <c r="F154" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G154" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H154" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I154" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="6:9">
+      <c r="F155" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G155" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H155" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I155" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="6:9">
+      <c r="F156" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G156" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H156" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I156" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="6:9">
+      <c r="F157" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G157" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H157" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I157" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="6:9">
+      <c r="F158" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G158" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H158" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I158" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="6:9">
+      <c r="F159" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G159" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H159" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I159" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="6:9">
+      <c r="F160" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="G160" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H160" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I160" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="6:9">
+      <c r="F161" s="1" t="str">
+        <f t="shared" ref="F161:F188" si="21">IF(B178&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B178,"_",C178," ",IF(B178="CON",128,0)+D178),"")</f>
+        <v/>
+      </c>
+      <c r="G161" s="1" t="str">
+        <f t="shared" ref="G161:G188" si="22">IF(B178&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B178,"_",C178," ",E178),"")</f>
+        <v/>
+      </c>
+      <c r="H161" t="str">
+        <f t="shared" ref="H161:H188" si="23">IF(B178&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B178,"_",C178,": ","curTrameLength= LG_TRAME_",B178,"_",C178," ; break;"),"")</f>
+        <v/>
+      </c>
+      <c r="I161" t="str">
+        <f t="shared" ref="I161:I188" si="24">IF(B178&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B178,"_",C178,":   ; break;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="6:9">
+      <c r="F162" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G162" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H162" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I162" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="6:9">
+      <c r="F163" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G163" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H163" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I163" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="6:9">
+      <c r="F164" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G164" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H164" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I164" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="6:9">
+      <c r="F165" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G165" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H165" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I165" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="6:9">
+      <c r="F166" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G166" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H166" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I166" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="6:9">
+      <c r="F167" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G167" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H167" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I167" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="6:9">
+      <c r="F168" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G168" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H168" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I168" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="6:9">
+      <c r="F169" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G169" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H169" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I169" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="6:9">
+      <c r="F170" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G170" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H170" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I170" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="6:9">
+      <c r="F171" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G171" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H171" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I171" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="6:9">
+      <c r="F172" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G172" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H172" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I172" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="6:9">
+      <c r="F173" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G173" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H173" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I173" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="6:9">
+      <c r="F174" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G174" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H174" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I174" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="6:9">
+      <c r="F175" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G175" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H175" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I175" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="6:9">
+      <c r="F176" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G176" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H176" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I176" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="6:9">
+      <c r="F177" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G177" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H177" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I177" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="6:9">
+      <c r="F178" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G178" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H178" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I178" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="6:9">
+      <c r="F179" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G179" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H179" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I179" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="6:9">
+      <c r="F180" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G180" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H180" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I180" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="6:9">
+      <c r="F181" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G181" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H181" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I181" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="6:9">
+      <c r="F182" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G182" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H182" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I182" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="6:9">
+      <c r="F183" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G183" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H183" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I183" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="6:9">
+      <c r="F184" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G184" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H184" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I184" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="6:9">
+      <c r="F185" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G185" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H185" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I185" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="6:9">
+      <c r="F186" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G186" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H186" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I186" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="6:9">
+      <c r="F187" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G187" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H187" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I187" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="6:9">
+      <c r="F188" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G188" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H188" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="I188" t="str">
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I74">
+    <sortCondition ref="C2:C74"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2082,8 +4808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2101,42 +4827,42 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2163,13 +4889,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2196,13 +4922,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2226,13 +4952,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2256,13 +4982,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2286,13 +5012,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2319,13 +5045,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2349,13 +5075,13 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1">
       <c r="A9" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B9" s="12">
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D9" s="12">
         <v>0</v>
@@ -2379,13 +5105,13 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1">
       <c r="A10" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B10" s="12">
         <v>0</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D10" s="12">
         <v>1</v>
@@ -2409,13 +5135,13 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1">
       <c r="A11" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D11" s="12">
         <v>1</v>
@@ -2439,13 +5165,13 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1">
       <c r="A12" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B12" s="12">
         <v>2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D12" s="12">
         <v>1</v>
@@ -2469,13 +5195,13 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1">
       <c r="A13" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B13" s="12">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2499,13 +5225,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2529,13 +5255,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2559,13 +5285,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2589,13 +5315,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2619,13 +5345,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2649,13 +5375,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2679,13 +5405,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2709,13 +5435,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2739,13 +5465,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2769,13 +5495,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2799,13 +5525,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2829,13 +5555,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B25">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2859,13 +5585,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2889,13 +5615,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2919,13 +5645,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2949,13 +5675,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2979,13 +5705,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3009,13 +5735,13 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3039,13 +5765,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3069,13 +5795,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B33">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3099,13 +5825,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3132,13 +5858,13 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3165,13 +5891,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3198,13 +5924,13 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D37">
         <v>1</v>

--- a/ProgrammePrincipal/generateur de noms de trame.xlsx
+++ b/ProgrammePrincipal/generateur de noms de trame.xlsx
@@ -327,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +355,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -400,6 +406,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:J188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -709,9 +716,11 @@
     <col min="5" max="5" width="9.5703125" style="9" customWidth="1"/>
     <col min="6" max="6" width="55.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="108.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1">
+    <row r="1" spans="1:10" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
@@ -732,7 +741,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -761,8 +770,12 @@
         <f>IF(B2&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B2,"_",C2,":   ; break;"),"")</f>
         <v>case TYPE_TRAME_CON_TEST_COM:   ; break;</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="str">
+        <f>IF(B2="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B2,"_",C2,",(void*)(&amp;",C2,"),LG_TRAME_",B2,"_",C2,");"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -791,8 +804,12 @@
         <f t="shared" ref="I3:I66" si="3">IF(B3&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B3,"_",C3,":   ; break;"),"")</f>
         <v>case TYPE_TRAME_CON_DEPART:   ; break;</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J13" si="4">IF(B3="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B3,"_",C3,",(void*)(&amp;",C3,"),LG_TRAME_",B3,"_",C3,");"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -821,8 +838,12 @@
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_STOP:   ; break;</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -851,8 +872,12 @@
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_ETAT:   ; break;</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="str">
+        <f>IF(B5="INF",CONCATENATE("if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_",B5,"_",C5,",(void*)(&amp;",C5,"),LG_TRAME_",B5,"_",C5,");"),"")</f>
+        <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_ETAT,(void*)(&amp;ETAT),LG_TRAME_INF_ETAT);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -881,8 +906,12 @@
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_ETAT_BATTERIE:   ; break;</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="str">
+        <f t="shared" ref="J6:J28" si="5">IF(B6="INF",CONCATENATE("if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_",B6,"_",C6,",(void*)(&amp;",C6,"),LG_TRAME_",B6,"_",C6,");"),"")</f>
+        <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_ETAT_BATTERIE,(void*)(&amp;ETAT_BATTERIE),LG_TRAME_INF_ETAT_BATTERIE);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -911,8 +940,12 @@
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE:   ; break;</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="str">
+        <f t="shared" si="5"/>
+        <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE,(void*)(&amp;ANGLE_HORS_INTERVALLE),LG_TRAME_INF_ANGLE_HORS_INTERVALLE);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -941,8 +974,12 @@
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_ANGLE_TANGAGE:   ; break;</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" t="str">
+        <f t="shared" si="5"/>
+        <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_ANGLE_TANGAGE,(void*)(&amp;ANGLE_TANGAGE),LG_TRAME_INF_ANGLE_TANGAGE);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -971,8 +1008,12 @@
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_VITESSE_ANGULAIRE:   ; break;</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" t="str">
+        <f t="shared" si="5"/>
+        <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_VITESSE_ANGULAIRE,(void*)(&amp;VITESSE_ANGULAIRE),LG_TRAME_INF_VITESSE_ANGULAIRE);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -983,26 +1024,30 @@
         <v>8</v>
       </c>
       <c r="E10" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f t="shared" ref="F10:F15" si="4">IF(B10&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B10,"_",C10," ",IF(B10="CON",128,0)+D10),"")</f>
+        <f t="shared" ref="F10:F15" si="6">IF(B10&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B10,"_",C10," ",IF(B10="CON",128,0)+D10),"")</f>
         <v>#define TYPE_TRAME_INF_VERBOSE 8</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f t="shared" ref="G10:G15" si="5">IF(B10&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B10,"_",C10," ",E10),"")</f>
-        <v>#define LG_TRAME_INF_VERBOSE 1</v>
+        <f t="shared" ref="G10:G15" si="7">IF(B10&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B10,"_",C10," ",E10),"")</f>
+        <v>#define LG_TRAME_INF_VERBOSE 2</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" ref="H10:H15" si="6">IF(B10&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B10,"_",C10,": ","curTrameLength= LG_TRAME_",B10,"_",C10," ; break;"),"")</f>
+        <f t="shared" ref="H10:H15" si="8">IF(B10&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B10,"_",C10,": ","curTrameLength= LG_TRAME_",B10,"_",C10," ; break;"),"")</f>
         <v>case TYPE_TRAME_INF_VERBOSE: curTrameLength= LG_TRAME_INF_VERBOSE ; break;</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" ref="I10:I15" si="7">IF(B10&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B10,"_",C10,":   ; break;"),"")</f>
+        <f t="shared" ref="I10:I15" si="9">IF(B10&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B10,"_",C10,":   ; break;"),"")</f>
         <v>case TYPE_TRAME_INF_VERBOSE:   ; break;</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" t="str">
+        <f t="shared" si="5"/>
+        <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_VERBOSE,(void*)(&amp;VERBOSE),LG_TRAME_INF_VERBOSE);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1013,26 +1058,30 @@
         <v>8</v>
       </c>
       <c r="E11" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#define TYPE_TRAME_CON_VERBOSE 136</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>#define LG_TRAME_CON_VERBOSE 1</v>
+        <f t="shared" si="7"/>
+        <v>#define LG_TRAME_CON_VERBOSE 2</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>case TYPE_TRAME_CON_VERBOSE: curTrameLength= LG_TRAME_CON_VERBOSE ; break;</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>case TYPE_TRAME_CON_VERBOSE:   ; break;</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1046,77 +1095,93 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#define TYPE_TRAME_CON_DEMANDE_COEFFICIENTS 137</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#define LG_TRAME_CON_DEMANDE_COEFFICIENTS 1</v>
       </c>
       <c r="H12" t="str">
+        <f t="shared" si="8"/>
+        <v>case TYPE_TRAME_CON_DEMANDE_COEFFICIENTS: curTrameLength= LG_TRAME_CON_DEMANDE_COEFFICIENTS ; break;</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="9"/>
+        <v>case TYPE_TRAME_CON_DEMANDE_COEFFICIENTS:   ; break;</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="F13" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>case TYPE_TRAME_CON_DEMANDE_COEFFICIENTS: curTrameLength= LG_TRAME_CON_DEMANDE_COEFFICIENTS ; break;</v>
-      </c>
-      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="G13" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>case TYPE_TRAME_CON_DEMANDE_COEFFICIENTS:   ; break;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="F13" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G13" s="1" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="F14" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I13" t="str">
+      <c r="G14" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="F14" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G14" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="H14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="F15" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I14" t="str">
+      <c r="G15" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="F15" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G15" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="H15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1145,8 +1210,12 @@
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_VITESSED:   ; break;</v>
       </c>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="J16" t="str">
+        <f t="shared" si="5"/>
+        <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_VITESSED,(void*)(&amp;VITESSED),LG_TRAME_INF_VITESSED);</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1175,8 +1244,12 @@
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_VITESSEG:   ; break;</v>
       </c>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="J17" t="str">
+        <f t="shared" si="5"/>
+        <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_VITESSEG,(void*)(&amp;VITESSEG),LG_TRAME_INF_VITESSEG);</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1205,8 +1278,12 @@
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_DISTANCE_PARCOURUE:   ; break;</v>
       </c>
-    </row>
-    <row r="19" spans="2:9">
+      <c r="J18" t="str">
+        <f t="shared" si="5"/>
+        <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_DISTANCE_PARCOURUE,(void*)(&amp;DISTANCE_PARCOURUE),LG_TRAME_INF_DISTANCE_PARCOURUE);</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1235,8 +1312,12 @@
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_ACCELERATION:   ; break;</v>
       </c>
-    </row>
-    <row r="20" spans="2:9">
+      <c r="J19" t="str">
+        <f t="shared" si="5"/>
+        <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_ACCELERATION,(void*)(&amp;ACCELERATION),LG_TRAME_INF_ACCELERATION);</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1265,8 +1346,12 @@
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_CHARGER_VITESSE:   ; break;</v>
       </c>
-    </row>
-    <row r="21" spans="2:9">
+      <c r="J20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
@@ -1295,8 +1380,12 @@
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_ENREGISTRER_VITESSE:   ; break;</v>
       </c>
-    </row>
-    <row r="22" spans="2:9">
+      <c r="J21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
@@ -1325,8 +1414,12 @@
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_CHARGER_ASSERVISSEMENT:   ; break;</v>
       </c>
-    </row>
-    <row r="23" spans="2:9">
+      <c r="J22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1355,8 +1448,12 @@
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_ENREGISTRER_ASSERVISSEMENT:   ; break;</v>
       </c>
-    </row>
-    <row r="24" spans="2:9">
+      <c r="J23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1385,8 +1482,12 @@
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_CHARGER_DEMARRAGE:   ; break;</v>
       </c>
-    </row>
-    <row r="25" spans="2:9">
+      <c r="J24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1415,8 +1516,12 @@
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_ENREGISTRER_DEMARRAGE:   ; break;</v>
       </c>
-    </row>
-    <row r="26" spans="2:9">
+      <c r="J25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
@@ -1437,16 +1542,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_PRINC_PID_K 4</v>
       </c>
-      <c r="H26" t="str">
+      <c r="H26" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_PRINC_PID_K: curTrameLength= LG_TRAME_CON_PRINC_PID_K ; break;</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_CON_PRINC_PID_K:   ; break;</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
+        <f>IF(B26="CON",CONCATENATE("case TYPE_TRAME_",B26,"_",C26,":   memcpy((void*)&amp;",C26,", (void*)(trameBuf), 4) ; break;"),"")</f>
+        <v>case TYPE_TRAME_CON_PRINC_PID_K:   memcpy((void*)&amp;PRINC_PID_K, (void*)(trameBuf), 4) ; break;</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="2" t="s">
         <v>0</v>
       </c>
@@ -1467,16 +1576,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_PRINC_PID_D 4</v>
       </c>
-      <c r="H27" t="str">
+      <c r="H27" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_PRINC_PID_D: curTrameLength= LG_TRAME_CON_PRINC_PID_D ; break;</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_CON_PRINC_PID_D:   ; break;</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
+        <f t="shared" ref="I27:I51" si="10">IF(B27="CON",CONCATENATE("case TYPE_TRAME_",B27,"_",C27,":   memcpy((void*)&amp;",C27,", (void*)(trameBuf), 4) ; break;"),"")</f>
+        <v>case TYPE_TRAME_CON_PRINC_PID_D:   memcpy((void*)&amp;PRINC_PID_D, (void*)(trameBuf), 4) ; break;</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
@@ -1497,16 +1610,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_PRINC_DIR 4</v>
       </c>
-      <c r="H28" t="str">
+      <c r="H28" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_PRINC_DIR: curTrameLength= LG_TRAME_CON_PRINC_DIR ; break;</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_CON_PRINC_DIR:   ; break;</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
+        <f t="shared" si="10"/>
+        <v>case TYPE_TRAME_CON_PRINC_DIR:   memcpy((void*)&amp;PRINC_DIR, (void*)(trameBuf), 4) ; break;</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1527,16 +1644,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_COEF_KALMAN 4</v>
       </c>
-      <c r="H29" t="str">
+      <c r="H29" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_COEF_KALMAN: curTrameLength= LG_TRAME_CON_COEF_KALMAN ; break;</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_CON_COEF_KALMAN:   ; break;</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
+        <f t="shared" si="10"/>
+        <v>case TYPE_TRAME_CON_COEF_KALMAN:   memcpy((void*)&amp;COEF_KALMAN, (void*)(trameBuf), 4) ; break;</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" ref="J27:J38" si="11">IF(B29="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B29,"_",C29,",(void*)",C29,",LG_TRAME_",B29,"_",C29,");"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="2" t="s">
         <v>0</v>
       </c>
@@ -1557,16 +1678,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_ACCELERATION_COEF_FILTRE 4</v>
       </c>
-      <c r="H30" t="str">
+      <c r="H30" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_ACCELERATION_COEF_FILTRE: curTrameLength= LG_TRAME_CON_ACCELERATION_COEF_FILTRE ; break;</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_CON_ACCELERATION_COEF_FILTRE:   ; break;</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
+        <f t="shared" si="10"/>
+        <v>case TYPE_TRAME_CON_ACCELERATION_COEF_FILTRE:   memcpy((void*)&amp;ACCELERATION_COEF_FILTRE, (void*)(trameBuf), 4) ; break;</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31" s="2" t="s">
         <v>0</v>
       </c>
@@ -1587,16 +1712,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_GUIDONMAX 4</v>
       </c>
-      <c r="H31" t="str">
+      <c r="H31" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_GUIDONMAX: curTrameLength= LG_TRAME_CON_GUIDONMAX ; break;</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_CON_GUIDONMAX:   ; break;</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
+        <f t="shared" si="10"/>
+        <v>case TYPE_TRAME_CON_GUIDONMAX:   memcpy((void*)&amp;GUIDONMAX, (void*)(trameBuf), 4) ; break;</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
@@ -1617,16 +1746,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR 4</v>
       </c>
-      <c r="H32" t="str">
+      <c r="H32" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR: curTrameLength= LG_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR ; break;</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR:   ; break;</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+        <f t="shared" si="10"/>
+        <v>case TYPE_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR:   memcpy((void*)&amp;LIMITE_DISTANCE_UTILISATEUR, (void*)(trameBuf), 4) ; break;</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
@@ -1647,16 +1780,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_DEMARRAGE_TOL_ANGLE 4</v>
       </c>
-      <c r="H33" t="str">
+      <c r="H33" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_DEMARRAGE_TOL_ANGLE: curTrameLength= LG_TRAME_CON_DEMARRAGE_TOL_ANGLE ; break;</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_CON_DEMARRAGE_TOL_ANGLE:   ; break;</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+        <f t="shared" si="10"/>
+        <v>case TYPE_TRAME_CON_DEMARRAGE_TOL_ANGLE:   memcpy((void*)&amp;DEMARRAGE_TOL_ANGLE, (void*)(trameBuf), 4) ; break;</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
@@ -1677,16 +1814,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_DEMARRAGE_TOL_GUIDON 4</v>
       </c>
-      <c r="H34" t="str">
+      <c r="H34" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_DEMARRAGE_TOL_GUIDON: curTrameLength= LG_TRAME_CON_DEMARRAGE_TOL_GUIDON ; break;</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_CON_DEMARRAGE_TOL_GUIDON:   ; break;</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
+        <f t="shared" si="10"/>
+        <v>case TYPE_TRAME_CON_DEMARRAGE_TOL_GUIDON:   memcpy((void*)&amp;DEMARRAGE_TOL_GUIDON, (void*)(trameBuf), 4) ; break;</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35" s="2" t="s">
         <v>0</v>
       </c>
@@ -1707,16 +1848,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE 4</v>
       </c>
-      <c r="H35" t="str">
+      <c r="H35" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE: curTrameLength= LG_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE ; break;</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE:   ; break;</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
+        <f t="shared" si="10"/>
+        <v>case TYPE_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE:   memcpy((void*)&amp;DEMARRAGE_DELAI_EQUILIBRE, (void*)(trameBuf), 4) ; break;</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
@@ -1737,16 +1882,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_VITESSE_TROITTOIR_MAX 4</v>
       </c>
-      <c r="H36" t="str">
+      <c r="H36" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_VITESSE_TROITTOIR_MAX: curTrameLength= LG_TRAME_CON_VITESSE_TROITTOIR_MAX ; break;</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_CON_VITESSE_TROITTOIR_MAX:   ; break;</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
+        <f t="shared" si="10"/>
+        <v>case TYPE_TRAME_CON_VITESSE_TROITTOIR_MAX:   memcpy((void*)&amp;VITESSE_TROITTOIR_MAX, (void*)(trameBuf), 4) ; break;</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37" s="2" t="s">
         <v>0</v>
       </c>
@@ -1767,16 +1916,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_POURCENT_SECURITE_MOTEUR 4</v>
       </c>
-      <c r="H37" t="str">
+      <c r="H37" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_POURCENT_SECURITE_MOTEUR: curTrameLength= LG_TRAME_CON_POURCENT_SECURITE_MOTEUR ; break;</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_CON_POURCENT_SECURITE_MOTEUR:   ; break;</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
+        <f t="shared" si="10"/>
+        <v>case TYPE_TRAME_CON_POURCENT_SECURITE_MOTEUR:   memcpy((void*)&amp;POURCENT_SECURITE_MOTEUR, (void*)(trameBuf), 4) ; break;</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
@@ -1797,16 +1950,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_COEF_HYSTERISIS_SECURITE 4</v>
       </c>
-      <c r="H38" t="str">
+      <c r="H38" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_COEF_HYSTERISIS_SECURITE: curTrameLength= LG_TRAME_CON_COEF_HYSTERISIS_SECURITE ; break;</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_CON_COEF_HYSTERISIS_SECURITE:   ; break;</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
+        <f t="shared" si="10"/>
+        <v>case TYPE_TRAME_CON_COEF_HYSTERISIS_SECURITE:   memcpy((void*)&amp;COEF_HYSTERISIS_SECURITE, (void*)(trameBuf), 4) ; break;</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -1828,16 +1985,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_PID_K 4</v>
       </c>
-      <c r="H39" t="str">
+      <c r="H39" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_PRINC_PID_K: curTrameLength= LG_TRAME_INF_PRINC_PID_K ; break;</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_INF_PRINC_PID_K:   ; break;</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <f>IF(B39="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B39,"_",C39,",(void*)(&amp;",C39,"),LG_TRAME_",B39,"_",C39,");"),"")</f>
+        <v>envoiTrameUart1(TYPE_TRAME_INF_PRINC_PID_K,(void*)(&amp;PRINC_PID_K),LG_TRAME_INF_PRINC_PID_K);</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
       <c r="B40" s="2" t="s">
         <v>8</v>
       </c>
@@ -1845,7 +2006,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" ref="D40:D51" si="8">D27</f>
+        <f t="shared" ref="D40:D51" si="12">D27</f>
         <v>23</v>
       </c>
       <c r="E40" s="9">
@@ -1859,16 +2020,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_PID_D 4</v>
       </c>
-      <c r="H40" t="str">
+      <c r="H40" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_PRINC_PID_D: curTrameLength= LG_TRAME_INF_PRINC_PID_D ; break;</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_INF_PRINC_PID_D:   ; break;</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" ref="J40:J51" si="13">IF(B40="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B40,"_",C40,",(void*)(&amp;",C40,"),LG_TRAME_",B40,"_",C40,");"),"")</f>
+        <v>envoiTrameUart1(TYPE_TRAME_INF_PRINC_PID_D,(void*)(&amp;PRINC_PID_D),LG_TRAME_INF_PRINC_PID_D);</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
       <c r="B41" s="2" t="s">
         <v>8</v>
       </c>
@@ -1876,7 +2041,7 @@
         <v>14</v>
       </c>
       <c r="D41" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="E41" s="9">
@@ -1890,16 +2055,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_DIR 4</v>
       </c>
-      <c r="H41" t="str">
+      <c r="H41" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_PRINC_DIR: curTrameLength= LG_TRAME_INF_PRINC_DIR ; break;</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_INF_PRINC_DIR:   ; break;</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="13"/>
+        <v>envoiTrameUart1(TYPE_TRAME_INF_PRINC_DIR,(void*)(&amp;PRINC_DIR),LG_TRAME_INF_PRINC_DIR);</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
       <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
@@ -1907,7 +2076,7 @@
         <v>18</v>
       </c>
       <c r="D42" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="E42" s="9">
@@ -1921,16 +2090,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_COEF_KALMAN 4</v>
       </c>
-      <c r="H42" t="str">
+      <c r="H42" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_COEF_KALMAN: curTrameLength= LG_TRAME_INF_COEF_KALMAN ; break;</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_INF_COEF_KALMAN:   ; break;</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="13"/>
+        <v>envoiTrameUart1(TYPE_TRAME_INF_COEF_KALMAN,(void*)(&amp;COEF_KALMAN),LG_TRAME_INF_COEF_KALMAN);</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
       <c r="B43" s="2" t="s">
         <v>8</v>
       </c>
@@ -1938,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="D43" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>26</v>
       </c>
       <c r="E43" s="9">
@@ -1952,16 +2125,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ACCELERATION_COEF_FILTRE 4</v>
       </c>
-      <c r="H43" t="str">
+      <c r="H43" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_ACCELERATION_COEF_FILTRE: curTrameLength= LG_TRAME_INF_ACCELERATION_COEF_FILTRE ; break;</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_INF_ACCELERATION_COEF_FILTRE:   ; break;</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="13"/>
+        <v>envoiTrameUart1(TYPE_TRAME_INF_ACCELERATION_COEF_FILTRE,(void*)(&amp;ACCELERATION_COEF_FILTRE),LG_TRAME_INF_ACCELERATION_COEF_FILTRE);</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
       <c r="B44" s="2" t="s">
         <v>8</v>
       </c>
@@ -1969,7 +2146,7 @@
         <v>84</v>
       </c>
       <c r="D44" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>27</v>
       </c>
       <c r="E44" s="9">
@@ -1983,16 +2160,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_GUIDONMAX 4</v>
       </c>
-      <c r="H44" t="str">
+      <c r="H44" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_GUIDONMAX: curTrameLength= LG_TRAME_INF_GUIDONMAX ; break;</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_INF_GUIDONMAX:   ; break;</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="13"/>
+        <v>envoiTrameUart1(TYPE_TRAME_INF_GUIDONMAX,(void*)(&amp;GUIDONMAX),LG_TRAME_INF_GUIDONMAX);</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
       <c r="B45" s="2" t="s">
         <v>8</v>
       </c>
@@ -2000,7 +2181,7 @@
         <v>85</v>
       </c>
       <c r="D45" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="E45" s="9">
@@ -2014,16 +2195,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR 4</v>
       </c>
-      <c r="H45" t="str">
+      <c r="H45" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR: curTrameLength= LG_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR ; break;</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR:   ; break;</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="13"/>
+        <v>envoiTrameUart1(TYPE_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR,(void*)(&amp;LIMITE_DISTANCE_UTILISATEUR),LG_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR);</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -2031,7 +2216,7 @@
         <v>86</v>
       </c>
       <c r="D46" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>29</v>
       </c>
       <c r="E46" s="9">
@@ -2045,16 +2230,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_DEMARRAGE_TOL_ANGLE 4</v>
       </c>
-      <c r="H46" t="str">
+      <c r="H46" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_DEMARRAGE_TOL_ANGLE: curTrameLength= LG_TRAME_INF_DEMARRAGE_TOL_ANGLE ; break;</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_INF_DEMARRAGE_TOL_ANGLE:   ; break;</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="13"/>
+        <v>envoiTrameUart1(TYPE_TRAME_INF_DEMARRAGE_TOL_ANGLE,(void*)(&amp;DEMARRAGE_TOL_ANGLE),LG_TRAME_INF_DEMARRAGE_TOL_ANGLE);</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
       <c r="B47" s="2" t="s">
         <v>8</v>
       </c>
@@ -2062,7 +2251,7 @@
         <v>87</v>
       </c>
       <c r="D47" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="E47" s="9">
@@ -2076,16 +2265,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_DEMARRAGE_TOL_GUIDON 4</v>
       </c>
-      <c r="H47" t="str">
+      <c r="H47" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_DEMARRAGE_TOL_GUIDON: curTrameLength= LG_TRAME_INF_DEMARRAGE_TOL_GUIDON ; break;</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_INF_DEMARRAGE_TOL_GUIDON:   ; break;</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="13"/>
+        <v>envoiTrameUart1(TYPE_TRAME_INF_DEMARRAGE_TOL_GUIDON,(void*)(&amp;DEMARRAGE_TOL_GUIDON),LG_TRAME_INF_DEMARRAGE_TOL_GUIDON);</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
       <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
@@ -2093,7 +2286,7 @@
         <v>88</v>
       </c>
       <c r="D48" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="E48" s="9">
@@ -2107,16 +2300,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE 4</v>
       </c>
-      <c r="H48" t="str">
+      <c r="H48" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE: curTrameLength= LG_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE ; break;</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE:   ; break;</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="13"/>
+        <v>envoiTrameUart1(TYPE_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE,(void*)(&amp;DEMARRAGE_DELAI_EQUILIBRE),LG_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE);</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
       <c r="B49" s="2" t="s">
         <v>8</v>
       </c>
@@ -2124,7 +2321,7 @@
         <v>89</v>
       </c>
       <c r="D49" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="E49" s="9">
@@ -2138,16 +2335,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_VITESSE_TROITTOIR_MAX 4</v>
       </c>
-      <c r="H49" t="str">
+      <c r="H49" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_VITESSE_TROITTOIR_MAX: curTrameLength= LG_TRAME_INF_VITESSE_TROITTOIR_MAX ; break;</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_INF_VITESSE_TROITTOIR_MAX:   ; break;</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="13"/>
+        <v>envoiTrameUart1(TYPE_TRAME_INF_VITESSE_TROITTOIR_MAX,(void*)(&amp;VITESSE_TROITTOIR_MAX),LG_TRAME_INF_VITESSE_TROITTOIR_MAX);</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
       <c r="B50" s="2" t="s">
         <v>8</v>
       </c>
@@ -2155,7 +2356,7 @@
         <v>90</v>
       </c>
       <c r="D50" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>33</v>
       </c>
       <c r="E50" s="9">
@@ -2169,16 +2370,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_POURCENT_SECURITE_MOTEUR 4</v>
       </c>
-      <c r="H50" t="str">
+      <c r="H50" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_POURCENT_SECURITE_MOTEUR: curTrameLength= LG_TRAME_INF_POURCENT_SECURITE_MOTEUR ; break;</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_INF_POURCENT_SECURITE_MOTEUR:   ; break;</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="13"/>
+        <v>envoiTrameUart1(TYPE_TRAME_INF_POURCENT_SECURITE_MOTEUR,(void*)(&amp;POURCENT_SECURITE_MOTEUR),LG_TRAME_INF_POURCENT_SECURITE_MOTEUR);</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
       <c r="B51" s="2" t="s">
         <v>8</v>
       </c>
@@ -2186,7 +2391,7 @@
         <v>91</v>
       </c>
       <c r="D51" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>34</v>
       </c>
       <c r="E51" s="9">
@@ -2200,16 +2405,20 @@
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_COEF_HYSTERISIS_SECURITE 4</v>
       </c>
-      <c r="H51" t="str">
+      <c r="H51" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_COEF_HYSTERISIS_SECURITE: curTrameLength= LG_TRAME_INF_COEF_HYSTERISIS_SECURITE ; break;</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="3"/>
-        <v>case TYPE_TRAME_INF_COEF_HYSTERISIS_SECURITE:   ; break;</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="13"/>
+        <v>envoiTrameUart1(TYPE_TRAME_INF_COEF_HYSTERISIS_SECURITE,(void*)(&amp;COEF_HYSTERISIS_SECURITE),LG_TRAME_INF_COEF_HYSTERISIS_SECURITE);</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
       <c r="B52" s="2" t="s">
         <v>0</v>
       </c>
@@ -2239,7 +2448,7 @@
         <v>case TYPE_TRAME_CON_COEF_COURANT_1:   ; break;</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:10">
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2269,7 +2478,7 @@
         <v>case TYPE_TRAME_INF_COEF_COURANT_1:   ; break;</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:10">
       <c r="B54" s="2" t="s">
         <v>0</v>
       </c>
@@ -2299,7 +2508,7 @@
         <v>case TYPE_TRAME_CON_COEF_COURANT_2:   ; break;</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:10">
       <c r="B55" s="2" t="s">
         <v>8</v>
       </c>
@@ -2329,7 +2538,7 @@
         <v>case TYPE_TRAME_INF_COEF_COURANT_2:   ; break;</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:10">
       <c r="B56" s="2" t="s">
         <v>0</v>
       </c>
@@ -2343,23 +2552,23 @@
         <v>4</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f t="shared" ref="F56:F61" si="9">IF(B56&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B56,"_",C56," ",IF(B56="CON",128,0)+D56),"")</f>
+        <f t="shared" ref="F56:F61" si="14">IF(B56&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B56,"_",C56," ",IF(B56="CON",128,0)+D56),"")</f>
         <v>#define TYPE_TRAME_CON_COUPLED 178</v>
       </c>
       <c r="G56" s="1" t="str">
-        <f t="shared" ref="G56:G61" si="10">IF(B56&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B56,"_",C56," ",E56),"")</f>
+        <f t="shared" ref="G56:G61" si="15">IF(B56&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B56,"_",C56," ",E56),"")</f>
         <v>#define LG_TRAME_CON_COUPLED 4</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" ref="H56:H61" si="11">IF(B56&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B56,"_",C56,": ","curTrameLength= LG_TRAME_",B56,"_",C56," ; break;"),"")</f>
+        <f t="shared" ref="H56:H61" si="16">IF(B56&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B56,"_",C56,": ","curTrameLength= LG_TRAME_",B56,"_",C56," ; break;"),"")</f>
         <v>case TYPE_TRAME_CON_COUPLED: curTrameLength= LG_TRAME_CON_COUPLED ; break;</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" ref="I56:I61" si="12">IF(B56&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B56,"_",C56,":   ; break;"),"")</f>
+        <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_COUPLED:   ; break;</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:10">
       <c r="B57" s="2" t="s">
         <v>8</v>
       </c>
@@ -2373,23 +2582,23 @@
         <v>4</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#define TYPE_TRAME_INF_COUPLED 50</v>
       </c>
       <c r="G57" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#define LG_TRAME_INF_COUPLED 4</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>case TYPE_TRAME_INF_COUPLED: curTrameLength= LG_TRAME_INF_COUPLED ; break;</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_COUPLED:   ; break;</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:10">
       <c r="B58" s="2" t="s">
         <v>0</v>
       </c>
@@ -2403,23 +2612,23 @@
         <v>4</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#define TYPE_TRAME_CON_COUPLEG 179</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#define LG_TRAME_CON_COUPLEG 4</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>case TYPE_TRAME_CON_COUPLEG: curTrameLength= LG_TRAME_CON_COUPLEG ; break;</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_COUPLEG:   ; break;</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:10">
       <c r="B59" s="2" t="s">
         <v>8</v>
       </c>
@@ -2433,23 +2642,23 @@
         <v>4</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#define TYPE_TRAME_INF_COUPLEG 51</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#define LG_TRAME_INF_COUPLEG 4</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>case TYPE_TRAME_INF_COUPLEG: curTrameLength= LG_TRAME_INF_COUPLEG ; break;</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_COUPLEG:   ; break;</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:10">
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2463,23 +2672,23 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#define TYPE_TRAME_INF_ERREUR_CARTE_COURANT 52</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#define LG_TRAME_INF_ERREUR_CARTE_COURANT 1</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>case TYPE_TRAME_INF_ERREUR_CARTE_COURANT: curTrameLength= LG_TRAME_INF_ERREUR_CARTE_COURANT ; break;</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_ERREUR_CARTE_COURANT:   ; break;</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:10">
       <c r="B61" s="2" t="s">
         <v>8</v>
       </c>
@@ -2493,23 +2702,23 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>#define TYPE_TRAME_INF_PRET 53</v>
       </c>
       <c r="G61" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#define LG_TRAME_INF_PRET 1</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>case TYPE_TRAME_INF_PRET: curTrameLength= LG_TRAME_INF_PRET ; break;</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_PRET:   ; break;</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:10">
       <c r="F62" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2527,7 +2736,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:10">
       <c r="F63" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2545,7 +2754,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:10">
       <c r="F64" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2601,2197 +2810,2197 @@
     </row>
     <row r="67" spans="6:9">
       <c r="F67" s="1" t="str">
-        <f t="shared" ref="F67:F130" si="13">IF(B67&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B67,"_",C67," ",IF(B67="CON",128,0)+D67),"")</f>
+        <f t="shared" ref="F67:F130" si="17">IF(B67&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B67,"_",C67," ",IF(B67="CON",128,0)+D67),"")</f>
         <v/>
       </c>
       <c r="G67" s="1" t="str">
-        <f t="shared" ref="G67:G130" si="14">IF(B67&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B67,"_",C67," ",E67),"")</f>
+        <f t="shared" ref="G67:G130" si="18">IF(B67&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B67,"_",C67," ",E67),"")</f>
         <v/>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ref="H67:H130" si="15">IF(B67&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B67,"_",C67,": ","curTrameLength= LG_TRAME_",B67,"_",C67," ; break;"),"")</f>
+        <f t="shared" ref="H67:H130" si="19">IF(B67&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B67,"_",C67,": ","curTrameLength= LG_TRAME_",B67,"_",C67," ; break;"),"")</f>
         <v/>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I130" si="16">IF(B67&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B67,"_",C67,":   ; break;"),"")</f>
+        <f t="shared" ref="I67:I79" si="20">IF(B67&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B67,"_",C67,":   ; break;"),"")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="6:9">
       <c r="F68" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G68" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="6:9">
       <c r="F69" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G69" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="6:9">
       <c r="F70" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G70" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="6:9">
       <c r="F71" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G71" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="6:9">
       <c r="F72" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G72" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="6:9">
       <c r="F73" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G73" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="6:9">
       <c r="F74" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G74" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="6:9">
       <c r="F75" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G75" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="6:9">
       <c r="F76" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G76" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="6:9">
       <c r="F77" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G77" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="6:9">
       <c r="F78" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G78" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="6:9">
       <c r="F79" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G79" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="6:9">
       <c r="F80" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G80" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I80:I130" si="21">IF(B80&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B80,"_",C80,":   ; break;"),"")</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="6:9">
       <c r="F81" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G81" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="6:9">
       <c r="F82" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G82" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="6:9">
       <c r="F83" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G83" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="6:9">
       <c r="F84" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G84" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="6:9">
       <c r="F85" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G85" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="6:9">
       <c r="F86" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G86" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G87" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G88" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="6:9">
       <c r="F89" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G89" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="6:9">
       <c r="F90" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G90" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="6:9">
       <c r="F91" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G91" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I91" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="6:9">
       <c r="F92" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G92" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H92" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I92" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="6:9">
       <c r="F93" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G93" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H93" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I93" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="6:9">
       <c r="F94" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G94" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H94" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I94" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="6:9">
       <c r="F95" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G95" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H95" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I95" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="6:9">
       <c r="F96" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G96" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H96" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I96" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="6:9">
       <c r="F97" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G97" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H97" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I97" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="6:9">
       <c r="F98" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G98" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H98" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I98" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="6:9">
       <c r="F99" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G99" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H99" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I99" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="6:9">
       <c r="F100" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G100" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I100" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="6:9">
       <c r="F101" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G101" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I101" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="6:9">
       <c r="F102" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G102" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I102" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="6:9">
       <c r="F103" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G103" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H103" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I103" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="6:9">
       <c r="F104" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G104" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H104" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I104" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="6:9">
       <c r="F105" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G105" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H105" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I105" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="6:9">
       <c r="F106" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G106" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H106" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I106" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="6:9">
       <c r="F107" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G107" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H107" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I107" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="6:9">
       <c r="F108" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G108" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H108" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I108" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="6:9">
       <c r="F109" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G109" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H109" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I109" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="6:9">
       <c r="F110" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G110" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H110" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I110" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="6:9">
       <c r="F111" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G111" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H111" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I111" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="6:9">
       <c r="F112" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G112" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H112" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I112" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="6:9">
       <c r="F113" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G113" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H113" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I113" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="6:9">
       <c r="F114" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G114" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H114" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I114" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="6:9">
       <c r="F115" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G115" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H115" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I115" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="6:9">
       <c r="F116" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G116" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H116" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I116" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="6:9">
       <c r="F117" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G117" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H117" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I117" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="6:9">
       <c r="F118" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G118" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H118" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I118" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="6:9">
       <c r="F119" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G119" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H119" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I119" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="6:9">
       <c r="F120" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G120" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H120" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I120" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="6:9">
       <c r="F121" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G121" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H121" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I121" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="6:9">
       <c r="F122" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G122" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H122" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I122" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="6:9">
       <c r="F123" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G123" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H123" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I123" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="6:9">
       <c r="F124" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G124" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H124" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I124" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="6:9">
       <c r="F125" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G125" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H125" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I125" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="6:9">
       <c r="F126" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G126" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H126" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I126" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="6:9">
       <c r="F127" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G127" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H127" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I127" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="6:9">
       <c r="F128" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G128" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H128" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I128" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="6:9">
       <c r="F129" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G129" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H129" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I129" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="6:9">
       <c r="F130" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G130" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H130" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I130" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="6:9">
       <c r="F131" s="1" t="str">
-        <f t="shared" ref="F131:F160" si="17">IF(B131&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B131,"_",C131," ",IF(B131="CON",128,0)+D131),"")</f>
+        <f t="shared" ref="F131:F160" si="22">IF(B131&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B131,"_",C131," ",IF(B131="CON",128,0)+D131),"")</f>
         <v/>
       </c>
       <c r="G131" s="1" t="str">
-        <f t="shared" ref="G131:G160" si="18">IF(B131&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B131,"_",C131," ",E131),"")</f>
+        <f t="shared" ref="G131:G160" si="23">IF(B131&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B131,"_",C131," ",E131),"")</f>
         <v/>
       </c>
       <c r="H131" t="str">
-        <f t="shared" ref="H131:H160" si="19">IF(B131&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B131,"_",C131,": ","curTrameLength= LG_TRAME_",B131,"_",C131," ; break;"),"")</f>
+        <f t="shared" ref="H131:H160" si="24">IF(B131&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B131,"_",C131,": ","curTrameLength= LG_TRAME_",B131,"_",C131," ; break;"),"")</f>
         <v/>
       </c>
       <c r="I131" t="str">
-        <f t="shared" ref="I131:I160" si="20">IF(B131&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B131,"_",C131,":   ; break;"),"")</f>
+        <f t="shared" ref="I131:I160" si="25">IF(B131&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B131,"_",C131,":   ; break;"),"")</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="6:9">
       <c r="F132" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G132" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H132" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I132" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="6:9">
       <c r="F133" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G133" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H133" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I133" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="6:9">
       <c r="F134" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G134" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H134" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I134" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="6:9">
       <c r="F135" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G135" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H135" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I135" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="6:9">
       <c r="F136" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G136" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H136" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I136" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="6:9">
       <c r="F137" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G137" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H137" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I137" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="6:9">
       <c r="F138" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G138" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H138" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I138" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="6:9">
       <c r="F139" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G139" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H139" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I139" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="6:9">
       <c r="F140" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G140" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H140" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I140" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="6:9">
       <c r="F141" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G141" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H141" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I141" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="6:9">
       <c r="F142" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G142" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H142" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I142" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="6:9">
       <c r="F143" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G143" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H143" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I143" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="6:9">
       <c r="F144" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G144" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H144" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I144" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="6:9">
       <c r="F145" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G145" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H145" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I145" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="6:9">
       <c r="F146" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G146" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H146" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I146" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="6:9">
       <c r="F147" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G147" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H147" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I147" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="6:9">
       <c r="F148" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G148" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H148" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I148" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="6:9">
       <c r="F149" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G149" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H149" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I149" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="6:9">
       <c r="F150" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G150" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H150" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I150" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="6:9">
       <c r="F151" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G151" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H151" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I151" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="6:9">
       <c r="F152" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G152" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H152" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I152" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="6:9">
       <c r="F153" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G153" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H153" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I153" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="6:9">
       <c r="F154" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G154" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H154" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I154" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="6:9">
       <c r="F155" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G155" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H155" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I155" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="6:9">
       <c r="F156" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G156" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H156" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I156" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="6:9">
       <c r="F157" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G157" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H157" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I157" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="6:9">
       <c r="F158" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G158" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H158" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I158" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="6:9">
       <c r="F159" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G159" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H159" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I159" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="6:9">
       <c r="F160" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="G160" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H160" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I160" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="6:9">
       <c r="F161" s="1" t="str">
-        <f t="shared" ref="F161:F188" si="21">IF(B178&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B178,"_",C178," ",IF(B178="CON",128,0)+D178),"")</f>
+        <f t="shared" ref="F161:F188" si="26">IF(B178&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B178,"_",C178," ",IF(B178="CON",128,0)+D178),"")</f>
         <v/>
       </c>
       <c r="G161" s="1" t="str">
-        <f t="shared" ref="G161:G188" si="22">IF(B178&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B178,"_",C178," ",E178),"")</f>
+        <f t="shared" ref="G161:G188" si="27">IF(B178&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B178,"_",C178," ",E178),"")</f>
         <v/>
       </c>
       <c r="H161" t="str">
-        <f t="shared" ref="H161:H188" si="23">IF(B178&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B178,"_",C178,": ","curTrameLength= LG_TRAME_",B178,"_",C178," ; break;"),"")</f>
+        <f t="shared" ref="H161:H188" si="28">IF(B178&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B178,"_",C178,": ","curTrameLength= LG_TRAME_",B178,"_",C178," ; break;"),"")</f>
         <v/>
       </c>
       <c r="I161" t="str">
-        <f t="shared" ref="I161:I188" si="24">IF(B178&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B178,"_",C178,":   ; break;"),"")</f>
+        <f t="shared" ref="I161:I188" si="29">IF(B178&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B178,"_",C178,":   ; break;"),"")</f>
         <v/>
       </c>
     </row>
     <row r="162" spans="6:9">
       <c r="F162" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G162" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H162" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I162" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="6:9">
       <c r="F163" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G163" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H163" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I163" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="6:9">
       <c r="F164" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G164" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H164" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I164" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="6:9">
       <c r="F165" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G165" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H165" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I165" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="6:9">
       <c r="F166" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G166" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H166" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I166" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="6:9">
       <c r="F167" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G167" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H167" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I167" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="6:9">
       <c r="F168" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G168" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H168" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I168" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="6:9">
       <c r="F169" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G169" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H169" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I169" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="6:9">
       <c r="F170" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G170" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H170" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I170" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="6:9">
       <c r="F171" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G171" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H171" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I171" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="6:9">
       <c r="F172" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G172" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H172" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I172" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="6:9">
       <c r="F173" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G173" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H173" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I173" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="6:9">
       <c r="F174" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G174" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H174" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I174" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="6:9">
       <c r="F175" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G175" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H175" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I175" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="6:9">
       <c r="F176" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G176" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H176" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I176" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="6:9">
       <c r="F177" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G177" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H177" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I177" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="6:9">
       <c r="F178" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G178" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H178" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I178" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="6:9">
       <c r="F179" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G179" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H179" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I179" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="6:9">
       <c r="F180" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G180" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H180" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I180" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="6:9">
       <c r="F181" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G181" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H181" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I181" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="6:9">
       <c r="F182" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G182" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H182" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I182" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="6:9">
       <c r="F183" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G183" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H183" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I183" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="6:9">
       <c r="F184" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G184" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H184" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I184" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="6:9">
       <c r="F185" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G185" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H185" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I185" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="6:9">
       <c r="F186" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G186" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H186" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I186" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="6:9">
       <c r="F187" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G187" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H187" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I187" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="6:9">
       <c r="F188" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G188" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="H188" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I188" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>

--- a/ProgrammePrincipal/generateur de noms de trame.xlsx
+++ b/ProgrammePrincipal/generateur de noms de trame.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="106">
   <si>
     <t>CON</t>
   </si>
@@ -304,6 +304,36 @@
   </si>
   <si>
     <t>DEMANDE_COEFFICIENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envoi du PC, renvoyé directement par le PIC pour tester la com (Valeur float </t>
+  </si>
+  <si>
+    <t>Envoi pour le départ de l'asservissement</t>
+  </si>
+  <si>
+    <t>Envoi de l'arrêt de l'asservissement</t>
+  </si>
+  <si>
+    <t>Envoi du PIC(Liste des états voir variablesGlobales.h)</t>
+  </si>
+  <si>
+    <t>inf etat couple voir global.h</t>
+  </si>
+  <si>
+    <t>indicateur pic-&gt;pc; normalement en % de charge, pour l'instant valeur du can</t>
+  </si>
+  <si>
+    <t>boolean (voyant) rouge ou vert. Vert=0, rouge sinon</t>
+  </si>
+  <si>
+    <t>pic-&gt;pc graphique</t>
+  </si>
+  <si>
+    <t>asserv.c ; tableau de case a cocher</t>
+  </si>
+  <si>
+    <t>pic-&gt;pc ce que j'avais en memeoire</t>
   </si>
 </sst>
 </file>
@@ -327,7 +357,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +394,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -392,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -407,6 +443,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J188"/>
+  <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -714,13 +752,14 @@
     <col min="3" max="3" width="29.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="55.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="108.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="108.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1">
+    <row r="1" spans="1:11" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
@@ -736,12 +775,13 @@
       <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -754,28 +794,31 @@
       <c r="E2" s="9">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <f>IF(B2&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B2,"_",C2," ",IF(B2="CON",128,0)+D2),"")</f>
         <v>#define TYPE_TRAME_CON_TEST_COM 129</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="H2" s="1" t="str">
         <f>IF(B2&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B2,"_",C2," ",E2),"")</f>
         <v>#define LG_TRAME_CON_TEST_COM 4</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <f>IF(B2&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B2,"_",C2,": ","curTrameLength= LG_TRAME_",B2,"_",C2," ; break;"),"")</f>
         <v>case TYPE_TRAME_CON_TEST_COM: curTrameLength= LG_TRAME_CON_TEST_COM ; break;</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <f>IF(B2&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B2,"_",C2,":   ; break;"),"")</f>
         <v>case TYPE_TRAME_CON_TEST_COM:   ; break;</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <f>IF(B2="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B2,"_",C2,",(void*)(&amp;",C2,"),LG_TRAME_",B2,"_",C2,");"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -788,28 +831,31 @@
       <c r="E3" s="9">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F66" si="0">IF(B3&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B3,"_",C3," ",IF(B3="CON",128,0)+D3),"")</f>
+      <c r="F3" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G66" si="0">IF(B3&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B3,"_",C3," ",IF(B3="CON",128,0)+D3),"")</f>
         <v>#define TYPE_TRAME_CON_DEPART 130</v>
       </c>
-      <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G66" si="1">IF(B3&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B3,"_",C3," ",E3),"")</f>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H66" si="1">IF(B3&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B3,"_",C3," ",E3),"")</f>
         <v>#define LG_TRAME_CON_DEPART 0</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H66" si="2">IF(B3&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B3,"_",C3,": ","curTrameLength= LG_TRAME_",B3,"_",C3," ; break;"),"")</f>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I66" si="2">IF(B3&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B3,"_",C3,": ","curTrameLength= LG_TRAME_",B3,"_",C3," ; break;"),"")</f>
         <v>case TYPE_TRAME_CON_DEPART: curTrameLength= LG_TRAME_CON_DEPART ; break;</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I66" si="3">IF(B3&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B3,"_",C3,":   ; break;"),"")</f>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J66" si="3">IF(B3&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B3,"_",C3,":   ; break;"),"")</f>
         <v>case TYPE_TRAME_CON_DEPART:   ; break;</v>
       </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J13" si="4">IF(B3="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B3,"_",C3,",(void*)(&amp;",C3,"),LG_TRAME_",B3,"_",C3,");"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K4" si="4">IF(B3="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B3,"_",C3,",(void*)(&amp;",C3,"),LG_TRAME_",B3,"_",C3,");"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -822,28 +868,31 @@
       <c r="E4" s="9">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_STOP 131</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="H4" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_STOP 0</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_STOP: curTrameLength= LG_TRAME_CON_STOP ; break;</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_STOP:   ; break;</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -856,28 +905,31 @@
       <c r="E5" s="9">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_ETAT 1</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="H5" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ETAT 1</v>
       </c>
-      <c r="H5" t="str">
+      <c r="I5" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_ETAT: curTrameLength= LG_TRAME_INF_ETAT ; break;</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_ETAT:   ; break;</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f>IF(B5="INF",CONCATENATE("if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_",B5,"_",C5,",(void*)(&amp;",C5,"),LG_TRAME_",B5,"_",C5,");"),"")</f>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_ETAT,(void*)(&amp;ETAT),LG_TRAME_INF_ETAT);</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -890,28 +942,31 @@
       <c r="E6" s="9">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_ETAT_BATTERIE 4</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="H6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ETAT_BATTERIE 4</v>
       </c>
-      <c r="H6" t="str">
+      <c r="I6" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_ETAT_BATTERIE: curTrameLength= LG_TRAME_INF_ETAT_BATTERIE ; break;</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_ETAT_BATTERIE:   ; break;</v>
       </c>
-      <c r="J6" t="str">
-        <f t="shared" ref="J6:J28" si="5">IF(B6="INF",CONCATENATE("if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_",B6,"_",C6,",(void*)(&amp;",C6,"),LG_TRAME_",B6,"_",C6,");"),"")</f>
+      <c r="K6" t="str">
+        <f t="shared" ref="K6:K28" si="5">IF(B6="INF",CONCATENATE("if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_",B6,"_",C6,",(void*)(&amp;",C6,"),LG_TRAME_",B6,"_",C6,");"),"")</f>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_ETAT_BATTERIE,(void*)(&amp;ETAT_BATTERIE),LG_TRAME_INF_ETAT_BATTERIE);</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -924,28 +979,31 @@
       <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F7" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE 5</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="H7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ANGLE_HORS_INTERVALLE 1</v>
       </c>
-      <c r="H7" t="str">
+      <c r="I7" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE: curTrameLength= LG_TRAME_INF_ANGLE_HORS_INTERVALLE ; break;</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE:   ; break;</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <f t="shared" si="5"/>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE,(void*)(&amp;ANGLE_HORS_INTERVALLE),LG_TRAME_INF_ANGLE_HORS_INTERVALLE);</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -958,28 +1016,31 @@
       <c r="E8" s="9">
         <v>4</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_ANGLE_TANGAGE 6</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="H8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ANGLE_TANGAGE 4</v>
       </c>
-      <c r="H8" t="str">
+      <c r="I8" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_ANGLE_TANGAGE: curTrameLength= LG_TRAME_INF_ANGLE_TANGAGE ; break;</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_ANGLE_TANGAGE:   ; break;</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <f t="shared" si="5"/>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_ANGLE_TANGAGE,(void*)(&amp;ANGLE_TANGAGE),LG_TRAME_INF_ANGLE_TANGAGE);</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -992,28 +1053,31 @@
       <c r="E9" s="9">
         <v>4</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_VITESSE_ANGULAIRE 7</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="H9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_VITESSE_ANGULAIRE 4</v>
       </c>
-      <c r="H9" t="str">
+      <c r="I9" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_VITESSE_ANGULAIRE: curTrameLength= LG_TRAME_INF_VITESSE_ANGULAIRE ; break;</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_VITESSE_ANGULAIRE:   ; break;</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <f t="shared" si="5"/>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_VITESSE_ANGULAIRE,(void*)(&amp;VITESSE_ANGULAIRE),LG_TRAME_INF_VITESSE_ANGULAIRE);</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1026,28 +1090,31 @@
       <c r="E10" s="9">
         <v>2</v>
       </c>
-      <c r="F10" s="1" t="str">
-        <f t="shared" ref="F10:F15" si="6">IF(B10&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B10,"_",C10," ",IF(B10="CON",128,0)+D10),"")</f>
+      <c r="F10" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" ref="G10:G15" si="6">IF(B10&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B10,"_",C10," ",IF(B10="CON",128,0)+D10),"")</f>
         <v>#define TYPE_TRAME_INF_VERBOSE 8</v>
       </c>
-      <c r="G10" s="1" t="str">
-        <f t="shared" ref="G10:G15" si="7">IF(B10&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B10,"_",C10," ",E10),"")</f>
+      <c r="H10" s="1" t="str">
+        <f t="shared" ref="H10:H15" si="7">IF(B10&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B10,"_",C10," ",E10),"")</f>
         <v>#define LG_TRAME_INF_VERBOSE 2</v>
       </c>
-      <c r="H10" t="str">
-        <f t="shared" ref="H10:H15" si="8">IF(B10&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B10,"_",C10,": ","curTrameLength= LG_TRAME_",B10,"_",C10," ; break;"),"")</f>
+      <c r="I10" t="str">
+        <f t="shared" ref="I10:I15" si="8">IF(B10&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B10,"_",C10,": ","curTrameLength= LG_TRAME_",B10,"_",C10," ; break;"),"")</f>
         <v>case TYPE_TRAME_INF_VERBOSE: curTrameLength= LG_TRAME_INF_VERBOSE ; break;</v>
       </c>
-      <c r="I10" t="str">
-        <f t="shared" ref="I10:I15" si="9">IF(B10&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B10,"_",C10,":   ; break;"),"")</f>
+      <c r="J10" t="str">
+        <f t="shared" ref="J10:J15" si="9">IF(B10&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B10,"_",C10,":   ; break;"),"")</f>
         <v>case TYPE_TRAME_INF_VERBOSE:   ; break;</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <f t="shared" si="5"/>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_VERBOSE,(void*)(&amp;VERBOSE),LG_TRAME_INF_VERBOSE);</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1060,28 +1127,31 @@
       <c r="E11" s="9">
         <v>2</v>
       </c>
-      <c r="F11" s="1" t="str">
+      <c r="F11" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#define TYPE_TRAME_CON_VERBOSE 136</v>
       </c>
-      <c r="G11" s="1" t="str">
+      <c r="H11" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#define LG_TRAME_CON_VERBOSE 2</v>
       </c>
-      <c r="H11" t="str">
+      <c r="I11" t="str">
         <f t="shared" si="8"/>
         <v>case TYPE_TRAME_CON_VERBOSE: curTrameLength= LG_TRAME_CON_VERBOSE ; break;</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <f t="shared" si="9"/>
         <v>case TYPE_TRAME_CON_VERBOSE:   ; break;</v>
       </c>
-      <c r="J11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1094,94 +1164,94 @@
       <c r="E12" s="9">
         <v>1</v>
       </c>
-      <c r="F12" s="1" t="str">
+      <c r="G12" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#define TYPE_TRAME_CON_DEMANDE_COEFFICIENTS 137</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="H12" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#define LG_TRAME_CON_DEMANDE_COEFFICIENTS 1</v>
       </c>
-      <c r="H12" t="str">
+      <c r="I12" t="str">
         <f t="shared" si="8"/>
         <v>case TYPE_TRAME_CON_DEMANDE_COEFFICIENTS: curTrameLength= LG_TRAME_CON_DEMANDE_COEFFICIENTS ; break;</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <f t="shared" si="9"/>
         <v>case TYPE_TRAME_CON_DEMANDE_COEFFICIENTS:   ; break;</v>
       </c>
-      <c r="J12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="F13" s="1" t="str">
+      <c r="K12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="G13" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G13" s="1" t="str">
+      <c r="H13" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H13" t="str">
+      <c r="I13" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="F14" s="1" t="str">
+      <c r="K13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="G14" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G14" s="1" t="str">
+      <c r="H14" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H14" t="str">
+      <c r="I14" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="F15" s="1" t="str">
+      <c r="K14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="G15" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="H15" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H15" t="str">
+      <c r="I15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1194,28 +1264,31 @@
       <c r="E16" s="9">
         <v>4</v>
       </c>
-      <c r="F16" s="1" t="str">
+      <c r="F16" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_VITESSED 12</v>
       </c>
-      <c r="G16" s="1" t="str">
+      <c r="H16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_VITESSED 4</v>
       </c>
-      <c r="H16" t="str">
+      <c r="I16" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_VITESSED: curTrameLength= LG_TRAME_INF_VITESSED ; break;</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_VITESSED:   ; break;</v>
       </c>
-      <c r="J16" t="str">
+      <c r="K16" t="str">
         <f t="shared" si="5"/>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_VITESSED,(void*)(&amp;VITESSED),LG_TRAME_INF_VITESSED);</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:11">
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1228,28 +1301,31 @@
       <c r="E17" s="9">
         <v>4</v>
       </c>
-      <c r="F17" s="1" t="str">
+      <c r="F17" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_VITESSEG 13</v>
       </c>
-      <c r="G17" s="1" t="str">
+      <c r="H17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_VITESSEG 4</v>
       </c>
-      <c r="H17" t="str">
+      <c r="I17" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_VITESSEG: curTrameLength= LG_TRAME_INF_VITESSEG ; break;</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_VITESSEG:   ; break;</v>
       </c>
-      <c r="J17" t="str">
+      <c r="K17" t="str">
         <f t="shared" si="5"/>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_VITESSEG,(void*)(&amp;VITESSEG),LG_TRAME_INF_VITESSEG);</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:11">
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1262,28 +1338,31 @@
       <c r="E18" s="9">
         <v>4</v>
       </c>
-      <c r="F18" s="1" t="str">
+      <c r="F18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_DISTANCE_PARCOURUE 14</v>
       </c>
-      <c r="G18" s="1" t="str">
+      <c r="H18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_DISTANCE_PARCOURUE 4</v>
       </c>
-      <c r="H18" t="str">
+      <c r="I18" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_DISTANCE_PARCOURUE: curTrameLength= LG_TRAME_INF_DISTANCE_PARCOURUE ; break;</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J18" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_DISTANCE_PARCOURUE:   ; break;</v>
       </c>
-      <c r="J18" t="str">
+      <c r="K18" t="str">
         <f t="shared" si="5"/>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_DISTANCE_PARCOURUE,(void*)(&amp;DISTANCE_PARCOURUE),LG_TRAME_INF_DISTANCE_PARCOURUE);</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:11">
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1296,28 +1375,31 @@
       <c r="E19" s="9">
         <v>4</v>
       </c>
-      <c r="F19" s="1" t="str">
+      <c r="F19" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_ACCELERATION 15</v>
       </c>
-      <c r="G19" s="1" t="str">
+      <c r="H19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ACCELERATION 4</v>
       </c>
-      <c r="H19" t="str">
+      <c r="I19" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_ACCELERATION: curTrameLength= LG_TRAME_INF_ACCELERATION ; break;</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_ACCELERATION:   ; break;</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <f t="shared" si="5"/>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_ACCELERATION,(void*)(&amp;ACCELERATION),LG_TRAME_INF_ACCELERATION);</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:11">
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1330,28 +1412,28 @@
       <c r="E20" s="9">
         <v>0</v>
       </c>
-      <c r="F20" s="1" t="str">
+      <c r="G20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_CHARGER_VITESSE 144</v>
       </c>
-      <c r="G20" s="1" t="str">
+      <c r="H20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_CHARGER_VITESSE 0</v>
       </c>
-      <c r="H20" t="str">
+      <c r="I20" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_CHARGER_VITESSE: curTrameLength= LG_TRAME_CON_CHARGER_VITESSE ; break;</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_CHARGER_VITESSE:   ; break;</v>
       </c>
-      <c r="J20" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="K20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
@@ -1364,28 +1446,28 @@
       <c r="E21" s="9">
         <v>0</v>
       </c>
-      <c r="F21" s="1" t="str">
+      <c r="G21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_ENREGISTRER_VITESSE 145</v>
       </c>
-      <c r="G21" s="1" t="str">
+      <c r="H21" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_ENREGISTRER_VITESSE 0</v>
       </c>
-      <c r="H21" t="str">
+      <c r="I21" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_ENREGISTRER_VITESSE: curTrameLength= LG_TRAME_CON_ENREGISTRER_VITESSE ; break;</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J21" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_ENREGISTRER_VITESSE:   ; break;</v>
       </c>
-      <c r="J21" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
@@ -1398,28 +1480,28 @@
       <c r="E22" s="9">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="str">
+      <c r="G22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_CHARGER_ASSERVISSEMENT 146</v>
       </c>
-      <c r="G22" s="1" t="str">
+      <c r="H22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_CHARGER_ASSERVISSEMENT 0</v>
       </c>
-      <c r="H22" t="str">
+      <c r="I22" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_CHARGER_ASSERVISSEMENT: curTrameLength= LG_TRAME_CON_CHARGER_ASSERVISSEMENT ; break;</v>
       </c>
-      <c r="I22" t="str">
+      <c r="J22" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_CHARGER_ASSERVISSEMENT:   ; break;</v>
       </c>
-      <c r="J22" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="K22" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1432,28 +1514,28 @@
       <c r="E23" s="9">
         <v>0</v>
       </c>
-      <c r="F23" s="1" t="str">
+      <c r="G23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_ENREGISTRER_ASSERVISSEMENT 147</v>
       </c>
-      <c r="G23" s="1" t="str">
+      <c r="H23" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_ENREGISTRER_ASSERVISSEMENT 0</v>
       </c>
-      <c r="H23" t="str">
+      <c r="I23" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_ENREGISTRER_ASSERVISSEMENT: curTrameLength= LG_TRAME_CON_ENREGISTRER_ASSERVISSEMENT ; break;</v>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_ENREGISTRER_ASSERVISSEMENT:   ; break;</v>
       </c>
-      <c r="J23" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="K23" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1466,28 +1548,28 @@
       <c r="E24" s="9">
         <v>0</v>
       </c>
-      <c r="F24" s="1" t="str">
+      <c r="G24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_CHARGER_DEMARRAGE 148</v>
       </c>
-      <c r="G24" s="1" t="str">
+      <c r="H24" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_CHARGER_DEMARRAGE 0</v>
       </c>
-      <c r="H24" t="str">
+      <c r="I24" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_CHARGER_DEMARRAGE: curTrameLength= LG_TRAME_CON_CHARGER_DEMARRAGE ; break;</v>
       </c>
-      <c r="I24" t="str">
+      <c r="J24" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_CHARGER_DEMARRAGE:   ; break;</v>
       </c>
-      <c r="J24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="K24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
       <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1500,28 +1582,28 @@
       <c r="E25" s="9">
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="str">
+      <c r="G25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_ENREGISTRER_DEMARRAGE 149</v>
       </c>
-      <c r="G25" s="1" t="str">
+      <c r="H25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_ENREGISTRER_DEMARRAGE 0</v>
       </c>
-      <c r="H25" t="str">
+      <c r="I25" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_ENREGISTRER_DEMARRAGE: curTrameLength= LG_TRAME_CON_ENREGISTRER_DEMARRAGE ; break;</v>
       </c>
-      <c r="I25" t="str">
+      <c r="J25" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_ENREGISTRER_DEMARRAGE:   ; break;</v>
       </c>
-      <c r="J25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="K25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
@@ -1534,28 +1616,28 @@
       <c r="E26" s="9">
         <v>4</v>
       </c>
-      <c r="F26" s="1" t="str">
+      <c r="G26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_PRINC_PID_K 150</v>
       </c>
-      <c r="G26" s="1" t="str">
+      <c r="H26" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_PRINC_PID_K 4</v>
       </c>
-      <c r="H26" s="13" t="str">
+      <c r="I26" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_PRINC_PID_K: curTrameLength= LG_TRAME_CON_PRINC_PID_K ; break;</v>
       </c>
-      <c r="I26" t="str">
+      <c r="J26" t="str">
         <f>IF(B26="CON",CONCATENATE("case TYPE_TRAME_",B26,"_",C26,":   memcpy((void*)&amp;",C26,", (void*)(trameBuf), 4) ; break;"),"")</f>
         <v>case TYPE_TRAME_CON_PRINC_PID_K:   memcpy((void*)&amp;PRINC_PID_K, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="J26" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="K26" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
       <c r="B27" s="2" t="s">
         <v>0</v>
       </c>
@@ -1568,28 +1650,28 @@
       <c r="E27" s="9">
         <v>4</v>
       </c>
-      <c r="F27" s="1" t="str">
+      <c r="G27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_PRINC_PID_D 151</v>
       </c>
-      <c r="G27" s="1" t="str">
+      <c r="H27" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_PRINC_PID_D 4</v>
       </c>
-      <c r="H27" s="13" t="str">
+      <c r="I27" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_PRINC_PID_D: curTrameLength= LG_TRAME_CON_PRINC_PID_D ; break;</v>
       </c>
-      <c r="I27" t="str">
-        <f t="shared" ref="I27:I51" si="10">IF(B27="CON",CONCATENATE("case TYPE_TRAME_",B27,"_",C27,":   memcpy((void*)&amp;",C27,", (void*)(trameBuf), 4) ; break;"),"")</f>
+      <c r="J27" t="str">
+        <f t="shared" ref="J27:J51" si="10">IF(B27="CON",CONCATENATE("case TYPE_TRAME_",B27,"_",C27,":   memcpy((void*)&amp;",C27,", (void*)(trameBuf), 4) ; break;"),"")</f>
         <v>case TYPE_TRAME_CON_PRINC_PID_D:   memcpy((void*)&amp;PRINC_PID_D, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="J27" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="K27" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
@@ -1602,28 +1684,28 @@
       <c r="E28" s="9">
         <v>4</v>
       </c>
-      <c r="F28" s="1" t="str">
+      <c r="G28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_PRINC_DIR 152</v>
       </c>
-      <c r="G28" s="1" t="str">
+      <c r="H28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_PRINC_DIR 4</v>
       </c>
-      <c r="H28" s="13" t="str">
+      <c r="I28" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_PRINC_DIR: curTrameLength= LG_TRAME_CON_PRINC_DIR ; break;</v>
       </c>
-      <c r="I28" t="str">
+      <c r="J28" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_PRINC_DIR:   memcpy((void*)&amp;PRINC_DIR, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="J28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="K28" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
       <c r="B29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1636,28 +1718,28 @@
       <c r="E29" s="9">
         <v>4</v>
       </c>
-      <c r="F29" s="1" t="str">
+      <c r="G29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_COEF_KALMAN 153</v>
       </c>
-      <c r="G29" s="1" t="str">
+      <c r="H29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_COEF_KALMAN 4</v>
       </c>
-      <c r="H29" s="13" t="str">
+      <c r="I29" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_COEF_KALMAN: curTrameLength= LG_TRAME_CON_COEF_KALMAN ; break;</v>
       </c>
-      <c r="I29" t="str">
+      <c r="J29" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_COEF_KALMAN:   memcpy((void*)&amp;COEF_KALMAN, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="J29" t="str">
-        <f t="shared" ref="J27:J38" si="11">IF(B29="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B29,"_",C29,",(void*)",C29,",LG_TRAME_",B29,"_",C29,");"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="K29" t="str">
+        <f t="shared" ref="K29:K38" si="11">IF(B29="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B29,"_",C29,",(void*)",C29,",LG_TRAME_",B29,"_",C29,");"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
       <c r="B30" s="2" t="s">
         <v>0</v>
       </c>
@@ -1670,28 +1752,28 @@
       <c r="E30" s="9">
         <v>4</v>
       </c>
-      <c r="F30" s="1" t="str">
+      <c r="G30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_ACCELERATION_COEF_FILTRE 154</v>
       </c>
-      <c r="G30" s="1" t="str">
+      <c r="H30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_ACCELERATION_COEF_FILTRE 4</v>
       </c>
-      <c r="H30" s="13" t="str">
+      <c r="I30" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_ACCELERATION_COEF_FILTRE: curTrameLength= LG_TRAME_CON_ACCELERATION_COEF_FILTRE ; break;</v>
       </c>
-      <c r="I30" t="str">
+      <c r="J30" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_ACCELERATION_COEF_FILTRE:   memcpy((void*)&amp;ACCELERATION_COEF_FILTRE, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="J30" t="str">
+      <c r="K30" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:11">
       <c r="B31" s="2" t="s">
         <v>0</v>
       </c>
@@ -1704,28 +1786,28 @@
       <c r="E31" s="9">
         <v>4</v>
       </c>
-      <c r="F31" s="1" t="str">
+      <c r="G31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_GUIDONMAX 155</v>
       </c>
-      <c r="G31" s="1" t="str">
+      <c r="H31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_GUIDONMAX 4</v>
       </c>
-      <c r="H31" s="13" t="str">
+      <c r="I31" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_GUIDONMAX: curTrameLength= LG_TRAME_CON_GUIDONMAX ; break;</v>
       </c>
-      <c r="I31" t="str">
+      <c r="J31" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_GUIDONMAX:   memcpy((void*)&amp;GUIDONMAX, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="J31" t="str">
+      <c r="K31" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:11">
       <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
@@ -1738,28 +1820,28 @@
       <c r="E32" s="9">
         <v>4</v>
       </c>
-      <c r="F32" s="1" t="str">
+      <c r="G32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR 156</v>
       </c>
-      <c r="G32" s="1" t="str">
+      <c r="H32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR 4</v>
       </c>
-      <c r="H32" s="13" t="str">
+      <c r="I32" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR: curTrameLength= LG_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR ; break;</v>
       </c>
-      <c r="I32" t="str">
+      <c r="J32" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR:   memcpy((void*)&amp;LIMITE_DISTANCE_UTILISATEUR, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="J32" t="str">
+      <c r="K32" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:11">
       <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
@@ -1772,28 +1854,28 @@
       <c r="E33" s="9">
         <v>4</v>
       </c>
-      <c r="F33" s="1" t="str">
+      <c r="G33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_DEMARRAGE_TOL_ANGLE 157</v>
       </c>
-      <c r="G33" s="1" t="str">
+      <c r="H33" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_DEMARRAGE_TOL_ANGLE 4</v>
       </c>
-      <c r="H33" s="13" t="str">
+      <c r="I33" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_DEMARRAGE_TOL_ANGLE: curTrameLength= LG_TRAME_CON_DEMARRAGE_TOL_ANGLE ; break;</v>
       </c>
-      <c r="I33" t="str">
+      <c r="J33" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_DEMARRAGE_TOL_ANGLE:   memcpy((void*)&amp;DEMARRAGE_TOL_ANGLE, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="J33" t="str">
+      <c r="K33" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:11">
       <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
@@ -1806,28 +1888,28 @@
       <c r="E34" s="9">
         <v>4</v>
       </c>
-      <c r="F34" s="1" t="str">
+      <c r="G34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_DEMARRAGE_TOL_GUIDON 158</v>
       </c>
-      <c r="G34" s="1" t="str">
+      <c r="H34" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_DEMARRAGE_TOL_GUIDON 4</v>
       </c>
-      <c r="H34" s="13" t="str">
+      <c r="I34" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_DEMARRAGE_TOL_GUIDON: curTrameLength= LG_TRAME_CON_DEMARRAGE_TOL_GUIDON ; break;</v>
       </c>
-      <c r="I34" t="str">
+      <c r="J34" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_DEMARRAGE_TOL_GUIDON:   memcpy((void*)&amp;DEMARRAGE_TOL_GUIDON, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="J34" t="str">
+      <c r="K34" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:11">
       <c r="B35" s="2" t="s">
         <v>0</v>
       </c>
@@ -1840,28 +1922,28 @@
       <c r="E35" s="9">
         <v>4</v>
       </c>
-      <c r="F35" s="1" t="str">
+      <c r="G35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE 159</v>
       </c>
-      <c r="G35" s="1" t="str">
+      <c r="H35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE 4</v>
       </c>
-      <c r="H35" s="13" t="str">
+      <c r="I35" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE: curTrameLength= LG_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE ; break;</v>
       </c>
-      <c r="I35" t="str">
+      <c r="J35" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE:   memcpy((void*)&amp;DEMARRAGE_DELAI_EQUILIBRE, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="J35" t="str">
+      <c r="K35" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:11">
       <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
@@ -1874,28 +1956,28 @@
       <c r="E36" s="9">
         <v>4</v>
       </c>
-      <c r="F36" s="1" t="str">
+      <c r="G36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_VITESSE_TROITTOIR_MAX 160</v>
       </c>
-      <c r="G36" s="1" t="str">
+      <c r="H36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_VITESSE_TROITTOIR_MAX 4</v>
       </c>
-      <c r="H36" s="13" t="str">
+      <c r="I36" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_VITESSE_TROITTOIR_MAX: curTrameLength= LG_TRAME_CON_VITESSE_TROITTOIR_MAX ; break;</v>
       </c>
-      <c r="I36" t="str">
+      <c r="J36" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_VITESSE_TROITTOIR_MAX:   memcpy((void*)&amp;VITESSE_TROITTOIR_MAX, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="J36" t="str">
+      <c r="K36" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:11">
       <c r="B37" s="2" t="s">
         <v>0</v>
       </c>
@@ -1908,28 +1990,28 @@
       <c r="E37" s="9">
         <v>4</v>
       </c>
-      <c r="F37" s="1" t="str">
+      <c r="G37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_POURCENT_SECURITE_MOTEUR 161</v>
       </c>
-      <c r="G37" s="1" t="str">
+      <c r="H37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_POURCENT_SECURITE_MOTEUR 4</v>
       </c>
-      <c r="H37" s="13" t="str">
+      <c r="I37" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_POURCENT_SECURITE_MOTEUR: curTrameLength= LG_TRAME_CON_POURCENT_SECURITE_MOTEUR ; break;</v>
       </c>
-      <c r="I37" t="str">
+      <c r="J37" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_POURCENT_SECURITE_MOTEUR:   memcpy((void*)&amp;POURCENT_SECURITE_MOTEUR, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="J37" t="str">
+      <c r="K37" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:11">
       <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
@@ -1942,28 +2024,28 @@
       <c r="E38" s="9">
         <v>4</v>
       </c>
-      <c r="F38" s="1" t="str">
+      <c r="G38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_COEF_HYSTERISIS_SECURITE 162</v>
       </c>
-      <c r="G38" s="1" t="str">
+      <c r="H38" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_COEF_HYSTERISIS_SECURITE 4</v>
       </c>
-      <c r="H38" s="13" t="str">
+      <c r="I38" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_COEF_HYSTERISIS_SECURITE: curTrameLength= LG_TRAME_CON_COEF_HYSTERISIS_SECURITE ; break;</v>
       </c>
-      <c r="I38" t="str">
+      <c r="J38" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_COEF_HYSTERISIS_SECURITE:   memcpy((void*)&amp;COEF_HYSTERISIS_SECURITE, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="J38" t="str">
+      <c r="K38" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:11">
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
@@ -1977,28 +2059,28 @@
       <c r="E39" s="9">
         <v>4</v>
       </c>
-      <c r="F39" s="1" t="str">
+      <c r="G39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_PRINC_PID_K 22</v>
       </c>
-      <c r="G39" s="1" t="str">
+      <c r="H39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_PID_K 4</v>
       </c>
-      <c r="H39" s="13" t="str">
+      <c r="I39" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_PRINC_PID_K: curTrameLength= LG_TRAME_INF_PRINC_PID_K ; break;</v>
       </c>
-      <c r="I39" t="str">
+      <c r="J39" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J39" t="str">
+      <c r="K39" t="str">
         <f>IF(B39="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B39,"_",C39,",(void*)(&amp;",C39,"),LG_TRAME_",B39,"_",C39,");"),"")</f>
         <v>envoiTrameUart1(TYPE_TRAME_INF_PRINC_PID_K,(void*)(&amp;PRINC_PID_K),LG_TRAME_INF_PRINC_PID_K);</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:11">
       <c r="B40" s="2" t="s">
         <v>8</v>
       </c>
@@ -2012,28 +2094,28 @@
       <c r="E40" s="9">
         <v>4</v>
       </c>
-      <c r="F40" s="1" t="str">
+      <c r="G40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_PRINC_PID_D 23</v>
       </c>
-      <c r="G40" s="1" t="str">
+      <c r="H40" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_PID_D 4</v>
       </c>
-      <c r="H40" s="13" t="str">
+      <c r="I40" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_PRINC_PID_D: curTrameLength= LG_TRAME_INF_PRINC_PID_D ; break;</v>
       </c>
-      <c r="I40" t="str">
+      <c r="J40" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J40" t="str">
-        <f t="shared" ref="J40:J51" si="13">IF(B40="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B40,"_",C40,",(void*)(&amp;",C40,"),LG_TRAME_",B40,"_",C40,");"),"")</f>
+      <c r="K40" t="str">
+        <f t="shared" ref="K40:K51" si="13">IF(B40="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B40,"_",C40,",(void*)(&amp;",C40,"),LG_TRAME_",B40,"_",C40,");"),"")</f>
         <v>envoiTrameUart1(TYPE_TRAME_INF_PRINC_PID_D,(void*)(&amp;PRINC_PID_D),LG_TRAME_INF_PRINC_PID_D);</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:11">
       <c r="B41" s="2" t="s">
         <v>8</v>
       </c>
@@ -2047,28 +2129,28 @@
       <c r="E41" s="9">
         <v>4</v>
       </c>
-      <c r="F41" s="1" t="str">
+      <c r="G41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_PRINC_DIR 24</v>
       </c>
-      <c r="G41" s="1" t="str">
+      <c r="H41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_DIR 4</v>
       </c>
-      <c r="H41" s="13" t="str">
+      <c r="I41" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_PRINC_DIR: curTrameLength= LG_TRAME_INF_PRINC_DIR ; break;</v>
       </c>
-      <c r="I41" t="str">
+      <c r="J41" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J41" t="str">
+      <c r="K41" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_PRINC_DIR,(void*)(&amp;PRINC_DIR),LG_TRAME_INF_PRINC_DIR);</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:11">
       <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
@@ -2082,28 +2164,28 @@
       <c r="E42" s="9">
         <v>4</v>
       </c>
-      <c r="F42" s="1" t="str">
+      <c r="G42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_COEF_KALMAN 25</v>
       </c>
-      <c r="G42" s="1" t="str">
+      <c r="H42" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_COEF_KALMAN 4</v>
       </c>
-      <c r="H42" s="13" t="str">
+      <c r="I42" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_COEF_KALMAN: curTrameLength= LG_TRAME_INF_COEF_KALMAN ; break;</v>
       </c>
-      <c r="I42" t="str">
+      <c r="J42" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J42" t="str">
+      <c r="K42" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_COEF_KALMAN,(void*)(&amp;COEF_KALMAN),LG_TRAME_INF_COEF_KALMAN);</v>
       </c>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:11">
       <c r="B43" s="2" t="s">
         <v>8</v>
       </c>
@@ -2117,28 +2199,28 @@
       <c r="E43" s="9">
         <v>4</v>
       </c>
-      <c r="F43" s="1" t="str">
+      <c r="G43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_ACCELERATION_COEF_FILTRE 26</v>
       </c>
-      <c r="G43" s="1" t="str">
+      <c r="H43" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ACCELERATION_COEF_FILTRE 4</v>
       </c>
-      <c r="H43" s="13" t="str">
+      <c r="I43" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_ACCELERATION_COEF_FILTRE: curTrameLength= LG_TRAME_INF_ACCELERATION_COEF_FILTRE ; break;</v>
       </c>
-      <c r="I43" t="str">
+      <c r="J43" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J43" t="str">
+      <c r="K43" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_ACCELERATION_COEF_FILTRE,(void*)(&amp;ACCELERATION_COEF_FILTRE),LG_TRAME_INF_ACCELERATION_COEF_FILTRE);</v>
       </c>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:11">
       <c r="B44" s="2" t="s">
         <v>8</v>
       </c>
@@ -2152,28 +2234,28 @@
       <c r="E44" s="9">
         <v>4</v>
       </c>
-      <c r="F44" s="1" t="str">
+      <c r="G44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_GUIDONMAX 27</v>
       </c>
-      <c r="G44" s="1" t="str">
+      <c r="H44" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_GUIDONMAX 4</v>
       </c>
-      <c r="H44" s="13" t="str">
+      <c r="I44" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_GUIDONMAX: curTrameLength= LG_TRAME_INF_GUIDONMAX ; break;</v>
       </c>
-      <c r="I44" t="str">
+      <c r="J44" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J44" t="str">
+      <c r="K44" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_GUIDONMAX,(void*)(&amp;GUIDONMAX),LG_TRAME_INF_GUIDONMAX);</v>
       </c>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:11">
       <c r="B45" s="2" t="s">
         <v>8</v>
       </c>
@@ -2187,28 +2269,28 @@
       <c r="E45" s="9">
         <v>4</v>
       </c>
-      <c r="F45" s="1" t="str">
+      <c r="G45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR 28</v>
       </c>
-      <c r="G45" s="1" t="str">
+      <c r="H45" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR 4</v>
       </c>
-      <c r="H45" s="13" t="str">
+      <c r="I45" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR: curTrameLength= LG_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR ; break;</v>
       </c>
-      <c r="I45" t="str">
+      <c r="J45" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J45" t="str">
+      <c r="K45" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR,(void*)(&amp;LIMITE_DISTANCE_UTILISATEUR),LG_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR);</v>
       </c>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:11">
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
@@ -2222,28 +2304,28 @@
       <c r="E46" s="9">
         <v>4</v>
       </c>
-      <c r="F46" s="1" t="str">
+      <c r="G46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_DEMARRAGE_TOL_ANGLE 29</v>
       </c>
-      <c r="G46" s="1" t="str">
+      <c r="H46" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_DEMARRAGE_TOL_ANGLE 4</v>
       </c>
-      <c r="H46" s="13" t="str">
+      <c r="I46" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_DEMARRAGE_TOL_ANGLE: curTrameLength= LG_TRAME_INF_DEMARRAGE_TOL_ANGLE ; break;</v>
       </c>
-      <c r="I46" t="str">
+      <c r="J46" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J46" t="str">
+      <c r="K46" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_DEMARRAGE_TOL_ANGLE,(void*)(&amp;DEMARRAGE_TOL_ANGLE),LG_TRAME_INF_DEMARRAGE_TOL_ANGLE);</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:11">
       <c r="B47" s="2" t="s">
         <v>8</v>
       </c>
@@ -2257,28 +2339,28 @@
       <c r="E47" s="9">
         <v>4</v>
       </c>
-      <c r="F47" s="1" t="str">
+      <c r="G47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_DEMARRAGE_TOL_GUIDON 30</v>
       </c>
-      <c r="G47" s="1" t="str">
+      <c r="H47" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_DEMARRAGE_TOL_GUIDON 4</v>
       </c>
-      <c r="H47" s="13" t="str">
+      <c r="I47" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_DEMARRAGE_TOL_GUIDON: curTrameLength= LG_TRAME_INF_DEMARRAGE_TOL_GUIDON ; break;</v>
       </c>
-      <c r="I47" t="str">
+      <c r="J47" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J47" t="str">
+      <c r="K47" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_DEMARRAGE_TOL_GUIDON,(void*)(&amp;DEMARRAGE_TOL_GUIDON),LG_TRAME_INF_DEMARRAGE_TOL_GUIDON);</v>
       </c>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:11">
       <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
@@ -2292,28 +2374,28 @@
       <c r="E48" s="9">
         <v>4</v>
       </c>
-      <c r="F48" s="1" t="str">
+      <c r="G48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE 31</v>
       </c>
-      <c r="G48" s="1" t="str">
+      <c r="H48" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE 4</v>
       </c>
-      <c r="H48" s="13" t="str">
+      <c r="I48" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE: curTrameLength= LG_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE ; break;</v>
       </c>
-      <c r="I48" t="str">
+      <c r="J48" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J48" t="str">
+      <c r="K48" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE,(void*)(&amp;DEMARRAGE_DELAI_EQUILIBRE),LG_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE);</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:11">
       <c r="B49" s="2" t="s">
         <v>8</v>
       </c>
@@ -2327,28 +2409,28 @@
       <c r="E49" s="9">
         <v>4</v>
       </c>
-      <c r="F49" s="1" t="str">
+      <c r="G49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_VITESSE_TROITTOIR_MAX 32</v>
       </c>
-      <c r="G49" s="1" t="str">
+      <c r="H49" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_VITESSE_TROITTOIR_MAX 4</v>
       </c>
-      <c r="H49" s="13" t="str">
+      <c r="I49" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_VITESSE_TROITTOIR_MAX: curTrameLength= LG_TRAME_INF_VITESSE_TROITTOIR_MAX ; break;</v>
       </c>
-      <c r="I49" t="str">
+      <c r="J49" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J49" t="str">
+      <c r="K49" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_VITESSE_TROITTOIR_MAX,(void*)(&amp;VITESSE_TROITTOIR_MAX),LG_TRAME_INF_VITESSE_TROITTOIR_MAX);</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:11">
       <c r="B50" s="2" t="s">
         <v>8</v>
       </c>
@@ -2362,28 +2444,28 @@
       <c r="E50" s="9">
         <v>4</v>
       </c>
-      <c r="F50" s="1" t="str">
+      <c r="G50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_POURCENT_SECURITE_MOTEUR 33</v>
       </c>
-      <c r="G50" s="1" t="str">
+      <c r="H50" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_POURCENT_SECURITE_MOTEUR 4</v>
       </c>
-      <c r="H50" s="13" t="str">
+      <c r="I50" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_POURCENT_SECURITE_MOTEUR: curTrameLength= LG_TRAME_INF_POURCENT_SECURITE_MOTEUR ; break;</v>
       </c>
-      <c r="I50" t="str">
+      <c r="J50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J50" t="str">
+      <c r="K50" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_POURCENT_SECURITE_MOTEUR,(void*)(&amp;POURCENT_SECURITE_MOTEUR),LG_TRAME_INF_POURCENT_SECURITE_MOTEUR);</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:11">
       <c r="B51" s="2" t="s">
         <v>8</v>
       </c>
@@ -2397,28 +2479,28 @@
       <c r="E51" s="9">
         <v>4</v>
       </c>
-      <c r="F51" s="1" t="str">
+      <c r="G51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_COEF_HYSTERISIS_SECURITE 34</v>
       </c>
-      <c r="G51" s="1" t="str">
+      <c r="H51" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_COEF_HYSTERISIS_SECURITE 4</v>
       </c>
-      <c r="H51" s="13" t="str">
+      <c r="I51" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_COEF_HYSTERISIS_SECURITE: curTrameLength= LG_TRAME_INF_COEF_HYSTERISIS_SECURITE ; break;</v>
       </c>
-      <c r="I51" t="str">
+      <c r="J51" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J51" t="str">
+      <c r="K51" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_COEF_HYSTERISIS_SECURITE,(void*)(&amp;COEF_HYSTERISIS_SECURITE),LG_TRAME_INF_COEF_HYSTERISIS_SECURITE);</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:11">
       <c r="B52" s="2" t="s">
         <v>0</v>
       </c>
@@ -2431,24 +2513,24 @@
       <c r="E52" s="9">
         <v>4</v>
       </c>
-      <c r="F52" s="1" t="str">
+      <c r="G52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_COEF_COURANT_1 163</v>
       </c>
-      <c r="G52" s="1" t="str">
+      <c r="H52" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_COEF_COURANT_1 4</v>
       </c>
-      <c r="H52" t="str">
+      <c r="I52" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_COEF_COURANT_1: curTrameLength= LG_TRAME_CON_COEF_COURANT_1 ; break;</v>
       </c>
-      <c r="I52" t="str">
+      <c r="J52" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_COEF_COURANT_1:   ; break;</v>
       </c>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:11">
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -2461,24 +2543,24 @@
       <c r="E53" s="9">
         <v>4</v>
       </c>
-      <c r="F53" s="1" t="str">
+      <c r="G53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_COEF_COURANT_1 35</v>
       </c>
-      <c r="G53" s="1" t="str">
+      <c r="H53" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_COEF_COURANT_1 4</v>
       </c>
-      <c r="H53" t="str">
+      <c r="I53" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_COEF_COURANT_1: curTrameLength= LG_TRAME_INF_COEF_COURANT_1 ; break;</v>
       </c>
-      <c r="I53" t="str">
+      <c r="J53" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_COEF_COURANT_1:   ; break;</v>
       </c>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:11">
       <c r="B54" s="2" t="s">
         <v>0</v>
       </c>
@@ -2491,24 +2573,24 @@
       <c r="E54" s="9">
         <v>4</v>
       </c>
-      <c r="F54" s="1" t="str">
+      <c r="G54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_COEF_COURANT_2 164</v>
       </c>
-      <c r="G54" s="1" t="str">
+      <c r="H54" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_COEF_COURANT_2 4</v>
       </c>
-      <c r="H54" t="str">
+      <c r="I54" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_COEF_COURANT_2: curTrameLength= LG_TRAME_CON_COEF_COURANT_2 ; break;</v>
       </c>
-      <c r="I54" t="str">
+      <c r="J54" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_COEF_COURANT_2:   ; break;</v>
       </c>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:11">
       <c r="B55" s="2" t="s">
         <v>8</v>
       </c>
@@ -2521,24 +2603,24 @@
       <c r="E55" s="9">
         <v>4</v>
       </c>
-      <c r="F55" s="1" t="str">
+      <c r="G55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_COEF_COURANT_2 36</v>
       </c>
-      <c r="G55" s="1" t="str">
+      <c r="H55" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_COEF_COURANT_2 4</v>
       </c>
-      <c r="H55" t="str">
+      <c r="I55" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_COEF_COURANT_2: curTrameLength= LG_TRAME_INF_COEF_COURANT_2 ; break;</v>
       </c>
-      <c r="I55" t="str">
+      <c r="J55" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_COEF_COURANT_2:   ; break;</v>
       </c>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:11">
       <c r="B56" s="2" t="s">
         <v>0</v>
       </c>
@@ -2551,24 +2633,24 @@
       <c r="E56" s="9">
         <v>4</v>
       </c>
-      <c r="F56" s="1" t="str">
-        <f t="shared" ref="F56:F61" si="14">IF(B56&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B56,"_",C56," ",IF(B56="CON",128,0)+D56),"")</f>
+      <c r="G56" s="1" t="str">
+        <f t="shared" ref="G56:G61" si="14">IF(B56&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B56,"_",C56," ",IF(B56="CON",128,0)+D56),"")</f>
         <v>#define TYPE_TRAME_CON_COUPLED 178</v>
       </c>
-      <c r="G56" s="1" t="str">
-        <f t="shared" ref="G56:G61" si="15">IF(B56&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B56,"_",C56," ",E56),"")</f>
+      <c r="H56" s="1" t="str">
+        <f t="shared" ref="H56:H61" si="15">IF(B56&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B56,"_",C56," ",E56),"")</f>
         <v>#define LG_TRAME_CON_COUPLED 4</v>
       </c>
-      <c r="H56" t="str">
-        <f t="shared" ref="H56:H61" si="16">IF(B56&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B56,"_",C56,": ","curTrameLength= LG_TRAME_",B56,"_",C56," ; break;"),"")</f>
+      <c r="I56" t="str">
+        <f t="shared" ref="I56:I61" si="16">IF(B56&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B56,"_",C56,": ","curTrameLength= LG_TRAME_",B56,"_",C56," ; break;"),"")</f>
         <v>case TYPE_TRAME_CON_COUPLED: curTrameLength= LG_TRAME_CON_COUPLED ; break;</v>
       </c>
-      <c r="I56" t="str">
+      <c r="J56" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_COUPLED:   ; break;</v>
       </c>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:11">
       <c r="B57" s="2" t="s">
         <v>8</v>
       </c>
@@ -2581,24 +2663,27 @@
       <c r="E57" s="9">
         <v>4</v>
       </c>
-      <c r="F57" s="1" t="str">
+      <c r="F57" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G57" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#define TYPE_TRAME_INF_COUPLED 50</v>
       </c>
-      <c r="G57" s="1" t="str">
+      <c r="H57" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#define LG_TRAME_INF_COUPLED 4</v>
       </c>
-      <c r="H57" t="str">
+      <c r="I57" t="str">
         <f t="shared" si="16"/>
         <v>case TYPE_TRAME_INF_COUPLED: curTrameLength= LG_TRAME_INF_COUPLED ; break;</v>
       </c>
-      <c r="I57" t="str">
+      <c r="J57" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_COUPLED:   ; break;</v>
       </c>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:11">
       <c r="B58" s="2" t="s">
         <v>0</v>
       </c>
@@ -2611,24 +2696,24 @@
       <c r="E58" s="9">
         <v>4</v>
       </c>
-      <c r="F58" s="1" t="str">
+      <c r="G58" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#define TYPE_TRAME_CON_COUPLEG 179</v>
       </c>
-      <c r="G58" s="1" t="str">
+      <c r="H58" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#define LG_TRAME_CON_COUPLEG 4</v>
       </c>
-      <c r="H58" t="str">
+      <c r="I58" t="str">
         <f t="shared" si="16"/>
         <v>case TYPE_TRAME_CON_COUPLEG: curTrameLength= LG_TRAME_CON_COUPLEG ; break;</v>
       </c>
-      <c r="I58" t="str">
+      <c r="J58" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_COUPLEG:   ; break;</v>
       </c>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:11">
       <c r="B59" s="2" t="s">
         <v>8</v>
       </c>
@@ -2641,24 +2726,27 @@
       <c r="E59" s="9">
         <v>4</v>
       </c>
-      <c r="F59" s="1" t="str">
+      <c r="F59" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G59" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#define TYPE_TRAME_INF_COUPLEG 51</v>
       </c>
-      <c r="G59" s="1" t="str">
+      <c r="H59" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#define LG_TRAME_INF_COUPLEG 4</v>
       </c>
-      <c r="H59" t="str">
+      <c r="I59" t="str">
         <f t="shared" si="16"/>
         <v>case TYPE_TRAME_INF_COUPLEG: curTrameLength= LG_TRAME_INF_COUPLEG ; break;</v>
       </c>
-      <c r="I59" t="str">
+      <c r="J59" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_COUPLEG:   ; break;</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:11">
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
@@ -2671,24 +2759,27 @@
       <c r="E60" s="9">
         <v>1</v>
       </c>
-      <c r="F60" s="1" t="str">
+      <c r="F60" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#define TYPE_TRAME_INF_ERREUR_CARTE_COURANT 52</v>
       </c>
-      <c r="G60" s="1" t="str">
+      <c r="H60" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#define LG_TRAME_INF_ERREUR_CARTE_COURANT 1</v>
       </c>
-      <c r="H60" t="str">
+      <c r="I60" t="str">
         <f t="shared" si="16"/>
         <v>case TYPE_TRAME_INF_ERREUR_CARTE_COURANT: curTrameLength= LG_TRAME_INF_ERREUR_CARTE_COURANT ; break;</v>
       </c>
-      <c r="I60" t="str">
+      <c r="J60" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_ERREUR_CARTE_COURANT:   ; break;</v>
       </c>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:11">
       <c r="B61" s="2" t="s">
         <v>8</v>
       </c>
@@ -2701,2305 +2792,2308 @@
       <c r="E61" s="9">
         <v>1</v>
       </c>
-      <c r="F61" s="1" t="str">
+      <c r="F61" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G61" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#define TYPE_TRAME_INF_PRET 53</v>
       </c>
-      <c r="G61" s="1" t="str">
+      <c r="H61" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#define LG_TRAME_INF_PRET 1</v>
       </c>
-      <c r="H61" t="str">
+      <c r="I61" t="str">
         <f t="shared" si="16"/>
         <v>case TYPE_TRAME_INF_PRET: curTrameLength= LG_TRAME_INF_PRET ; break;</v>
       </c>
-      <c r="I61" t="str">
+      <c r="J61" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_PRET:   ; break;</v>
       </c>
     </row>
-    <row r="62" spans="2:10">
-      <c r="F62" s="1" t="str">
+    <row r="62" spans="2:11">
+      <c r="G62" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G62" s="1" t="str">
+      <c r="H62" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H62" t="str">
+      <c r="I62" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I62" t="str">
+      <c r="J62" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:10">
-      <c r="F63" s="1" t="str">
+    <row r="63" spans="2:11">
+      <c r="G63" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G63" s="1" t="str">
+      <c r="H63" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H63" t="str">
+      <c r="I63" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I63" t="str">
+      <c r="J63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:10">
-      <c r="F64" s="1" t="str">
+    <row r="64" spans="2:11">
+      <c r="G64" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G64" s="1" t="str">
+      <c r="H64" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H64" t="str">
+      <c r="I64" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I64" t="str">
+      <c r="J64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="6:9">
-      <c r="F65" s="1" t="str">
+    <row r="65" spans="7:10">
+      <c r="G65" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G65" s="1" t="str">
+      <c r="H65" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H65" t="str">
+      <c r="I65" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I65" t="str">
+      <c r="J65" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="6:9">
-      <c r="F66" s="1" t="str">
+    <row r="66" spans="7:10">
+      <c r="G66" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G66" s="1" t="str">
+      <c r="H66" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H66" t="str">
+      <c r="I66" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I66" t="str">
+      <c r="J66" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="6:9">
-      <c r="F67" s="1" t="str">
-        <f t="shared" ref="F67:F130" si="17">IF(B67&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B67,"_",C67," ",IF(B67="CON",128,0)+D67),"")</f>
-        <v/>
-      </c>
+    <row r="67" spans="7:10">
       <c r="G67" s="1" t="str">
-        <f t="shared" ref="G67:G130" si="18">IF(B67&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B67,"_",C67," ",E67),"")</f>
-        <v/>
-      </c>
-      <c r="H67" t="str">
-        <f t="shared" ref="H67:H130" si="19">IF(B67&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B67,"_",C67,": ","curTrameLength= LG_TRAME_",B67,"_",C67," ; break;"),"")</f>
+        <f t="shared" ref="G67:G130" si="17">IF(B67&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B67,"_",C67," ",IF(B67="CON",128,0)+D67),"")</f>
+        <v/>
+      </c>
+      <c r="H67" s="1" t="str">
+        <f t="shared" ref="H67:H130" si="18">IF(B67&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B67,"_",C67," ",E67),"")</f>
         <v/>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I79" si="20">IF(B67&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B67,"_",C67,":   ; break;"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="6:9">
-      <c r="F68" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+        <f t="shared" ref="I67:I130" si="19">IF(B67&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B67,"_",C67,": ","curTrameLength= LG_TRAME_",B67,"_",C67," ; break;"),"")</f>
+        <v/>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J79" si="20">IF(B67&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B67,"_",C67,":   ; break;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="7:10">
       <c r="G68" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H68" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H68" t="str">
+      <c r="I68" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I68" t="str">
+      <c r="J68" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="6:9">
-      <c r="F69" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="69" spans="7:10">
       <c r="G69" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H69" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H69" t="str">
+      <c r="I69" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I69" t="str">
+      <c r="J69" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="6:9">
-      <c r="F70" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="70" spans="7:10">
       <c r="G70" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H70" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H70" t="str">
+      <c r="I70" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I70" t="str">
+      <c r="J70" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="6:9">
-      <c r="F71" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="71" spans="7:10">
       <c r="G71" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H71" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H71" t="str">
+      <c r="I71" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I71" t="str">
+      <c r="J71" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="6:9">
-      <c r="F72" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="72" spans="7:10">
       <c r="G72" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H72" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H72" t="str">
+      <c r="I72" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I72" t="str">
+      <c r="J72" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="6:9">
-      <c r="F73" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="73" spans="7:10">
       <c r="G73" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H73" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H73" t="str">
+      <c r="I73" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I73" t="str">
+      <c r="J73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="6:9">
-      <c r="F74" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="74" spans="7:10">
       <c r="G74" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H74" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H74" t="str">
+      <c r="I74" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I74" t="str">
+      <c r="J74" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="6:9">
-      <c r="F75" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="75" spans="7:10">
       <c r="G75" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H75" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H75" t="str">
+      <c r="I75" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I75" t="str">
+      <c r="J75" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="6:9">
-      <c r="F76" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="76" spans="7:10">
       <c r="G76" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H76" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H76" t="str">
+      <c r="I76" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I76" t="str">
+      <c r="J76" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="6:9">
-      <c r="F77" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="77" spans="7:10">
       <c r="G77" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H77" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H77" t="str">
+      <c r="I77" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I77" t="str">
+      <c r="J77" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="6:9">
-      <c r="F78" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="78" spans="7:10">
       <c r="G78" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H78" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H78" t="str">
+      <c r="I78" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I78" t="str">
+      <c r="J78" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="6:9">
-      <c r="F79" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="79" spans="7:10">
       <c r="G79" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H79" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H79" t="str">
+      <c r="I79" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I79" t="str">
+      <c r="J79" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="6:9">
-      <c r="F80" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="80" spans="7:10">
       <c r="G80" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H80" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H80" t="str">
+      <c r="I80" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I80" t="str">
-        <f t="shared" ref="I80:I130" si="21">IF(B80&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B80,"_",C80,":   ; break;"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="6:9">
-      <c r="F81" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+      <c r="J80" t="str">
+        <f t="shared" ref="J80:J130" si="21">IF(B80&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B80,"_",C80,":   ; break;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="7:10">
       <c r="G81" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H81" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H81" t="str">
+      <c r="I81" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I81" t="str">
+      <c r="J81" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="6:9">
-      <c r="F82" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="82" spans="7:10">
       <c r="G82" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H82" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H82" t="str">
+      <c r="I82" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I82" t="str">
+      <c r="J82" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="6:9">
-      <c r="F83" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="83" spans="7:10">
       <c r="G83" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H83" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H83" t="str">
+      <c r="I83" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I83" t="str">
+      <c r="J83" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="6:9">
-      <c r="F84" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="84" spans="7:10">
       <c r="G84" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H84" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H84" t="str">
+      <c r="I84" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I84" t="str">
+      <c r="J84" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="6:9">
-      <c r="F85" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="85" spans="7:10">
       <c r="G85" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H85" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H85" t="str">
+      <c r="I85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I85" t="str">
+      <c r="J85" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="6:9">
-      <c r="F86" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="86" spans="7:10">
       <c r="G86" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H86" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H86" t="str">
+      <c r="I86" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I86" t="str">
+      <c r="J86" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="6:9">
-      <c r="F87" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="87" spans="7:10">
       <c r="G87" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H87" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H87" t="str">
+      <c r="I87" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I87" t="str">
+      <c r="J87" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="6:9">
-      <c r="F88" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="88" spans="7:10">
       <c r="G88" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H88" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H88" t="str">
+      <c r="I88" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I88" t="str">
+      <c r="J88" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="6:9">
-      <c r="F89" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="89" spans="7:10">
       <c r="G89" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H89" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H89" t="str">
+      <c r="I89" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I89" t="str">
+      <c r="J89" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="6:9">
-      <c r="F90" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="90" spans="7:10">
       <c r="G90" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H90" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H90" t="str">
+      <c r="I90" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I90" t="str">
+      <c r="J90" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="6:9">
-      <c r="F91" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="91" spans="7:10">
       <c r="G91" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H91" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H91" t="str">
+      <c r="I91" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I91" t="str">
+      <c r="J91" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="6:9">
-      <c r="F92" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="92" spans="7:10">
       <c r="G92" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H92" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H92" t="str">
+      <c r="I92" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I92" t="str">
+      <c r="J92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="6:9">
-      <c r="F93" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="93" spans="7:10">
       <c r="G93" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H93" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H93" t="str">
+      <c r="I93" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I93" t="str">
+      <c r="J93" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="6:9">
-      <c r="F94" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="94" spans="7:10">
       <c r="G94" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H94" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H94" t="str">
+      <c r="I94" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I94" t="str">
+      <c r="J94" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="6:9">
-      <c r="F95" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="95" spans="7:10">
       <c r="G95" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H95" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H95" t="str">
+      <c r="I95" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I95" t="str">
+      <c r="J95" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="6:9">
-      <c r="F96" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="96" spans="7:10">
       <c r="G96" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H96" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H96" t="str">
+      <c r="I96" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I96" t="str">
+      <c r="J96" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="6:9">
-      <c r="F97" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="97" spans="7:10">
       <c r="G97" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H97" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H97" t="str">
+      <c r="I97" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I97" t="str">
+      <c r="J97" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="6:9">
-      <c r="F98" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="98" spans="7:10">
       <c r="G98" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H98" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H98" t="str">
+      <c r="I98" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I98" t="str">
+      <c r="J98" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="6:9">
-      <c r="F99" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="99" spans="7:10">
       <c r="G99" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H99" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H99" t="str">
+      <c r="I99" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I99" t="str">
+      <c r="J99" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="6:9">
-      <c r="F100" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="100" spans="7:10">
       <c r="G100" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H100" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H100" t="str">
+      <c r="I100" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I100" t="str">
+      <c r="J100" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="6:9">
-      <c r="F101" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="101" spans="7:10">
       <c r="G101" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H101" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H101" t="str">
+      <c r="I101" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I101" t="str">
+      <c r="J101" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="6:9">
-      <c r="F102" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="102" spans="7:10">
       <c r="G102" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H102" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H102" t="str">
+      <c r="I102" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I102" t="str">
+      <c r="J102" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="6:9">
-      <c r="F103" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="103" spans="7:10">
       <c r="G103" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H103" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H103" t="str">
+      <c r="I103" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I103" t="str">
+      <c r="J103" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="6:9">
-      <c r="F104" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="104" spans="7:10">
       <c r="G104" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H104" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H104" t="str">
+      <c r="I104" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I104" t="str">
+      <c r="J104" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="6:9">
-      <c r="F105" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="105" spans="7:10">
       <c r="G105" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H105" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H105" t="str">
+      <c r="I105" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I105" t="str">
+      <c r="J105" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="6:9">
-      <c r="F106" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="106" spans="7:10">
       <c r="G106" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H106" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H106" t="str">
+      <c r="I106" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I106" t="str">
+      <c r="J106" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="6:9">
-      <c r="F107" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="107" spans="7:10">
       <c r="G107" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H107" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H107" t="str">
+      <c r="I107" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I107" t="str">
+      <c r="J107" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="6:9">
-      <c r="F108" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="108" spans="7:10">
       <c r="G108" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H108" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H108" t="str">
+      <c r="I108" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I108" t="str">
+      <c r="J108" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="6:9">
-      <c r="F109" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="109" spans="7:10">
       <c r="G109" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H109" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H109" t="str">
+      <c r="I109" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I109" t="str">
+      <c r="J109" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="6:9">
-      <c r="F110" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="110" spans="7:10">
       <c r="G110" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H110" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H110" t="str">
+      <c r="I110" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I110" t="str">
+      <c r="J110" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="6:9">
-      <c r="F111" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="111" spans="7:10">
       <c r="G111" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H111" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H111" t="str">
+      <c r="I111" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I111" t="str">
+      <c r="J111" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="6:9">
-      <c r="F112" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="112" spans="7:10">
       <c r="G112" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H112" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H112" t="str">
+      <c r="I112" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I112" t="str">
+      <c r="J112" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="6:9">
-      <c r="F113" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="113" spans="7:10">
       <c r="G113" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H113" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H113" t="str">
+      <c r="I113" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I113" t="str">
+      <c r="J113" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="6:9">
-      <c r="F114" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="114" spans="7:10">
       <c r="G114" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H114" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H114" t="str">
+      <c r="I114" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I114" t="str">
+      <c r="J114" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="6:9">
-      <c r="F115" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="115" spans="7:10">
       <c r="G115" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H115" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H115" t="str">
+      <c r="I115" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I115" t="str">
+      <c r="J115" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="6:9">
-      <c r="F116" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="116" spans="7:10">
       <c r="G116" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H116" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H116" t="str">
+      <c r="I116" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I116" t="str">
+      <c r="J116" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="6:9">
-      <c r="F117" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="117" spans="7:10">
       <c r="G117" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H117" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H117" t="str">
+      <c r="I117" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I117" t="str">
+      <c r="J117" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="6:9">
-      <c r="F118" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="118" spans="7:10">
       <c r="G118" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H118" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H118" t="str">
+      <c r="I118" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I118" t="str">
+      <c r="J118" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="6:9">
-      <c r="F119" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="119" spans="7:10">
       <c r="G119" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H119" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H119" t="str">
+      <c r="I119" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I119" t="str">
+      <c r="J119" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="6:9">
-      <c r="F120" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="120" spans="7:10">
       <c r="G120" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H120" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H120" t="str">
+      <c r="I120" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I120" t="str">
+      <c r="J120" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="6:9">
-      <c r="F121" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="121" spans="7:10">
       <c r="G121" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H121" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H121" t="str">
+      <c r="I121" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I121" t="str">
+      <c r="J121" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="6:9">
-      <c r="F122" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="122" spans="7:10">
       <c r="G122" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H122" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H122" t="str">
+      <c r="I122" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I122" t="str">
+      <c r="J122" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="6:9">
-      <c r="F123" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="123" spans="7:10">
       <c r="G123" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H123" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H123" t="str">
+      <c r="I123" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I123" t="str">
+      <c r="J123" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="6:9">
-      <c r="F124" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="124" spans="7:10">
       <c r="G124" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H124" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H124" t="str">
+      <c r="I124" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I124" t="str">
+      <c r="J124" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="6:9">
-      <c r="F125" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="125" spans="7:10">
       <c r="G125" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H125" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H125" t="str">
+      <c r="I125" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I125" t="str">
+      <c r="J125" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="6:9">
-      <c r="F126" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="126" spans="7:10">
       <c r="G126" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H126" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H126" t="str">
+      <c r="I126" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I126" t="str">
+      <c r="J126" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="6:9">
-      <c r="F127" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="127" spans="7:10">
       <c r="G127" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H127" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H127" t="str">
+      <c r="I127" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I127" t="str">
+      <c r="J127" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="6:9">
-      <c r="F128" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="128" spans="7:10">
       <c r="G128" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H128" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H128" t="str">
+      <c r="I128" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I128" t="str">
+      <c r="J128" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="6:9">
-      <c r="F129" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="129" spans="7:10">
       <c r="G129" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H129" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H129" t="str">
+      <c r="I129" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I129" t="str">
+      <c r="J129" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="6:9">
-      <c r="F130" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="130" spans="7:10">
       <c r="G130" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="H130" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="H130" t="str">
+      <c r="I130" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I130" t="str">
+      <c r="J130" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="6:9">
-      <c r="F131" s="1" t="str">
-        <f t="shared" ref="F131:F160" si="22">IF(B131&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B131,"_",C131," ",IF(B131="CON",128,0)+D131),"")</f>
-        <v/>
-      </c>
+    <row r="131" spans="7:10">
       <c r="G131" s="1" t="str">
-        <f t="shared" ref="G131:G160" si="23">IF(B131&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B131,"_",C131," ",E131),"")</f>
-        <v/>
-      </c>
-      <c r="H131" t="str">
-        <f t="shared" ref="H131:H160" si="24">IF(B131&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B131,"_",C131,": ","curTrameLength= LG_TRAME_",B131,"_",C131," ; break;"),"")</f>
+        <f t="shared" ref="G131:G160" si="22">IF(B131&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B131,"_",C131," ",IF(B131="CON",128,0)+D131),"")</f>
+        <v/>
+      </c>
+      <c r="H131" s="1" t="str">
+        <f t="shared" ref="H131:H160" si="23">IF(B131&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B131,"_",C131," ",E131),"")</f>
         <v/>
       </c>
       <c r="I131" t="str">
-        <f t="shared" ref="I131:I160" si="25">IF(B131&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B131,"_",C131,":   ; break;"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="6:9">
-      <c r="F132" s="1" t="str">
+        <f t="shared" ref="I131:I160" si="24">IF(B131&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B131,"_",C131,": ","curTrameLength= LG_TRAME_",B131,"_",C131," ; break;"),"")</f>
+        <v/>
+      </c>
+      <c r="J131" t="str">
+        <f t="shared" ref="J131:J160" si="25">IF(B131&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B131,"_",C131,":   ; break;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="7:10">
+      <c r="G132" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G132" s="1" t="str">
+      <c r="H132" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H132" t="str">
+      <c r="I132" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I132" t="str">
+      <c r="J132" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="6:9">
-      <c r="F133" s="1" t="str">
+    <row r="133" spans="7:10">
+      <c r="G133" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G133" s="1" t="str">
+      <c r="H133" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H133" t="str">
+      <c r="I133" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I133" t="str">
+      <c r="J133" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="6:9">
-      <c r="F134" s="1" t="str">
+    <row r="134" spans="7:10">
+      <c r="G134" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G134" s="1" t="str">
+      <c r="H134" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H134" t="str">
+      <c r="I134" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I134" t="str">
+      <c r="J134" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="6:9">
-      <c r="F135" s="1" t="str">
+    <row r="135" spans="7:10">
+      <c r="G135" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G135" s="1" t="str">
+      <c r="H135" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H135" t="str">
+      <c r="I135" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I135" t="str">
+      <c r="J135" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="6:9">
-      <c r="F136" s="1" t="str">
+    <row r="136" spans="7:10">
+      <c r="G136" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G136" s="1" t="str">
+      <c r="H136" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H136" t="str">
+      <c r="I136" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I136" t="str">
+      <c r="J136" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="6:9">
-      <c r="F137" s="1" t="str">
+    <row r="137" spans="7:10">
+      <c r="G137" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G137" s="1" t="str">
+      <c r="H137" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H137" t="str">
+      <c r="I137" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I137" t="str">
+      <c r="J137" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="6:9">
-      <c r="F138" s="1" t="str">
+    <row r="138" spans="7:10">
+      <c r="G138" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G138" s="1" t="str">
+      <c r="H138" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H138" t="str">
+      <c r="I138" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I138" t="str">
+      <c r="J138" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="6:9">
-      <c r="F139" s="1" t="str">
+    <row r="139" spans="7:10">
+      <c r="G139" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G139" s="1" t="str">
+      <c r="H139" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H139" t="str">
+      <c r="I139" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I139" t="str">
+      <c r="J139" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="6:9">
-      <c r="F140" s="1" t="str">
+    <row r="140" spans="7:10">
+      <c r="G140" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G140" s="1" t="str">
+      <c r="H140" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H140" t="str">
+      <c r="I140" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I140" t="str">
+      <c r="J140" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="6:9">
-      <c r="F141" s="1" t="str">
+    <row r="141" spans="7:10">
+      <c r="G141" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G141" s="1" t="str">
+      <c r="H141" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H141" t="str">
+      <c r="I141" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I141" t="str">
+      <c r="J141" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="6:9">
-      <c r="F142" s="1" t="str">
+    <row r="142" spans="7:10">
+      <c r="G142" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G142" s="1" t="str">
+      <c r="H142" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H142" t="str">
+      <c r="I142" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I142" t="str">
+      <c r="J142" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="6:9">
-      <c r="F143" s="1" t="str">
+    <row r="143" spans="7:10">
+      <c r="G143" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G143" s="1" t="str">
+      <c r="H143" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H143" t="str">
+      <c r="I143" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I143" t="str">
+      <c r="J143" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="6:9">
-      <c r="F144" s="1" t="str">
+    <row r="144" spans="7:10">
+      <c r="G144" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G144" s="1" t="str">
+      <c r="H144" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H144" t="str">
+      <c r="I144" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I144" t="str">
+      <c r="J144" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="6:9">
-      <c r="F145" s="1" t="str">
+    <row r="145" spans="7:10">
+      <c r="G145" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G145" s="1" t="str">
+      <c r="H145" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H145" t="str">
+      <c r="I145" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I145" t="str">
+      <c r="J145" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="6:9">
-      <c r="F146" s="1" t="str">
+    <row r="146" spans="7:10">
+      <c r="G146" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G146" s="1" t="str">
+      <c r="H146" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H146" t="str">
+      <c r="I146" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I146" t="str">
+      <c r="J146" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="6:9">
-      <c r="F147" s="1" t="str">
+    <row r="147" spans="7:10">
+      <c r="G147" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G147" s="1" t="str">
+      <c r="H147" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H147" t="str">
+      <c r="I147" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I147" t="str">
+      <c r="J147" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="6:9">
-      <c r="F148" s="1" t="str">
+    <row r="148" spans="7:10">
+      <c r="G148" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G148" s="1" t="str">
+      <c r="H148" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H148" t="str">
+      <c r="I148" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I148" t="str">
+      <c r="J148" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="6:9">
-      <c r="F149" s="1" t="str">
+    <row r="149" spans="7:10">
+      <c r="G149" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G149" s="1" t="str">
+      <c r="H149" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H149" t="str">
+      <c r="I149" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I149" t="str">
+      <c r="J149" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="6:9">
-      <c r="F150" s="1" t="str">
+    <row r="150" spans="7:10">
+      <c r="G150" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G150" s="1" t="str">
+      <c r="H150" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H150" t="str">
+      <c r="I150" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I150" t="str">
+      <c r="J150" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="6:9">
-      <c r="F151" s="1" t="str">
+    <row r="151" spans="7:10">
+      <c r="G151" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G151" s="1" t="str">
+      <c r="H151" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H151" t="str">
+      <c r="I151" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I151" t="str">
+      <c r="J151" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="6:9">
-      <c r="F152" s="1" t="str">
+    <row r="152" spans="7:10">
+      <c r="G152" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G152" s="1" t="str">
+      <c r="H152" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H152" t="str">
+      <c r="I152" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I152" t="str">
+      <c r="J152" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="6:9">
-      <c r="F153" s="1" t="str">
+    <row r="153" spans="7:10">
+      <c r="G153" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G153" s="1" t="str">
+      <c r="H153" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H153" t="str">
+      <c r="I153" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I153" t="str">
+      <c r="J153" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="6:9">
-      <c r="F154" s="1" t="str">
+    <row r="154" spans="7:10">
+      <c r="G154" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G154" s="1" t="str">
+      <c r="H154" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H154" t="str">
+      <c r="I154" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I154" t="str">
+      <c r="J154" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="6:9">
-      <c r="F155" s="1" t="str">
+    <row r="155" spans="7:10">
+      <c r="G155" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G155" s="1" t="str">
+      <c r="H155" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H155" t="str">
+      <c r="I155" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I155" t="str">
+      <c r="J155" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="6:9">
-      <c r="F156" s="1" t="str">
+    <row r="156" spans="7:10">
+      <c r="G156" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G156" s="1" t="str">
+      <c r="H156" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H156" t="str">
+      <c r="I156" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I156" t="str">
+      <c r="J156" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="6:9">
-      <c r="F157" s="1" t="str">
+    <row r="157" spans="7:10">
+      <c r="G157" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G157" s="1" t="str">
+      <c r="H157" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H157" t="str">
+      <c r="I157" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I157" t="str">
+      <c r="J157" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="6:9">
-      <c r="F158" s="1" t="str">
+    <row r="158" spans="7:10">
+      <c r="G158" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G158" s="1" t="str">
+      <c r="H158" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H158" t="str">
+      <c r="I158" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I158" t="str">
+      <c r="J158" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="6:9">
-      <c r="F159" s="1" t="str">
+    <row r="159" spans="7:10">
+      <c r="G159" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G159" s="1" t="str">
+      <c r="H159" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H159" t="str">
+      <c r="I159" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I159" t="str">
+      <c r="J159" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="6:9">
-      <c r="F160" s="1" t="str">
+    <row r="160" spans="7:10">
+      <c r="G160" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G160" s="1" t="str">
+      <c r="H160" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="H160" t="str">
+      <c r="I160" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I160" t="str">
+      <c r="J160" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="6:9">
-      <c r="F161" s="1" t="str">
-        <f t="shared" ref="F161:F188" si="26">IF(B178&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B178,"_",C178," ",IF(B178="CON",128,0)+D178),"")</f>
-        <v/>
-      </c>
+    <row r="161" spans="7:10">
       <c r="G161" s="1" t="str">
-        <f t="shared" ref="G161:G188" si="27">IF(B178&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B178,"_",C178," ",E178),"")</f>
-        <v/>
-      </c>
-      <c r="H161" t="str">
-        <f t="shared" ref="H161:H188" si="28">IF(B178&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B178,"_",C178,": ","curTrameLength= LG_TRAME_",B178,"_",C178," ; break;"),"")</f>
+        <f t="shared" ref="G161:G188" si="26">IF(B178&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B178,"_",C178," ",IF(B178="CON",128,0)+D178),"")</f>
+        <v/>
+      </c>
+      <c r="H161" s="1" t="str">
+        <f t="shared" ref="H161:H188" si="27">IF(B178&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B178,"_",C178," ",E178),"")</f>
         <v/>
       </c>
       <c r="I161" t="str">
-        <f t="shared" ref="I161:I188" si="29">IF(B178&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B178,"_",C178,":   ; break;"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="6:9">
-      <c r="F162" s="1" t="str">
+        <f t="shared" ref="I161:I188" si="28">IF(B178&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B178,"_",C178,": ","curTrameLength= LG_TRAME_",B178,"_",C178," ; break;"),"")</f>
+        <v/>
+      </c>
+      <c r="J161" t="str">
+        <f t="shared" ref="J161:J188" si="29">IF(B178&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B178,"_",C178,":   ; break;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="7:10">
+      <c r="G162" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G162" s="1" t="str">
+      <c r="H162" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H162" t="str">
+      <c r="I162" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I162" t="str">
+      <c r="J162" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="6:9">
-      <c r="F163" s="1" t="str">
+    <row r="163" spans="7:10">
+      <c r="G163" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G163" s="1" t="str">
+      <c r="H163" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H163" t="str">
+      <c r="I163" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I163" t="str">
+      <c r="J163" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="6:9">
-      <c r="F164" s="1" t="str">
+    <row r="164" spans="7:10">
+      <c r="G164" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G164" s="1" t="str">
+      <c r="H164" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H164" t="str">
+      <c r="I164" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I164" t="str">
+      <c r="J164" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="6:9">
-      <c r="F165" s="1" t="str">
+    <row r="165" spans="7:10">
+      <c r="G165" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G165" s="1" t="str">
+      <c r="H165" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H165" t="str">
+      <c r="I165" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I165" t="str">
+      <c r="J165" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="6:9">
-      <c r="F166" s="1" t="str">
+    <row r="166" spans="7:10">
+      <c r="G166" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G166" s="1" t="str">
+      <c r="H166" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H166" t="str">
+      <c r="I166" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I166" t="str">
+      <c r="J166" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="6:9">
-      <c r="F167" s="1" t="str">
+    <row r="167" spans="7:10">
+      <c r="G167" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G167" s="1" t="str">
+      <c r="H167" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H167" t="str">
+      <c r="I167" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I167" t="str">
+      <c r="J167" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="6:9">
-      <c r="F168" s="1" t="str">
+    <row r="168" spans="7:10">
+      <c r="G168" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G168" s="1" t="str">
+      <c r="H168" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H168" t="str">
+      <c r="I168" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I168" t="str">
+      <c r="J168" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="6:9">
-      <c r="F169" s="1" t="str">
+    <row r="169" spans="7:10">
+      <c r="G169" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G169" s="1" t="str">
+      <c r="H169" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H169" t="str">
+      <c r="I169" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I169" t="str">
+      <c r="J169" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="6:9">
-      <c r="F170" s="1" t="str">
+    <row r="170" spans="7:10">
+      <c r="G170" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G170" s="1" t="str">
+      <c r="H170" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H170" t="str">
+      <c r="I170" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I170" t="str">
+      <c r="J170" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="6:9">
-      <c r="F171" s="1" t="str">
+    <row r="171" spans="7:10">
+      <c r="G171" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G171" s="1" t="str">
+      <c r="H171" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H171" t="str">
+      <c r="I171" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I171" t="str">
+      <c r="J171" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="6:9">
-      <c r="F172" s="1" t="str">
+    <row r="172" spans="7:10">
+      <c r="G172" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G172" s="1" t="str">
+      <c r="H172" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H172" t="str">
+      <c r="I172" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I172" t="str">
+      <c r="J172" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="6:9">
-      <c r="F173" s="1" t="str">
+    <row r="173" spans="7:10">
+      <c r="G173" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G173" s="1" t="str">
+      <c r="H173" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H173" t="str">
+      <c r="I173" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I173" t="str">
+      <c r="J173" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="6:9">
-      <c r="F174" s="1" t="str">
+    <row r="174" spans="7:10">
+      <c r="G174" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G174" s="1" t="str">
+      <c r="H174" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H174" t="str">
+      <c r="I174" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I174" t="str">
+      <c r="J174" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="6:9">
-      <c r="F175" s="1" t="str">
+    <row r="175" spans="7:10">
+      <c r="G175" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G175" s="1" t="str">
+      <c r="H175" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H175" t="str">
+      <c r="I175" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I175" t="str">
+      <c r="J175" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="6:9">
-      <c r="F176" s="1" t="str">
+    <row r="176" spans="7:10">
+      <c r="G176" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G176" s="1" t="str">
+      <c r="H176" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H176" t="str">
+      <c r="I176" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I176" t="str">
+      <c r="J176" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="6:9">
-      <c r="F177" s="1" t="str">
+    <row r="177" spans="7:10">
+      <c r="G177" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G177" s="1" t="str">
+      <c r="H177" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H177" t="str">
+      <c r="I177" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I177" t="str">
+      <c r="J177" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="6:9">
-      <c r="F178" s="1" t="str">
+    <row r="178" spans="7:10">
+      <c r="G178" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G178" s="1" t="str">
+      <c r="H178" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H178" t="str">
+      <c r="I178" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I178" t="str">
+      <c r="J178" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="6:9">
-      <c r="F179" s="1" t="str">
+    <row r="179" spans="7:10">
+      <c r="G179" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G179" s="1" t="str">
+      <c r="H179" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H179" t="str">
+      <c r="I179" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I179" t="str">
+      <c r="J179" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="6:9">
-      <c r="F180" s="1" t="str">
+    <row r="180" spans="7:10">
+      <c r="G180" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G180" s="1" t="str">
+      <c r="H180" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H180" t="str">
+      <c r="I180" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I180" t="str">
+      <c r="J180" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="6:9">
-      <c r="F181" s="1" t="str">
+    <row r="181" spans="7:10">
+      <c r="G181" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G181" s="1" t="str">
+      <c r="H181" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H181" t="str">
+      <c r="I181" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I181" t="str">
+      <c r="J181" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="6:9">
-      <c r="F182" s="1" t="str">
+    <row r="182" spans="7:10">
+      <c r="G182" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G182" s="1" t="str">
+      <c r="H182" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H182" t="str">
+      <c r="I182" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I182" t="str">
+      <c r="J182" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="6:9">
-      <c r="F183" s="1" t="str">
+    <row r="183" spans="7:10">
+      <c r="G183" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G183" s="1" t="str">
+      <c r="H183" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H183" t="str">
+      <c r="I183" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I183" t="str">
+      <c r="J183" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="6:9">
-      <c r="F184" s="1" t="str">
+    <row r="184" spans="7:10">
+      <c r="G184" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G184" s="1" t="str">
+      <c r="H184" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H184" t="str">
+      <c r="I184" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I184" t="str">
+      <c r="J184" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="6:9">
-      <c r="F185" s="1" t="str">
+    <row r="185" spans="7:10">
+      <c r="G185" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G185" s="1" t="str">
+      <c r="H185" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H185" t="str">
+      <c r="I185" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I185" t="str">
+      <c r="J185" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="6:9">
-      <c r="F186" s="1" t="str">
+    <row r="186" spans="7:10">
+      <c r="G186" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G186" s="1" t="str">
+      <c r="H186" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H186" t="str">
+      <c r="I186" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I186" t="str">
+      <c r="J186" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="6:9">
-      <c r="F187" s="1" t="str">
+    <row r="187" spans="7:10">
+      <c r="G187" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G187" s="1" t="str">
+      <c r="H187" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H187" t="str">
+      <c r="I187" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I187" t="str">
+      <c r="J187" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="6:9">
-      <c r="F188" s="1" t="str">
+    <row r="188" spans="7:10">
+      <c r="G188" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G188" s="1" t="str">
+      <c r="H188" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H188" t="str">
+      <c r="I188" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I188" t="str">
+      <c r="J188" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
@@ -5017,8 +5111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/ProgrammePrincipal/generateur de noms de trame.xlsx
+++ b/ProgrammePrincipal/generateur de noms de trame.xlsx
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1162,7 +1162,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="6"/>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>#define LG_TRAME_CON_DEMANDE_COEFFICIENTS 1</v>
+        <v>#define LG_TRAME_CON_DEMANDE_COEFFICIENTS 0</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="8"/>

--- a/ProgrammePrincipal/generateur de noms de trame.xlsx
+++ b/ProgrammePrincipal/generateur de noms de trame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="COM" sheetId="1" r:id="rId1"/>
@@ -741,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -5111,7 +5111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -5119,7 +5119,7 @@
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="7" max="7" width="36" customWidth="1"/>

--- a/ProgrammePrincipal/generateur de noms de trame.xlsx
+++ b/ProgrammePrincipal/generateur de noms de trame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="COM" sheetId="1" r:id="rId1"/>
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2790,7 +2790,7 @@
         <v>53</v>
       </c>
       <c r="E61" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="15" t="s">
         <v>100</v>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="H61" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>#define LG_TRAME_INF_PRET 1</v>
+        <v>#define LG_TRAME_INF_PRET 0</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="16"/>
@@ -5111,8 +5111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/ProgrammePrincipal/generateur de noms de trame.xlsx
+++ b/ProgrammePrincipal/generateur de noms de trame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="COM" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="107">
   <si>
     <t>CON</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>pic-&gt;pc ce que j'avais en memeoire</t>
+  </si>
+  <si>
+    <t>attention, tirage haut</t>
   </si>
 </sst>
 </file>
@@ -741,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
@@ -5109,2128 +5112,2134 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
-    <col min="9" max="9" width="32.28515625" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" customWidth="1"/>
+    <col min="10" max="10" width="32.28515625" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="2:11" s="5" customFormat="1">
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+    <row r="2" spans="2:11">
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="str">
-        <f t="shared" ref="G2" si="0">IF(C2&lt;&gt;"",CONCATENATE("#define ",C2," ",IF(D2=0,"LAT","PORT"),A2,"bits.",IF(D2=0,"LAT","R"),A2,B2),"")</f>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2" si="0">IF(D2&lt;&gt;"",CONCATENATE("#define ",D2," ",IF(E2=0,"LAT","PORT"),B2,"bits.",IF(E2=0,"LAT","R"),B2,C2),"")</f>
         <v>#define GYRO PORTAbits.RA0</v>
       </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2" si="1">IF(C2&lt;&gt;"",CONCATENATE("TRIS",A2,"bits.","R",A2,B2,"=",D2,"; //",C2),"")</f>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2" si="1">IF(D2&lt;&gt;"",CONCATENATE("TRIS",B2,"bits.","R",B2,C2,"=",E2,"; //",D2),"")</f>
         <v>TRISAbits.RA0=1; //GYRO</v>
       </c>
-      <c r="I2" t="str">
-        <f t="shared" ref="I2" si="2">IF(E2&lt;&gt;"",CONCATENATE("ANSEL",A2,"bits.","ANS",A2,B2,"=",D2,"; //",C2),"")</f>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2" si="2">IF(F2&lt;&gt;"",CONCATENATE("ANSEL",B2,"bits.","ANS",B2,C2,"=",E2,"; //",D2),"")</f>
         <v>ANSELAbits.ANSA0=1; //GYRO</v>
       </c>
-      <c r="J2" t="str">
-        <f t="shared" ref="J2" si="3">IF(E2&lt;&gt;"",CONCATENATE("#define CH_",C2," ADC_CH",E2),"")</f>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2" si="3">IF(F2&lt;&gt;"",CONCATENATE("#define CH_",D2," ADC_CH",F2),"")</f>
         <v>#define CH_GYRO ADC_CH0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+    <row r="3" spans="2:11">
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>48</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G64" si="4">IF(C3&lt;&gt;"",CONCATENATE("#define ",C3," ",IF(D3=0,"LAT","PORT"),A3,"bits.",IF(D3=0,"LAT","R"),A3,B3),"")</f>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H64" si="4">IF(D3&lt;&gt;"",CONCATENATE("#define ",D3," ",IF(E3=0,"LAT","PORT"),B3,"bits.",IF(E3=0,"LAT","R"),B3,C3),"")</f>
         <v>#define ACC_CENTRIFUGE PORTAbits.RA1</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H64" si="5">IF(C3&lt;&gt;"",CONCATENATE("TRIS",A3,"bits.","R",A3,B3,"=",D3,"; //",C3),"")</f>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I64" si="5">IF(D3&lt;&gt;"",CONCATENATE("TRIS",B3,"bits.","R",B3,C3,"=",E3,"; //",D3),"")</f>
         <v>TRISAbits.RA1=1; //ACC_CENTRIFUGE</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I64" si="6">IF(E3&lt;&gt;"",CONCATENATE("ANSEL",A3,"bits.","ANS",A3,B3,"=",D3,"; //",C3),"")</f>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J64" si="6">IF(F3&lt;&gt;"",CONCATENATE("ANSEL",B3,"bits.","ANS",B3,C3,"=",E3,"; //",D3),"")</f>
         <v>ANSELAbits.ANSA1=1; //ACC_CENTRIFUGE</v>
       </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J64" si="7">IF(E3&lt;&gt;"",CONCATENATE("#define CH_",C3," ADC_CH",E3),"")</f>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K64" si="7">IF(F3&lt;&gt;"",CONCATENATE("#define CH_",D3," ADC_CH",F3),"")</f>
         <v>#define CH_ACC_CENTRIFUGE ADC_CH1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>67</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="G4" t="str">
+      <c r="H4" t="str">
         <f t="shared" si="4"/>
         <v>#define VREF_MOINS PORTAbits.RA2</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <f t="shared" si="5"/>
         <v>TRISAbits.RA2=1; //VREF_MOINS</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
+    <row r="5" spans="2:11">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>68</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="G5" t="str">
+      <c r="H5" t="str">
         <f t="shared" si="4"/>
         <v>#define VREF_PLUS PORTAbits.RA3</v>
       </c>
-      <c r="H5" t="str">
+      <c r="I5" t="str">
         <f t="shared" si="5"/>
         <v>TRISAbits.RA3=1; //VREF_PLUS</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+    <row r="6" spans="2:11">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="G6" t="str">
+      <c r="H6" t="str">
         <f t="shared" si="4"/>
-        <v>#define LED_HAUT LATAbits.LATA4</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="5"/>
-        <v>TRISAbits.RA4=0; //LED_HAUT</v>
+        <v>#define LED_DROITE LATAbits.LATA4</v>
       </c>
       <c r="I6" t="str">
+        <f t="shared" si="5"/>
+        <v>TRISAbits.RA4=0; //LED_DROITE</v>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
+    <row r="7" spans="2:11">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="G7" t="str">
+      <c r="H7" t="str">
         <f t="shared" si="4"/>
         <v>#define ACC_Z PORTAbits.RA5</v>
       </c>
-      <c r="H7" t="str">
+      <c r="I7" t="str">
         <f t="shared" si="5"/>
         <v>TRISAbits.RA5=1; //ACC_Z</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <f t="shared" si="6"/>
         <v>ANSELAbits.ANSA5=1; //ACC_Z</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <f t="shared" si="7"/>
         <v>#define CH_ACC_Z ADC_CH4</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
+    <row r="8" spans="2:11">
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>64</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="G8" t="str">
+      <c r="H8" t="str">
         <f t="shared" si="4"/>
         <v>#define LED_CENTRE_VERTE LATAbits.LATA6</v>
       </c>
-      <c r="H8" t="str">
+      <c r="I8" t="str">
         <f t="shared" si="5"/>
         <v>TRISAbits.RA6=0; //LED_CENTRE_VERTE</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" s="12" customFormat="1">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="2:11" s="12" customFormat="1">
+      <c r="B9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="12">
+      <c r="C9" s="12">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="12">
+      <c r="E9" s="12">
         <v>0</v>
       </c>
-      <c r="G9" s="12" t="str">
-        <f t="shared" ref="G9:G12" si="8">IF(C9&lt;&gt;"",CONCATENATE("#define ",C9," ",IF(D9=0,"LAT","PORT"),A9,"bits.",IF(D9=0,"LAT","R"),A9,B9),"")</f>
+      <c r="H9" s="12" t="str">
+        <f t="shared" ref="H9:H12" si="8">IF(D9&lt;&gt;"",CONCATENATE("#define ",D9," ",IF(E9=0,"LAT","PORT"),B9,"bits.",IF(E9=0,"LAT","R"),B9,C9),"")</f>
         <v>#define LED_CENTRE_ORANGE LATAbits.LATA7</v>
       </c>
-      <c r="H9" s="12" t="str">
-        <f t="shared" ref="H9:H12" si="9">IF(C9&lt;&gt;"",CONCATENATE("TRIS",A9,"bits.","R",A9,B9,"=",D9,"; //",C9),"")</f>
+      <c r="I9" s="12" t="str">
+        <f t="shared" ref="I9:I12" si="9">IF(D9&lt;&gt;"",CONCATENATE("TRIS",B9,"bits.","R",B9,C9,"=",E9,"; //",D9),"")</f>
         <v>TRISAbits.RA7=0; //LED_CENTRE_ORANGE</v>
       </c>
-      <c r="I9" s="12" t="str">
-        <f t="shared" ref="I9:I12" si="10">IF(E9&lt;&gt;"",CONCATENATE("ANSEL",A9,"bits.","ANS",A9,B9,"=",D9,"; //",C9),"")</f>
-        <v/>
-      </c>
       <c r="J9" s="12" t="str">
-        <f t="shared" ref="J9:J12" si="11">IF(E9&lt;&gt;"",CONCATENATE("#define CH_",C9," ADC_CH",E9),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="12" customFormat="1">
-      <c r="A10" s="12" t="s">
+        <f t="shared" ref="J9:J12" si="10">IF(F9&lt;&gt;"",CONCATENATE("ANSEL",B9,"bits.","ANS",B9,C9,"=",E9,"; //",D9),"")</f>
+        <v/>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" ref="K9:K12" si="11">IF(F9&lt;&gt;"",CONCATENATE("#define CH_",D9," ADC_CH",F9),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="12" customFormat="1">
+      <c r="B10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="12">
+      <c r="C10" s="12">
         <v>0</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="12">
+      <c r="E10" s="12">
         <v>1</v>
       </c>
-      <c r="G10" s="12" t="str">
+      <c r="H10" s="12" t="str">
         <f t="shared" si="8"/>
         <v>#define ULTRASON_INT PORTBbits.RB0</v>
       </c>
-      <c r="H10" s="12" t="str">
+      <c r="I10" s="12" t="str">
         <f t="shared" si="9"/>
         <v>TRISBbits.RB0=1; //ULTRASON_INT</v>
       </c>
-      <c r="I10" s="12" t="str">
+      <c r="J10" s="12" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J10" s="12" t="str">
+      <c r="K10" s="12" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" s="12" customFormat="1">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="2:11" s="12" customFormat="1">
+      <c r="B11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="12">
+      <c r="C11" s="12">
         <v>1</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="12">
+      <c r="E11" s="12">
         <v>1</v>
       </c>
-      <c r="G11" s="12" t="str">
+      <c r="H11" s="12" t="str">
         <f t="shared" si="8"/>
         <v>#define SENS_G PORTBbits.RB1</v>
       </c>
-      <c r="H11" s="12" t="str">
+      <c r="I11" s="12" t="str">
         <f t="shared" si="9"/>
         <v>TRISBbits.RB1=1; //SENS_G</v>
       </c>
-      <c r="I11" s="12" t="str">
+      <c r="J11" s="12" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J11" s="12" t="str">
+      <c r="K11" s="12" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" s="12" customFormat="1">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="2:11" s="12" customFormat="1">
+      <c r="B12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="12">
+      <c r="C12" s="12">
         <v>2</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="12">
+      <c r="E12" s="12">
         <v>1</v>
       </c>
-      <c r="G12" s="12" t="str">
+      <c r="H12" s="12" t="str">
         <f t="shared" si="8"/>
         <v>#define SENS_D PORTBbits.RB2</v>
       </c>
-      <c r="H12" s="12" t="str">
+      <c r="I12" s="12" t="str">
         <f t="shared" si="9"/>
         <v>TRISBbits.RB2=1; //SENS_D</v>
       </c>
-      <c r="I12" s="12" t="str">
+      <c r="J12" s="12" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J12" s="12" t="str">
+      <c r="K12" s="12" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" s="12" customFormat="1">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="2:11" s="12" customFormat="1">
+      <c r="B13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="12">
+      <c r="C13" s="12">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="G13" s="12" t="str">
-        <f t="shared" ref="G13:G16" si="12">IF(C13&lt;&gt;"",CONCATENATE("#define ",C13," ",IF(D13=0,"LAT","PORT"),A13,"bits.",IF(D13=0,"LAT","R"),A13,B13),"")</f>
+      <c r="H13" s="12" t="str">
+        <f t="shared" ref="H13:H16" si="12">IF(D13&lt;&gt;"",CONCATENATE("#define ",D13," ",IF(E13=0,"LAT","PORT"),B13,"bits.",IF(E13=0,"LAT","R"),B13,C13),"")</f>
         <v>#define LED_GAUCHE LATBbits.LATB3</v>
       </c>
-      <c r="H13" s="12" t="str">
-        <f t="shared" ref="H13:H16" si="13">IF(C13&lt;&gt;"",CONCATENATE("TRIS",A13,"bits.","R",A13,B13,"=",D13,"; //",C13),"")</f>
+      <c r="I13" s="12" t="str">
+        <f t="shared" ref="I13:I16" si="13">IF(D13&lt;&gt;"",CONCATENATE("TRIS",B13,"bits.","R",B13,C13,"=",E13,"; //",D13),"")</f>
         <v>TRISBbits.RB3=0; //LED_GAUCHE</v>
       </c>
-      <c r="I13" s="12" t="str">
-        <f t="shared" ref="I13:I16" si="14">IF(E13&lt;&gt;"",CONCATENATE("ANSEL",A13,"bits.","ANS",A13,B13,"=",D13,"; //",C13),"")</f>
-        <v/>
-      </c>
       <c r="J13" s="12" t="str">
-        <f t="shared" ref="J13:J16" si="15">IF(E13&lt;&gt;"",CONCATENATE("#define CH_",C13," ADC_CH",E13),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
+        <f t="shared" ref="J13:J16" si="14">IF(F13&lt;&gt;"",CONCATENATE("ANSEL",B13,"bits.","ANS",B13,C13,"=",E13,"; //",D13),"")</f>
+        <v/>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f t="shared" ref="K13:K16" si="15">IF(F13&lt;&gt;"",CONCATENATE("#define CH_",D13," ADC_CH",F13),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
         <v>0</v>
       </c>
-      <c r="G14" s="12" t="str">
+      <c r="H14" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>#define LED_DROITE LATBbits.LATB4</v>
-      </c>
-      <c r="H14" s="12" t="str">
+        <v>#define LED_HAUT LATBbits.LATB4</v>
+      </c>
+      <c r="I14" s="12" t="str">
         <f t="shared" si="13"/>
-        <v>TRISBbits.RB4=0; //LED_DROITE</v>
-      </c>
-      <c r="I14" s="12" t="str">
+        <v>TRISBbits.RB4=0; //LED_HAUT</v>
+      </c>
+      <c r="J14" s="12" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="J14" s="12" t="str">
+      <c r="K14" s="12" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
+    <row r="15" spans="2:11">
+      <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>72</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="G15" s="12" t="str">
+      <c r="H15" s="12" t="str">
         <f t="shared" si="12"/>
         <v>#define CODEUR_GAUCHE PORTBbits.RB5</v>
       </c>
-      <c r="H15" s="12" t="str">
+      <c r="I15" s="12" t="str">
         <f t="shared" si="13"/>
         <v>TRISBbits.RB5=1; //CODEUR_GAUCHE</v>
       </c>
-      <c r="I15" s="12" t="str">
+      <c r="J15" s="12" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="J15" s="12" t="str">
+      <c r="K15" s="12" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
+    <row r="16" spans="2:11">
+      <c r="B16" t="s">
         <v>63</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>57</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="G16" s="12" t="str">
+      <c r="H16" s="12" t="str">
         <f t="shared" si="12"/>
         <v>#define PATTE_PGC PORTBbits.RB6</v>
       </c>
-      <c r="H16" s="12" t="str">
+      <c r="I16" s="12" t="str">
         <f t="shared" si="13"/>
         <v>TRISBbits.RB6=1; //PATTE_PGC</v>
       </c>
-      <c r="I16" s="12" t="str">
+      <c r="J16" s="12" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="J16" s="12" t="str">
+      <c r="K16" s="12" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
+    <row r="17" spans="1:11">
+      <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="G17" t="str">
+      <c r="H17" t="str">
         <f t="shared" si="4"/>
         <v>#define PATTE_PGD PORTBbits.RB7</v>
       </c>
-      <c r="H17" t="str">
+      <c r="I17" t="str">
         <f t="shared" si="5"/>
         <v>TRISBbits.RB7=1; //PATTE_PGD</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J17" t="str">
+      <c r="K17" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
+    <row r="18" spans="1:11">
+      <c r="B18" t="s">
         <v>61</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>73</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="G18" t="str">
+      <c r="H18" t="str">
         <f t="shared" si="4"/>
         <v>#define CODEUR_DROITE PORTCbits.RC0</v>
       </c>
-      <c r="H18" t="str">
+      <c r="I18" t="str">
         <f t="shared" si="5"/>
         <v>TRISCbits.RC0=1; //CODEUR_DROITE</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J18" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" t="str">
+      <c r="K18" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
+    <row r="19" spans="1:11">
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>42</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0</v>
       </c>
-      <c r="G19" t="str">
+      <c r="H19" t="str">
         <f t="shared" si="4"/>
         <v>#define LED_TEMOIN LATCbits.LATC1</v>
       </c>
-      <c r="H19" t="str">
+      <c r="I19" t="str">
         <f t="shared" si="5"/>
         <v>TRISCbits.RC1=0; //LED_TEMOIN</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="G20" t="str">
+      <c r="H20" t="str">
         <f t="shared" si="4"/>
         <v>#define BOUTON_VERT PORTCbits.RC2</v>
       </c>
-      <c r="H20" t="str">
+      <c r="I20" t="str">
         <f t="shared" si="5"/>
         <v>TRISCbits.RC2=1; //BOUTON_VERT</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J20" t="str">
+      <c r="K20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
         <v>61</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>44</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1</v>
       </c>
-      <c r="G21" t="str">
+      <c r="H21" t="str">
         <f t="shared" si="4"/>
         <v>#define BOUTON_ROUGE PORTCbits.RC3</v>
       </c>
-      <c r="H21" t="str">
+      <c r="I21" t="str">
         <f t="shared" si="5"/>
         <v>TRISCbits.RC3=1; //BOUTON_ROUGE</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J21" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J21" t="str">
+      <c r="K21" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
+    <row r="22" spans="1:11">
+      <c r="B22" t="s">
         <v>61</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>4</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>41</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0</v>
       </c>
-      <c r="G22" t="str">
+      <c r="H22" t="str">
         <f t="shared" si="4"/>
         <v>#define LED_ERREUR LATCbits.LATC4</v>
       </c>
-      <c r="H22" t="str">
+      <c r="I22" t="str">
         <f t="shared" si="5"/>
         <v>TRISCbits.RC4=0; //LED_ERREUR</v>
       </c>
-      <c r="I22" t="str">
+      <c r="J22" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J22" t="str">
+      <c r="K22" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
+    <row r="23" spans="1:11">
+      <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>5</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>37</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0</v>
       </c>
-      <c r="G23" t="str">
+      <c r="H23" t="str">
         <f t="shared" si="4"/>
         <v>#define LED_BAS LATCbits.LATC5</v>
       </c>
-      <c r="H23" t="str">
+      <c r="I23" t="str">
         <f t="shared" si="5"/>
         <v>TRISCbits.RC5=0; //LED_BAS</v>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J23" t="str">
+      <c r="K23" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
+    <row r="24" spans="1:11">
+      <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>6</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>52</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0</v>
       </c>
-      <c r="G24" t="str">
+      <c r="H24" t="str">
         <f t="shared" si="4"/>
         <v>#define USART_TX1 LATCbits.LATC6</v>
       </c>
-      <c r="H24" t="str">
+      <c r="I24" t="str">
         <f t="shared" si="5"/>
         <v>TRISCbits.RC6=0; //USART_TX1</v>
       </c>
-      <c r="I24" t="str">
+      <c r="J24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J24" t="str">
+      <c r="K24" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
+    <row r="25" spans="1:11">
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>7</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>50</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="G25" t="str">
+      <c r="H25" t="str">
         <f t="shared" si="4"/>
         <v>#define USART_RX1 PORTCbits.RC7</v>
       </c>
-      <c r="H25" t="str">
+      <c r="I25" t="str">
         <f t="shared" si="5"/>
         <v>TRISCbits.RC7=1; //USART_RX1</v>
       </c>
-      <c r="I25" t="str">
+      <c r="J25" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J25" t="str">
+      <c r="K25" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
+    <row r="26" spans="1:11">
+      <c r="B26" t="s">
         <v>62</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>0</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>71</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="G26" t="str">
+      <c r="H26" t="str">
         <f t="shared" si="4"/>
         <v>#define SCL2_RES PORTDbits.RD0</v>
       </c>
-      <c r="H26" t="str">
+      <c r="I26" t="str">
         <f t="shared" si="5"/>
         <v>TRISDbits.RD0=1; //SCL2_RES</v>
       </c>
-      <c r="I26" t="str">
+      <c r="J26" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J26" t="str">
+      <c r="K26" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
+    <row r="27" spans="1:11">
+      <c r="B27" t="s">
         <v>62</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>70</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="G27" t="str">
+      <c r="H27" t="str">
         <f t="shared" si="4"/>
         <v>#define SDA2_RES PORTDbits.RD1</v>
       </c>
-      <c r="H27" t="str">
+      <c r="I27" t="str">
         <f t="shared" si="5"/>
         <v>TRISDbits.RD1=1; //SDA2_RES</v>
       </c>
-      <c r="I27" t="str">
+      <c r="J27" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J27" t="str">
+      <c r="K27" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
+    <row r="28" spans="1:11">
+      <c r="B28" t="s">
         <v>62</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>55</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0</v>
       </c>
-      <c r="G28" t="str">
+      <c r="H28" t="str">
         <f t="shared" si="4"/>
         <v>#define LED_USART2 LATDbits.LATD2</v>
       </c>
-      <c r="H28" t="str">
+      <c r="I28" t="str">
         <f t="shared" si="5"/>
         <v>TRISDbits.RD2=0; //LED_USART2</v>
       </c>
-      <c r="I28" t="str">
+      <c r="J28" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J28" t="str">
+      <c r="K28" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
+    <row r="29" spans="1:11">
+      <c r="B29" t="s">
         <v>62</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>54</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0</v>
       </c>
-      <c r="G29" t="str">
+      <c r="H29" t="str">
         <f t="shared" si="4"/>
         <v>#define LED_USART1 LATDbits.LATD3</v>
       </c>
-      <c r="H29" t="str">
+      <c r="I29" t="str">
         <f t="shared" si="5"/>
         <v>TRISDbits.RD3=0; //LED_USART1</v>
       </c>
-      <c r="I29" t="str">
+      <c r="J29" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J29" t="str">
+      <c r="K29" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
+    <row r="30" spans="1:11">
+      <c r="B30" t="s">
         <v>62</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>4</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0</v>
       </c>
-      <c r="G30" t="str">
+      <c r="H30" t="str">
         <f t="shared" si="4"/>
         <v>#define ULTRASON_TRIG LATDbits.LATD4</v>
       </c>
-      <c r="H30" t="str">
+      <c r="I30" t="str">
         <f t="shared" si="5"/>
         <v>TRISDbits.RD4=0; //ULTRASON_TRIG</v>
       </c>
-      <c r="I30" t="str">
+      <c r="J30" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J30" t="str">
+      <c r="K30" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
+    <row r="31" spans="1:11">
+      <c r="B31" t="s">
         <v>62</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>5</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>58</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1</v>
       </c>
-      <c r="G31" t="str">
+      <c r="H31" t="str">
         <f t="shared" si="4"/>
         <v>#define BOUTON_LIMITATION PORTDbits.RD5</v>
       </c>
-      <c r="H31" t="str">
+      <c r="I31" t="str">
         <f t="shared" si="5"/>
         <v>TRISDbits.RD5=1; //BOUTON_LIMITATION</v>
       </c>
-      <c r="I31" t="str">
+      <c r="J31" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J31" t="str">
+      <c r="K31" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
+    <row r="32" spans="1:11">
+      <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>6</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>53</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0</v>
       </c>
-      <c r="G32" t="str">
+      <c r="H32" t="str">
         <f t="shared" si="4"/>
         <v>#define USART_TX2 LATDbits.LATD6</v>
       </c>
-      <c r="H32" t="str">
+      <c r="I32" t="str">
         <f t="shared" si="5"/>
         <v>TRISDbits.RD6=0; //USART_TX2</v>
       </c>
-      <c r="I32" t="str">
+      <c r="J32" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J32" t="str">
+      <c r="K32" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
+    <row r="33" spans="2:11">
+      <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>7</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>51</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>1</v>
       </c>
-      <c r="G33" t="str">
+      <c r="H33" t="str">
         <f t="shared" si="4"/>
         <v>#define USART_RX2 PORTDbits.RD7</v>
       </c>
-      <c r="H33" t="str">
+      <c r="I33" t="str">
         <f t="shared" si="5"/>
         <v>TRISDbits.RD7=1; //USART_RX2</v>
       </c>
-      <c r="I33" t="str">
+      <c r="J33" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J33" t="str">
+      <c r="K33" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
+    <row r="34" spans="2:11">
+      <c r="B34" t="s">
         <v>60</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>0</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>59</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>5</v>
       </c>
-      <c r="G34" t="str">
+      <c r="H34" t="str">
         <f t="shared" si="4"/>
         <v>#define POTENTIOMETRE_GUIDON PORTEbits.RE0</v>
       </c>
-      <c r="H34" t="str">
+      <c r="I34" t="str">
         <f t="shared" si="5"/>
         <v>TRISEbits.RE0=1; //POTENTIOMETRE_GUIDON</v>
       </c>
-      <c r="I34" t="str">
+      <c r="J34" t="str">
         <f t="shared" si="6"/>
         <v>ANSELEbits.ANSE0=1; //POTENTIOMETRE_GUIDON</v>
       </c>
-      <c r="J34" t="str">
+      <c r="K34" t="str">
         <f t="shared" si="7"/>
         <v>#define CH_POTENTIOMETRE_GUIDON ADC_CH5</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
+    <row r="35" spans="2:11">
+      <c r="B35" t="s">
         <v>60</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>49</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>6</v>
       </c>
-      <c r="G35" t="str">
+      <c r="H35" t="str">
         <f t="shared" si="4"/>
         <v>#define BATTERIE PORTEbits.RE1</v>
       </c>
-      <c r="H35" t="str">
+      <c r="I35" t="str">
         <f t="shared" si="5"/>
         <v>TRISEbits.RE1=1; //BATTERIE</v>
       </c>
-      <c r="I35" t="str">
+      <c r="J35" t="str">
         <f t="shared" si="6"/>
         <v>ANSELEbits.ANSE1=1; //BATTERIE</v>
       </c>
-      <c r="J35" t="str">
+      <c r="K35" t="str">
         <f t="shared" si="7"/>
         <v>#define CH_BATTERIE ADC_CH6</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
+    <row r="36" spans="2:11">
+      <c r="B36" t="s">
         <v>60</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>2</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>46</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>7</v>
       </c>
-      <c r="G36" t="str">
+      <c r="H36" t="str">
         <f t="shared" si="4"/>
         <v>#define ACC_X PORTEbits.RE2</v>
       </c>
-      <c r="H36" t="str">
+      <c r="I36" t="str">
         <f t="shared" si="5"/>
         <v>TRISEbits.RE2=1; //ACC_X</v>
       </c>
-      <c r="I36" t="str">
+      <c r="J36" t="str">
         <f t="shared" si="6"/>
         <v>ANSELEbits.ANSE2=1; //ACC_X</v>
       </c>
-      <c r="J36" t="str">
+      <c r="K36" t="str">
         <f t="shared" si="7"/>
         <v>#define CH_ACC_X ADC_CH7</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
+    <row r="37" spans="2:11">
+      <c r="B37" t="s">
         <v>60</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>3</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>69</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1</v>
       </c>
-      <c r="G37" t="str">
+      <c r="H37" t="str">
         <f t="shared" si="4"/>
         <v>#define MCLR_VPP PORTEbits.RE3</v>
       </c>
-      <c r="H37" t="str">
+      <c r="I37" t="str">
         <f t="shared" si="5"/>
         <v>TRISEbits.RE3=1; //MCLR_VPP</v>
       </c>
-      <c r="I37" t="str">
+      <c r="J37" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J37" t="str">
+      <c r="K37" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="G38" t="str">
+    <row r="38" spans="2:11">
+      <c r="H38" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H38" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I38" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J38" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J38" t="str">
+      <c r="K38" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="G39" t="str">
+    <row r="39" spans="2:11">
+      <c r="H39" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H39" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I39" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J39" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J39" t="str">
+      <c r="K39" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="G40" t="str">
+    <row r="40" spans="2:11">
+      <c r="H40" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H40" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I40" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J40" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J40" t="str">
+      <c r="K40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="G41" t="str">
+    <row r="41" spans="2:11">
+      <c r="H41" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H41" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I41" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J41" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J41" t="str">
+      <c r="K41" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="G42" t="str">
+    <row r="42" spans="2:11">
+      <c r="H42" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H42" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J42" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J42" t="str">
+      <c r="K42" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="G43" t="str">
+    <row r="43" spans="2:11">
+      <c r="H43" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H43" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I43" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J43" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J43" t="str">
+      <c r="K43" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="G44" t="str">
+    <row r="44" spans="2:11">
+      <c r="H44" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H44" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I44" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J44" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J44" t="str">
+      <c r="K44" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="G45" t="str">
+    <row r="45" spans="2:11">
+      <c r="H45" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H45" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I45" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J45" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J45" t="str">
+      <c r="K45" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="G46" t="str">
+    <row r="46" spans="2:11">
+      <c r="H46" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H46" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I46" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J46" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J46" t="str">
+      <c r="K46" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="G47" t="str">
+    <row r="47" spans="2:11">
+      <c r="H47" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H47" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I47" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J47" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J47" t="str">
+      <c r="K47" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="G48" t="str">
+    <row r="48" spans="2:11">
+      <c r="H48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H48" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I48" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J48" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J48" t="str">
+      <c r="K48" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="7:10">
-      <c r="G49" t="str">
+    <row r="49" spans="8:11">
+      <c r="H49" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H49" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I49" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J49" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J49" t="str">
+      <c r="K49" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="7:10">
-      <c r="G50" t="str">
+    <row r="50" spans="8:11">
+      <c r="H50" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H50" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I50" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J50" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J50" t="str">
+      <c r="K50" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="7:10">
-      <c r="G51" t="str">
+    <row r="51" spans="8:11">
+      <c r="H51" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H51" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I51" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J51" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J51" t="str">
+      <c r="K51" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="7:10">
-      <c r="G52" t="str">
+    <row r="52" spans="8:11">
+      <c r="H52" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H52" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I52" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J52" t="str">
+      <c r="K52" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="7:10">
-      <c r="G53" t="str">
+    <row r="53" spans="8:11">
+      <c r="H53" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H53" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I53" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J53" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J53" t="str">
+      <c r="K53" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="7:10">
-      <c r="G54" t="str">
+    <row r="54" spans="8:11">
+      <c r="H54" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H54" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J54" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J54" t="str">
+      <c r="K54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="7:10">
-      <c r="G55" t="str">
+    <row r="55" spans="8:11">
+      <c r="H55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H55" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I55" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J55" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J55" t="str">
+      <c r="K55" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="7:10">
-      <c r="G56" t="str">
+    <row r="56" spans="8:11">
+      <c r="H56" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H56" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I56" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J56" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J56" t="str">
+      <c r="K56" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="7:10">
-      <c r="G57" t="str">
+    <row r="57" spans="8:11">
+      <c r="H57" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H57" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I57" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J57" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J57" t="str">
+      <c r="K57" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="7:10">
-      <c r="G58" t="str">
+    <row r="58" spans="8:11">
+      <c r="H58" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H58" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I58" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J58" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J58" t="str">
+      <c r="K58" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="7:10">
-      <c r="G59" t="str">
+    <row r="59" spans="8:11">
+      <c r="H59" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H59" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I59" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J59" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J59" t="str">
+      <c r="K59" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="7:10">
-      <c r="G60" t="str">
+    <row r="60" spans="8:11">
+      <c r="H60" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H60" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I60" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J60" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J60" t="str">
+      <c r="K60" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="7:10">
-      <c r="G61" t="str">
+    <row r="61" spans="8:11">
+      <c r="H61" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H61" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I61" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J61" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J61" t="str">
+      <c r="K61" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="7:10">
-      <c r="G62" t="str">
+    <row r="62" spans="8:11">
+      <c r="H62" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H62" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I62" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J62" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J62" t="str">
+      <c r="K62" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="7:10">
-      <c r="G63" t="str">
+    <row r="63" spans="8:11">
+      <c r="H63" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H63" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I63" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J63" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J63" t="str">
+      <c r="K63" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="7:10">
-      <c r="G64" t="str">
+    <row r="64" spans="8:11">
+      <c r="H64" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H64" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="I64" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J64" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J64" t="str">
+      <c r="K64" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="7:10">
-      <c r="G65" t="str">
-        <f t="shared" ref="G65:G91" si="16">IF(C65&lt;&gt;"",CONCATENATE("#define ",C65," ",IF(D65=1,"LAT","PORT"),A65,"bits.",IF(D65=1,"LAT","R"),A65,B65),"")</f>
-        <v/>
-      </c>
+    <row r="65" spans="8:11">
       <c r="H65" t="str">
-        <f t="shared" ref="H65:H91" si="17">IF(C65&lt;&gt;"",CONCATENATE("TRIS",A65,"bits.","R",A65,B65,"=",D65,"; //",C65),"")</f>
+        <f t="shared" ref="H65:H91" si="16">IF(D65&lt;&gt;"",CONCATENATE("#define ",D65," ",IF(E65=1,"LAT","PORT"),B65,"bits.",IF(E65=1,"LAT","R"),B65,C65),"")</f>
         <v/>
       </c>
       <c r="I65" t="str">
-        <f t="shared" ref="I65:I72" si="18">IF(E65&lt;&gt;"",CONCATENATE("ANSEL",A65,"bits.","ANS",A65,B65,"=",D65,"; //",C65),"")</f>
+        <f t="shared" ref="I65:I91" si="17">IF(D65&lt;&gt;"",CONCATENATE("TRIS",B65,"bits.","R",B65,C65,"=",E65,"; //",D65),"")</f>
         <v/>
       </c>
       <c r="J65" t="str">
-        <f t="shared" ref="J65:J72" si="19">IF(E65&lt;&gt;"",CONCATENATE("#define CH_",C65," ADC_CH",E65),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="7:10">
-      <c r="G66" t="str">
+        <f t="shared" ref="J65:J72" si="18">IF(F65&lt;&gt;"",CONCATENATE("ANSEL",B65,"bits.","ANS",B65,C65,"=",E65,"; //",D65),"")</f>
+        <v/>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" ref="K65:K72" si="19">IF(F65&lt;&gt;"",CONCATENATE("#define CH_",D65," ADC_CH",F65),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="8:11">
+      <c r="H66" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H66" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I66" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J66" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="J66" t="str">
+      <c r="K66" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="7:10">
-      <c r="G67" t="str">
+    <row r="67" spans="8:11">
+      <c r="H67" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H67" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I67" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J67" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="J67" t="str">
+      <c r="K67" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="7:10">
-      <c r="G68" t="str">
+    <row r="68" spans="8:11">
+      <c r="H68" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H68" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I68" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J68" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="J68" t="str">
+      <c r="K68" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="7:10">
-      <c r="G69" t="str">
+    <row r="69" spans="8:11">
+      <c r="H69" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H69" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I69" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J69" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="J69" t="str">
+      <c r="K69" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="7:10">
-      <c r="G70" t="str">
+    <row r="70" spans="8:11">
+      <c r="H70" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H70" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I70" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J70" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="J70" t="str">
+      <c r="K70" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="7:10">
-      <c r="G71" t="str">
+    <row r="71" spans="8:11">
+      <c r="H71" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H71" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I71" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J71" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="J71" t="str">
+      <c r="K71" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="7:10">
-      <c r="G72" t="str">
+    <row r="72" spans="8:11">
+      <c r="H72" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H72" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I72" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J72" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="J72" t="str">
+      <c r="K72" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="7:10">
-      <c r="G73" t="str">
+    <row r="73" spans="8:11">
+      <c r="H73" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H73" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I73" t="str">
-        <f t="shared" ref="I73:I91" si="20">IF(E73&lt;&gt;"",CONCATENATE("ANSEL",A73,"bits.","ANS",A73,B73,"=",D73,"; //",C73),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J73" t="str">
-        <f t="shared" ref="J73:J91" si="21">IF(E73&lt;&gt;"",CONCATENATE("#define CH_",C73," ADC_CH",E73),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="7:10">
-      <c r="G74" t="str">
+        <f t="shared" ref="J73:J91" si="20">IF(F73&lt;&gt;"",CONCATENATE("ANSEL",B73,"bits.","ANS",B73,C73,"=",E73,"; //",D73),"")</f>
+        <v/>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" ref="K73:K91" si="21">IF(F73&lt;&gt;"",CONCATENATE("#define CH_",D73," ADC_CH",F73),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="8:11">
+      <c r="H74" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H74" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I74" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J74" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J74" t="str">
+      <c r="K74" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="7:10">
-      <c r="G75" t="str">
+    <row r="75" spans="8:11">
+      <c r="H75" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H75" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I75" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J75" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J75" t="str">
+      <c r="K75" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="7:10">
-      <c r="G76" t="str">
+    <row r="76" spans="8:11">
+      <c r="H76" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H76" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I76" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J76" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J76" t="str">
+      <c r="K76" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="7:10">
-      <c r="G77" t="str">
+    <row r="77" spans="8:11">
+      <c r="H77" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H77" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I77" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J77" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J77" t="str">
+      <c r="K77" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="7:10">
-      <c r="G78" t="str">
+    <row r="78" spans="8:11">
+      <c r="H78" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H78" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I78" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J78" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J78" t="str">
+      <c r="K78" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="7:10">
-      <c r="G79" t="str">
+    <row r="79" spans="8:11">
+      <c r="H79" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H79" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I79" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J79" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J79" t="str">
+      <c r="K79" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="7:10">
-      <c r="G80" t="str">
+    <row r="80" spans="8:11">
+      <c r="H80" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H80" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I80" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J80" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J80" t="str">
+      <c r="K80" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="7:10">
-      <c r="G81" t="str">
+    <row r="81" spans="8:11">
+      <c r="H81" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H81" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I81" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J81" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J81" t="str">
+      <c r="K81" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="7:10">
-      <c r="G82" t="str">
+    <row r="82" spans="8:11">
+      <c r="H82" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H82" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I82" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J82" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J82" t="str">
+      <c r="K82" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="7:10">
-      <c r="G83" t="str">
+    <row r="83" spans="8:11">
+      <c r="H83" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H83" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I83" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J83" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J83" t="str">
+      <c r="K83" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="7:10">
-      <c r="G84" t="str">
+    <row r="84" spans="8:11">
+      <c r="H84" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H84" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I84" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J84" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J84" t="str">
+      <c r="K84" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="7:10">
-      <c r="G85" t="str">
+    <row r="85" spans="8:11">
+      <c r="H85" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H85" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I85" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J85" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J85" t="str">
+      <c r="K85" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="7:10">
-      <c r="G86" t="str">
+    <row r="86" spans="8:11">
+      <c r="H86" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H86" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I86" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J86" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J86" t="str">
+      <c r="K86" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="7:10">
-      <c r="G87" t="str">
+    <row r="87" spans="8:11">
+      <c r="H87" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H87" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I87" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J87" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J87" t="str">
+      <c r="K87" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="7:10">
-      <c r="G88" t="str">
+    <row r="88" spans="8:11">
+      <c r="H88" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H88" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I88" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J88" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J88" t="str">
+      <c r="K88" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="7:10">
-      <c r="G89" t="str">
+    <row r="89" spans="8:11">
+      <c r="H89" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H89" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I89" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J89" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J89" t="str">
+      <c r="K89" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="7:10">
-      <c r="G90" t="str">
+    <row r="90" spans="8:11">
+      <c r="H90" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H90" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I90" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J90" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J90" t="str">
+      <c r="K90" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="7:10">
-      <c r="G91" t="str">
+    <row r="91" spans="8:11">
+      <c r="H91" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H91" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="I91" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J91" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="J91" t="str">
+      <c r="K91" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J86">
-    <sortCondition ref="A2:A86"/>
+  <sortState ref="B2:K86">
     <sortCondition ref="B2:B86"/>
+    <sortCondition ref="C2:C86"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProgrammePrincipal/generateur de noms de trame.xlsx
+++ b/ProgrammePrincipal/generateur de noms de trame.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="COM" sheetId="1" r:id="rId1"/>
     <sheet name="TRIS" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="138">
   <si>
     <t>CON</t>
   </si>
@@ -306,37 +305,130 @@
     <t>DEMANDE_COEFFICIENTS</t>
   </si>
   <si>
-    <t xml:space="preserve">Envoi du PC, renvoyé directement par le PIC pour tester la com (Valeur float </t>
-  </si>
-  <si>
-    <t>Envoi pour le départ de l'asservissement</t>
-  </si>
-  <si>
-    <t>Envoi de l'arrêt de l'asservissement</t>
-  </si>
-  <si>
-    <t>Envoi du PIC(Liste des états voir variablesGlobales.h)</t>
-  </si>
-  <si>
-    <t>inf etat couple voir global.h</t>
-  </si>
-  <si>
-    <t>indicateur pic-&gt;pc; normalement en % de charge, pour l'instant valeur du can</t>
-  </si>
-  <si>
-    <t>boolean (voyant) rouge ou vert. Vert=0, rouge sinon</t>
-  </si>
-  <si>
-    <t>pic-&gt;pc graphique</t>
-  </si>
-  <si>
-    <t>asserv.c ; tableau de case a cocher</t>
-  </si>
-  <si>
-    <t>pic-&gt;pc ce que j'avais en memeoire</t>
-  </si>
-  <si>
     <t>attention, tirage haut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envoi du PC, renvoyé directement par le PIC pour tester la com (Valeur en float). Sortie de ping </t>
+  </si>
+  <si>
+    <t>pc-&gt; pic</t>
+  </si>
+  <si>
+    <t>pic-&gt;pc</t>
+  </si>
+  <si>
+    <t>Pour initier de force le départ de l'asservissement</t>
+  </si>
+  <si>
+    <t>Pour ordonner l'arrêt de l'asservissement de force. Atttention, l'utilisateur peut tomber</t>
+  </si>
+  <si>
+    <t>Pour renseigner l'etat (marche / arret…) Definition des etat dans inf_demandeOnOff</t>
+  </si>
+  <si>
+    <t>Pour renseigner sur l'etat de la batterie. Pour l'instant cette valeur = celle du CAN</t>
+  </si>
+  <si>
+    <t>Indique si l'angle de tangage calculé est hors limite. ok=0, hors limite =1</t>
+  </si>
+  <si>
+    <t>Float : angle de tangage</t>
+  </si>
+  <si>
+    <t>Float :  vitesse angulaire de l'angle de tangage</t>
+  </si>
+  <si>
+    <t>Short : valeur de la variable verbose</t>
+  </si>
+  <si>
+    <t>Pour modifier les envois périodiques d'information (voir la définition de verbose dans la javadoc)</t>
+  </si>
+  <si>
+    <t>Pour demander l'envoi des coefficcients statiques (les constantes enregistrées dans l'eeprom)</t>
+  </si>
+  <si>
+    <t>Float : vitesse de la roue droite</t>
+  </si>
+  <si>
+    <t>Float : vitesse de la roue gauche</t>
+  </si>
+  <si>
+    <t>Float : distance parcourue</t>
+  </si>
+  <si>
+    <t>Float : accélération moyenne</t>
+  </si>
+  <si>
+    <t>Demander au pic de recharger les constantes de vitesse à partir du contenu de l'eeprom</t>
+  </si>
+  <si>
+    <t>Demander au pic d'écraser les constantes de vitesse de l'eeprom avec les valeurs en mémoire ram</t>
+  </si>
+  <si>
+    <t>Demander au pic de recharger les constantes d'asservissement à partir du contenu de l'eeprom</t>
+  </si>
+  <si>
+    <t>Demander au pic d'écraser les constantes d'asservissement de l'eeprom avec les valeurs en mémoire ram</t>
+  </si>
+  <si>
+    <t>Demander au pic de recharger les constantes de démarrage à partir du contenu de l'eeprom</t>
+  </si>
+  <si>
+    <t>Demander au pic d'écraser les constantes de démarrage de l'eeprom avec les valeurs en mémoire ram</t>
+  </si>
+  <si>
+    <t>&lt;-&gt;</t>
+  </si>
+  <si>
+    <t>CON(pc-&gt;carte courant) : modifier la valeur du coefficient, INF (carte courant-&gt;pc) : la valeur actuellement en mémoire</t>
+  </si>
+  <si>
+    <t>CON (pc-&gt;pic) : modifier la valeur du coefficient, INF (pic-&gt;pc) : la valeur actuellement en mémoire ; coef K du pd</t>
+  </si>
+  <si>
+    <t>CON (pc-&gt;pic) : modifier la valeur du coefficient, INF (pic-&gt;pc) : la valeur actuellement en mémoire ; coef D du PD</t>
+  </si>
+  <si>
+    <t>CON (pc-&gt;pic) : modifier la valeur du coefficient, INF (pic-&gt;pc) : la valeur actuellement en mémoire ; coef K du la direction</t>
+  </si>
+  <si>
+    <t>CON (pc-&gt;pic) : modifier la valeur du coefficient, INF (pic-&gt;pc) : la valeur actuellement en mémoire ; coef a du filtre</t>
+  </si>
+  <si>
+    <t>CON (pc-&gt;pic) : modifier la valeur du coefficient, INF (pic-&gt;pc) : la valeur actuellement en mémoire ; coef de lissage</t>
+  </si>
+  <si>
+    <t>CON (pc-&gt;pic) : modifier la valeur du coefficient, INF (pic-&gt;pc) : la valeur actuellement en mémoire ; valeur de vitesse de rotation max</t>
+  </si>
+  <si>
+    <t>CON (pc-&gt;pic) : modifier la valeur du coefficient, INF (pic-&gt;pc) : la valeur actuellement en mémoire ; distance min de l'utilisateur</t>
+  </si>
+  <si>
+    <t>CON (pc-&gt;pic) : modifier la valeur du coefficient, INF (pic-&gt;pc) : la valeur actuellement en mémoire ; angle du guidon acceptable pour le démarrage</t>
+  </si>
+  <si>
+    <t>CON (pc-&gt;pic) : modifier la valeur du coefficient, INF (pic-&gt;pc) : la valeur actuellement en mémoire ; angle de tangage acceptable pour le démarrage</t>
+  </si>
+  <si>
+    <t>CON (pc-&gt;pic) : modifier la valeur du coefficient, INF (pic-&gt;pc) : la valeur actuellement en mémoire ; duree d'attente avant démarrage</t>
+  </si>
+  <si>
+    <t>CON (pc-&gt;pic) : modifier la valeur du coefficient, INF (pic-&gt;pc) : la valeur actuellement en mémoire ; vitesse de bridée</t>
+  </si>
+  <si>
+    <t>CON (pc-&gt;pic) : modifier la valeur du coefficient, INF (pic-&gt;pc) : la valeur actuellement en mémoire ; seuil de déclenchement du boost</t>
+  </si>
+  <si>
+    <t>CON (pc-&gt;pic) : modifier la valeur du coefficient, INF (pic-&gt;pc) : la valeur actuellement en mémoire ; variable interne au boost</t>
+  </si>
+  <si>
+    <t>cc-&gt;pic</t>
+  </si>
+  <si>
+    <t>La carte couple signale au pic qu'elle est prete à recevoir des ordres</t>
+  </si>
+  <si>
+    <t>La carte couple signale une erreur au pic qu'elle est prete à recevoir des ordres. La liste des erreur est décrite dans inf_etatCouple</t>
   </si>
 </sst>
 </file>
@@ -360,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +495,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -431,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -448,6 +546,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K188"/>
+  <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" activeCellId="1" sqref="C2:C62 F2:G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -755,14 +855,15 @@
     <col min="3" max="3" width="29.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="108.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="129.28515625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="55.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="108.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1">
+    <row r="1" spans="1:12" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
@@ -778,13 +879,14 @@
       <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -797,31 +899,31 @@
       <c r="E2" s="9">
         <v>4</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="1" t="str">
         <f>IF(B2&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B2,"_",C2," ",IF(B2="CON",128,0)+D2),"")</f>
         <v>#define TYPE_TRAME_CON_TEST_COM 129</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="I2" s="1" t="str">
         <f>IF(B2&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B2,"_",C2," ",E2),"")</f>
         <v>#define LG_TRAME_CON_TEST_COM 4</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <f>IF(B2&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B2,"_",C2,": ","curTrameLength= LG_TRAME_",B2,"_",C2," ; break;"),"")</f>
         <v>case TYPE_TRAME_CON_TEST_COM: curTrameLength= LG_TRAME_CON_TEST_COM ; break;</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <f>IF(B2&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B2,"_",C2,":   ; break;"),"")</f>
         <v>case TYPE_TRAME_CON_TEST_COM:   ; break;</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <f>IF(B2="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B2,"_",C2,",(void*)(&amp;",C2,"),LG_TRAME_",B2,"_",C2,");"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -834,31 +936,34 @@
       <c r="E3" s="9">
         <v>0</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G66" si="0">IF(B3&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B3,"_",C3," ",IF(B3="CON",128,0)+D3),"")</f>
+      <c r="F3" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H67" si="0">IF(B3&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B3,"_",C3," ",IF(B3="CON",128,0)+D3),"")</f>
         <v>#define TYPE_TRAME_CON_DEPART 130</v>
       </c>
-      <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H66" si="1">IF(B3&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B3,"_",C3," ",E3),"")</f>
+      <c r="I3" s="1" t="str">
+        <f t="shared" ref="I3:I67" si="1">IF(B3&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B3,"_",C3," ",E3),"")</f>
         <v>#define LG_TRAME_CON_DEPART 0</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I66" si="2">IF(B3&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B3,"_",C3,": ","curTrameLength= LG_TRAME_",B3,"_",C3," ; break;"),"")</f>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J67" si="2">IF(B3&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B3,"_",C3,": ","curTrameLength= LG_TRAME_",B3,"_",C3," ; break;"),"")</f>
         <v>case TYPE_TRAME_CON_DEPART: curTrameLength= LG_TRAME_CON_DEPART ; break;</v>
       </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J66" si="3">IF(B3&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B3,"_",C3,":   ; break;"),"")</f>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K67" si="3">IF(B3&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B3,"_",C3,":   ; break;"),"")</f>
         <v>case TYPE_TRAME_CON_DEPART:   ; break;</v>
       </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K4" si="4">IF(B3="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B3,"_",C3,",(void*)(&amp;",C3,"),LG_TRAME_",B3,"_",C3,");"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L4" si="4">IF(B3="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B3,"_",C3,",(void*)(&amp;",C3,"),LG_TRAME_",B3,"_",C3,");"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -871,31 +976,34 @@
       <c r="E4" s="9">
         <v>0</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_STOP 131</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="I4" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_STOP 0</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_STOP: curTrameLength= LG_TRAME_CON_STOP ; break;</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_STOP:   ; break;</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -908,31 +1016,34 @@
       <c r="E5" s="9">
         <v>1</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_ETAT 1</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="I5" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ETAT 1</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_ETAT: curTrameLength= LG_TRAME_INF_ETAT ; break;</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_ETAT:   ; break;</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f>IF(B5="INF",CONCATENATE("if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_",B5,"_",C5,",(void*)(&amp;",C5,"),LG_TRAME_",B5,"_",C5,");"),"")</f>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_ETAT,(void*)(&amp;ETAT),LG_TRAME_INF_ETAT);</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -945,31 +1056,34 @@
       <c r="E6" s="9">
         <v>4</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="1" t="str">
+      <c r="F6" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_ETAT_BATTERIE 4</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="I6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ETAT_BATTERIE 4</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_ETAT_BATTERIE: curTrameLength= LG_TRAME_INF_ETAT_BATTERIE ; break;</v>
       </c>
-      <c r="J6" t="str">
+      <c r="K6" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_ETAT_BATTERIE:   ; break;</v>
       </c>
-      <c r="K6" t="str">
-        <f t="shared" ref="K6:K28" si="5">IF(B6="INF",CONCATENATE("if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_",B6,"_",C6,",(void*)(&amp;",C6,"),LG_TRAME_",B6,"_",C6,");"),"")</f>
+      <c r="L6" t="str">
+        <f t="shared" ref="L6:L29" si="5">IF(B6="INF",CONCATENATE("if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_",B6,"_",C6,",(void*)(&amp;",C6,"),LG_TRAME_",B6,"_",C6,");"),"")</f>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_ETAT_BATTERIE,(void*)(&amp;ETAT_BATTERIE),LG_TRAME_INF_ETAT_BATTERIE);</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -982,31 +1096,34 @@
       <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="1" t="str">
+      <c r="F7" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE 5</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="I7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ANGLE_HORS_INTERVALLE 1</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE: curTrameLength= LG_TRAME_INF_ANGLE_HORS_INTERVALLE ; break;</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE:   ; break;</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f t="shared" si="5"/>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_ANGLE_HORS_INTERVALLE,(void*)(&amp;ANGLE_HORS_INTERVALLE),LG_TRAME_INF_ANGLE_HORS_INTERVALLE);</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1019,31 +1136,34 @@
       <c r="E8" s="9">
         <v>4</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="1" t="str">
+      <c r="F8" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_ANGLE_TANGAGE 6</v>
       </c>
-      <c r="H8" s="1" t="str">
+      <c r="I8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ANGLE_TANGAGE 4</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_ANGLE_TANGAGE: curTrameLength= LG_TRAME_INF_ANGLE_TANGAGE ; break;</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_ANGLE_TANGAGE:   ; break;</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f t="shared" si="5"/>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_ANGLE_TANGAGE,(void*)(&amp;ANGLE_TANGAGE),LG_TRAME_INF_ANGLE_TANGAGE);</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1056,31 +1176,34 @@
       <c r="E9" s="9">
         <v>4</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="1" t="str">
+      <c r="F9" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_VITESSE_ANGULAIRE 7</v>
       </c>
-      <c r="H9" s="1" t="str">
+      <c r="I9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_VITESSE_ANGULAIRE 4</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_VITESSE_ANGULAIRE: curTrameLength= LG_TRAME_INF_VITESSE_ANGULAIRE ; break;</v>
       </c>
-      <c r="J9" t="str">
+      <c r="K9" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_VITESSE_ANGULAIRE:   ; break;</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f t="shared" si="5"/>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_VITESSE_ANGULAIRE,(void*)(&amp;VITESSE_ANGULAIRE),LG_TRAME_INF_VITESSE_ANGULAIRE);</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1093,31 +1216,34 @@
       <c r="E10" s="9">
         <v>2</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f t="shared" ref="G10:G15" si="6">IF(B10&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B10,"_",C10," ",IF(B10="CON",128,0)+D10),"")</f>
+      <c r="F10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" ref="H10:H15" si="6">IF(B10&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B10,"_",C10," ",IF(B10="CON",128,0)+D10),"")</f>
         <v>#define TYPE_TRAME_INF_VERBOSE 8</v>
       </c>
-      <c r="H10" s="1" t="str">
-        <f t="shared" ref="H10:H15" si="7">IF(B10&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B10,"_",C10," ",E10),"")</f>
+      <c r="I10" s="1" t="str">
+        <f t="shared" ref="I10:I15" si="7">IF(B10&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B10,"_",C10," ",E10),"")</f>
         <v>#define LG_TRAME_INF_VERBOSE 2</v>
       </c>
-      <c r="I10" t="str">
-        <f t="shared" ref="I10:I15" si="8">IF(B10&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B10,"_",C10,": ","curTrameLength= LG_TRAME_",B10,"_",C10," ; break;"),"")</f>
+      <c r="J10" t="str">
+        <f t="shared" ref="J10:J15" si="8">IF(B10&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B10,"_",C10,": ","curTrameLength= LG_TRAME_",B10,"_",C10," ; break;"),"")</f>
         <v>case TYPE_TRAME_INF_VERBOSE: curTrameLength= LG_TRAME_INF_VERBOSE ; break;</v>
       </c>
-      <c r="J10" t="str">
-        <f t="shared" ref="J10:J15" si="9">IF(B10&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B10,"_",C10,":   ; break;"),"")</f>
+      <c r="K10" t="str">
+        <f t="shared" ref="K10:K15" si="9">IF(B10&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B10,"_",C10,":   ; break;"),"")</f>
         <v>case TYPE_TRAME_INF_VERBOSE:   ; break;</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f t="shared" si="5"/>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_VERBOSE,(void*)(&amp;VERBOSE),LG_TRAME_INF_VERBOSE);</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1130,31 +1256,34 @@
       <c r="E11" s="9">
         <v>2</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="1" t="str">
+      <c r="F11" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#define TYPE_TRAME_CON_VERBOSE 136</v>
       </c>
-      <c r="H11" s="1" t="str">
+      <c r="I11" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#define LG_TRAME_CON_VERBOSE 2</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <f t="shared" si="8"/>
         <v>case TYPE_TRAME_CON_VERBOSE: curTrameLength= LG_TRAME_CON_VERBOSE ; break;</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <f t="shared" si="9"/>
         <v>case TYPE_TRAME_CON_VERBOSE:   ; break;</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1167,94 +1296,100 @@
       <c r="E12" s="9">
         <v>0</v>
       </c>
-      <c r="G12" s="1" t="str">
+      <c r="F12" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="1" t="str">
         <f t="shared" si="6"/>
         <v>#define TYPE_TRAME_CON_DEMANDE_COEFFICIENTS 137</v>
       </c>
-      <c r="H12" s="1" t="str">
+      <c r="I12" s="1" t="str">
         <f t="shared" si="7"/>
         <v>#define LG_TRAME_CON_DEMANDE_COEFFICIENTS 0</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <f t="shared" si="8"/>
         <v>case TYPE_TRAME_CON_DEMANDE_COEFFICIENTS: curTrameLength= LG_TRAME_CON_DEMANDE_COEFFICIENTS ; break;</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K12" t="str">
         <f t="shared" si="9"/>
         <v>case TYPE_TRAME_CON_DEMANDE_COEFFICIENTS:   ; break;</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="G13" s="1" t="str">
+    <row r="13" spans="1:12">
+      <c r="H13" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H13" s="1" t="str">
+      <c r="I13" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J13" t="str">
+      <c r="K13" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="G14" s="1" t="str">
+    <row r="14" spans="1:12">
+      <c r="H14" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H14" s="1" t="str">
+      <c r="I14" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J14" t="str">
+      <c r="K14" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="G15" s="1" t="str">
+    <row r="15" spans="1:12">
+      <c r="H15" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="I15" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J15" t="str">
+      <c r="K15" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1267,31 +1402,34 @@
       <c r="E16" s="9">
         <v>4</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="1" t="str">
+      <c r="F16" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_VITESSED 12</v>
       </c>
-      <c r="H16" s="1" t="str">
+      <c r="I16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_VITESSED 4</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_VITESSED: curTrameLength= LG_TRAME_INF_VITESSED ; break;</v>
       </c>
-      <c r="J16" t="str">
+      <c r="K16" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_VITESSED:   ; break;</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f t="shared" si="5"/>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_VITESSED,(void*)(&amp;VITESSED),LG_TRAME_INF_VITESSED);</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:12">
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1304,31 +1442,34 @@
       <c r="E17" s="9">
         <v>4</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="1" t="str">
+      <c r="F17" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_VITESSEG 13</v>
       </c>
-      <c r="H17" s="1" t="str">
+      <c r="I17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_VITESSEG 4</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_VITESSEG: curTrameLength= LG_TRAME_INF_VITESSEG ; break;</v>
       </c>
-      <c r="J17" t="str">
+      <c r="K17" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_VITESSEG:   ; break;</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f t="shared" si="5"/>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_VITESSEG,(void*)(&amp;VITESSEG),LG_TRAME_INF_VITESSEG);</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:12">
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -1341,31 +1482,34 @@
       <c r="E18" s="9">
         <v>4</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="1" t="str">
+      <c r="F18" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_DISTANCE_PARCOURUE 14</v>
       </c>
-      <c r="H18" s="1" t="str">
+      <c r="I18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_DISTANCE_PARCOURUE 4</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J18" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_DISTANCE_PARCOURUE: curTrameLength= LG_TRAME_INF_DISTANCE_PARCOURUE ; break;</v>
       </c>
-      <c r="J18" t="str">
+      <c r="K18" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_DISTANCE_PARCOURUE:   ; break;</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f t="shared" si="5"/>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_DISTANCE_PARCOURUE,(void*)(&amp;DISTANCE_PARCOURUE),LG_TRAME_INF_DISTANCE_PARCOURUE);</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:12">
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1378,31 +1522,34 @@
       <c r="E19" s="9">
         <v>4</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="1" t="str">
+      <c r="F19" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_ACCELERATION 15</v>
       </c>
-      <c r="H19" s="1" t="str">
+      <c r="I19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ACCELERATION 4</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_ACCELERATION: curTrameLength= LG_TRAME_INF_ACCELERATION ; break;</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_ACCELERATION:   ; break;</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f t="shared" si="5"/>
         <v>if(getbit(verboseMode,0)) envoiTrameUart1(TYPE_TRAME_INF_ACCELERATION,(void*)(&amp;ACCELERATION),LG_TRAME_INF_ACCELERATION);</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:12">
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1415,28 +1562,34 @@
       <c r="E20" s="9">
         <v>0</v>
       </c>
-      <c r="G20" s="1" t="str">
+      <c r="F20" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_CHARGER_VITESSE 144</v>
       </c>
-      <c r="H20" s="1" t="str">
+      <c r="I20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_CHARGER_VITESSE 0</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_CHARGER_VITESSE: curTrameLength= LG_TRAME_CON_CHARGER_VITESSE ; break;</v>
       </c>
-      <c r="J20" t="str">
+      <c r="K20" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_CHARGER_VITESSE:   ; break;</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:12">
       <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
@@ -1449,28 +1602,34 @@
       <c r="E21" s="9">
         <v>0</v>
       </c>
-      <c r="G21" s="1" t="str">
+      <c r="F21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_ENREGISTRER_VITESSE 145</v>
       </c>
-      <c r="H21" s="1" t="str">
+      <c r="I21" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_ENREGISTRER_VITESSE 0</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J21" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_ENREGISTRER_VITESSE: curTrameLength= LG_TRAME_CON_ENREGISTRER_VITESSE ; break;</v>
       </c>
-      <c r="J21" t="str">
+      <c r="K21" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_ENREGISTRER_VITESSE:   ; break;</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:12">
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
@@ -1483,28 +1642,34 @@
       <c r="E22" s="9">
         <v>0</v>
       </c>
-      <c r="G22" s="1" t="str">
+      <c r="F22" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_CHARGER_ASSERVISSEMENT 146</v>
       </c>
-      <c r="H22" s="1" t="str">
+      <c r="I22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_CHARGER_ASSERVISSEMENT 0</v>
       </c>
-      <c r="I22" t="str">
+      <c r="J22" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_CHARGER_ASSERVISSEMENT: curTrameLength= LG_TRAME_CON_CHARGER_ASSERVISSEMENT ; break;</v>
       </c>
-      <c r="J22" t="str">
+      <c r="K22" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_CHARGER_ASSERVISSEMENT:   ; break;</v>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:12">
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1517,28 +1682,34 @@
       <c r="E23" s="9">
         <v>0</v>
       </c>
-      <c r="G23" s="1" t="str">
+      <c r="F23" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_ENREGISTRER_ASSERVISSEMENT 147</v>
       </c>
-      <c r="H23" s="1" t="str">
+      <c r="I23" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_ENREGISTRER_ASSERVISSEMENT 0</v>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_ENREGISTRER_ASSERVISSEMENT: curTrameLength= LG_TRAME_CON_ENREGISTRER_ASSERVISSEMENT ; break;</v>
       </c>
-      <c r="J23" t="str">
+      <c r="K23" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_ENREGISTRER_ASSERVISSEMENT:   ; break;</v>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:12">
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1551,28 +1722,34 @@
       <c r="E24" s="9">
         <v>0</v>
       </c>
-      <c r="G24" s="1" t="str">
+      <c r="F24" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_CHARGER_DEMARRAGE 148</v>
       </c>
-      <c r="H24" s="1" t="str">
+      <c r="I24" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_CHARGER_DEMARRAGE 0</v>
       </c>
-      <c r="I24" t="str">
+      <c r="J24" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_CHARGER_DEMARRAGE: curTrameLength= LG_TRAME_CON_CHARGER_DEMARRAGE ; break;</v>
       </c>
-      <c r="J24" t="str">
+      <c r="K24" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_CHARGER_DEMARRAGE:   ; break;</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:12">
       <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1585,3518 +1762,3626 @@
       <c r="E25" s="9">
         <v>0</v>
       </c>
-      <c r="G25" s="1" t="str">
+      <c r="F25" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_ENREGISTRER_DEMARRAGE 149</v>
       </c>
-      <c r="H25" s="1" t="str">
+      <c r="I25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_ENREGISTRER_DEMARRAGE 0</v>
       </c>
-      <c r="I25" t="str">
+      <c r="J25" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_ENREGISTRER_DEMARRAGE: curTrameLength= LG_TRAME_CON_ENREGISTRER_DEMARRAGE ; break;</v>
       </c>
-      <c r="J25" t="str">
+      <c r="K25" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_ENREGISTRER_DEMARRAGE:   ; break;</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="2:12">
+      <c r="B27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>22</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>4</v>
       </c>
-      <c r="G26" s="1" t="str">
+      <c r="F27" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_PRINC_PID_K 150</v>
       </c>
-      <c r="H26" s="1" t="str">
+      <c r="I27" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_PRINC_PID_K 4</v>
       </c>
-      <c r="I26" s="13" t="str">
+      <c r="J27" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_PRINC_PID_K: curTrameLength= LG_TRAME_CON_PRINC_PID_K ; break;</v>
       </c>
-      <c r="J26" t="str">
-        <f>IF(B26="CON",CONCATENATE("case TYPE_TRAME_",B26,"_",C26,":   memcpy((void*)&amp;",C26,", (void*)(trameBuf), 4) ; break;"),"")</f>
+      <c r="K27" t="str">
+        <f>IF(B27="CON",CONCATENATE("case TYPE_TRAME_",B27,"_",C27,":   memcpy((void*)&amp;",C27,", (void*)(trameBuf), 4) ; break;"),"")</f>
         <v>case TYPE_TRAME_CON_PRINC_PID_K:   memcpy((void*)&amp;PRINC_PID_K, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L27" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="2:12">
+      <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>23</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <v>4</v>
       </c>
-      <c r="G27" s="1" t="str">
+      <c r="F28" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_PRINC_PID_D 151</v>
       </c>
-      <c r="H27" s="1" t="str">
+      <c r="I28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_PRINC_PID_D 4</v>
       </c>
-      <c r="I27" s="13" t="str">
+      <c r="J28" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_PRINC_PID_D: curTrameLength= LG_TRAME_CON_PRINC_PID_D ; break;</v>
       </c>
-      <c r="J27" t="str">
-        <f t="shared" ref="J27:J51" si="10">IF(B27="CON",CONCATENATE("case TYPE_TRAME_",B27,"_",C27,":   memcpy((void*)&amp;",C27,", (void*)(trameBuf), 4) ; break;"),"")</f>
+      <c r="K28" t="str">
+        <f t="shared" ref="K28:K52" si="10">IF(B28="CON",CONCATENATE("case TYPE_TRAME_",B28,"_",C28,":   memcpy((void*)&amp;",C28,", (void*)(trameBuf), 4) ; break;"),"")</f>
         <v>case TYPE_TRAME_CON_PRINC_PID_D:   memcpy((void*)&amp;PRINC_PID_D, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="K27" t="str">
+      <c r="L28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="2" t="s">
+    <row r="29" spans="2:12">
+      <c r="B29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>24</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <v>4</v>
       </c>
-      <c r="G28" s="1" t="str">
+      <c r="F29" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_PRINC_DIR 152</v>
       </c>
-      <c r="H28" s="1" t="str">
+      <c r="I29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_PRINC_DIR 4</v>
       </c>
-      <c r="I28" s="13" t="str">
+      <c r="J29" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_PRINC_DIR: curTrameLength= LG_TRAME_CON_PRINC_DIR ; break;</v>
       </c>
-      <c r="J28" t="str">
+      <c r="K29" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_PRINC_DIR:   memcpy((void*)&amp;PRINC_DIR, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="K28" t="str">
+      <c r="L29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="2" t="s">
+    <row r="30" spans="2:12">
+      <c r="B30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <v>25</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <v>4</v>
       </c>
-      <c r="G29" s="1" t="str">
+      <c r="F30" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_COEF_KALMAN 153</v>
       </c>
-      <c r="H29" s="1" t="str">
+      <c r="I30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_COEF_KALMAN 4</v>
       </c>
-      <c r="I29" s="13" t="str">
+      <c r="J30" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_COEF_KALMAN: curTrameLength= LG_TRAME_CON_COEF_KALMAN ; break;</v>
       </c>
-      <c r="J29" t="str">
+      <c r="K30" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_COEF_KALMAN:   memcpy((void*)&amp;COEF_KALMAN, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="K29" t="str">
-        <f t="shared" ref="K29:K38" si="11">IF(B29="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B29,"_",C29,",(void*)",C29,",LG_TRAME_",B29,"_",C29,");"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="2" t="s">
+      <c r="L30" t="str">
+        <f t="shared" ref="L30:L39" si="11">IF(B30="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B30,"_",C30,",(void*)",C30,",LG_TRAME_",B30,"_",C30,");"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>26</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>4</v>
       </c>
-      <c r="G30" s="1" t="str">
+      <c r="F31" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_ACCELERATION_COEF_FILTRE 154</v>
       </c>
-      <c r="H30" s="1" t="str">
+      <c r="I31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_ACCELERATION_COEF_FILTRE 4</v>
       </c>
-      <c r="I30" s="13" t="str">
+      <c r="J31" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_ACCELERATION_COEF_FILTRE: curTrameLength= LG_TRAME_CON_ACCELERATION_COEF_FILTRE ; break;</v>
       </c>
-      <c r="J30" t="str">
+      <c r="K31" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_ACCELERATION_COEF_FILTRE:   memcpy((void*)&amp;ACCELERATION_COEF_FILTRE, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="K30" t="str">
+      <c r="L31" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="2:12">
+      <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <v>27</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>4</v>
       </c>
-      <c r="G31" s="1" t="str">
+      <c r="F32" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_GUIDONMAX 155</v>
       </c>
-      <c r="H31" s="1" t="str">
+      <c r="I32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_GUIDONMAX 4</v>
       </c>
-      <c r="I31" s="13" t="str">
+      <c r="J32" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_GUIDONMAX: curTrameLength= LG_TRAME_CON_GUIDONMAX ; break;</v>
       </c>
-      <c r="J31" t="str">
+      <c r="K32" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_GUIDONMAX:   memcpy((void*)&amp;GUIDONMAX, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="K31" t="str">
+      <c r="L32" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="2" t="s">
+    <row r="33" spans="2:12">
+      <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>28</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="9">
         <v>4</v>
       </c>
-      <c r="G32" s="1" t="str">
+      <c r="F33" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR 156</v>
       </c>
-      <c r="H32" s="1" t="str">
+      <c r="I33" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR 4</v>
       </c>
-      <c r="I32" s="13" t="str">
+      <c r="J33" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR: curTrameLength= LG_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR ; break;</v>
       </c>
-      <c r="J32" t="str">
+      <c r="K33" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_LIMITE_DISTANCE_UTILISATEUR:   memcpy((void*)&amp;LIMITE_DISTANCE_UTILISATEUR, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="K32" t="str">
+      <c r="L33" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="2" t="s">
+    <row r="34" spans="2:12">
+      <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>29</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>4</v>
       </c>
-      <c r="G33" s="1" t="str">
+      <c r="F34" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_DEMARRAGE_TOL_ANGLE 157</v>
       </c>
-      <c r="H33" s="1" t="str">
+      <c r="I34" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_DEMARRAGE_TOL_ANGLE 4</v>
       </c>
-      <c r="I33" s="13" t="str">
+      <c r="J34" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_DEMARRAGE_TOL_ANGLE: curTrameLength= LG_TRAME_CON_DEMARRAGE_TOL_ANGLE ; break;</v>
       </c>
-      <c r="J33" t="str">
+      <c r="K34" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_DEMARRAGE_TOL_ANGLE:   memcpy((void*)&amp;DEMARRAGE_TOL_ANGLE, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="K33" t="str">
+      <c r="L34" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="2" t="s">
+    <row r="35" spans="2:12">
+      <c r="B35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>30</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="9">
         <v>4</v>
       </c>
-      <c r="G34" s="1" t="str">
+      <c r="F35" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_DEMARRAGE_TOL_GUIDON 158</v>
       </c>
-      <c r="H34" s="1" t="str">
+      <c r="I35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_DEMARRAGE_TOL_GUIDON 4</v>
       </c>
-      <c r="I34" s="13" t="str">
+      <c r="J35" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_DEMARRAGE_TOL_GUIDON: curTrameLength= LG_TRAME_CON_DEMARRAGE_TOL_GUIDON ; break;</v>
       </c>
-      <c r="J34" t="str">
+      <c r="K35" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_DEMARRAGE_TOL_GUIDON:   memcpy((void*)&amp;DEMARRAGE_TOL_GUIDON, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="K34" t="str">
+      <c r="L35" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="2" t="s">
+    <row r="36" spans="2:12">
+      <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <v>31</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="9">
         <v>4</v>
       </c>
-      <c r="G35" s="1" t="str">
+      <c r="F36" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE 159</v>
       </c>
-      <c r="H35" s="1" t="str">
+      <c r="I36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE 4</v>
       </c>
-      <c r="I35" s="13" t="str">
+      <c r="J36" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE: curTrameLength= LG_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE ; break;</v>
       </c>
-      <c r="J35" t="str">
+      <c r="K36" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_DEMARRAGE_DELAI_EQUILIBRE:   memcpy((void*)&amp;DEMARRAGE_DELAI_EQUILIBRE, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="K35" t="str">
+      <c r="L36" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="2" t="s">
+    <row r="37" spans="2:12">
+      <c r="B37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>32</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="9">
         <v>4</v>
       </c>
-      <c r="G36" s="1" t="str">
+      <c r="F37" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_VITESSE_TROITTOIR_MAX 160</v>
       </c>
-      <c r="H36" s="1" t="str">
+      <c r="I37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_VITESSE_TROITTOIR_MAX 4</v>
       </c>
-      <c r="I36" s="13" t="str">
+      <c r="J37" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_VITESSE_TROITTOIR_MAX: curTrameLength= LG_TRAME_CON_VITESSE_TROITTOIR_MAX ; break;</v>
       </c>
-      <c r="J36" t="str">
+      <c r="K37" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_VITESSE_TROITTOIR_MAX:   memcpy((void*)&amp;VITESSE_TROITTOIR_MAX, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="K36" t="str">
+      <c r="L37" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="2" t="s">
+    <row r="38" spans="2:12">
+      <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>33</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="9">
         <v>4</v>
       </c>
-      <c r="G37" s="1" t="str">
+      <c r="F38" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_POURCENT_SECURITE_MOTEUR 161</v>
       </c>
-      <c r="H37" s="1" t="str">
+      <c r="I38" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_POURCENT_SECURITE_MOTEUR 4</v>
       </c>
-      <c r="I37" s="13" t="str">
+      <c r="J38" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_POURCENT_SECURITE_MOTEUR: curTrameLength= LG_TRAME_CON_POURCENT_SECURITE_MOTEUR ; break;</v>
       </c>
-      <c r="J37" t="str">
+      <c r="K38" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_POURCENT_SECURITE_MOTEUR:   memcpy((void*)&amp;POURCENT_SECURITE_MOTEUR, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="K37" t="str">
+      <c r="L38" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="2" t="s">
+    <row r="39" spans="2:12">
+      <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>34</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>4</v>
       </c>
-      <c r="G38" s="1" t="str">
+      <c r="F39" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_COEF_HYSTERISIS_SECURITE 162</v>
       </c>
-      <c r="H38" s="1" t="str">
+      <c r="I39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_COEF_HYSTERISIS_SECURITE 4</v>
       </c>
-      <c r="I38" s="13" t="str">
+      <c r="J39" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_COEF_HYSTERISIS_SECURITE: curTrameLength= LG_TRAME_CON_COEF_HYSTERISIS_SECURITE ; break;</v>
       </c>
-      <c r="J38" t="str">
+      <c r="K39" t="str">
         <f t="shared" si="10"/>
         <v>case TYPE_TRAME_CON_COEF_HYSTERISIS_SECURITE:   memcpy((void*)&amp;COEF_HYSTERISIS_SECURITE, (void*)(trameBuf), 4) ; break;</v>
       </c>
-      <c r="K38" t="str">
+      <c r="L39" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="2" t="s">
+    <row r="40" spans="2:12">
+      <c r="B40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="11">
-        <f>D26</f>
+      <c r="D40" s="11">
+        <f>D27</f>
         <v>22</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="9">
         <v>4</v>
       </c>
-      <c r="G39" s="1" t="str">
+      <c r="H40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_PRINC_PID_K 22</v>
       </c>
-      <c r="H39" s="1" t="str">
+      <c r="I40" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_PID_K 4</v>
       </c>
-      <c r="I39" s="13" t="str">
+      <c r="J40" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_PRINC_PID_K: curTrameLength= LG_TRAME_INF_PRINC_PID_K ; break;</v>
       </c>
-      <c r="J39" t="str">
+      <c r="K40" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K39" t="str">
-        <f>IF(B39="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B39,"_",C39,",(void*)(&amp;",C39,"),LG_TRAME_",B39,"_",C39,");"),"")</f>
+      <c r="L40" t="str">
+        <f>IF(B40="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B40,"_",C40,",(void*)(&amp;",C40,"),LG_TRAME_",B40,"_",C40,");"),"")</f>
         <v>envoiTrameUart1(TYPE_TRAME_INF_PRINC_PID_K,(void*)(&amp;PRINC_PID_K),LG_TRAME_INF_PRINC_PID_K);</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="2" t="s">
+    <row r="41" spans="2:12">
+      <c r="B41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="11">
-        <f t="shared" ref="D40:D51" si="12">D27</f>
+      <c r="D41" s="11">
+        <f t="shared" ref="D41:D52" si="12">D28</f>
         <v>23</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="9">
         <v>4</v>
       </c>
-      <c r="G40" s="1" t="str">
+      <c r="H41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_PRINC_PID_D 23</v>
       </c>
-      <c r="H40" s="1" t="str">
+      <c r="I41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_PID_D 4</v>
       </c>
-      <c r="I40" s="13" t="str">
+      <c r="J41" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_PRINC_PID_D: curTrameLength= LG_TRAME_INF_PRINC_PID_D ; break;</v>
       </c>
-      <c r="J40" t="str">
+      <c r="K41" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K40" t="str">
-        <f t="shared" ref="K40:K51" si="13">IF(B40="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B40,"_",C40,",(void*)(&amp;",C40,"),LG_TRAME_",B40,"_",C40,");"),"")</f>
+      <c r="L41" t="str">
+        <f t="shared" ref="L41:L52" si="13">IF(B41="INF",CONCATENATE("envoiTrameUart1(TYPE_TRAME_",B41,"_",C41,",(void*)(&amp;",C41,"),LG_TRAME_",B41,"_",C41,");"),"")</f>
         <v>envoiTrameUart1(TYPE_TRAME_INF_PRINC_PID_D,(void*)(&amp;PRINC_PID_D),LG_TRAME_INF_PRINC_PID_D);</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="2" t="s">
+    <row r="42" spans="2:12">
+      <c r="B42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <f t="shared" si="12"/>
         <v>24</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E42" s="9">
         <v>4</v>
       </c>
-      <c r="G41" s="1" t="str">
+      <c r="H42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_PRINC_DIR 24</v>
       </c>
-      <c r="H41" s="1" t="str">
+      <c r="I42" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_PRINC_DIR 4</v>
       </c>
-      <c r="I41" s="13" t="str">
+      <c r="J42" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_PRINC_DIR: curTrameLength= LG_TRAME_INF_PRINC_DIR ; break;</v>
       </c>
-      <c r="J41" t="str">
+      <c r="K42" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K41" t="str">
+      <c r="L42" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_PRINC_DIR,(void*)(&amp;PRINC_DIR),LG_TRAME_INF_PRINC_DIR);</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="2" t="s">
+    <row r="43" spans="2:12">
+      <c r="B43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="9">
         <v>4</v>
       </c>
-      <c r="G42" s="1" t="str">
+      <c r="H43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_COEF_KALMAN 25</v>
       </c>
-      <c r="H42" s="1" t="str">
+      <c r="I43" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_COEF_KALMAN 4</v>
       </c>
-      <c r="I42" s="13" t="str">
+      <c r="J43" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_COEF_KALMAN: curTrameLength= LG_TRAME_INF_COEF_KALMAN ; break;</v>
       </c>
-      <c r="J42" t="str">
+      <c r="K43" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K42" t="str">
+      <c r="L43" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_COEF_KALMAN,(void*)(&amp;COEF_KALMAN),LG_TRAME_INF_COEF_KALMAN);</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="2" t="s">
+    <row r="44" spans="2:12">
+      <c r="B44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <f t="shared" si="12"/>
         <v>26</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <v>4</v>
       </c>
-      <c r="G43" s="1" t="str">
+      <c r="H44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_ACCELERATION_COEF_FILTRE 26</v>
       </c>
-      <c r="H43" s="1" t="str">
+      <c r="I44" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_ACCELERATION_COEF_FILTRE 4</v>
       </c>
-      <c r="I43" s="13" t="str">
+      <c r="J44" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_ACCELERATION_COEF_FILTRE: curTrameLength= LG_TRAME_INF_ACCELERATION_COEF_FILTRE ; break;</v>
       </c>
-      <c r="J43" t="str">
+      <c r="K44" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K43" t="str">
+      <c r="L44" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_ACCELERATION_COEF_FILTRE,(void*)(&amp;ACCELERATION_COEF_FILTRE),LG_TRAME_INF_ACCELERATION_COEF_FILTRE);</v>
       </c>
     </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="2" t="s">
+    <row r="45" spans="2:12">
+      <c r="B45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <f t="shared" si="12"/>
         <v>27</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E45" s="9">
         <v>4</v>
       </c>
-      <c r="G44" s="1" t="str">
+      <c r="H45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_GUIDONMAX 27</v>
       </c>
-      <c r="H44" s="1" t="str">
+      <c r="I45" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_GUIDONMAX 4</v>
       </c>
-      <c r="I44" s="13" t="str">
+      <c r="J45" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_GUIDONMAX: curTrameLength= LG_TRAME_INF_GUIDONMAX ; break;</v>
       </c>
-      <c r="J44" t="str">
+      <c r="K45" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K44" t="str">
+      <c r="L45" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_GUIDONMAX,(void*)(&amp;GUIDONMAX),LG_TRAME_INF_GUIDONMAX);</v>
       </c>
     </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="2" t="s">
+    <row r="46" spans="2:12">
+      <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <f t="shared" si="12"/>
         <v>28</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <v>4</v>
       </c>
-      <c r="G45" s="1" t="str">
+      <c r="H46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR 28</v>
       </c>
-      <c r="H45" s="1" t="str">
+      <c r="I46" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR 4</v>
       </c>
-      <c r="I45" s="13" t="str">
+      <c r="J46" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR: curTrameLength= LG_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR ; break;</v>
       </c>
-      <c r="J45" t="str">
+      <c r="K46" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K45" t="str">
+      <c r="L46" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR,(void*)(&amp;LIMITE_DISTANCE_UTILISATEUR),LG_TRAME_INF_LIMITE_DISTANCE_UTILISATEUR);</v>
       </c>
     </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="2" t="s">
+    <row r="47" spans="2:12">
+      <c r="B47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <f t="shared" si="12"/>
         <v>29</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>4</v>
       </c>
-      <c r="G46" s="1" t="str">
+      <c r="H47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_DEMARRAGE_TOL_ANGLE 29</v>
       </c>
-      <c r="H46" s="1" t="str">
+      <c r="I47" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_DEMARRAGE_TOL_ANGLE 4</v>
       </c>
-      <c r="I46" s="13" t="str">
+      <c r="J47" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_DEMARRAGE_TOL_ANGLE: curTrameLength= LG_TRAME_INF_DEMARRAGE_TOL_ANGLE ; break;</v>
       </c>
-      <c r="J46" t="str">
+      <c r="K47" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K46" t="str">
+      <c r="L47" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_DEMARRAGE_TOL_ANGLE,(void*)(&amp;DEMARRAGE_TOL_ANGLE),LG_TRAME_INF_DEMARRAGE_TOL_ANGLE);</v>
       </c>
     </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="2" t="s">
+    <row r="48" spans="2:12">
+      <c r="B48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="9">
         <v>4</v>
       </c>
-      <c r="G47" s="1" t="str">
+      <c r="H48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_DEMARRAGE_TOL_GUIDON 30</v>
       </c>
-      <c r="H47" s="1" t="str">
+      <c r="I48" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_DEMARRAGE_TOL_GUIDON 4</v>
       </c>
-      <c r="I47" s="13" t="str">
+      <c r="J48" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_DEMARRAGE_TOL_GUIDON: curTrameLength= LG_TRAME_INF_DEMARRAGE_TOL_GUIDON ; break;</v>
       </c>
-      <c r="J47" t="str">
+      <c r="K48" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K47" t="str">
+      <c r="L48" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_DEMARRAGE_TOL_GUIDON,(void*)(&amp;DEMARRAGE_TOL_GUIDON),LG_TRAME_INF_DEMARRAGE_TOL_GUIDON);</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="2" t="s">
+    <row r="49" spans="2:12">
+      <c r="B49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <f t="shared" si="12"/>
         <v>31</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E49" s="9">
         <v>4</v>
       </c>
-      <c r="G48" s="1" t="str">
+      <c r="H49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE 31</v>
       </c>
-      <c r="H48" s="1" t="str">
+      <c r="I49" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE 4</v>
       </c>
-      <c r="I48" s="13" t="str">
+      <c r="J49" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE: curTrameLength= LG_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE ; break;</v>
       </c>
-      <c r="J48" t="str">
+      <c r="K49" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K48" t="str">
+      <c r="L49" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE,(void*)(&amp;DEMARRAGE_DELAI_EQUILIBRE),LG_TRAME_INF_DEMARRAGE_DELAI_EQUILIBRE);</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="2" t="s">
+    <row r="50" spans="2:12">
+      <c r="B50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <f t="shared" si="12"/>
         <v>32</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="9">
         <v>4</v>
       </c>
-      <c r="G49" s="1" t="str">
+      <c r="H50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_VITESSE_TROITTOIR_MAX 32</v>
       </c>
-      <c r="H49" s="1" t="str">
+      <c r="I50" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_VITESSE_TROITTOIR_MAX 4</v>
       </c>
-      <c r="I49" s="13" t="str">
+      <c r="J50" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_VITESSE_TROITTOIR_MAX: curTrameLength= LG_TRAME_INF_VITESSE_TROITTOIR_MAX ; break;</v>
       </c>
-      <c r="J49" t="str">
+      <c r="K50" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K49" t="str">
+      <c r="L50" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_VITESSE_TROITTOIR_MAX,(void*)(&amp;VITESSE_TROITTOIR_MAX),LG_TRAME_INF_VITESSE_TROITTOIR_MAX);</v>
       </c>
     </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="2" t="s">
+    <row r="51" spans="2:12">
+      <c r="B51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <f t="shared" si="12"/>
         <v>33</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="9">
         <v>4</v>
       </c>
-      <c r="G50" s="1" t="str">
+      <c r="H51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_POURCENT_SECURITE_MOTEUR 33</v>
       </c>
-      <c r="H50" s="1" t="str">
+      <c r="I51" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_POURCENT_SECURITE_MOTEUR 4</v>
       </c>
-      <c r="I50" s="13" t="str">
+      <c r="J51" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_POURCENT_SECURITE_MOTEUR: curTrameLength= LG_TRAME_INF_POURCENT_SECURITE_MOTEUR ; break;</v>
       </c>
-      <c r="J50" t="str">
+      <c r="K51" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K50" t="str">
+      <c r="L51" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_POURCENT_SECURITE_MOTEUR,(void*)(&amp;POURCENT_SECURITE_MOTEUR),LG_TRAME_INF_POURCENT_SECURITE_MOTEUR);</v>
       </c>
     </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="2" t="s">
+    <row r="52" spans="2:12">
+      <c r="B52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <f t="shared" si="12"/>
         <v>34</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E52" s="9">
         <v>4</v>
       </c>
-      <c r="G51" s="1" t="str">
+      <c r="H52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_COEF_HYSTERISIS_SECURITE 34</v>
       </c>
-      <c r="H51" s="1" t="str">
+      <c r="I52" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_COEF_HYSTERISIS_SECURITE 4</v>
       </c>
-      <c r="I51" s="13" t="str">
+      <c r="J52" s="13" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_COEF_HYSTERISIS_SECURITE: curTrameLength= LG_TRAME_INF_COEF_HYSTERISIS_SECURITE ; break;</v>
       </c>
-      <c r="J51" t="str">
+      <c r="K52" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K51" t="str">
+      <c r="L52" t="str">
         <f t="shared" si="13"/>
         <v>envoiTrameUart1(TYPE_TRAME_INF_COEF_HYSTERISIS_SECURITE,(void*)(&amp;COEF_HYSTERISIS_SECURITE),LG_TRAME_INF_COEF_HYSTERISIS_SECURITE);</v>
       </c>
     </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="2" t="s">
+    <row r="53" spans="2:12">
+      <c r="B53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <v>35</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E53" s="9">
         <v>4</v>
       </c>
-      <c r="G52" s="1" t="str">
+      <c r="F53" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_COEF_COURANT_1 163</v>
       </c>
-      <c r="H52" s="1" t="str">
+      <c r="I53" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_COEF_COURANT_1 4</v>
       </c>
-      <c r="I52" t="str">
+      <c r="J53" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_COEF_COURANT_1: curTrameLength= LG_TRAME_CON_COEF_COURANT_1 ; break;</v>
       </c>
-      <c r="J52" t="str">
+      <c r="K53" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_COEF_COURANT_1:   ; break;</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="2" t="s">
+    <row r="54" spans="2:12">
+      <c r="B54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <v>35</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E54" s="9">
         <v>4</v>
       </c>
-      <c r="G53" s="1" t="str">
+      <c r="H54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_COEF_COURANT_1 35</v>
       </c>
-      <c r="H53" s="1" t="str">
+      <c r="I54" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_COEF_COURANT_1 4</v>
       </c>
-      <c r="I53" t="str">
+      <c r="J54" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_COEF_COURANT_1: curTrameLength= LG_TRAME_INF_COEF_COURANT_1 ; break;</v>
       </c>
-      <c r="J53" t="str">
+      <c r="K54" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_COEF_COURANT_1:   ; break;</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="2" t="s">
+    <row r="55" spans="2:12">
+      <c r="B55" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>36</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E55" s="9">
         <v>4</v>
       </c>
-      <c r="G54" s="1" t="str">
+      <c r="F55" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_CON_COEF_COURANT_2 164</v>
       </c>
-      <c r="H54" s="1" t="str">
+      <c r="I55" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_CON_COEF_COURANT_2 4</v>
       </c>
-      <c r="I54" t="str">
+      <c r="J55" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_CON_COEF_COURANT_2: curTrameLength= LG_TRAME_CON_COEF_COURANT_2 ; break;</v>
       </c>
-      <c r="J54" t="str">
+      <c r="K55" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_COEF_COURANT_2:   ; break;</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
-      <c r="B55" s="2" t="s">
+    <row r="56" spans="2:12">
+      <c r="B56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <v>36</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="9">
         <v>4</v>
       </c>
-      <c r="G55" s="1" t="str">
+      <c r="H56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>#define TYPE_TRAME_INF_COEF_COURANT_2 36</v>
       </c>
-      <c r="H55" s="1" t="str">
+      <c r="I56" s="1" t="str">
         <f t="shared" si="1"/>
         <v>#define LG_TRAME_INF_COEF_COURANT_2 4</v>
       </c>
-      <c r="I55" t="str">
+      <c r="J56" t="str">
         <f t="shared" si="2"/>
         <v>case TYPE_TRAME_INF_COEF_COURANT_2: curTrameLength= LG_TRAME_INF_COEF_COURANT_2 ; break;</v>
       </c>
-      <c r="J55" t="str">
+      <c r="K56" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_COEF_COURANT_2:   ; break;</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="2" t="s">
+    <row r="57" spans="2:12">
+      <c r="B57" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>50</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E57" s="9">
         <v>4</v>
       </c>
-      <c r="G56" s="1" t="str">
-        <f t="shared" ref="G56:G61" si="14">IF(B56&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B56,"_",C56," ",IF(B56="CON",128,0)+D56),"")</f>
+      <c r="F57" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f t="shared" ref="H57:H62" si="14">IF(B57&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B57,"_",C57," ",IF(B57="CON",128,0)+D57),"")</f>
         <v>#define TYPE_TRAME_CON_COUPLED 178</v>
       </c>
-      <c r="H56" s="1" t="str">
-        <f t="shared" ref="H56:H61" si="15">IF(B56&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B56,"_",C56," ",E56),"")</f>
+      <c r="I57" s="1" t="str">
+        <f t="shared" ref="I57:I62" si="15">IF(B57&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B57,"_",C57," ",E57),"")</f>
         <v>#define LG_TRAME_CON_COUPLED 4</v>
       </c>
-      <c r="I56" t="str">
-        <f t="shared" ref="I56:I61" si="16">IF(B56&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B56,"_",C56,": ","curTrameLength= LG_TRAME_",B56,"_",C56," ; break;"),"")</f>
+      <c r="J57" t="str">
+        <f t="shared" ref="J57:J62" si="16">IF(B57&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B57,"_",C57,": ","curTrameLength= LG_TRAME_",B57,"_",C57," ; break;"),"")</f>
         <v>case TYPE_TRAME_CON_COUPLED: curTrameLength= LG_TRAME_CON_COUPLED ; break;</v>
       </c>
-      <c r="J56" t="str">
+      <c r="K57" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_COUPLED:   ; break;</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="2" t="s">
+    <row r="58" spans="2:12">
+      <c r="B58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>50</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="9">
         <v>4</v>
       </c>
-      <c r="F57" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G57" s="1" t="str">
+      <c r="H58" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#define TYPE_TRAME_INF_COUPLED 50</v>
       </c>
-      <c r="H57" s="1" t="str">
+      <c r="I58" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#define LG_TRAME_INF_COUPLED 4</v>
       </c>
-      <c r="I57" t="str">
+      <c r="J58" t="str">
         <f t="shared" si="16"/>
         <v>case TYPE_TRAME_INF_COUPLED: curTrameLength= LG_TRAME_INF_COUPLED ; break;</v>
       </c>
-      <c r="J57" t="str">
+      <c r="K58" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_COUPLED:   ; break;</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="2" t="s">
+    <row r="59" spans="2:12">
+      <c r="B59" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>51</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E59" s="9">
         <v>4</v>
       </c>
-      <c r="G58" s="1" t="str">
+      <c r="F59" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H59" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#define TYPE_TRAME_CON_COUPLEG 179</v>
       </c>
-      <c r="H58" s="1" t="str">
+      <c r="I59" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#define LG_TRAME_CON_COUPLEG 4</v>
       </c>
-      <c r="I58" t="str">
+      <c r="J59" t="str">
         <f t="shared" si="16"/>
         <v>case TYPE_TRAME_CON_COUPLEG: curTrameLength= LG_TRAME_CON_COUPLEG ; break;</v>
       </c>
-      <c r="J58" t="str">
+      <c r="K59" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_CON_COUPLEG:   ; break;</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
-      <c r="B59" s="2" t="s">
+    <row r="60" spans="2:12">
+      <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <v>51</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E60" s="9">
         <v>4</v>
       </c>
-      <c r="F59" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G59" s="1" t="str">
+      <c r="H60" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#define TYPE_TRAME_INF_COUPLEG 51</v>
       </c>
-      <c r="H59" s="1" t="str">
+      <c r="I60" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#define LG_TRAME_INF_COUPLEG 4</v>
       </c>
-      <c r="I59" t="str">
+      <c r="J60" t="str">
         <f t="shared" si="16"/>
         <v>case TYPE_TRAME_INF_COUPLEG: curTrameLength= LG_TRAME_INF_COUPLEG ; break;</v>
       </c>
-      <c r="J59" t="str">
+      <c r="K60" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_COUPLEG:   ; break;</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
-      <c r="B60" s="2" t="s">
+    <row r="61" spans="2:12">
+      <c r="B61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>52</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E61" s="9">
         <v>1</v>
       </c>
-      <c r="F60" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G60" s="1" t="str">
+      <c r="F61" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H61" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#define TYPE_TRAME_INF_ERREUR_CARTE_COURANT 52</v>
       </c>
-      <c r="H60" s="1" t="str">
+      <c r="I61" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#define LG_TRAME_INF_ERREUR_CARTE_COURANT 1</v>
       </c>
-      <c r="I60" t="str">
+      <c r="J61" t="str">
         <f t="shared" si="16"/>
         <v>case TYPE_TRAME_INF_ERREUR_CARTE_COURANT: curTrameLength= LG_TRAME_INF_ERREUR_CARTE_COURANT ; break;</v>
       </c>
-      <c r="J60" t="str">
+      <c r="K61" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_ERREUR_CARTE_COURANT:   ; break;</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
-      <c r="B61" s="2" t="s">
+    <row r="62" spans="2:12">
+      <c r="B62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>53</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="9">
         <v>0</v>
       </c>
-      <c r="F61" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G61" s="1" t="str">
+      <c r="F62" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H62" s="1" t="str">
         <f t="shared" si="14"/>
         <v>#define TYPE_TRAME_INF_PRET 53</v>
       </c>
-      <c r="H61" s="1" t="str">
+      <c r="I62" s="1" t="str">
         <f t="shared" si="15"/>
         <v>#define LG_TRAME_INF_PRET 0</v>
       </c>
-      <c r="I61" t="str">
+      <c r="J62" t="str">
         <f t="shared" si="16"/>
         <v>case TYPE_TRAME_INF_PRET: curTrameLength= LG_TRAME_INF_PRET ; break;</v>
       </c>
-      <c r="J61" t="str">
+      <c r="K62" t="str">
         <f t="shared" si="3"/>
         <v>case TYPE_TRAME_INF_PRET:   ; break;</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
-      <c r="G62" s="1" t="str">
+    <row r="63" spans="2:12">
+      <c r="H63" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H62" s="1" t="str">
+      <c r="I63" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I62" t="str">
+      <c r="J63" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J62" t="str">
+      <c r="K63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:11">
-      <c r="G63" s="1" t="str">
+    <row r="64" spans="2:12">
+      <c r="H64" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H63" s="1" t="str">
+      <c r="I64" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I63" t="str">
+      <c r="J64" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J63" t="str">
+      <c r="K64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:11">
-      <c r="G64" s="1" t="str">
+    <row r="65" spans="8:11">
+      <c r="H65" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H64" s="1" t="str">
+      <c r="I65" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I64" t="str">
+      <c r="J65" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J64" t="str">
+      <c r="K65" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="7:10">
-      <c r="G65" s="1" t="str">
+    <row r="66" spans="8:11">
+      <c r="H66" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H65" s="1" t="str">
+      <c r="I66" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I65" t="str">
+      <c r="J66" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J65" t="str">
+      <c r="K66" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="7:10">
-      <c r="G66" s="1" t="str">
+    <row r="67" spans="8:11">
+      <c r="H67" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H66" s="1" t="str">
+      <c r="I67" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I66" t="str">
+      <c r="J67" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J66" t="str">
+      <c r="K67" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="7:10">
-      <c r="G67" s="1" t="str">
-        <f t="shared" ref="G67:G130" si="17">IF(B67&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B67,"_",C67," ",IF(B67="CON",128,0)+D67),"")</f>
-        <v/>
-      </c>
-      <c r="H67" s="1" t="str">
-        <f t="shared" ref="H67:H130" si="18">IF(B67&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B67,"_",C67," ",E67),"")</f>
-        <v/>
-      </c>
-      <c r="I67" t="str">
-        <f t="shared" ref="I67:I130" si="19">IF(B67&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B67,"_",C67,": ","curTrameLength= LG_TRAME_",B67,"_",C67," ; break;"),"")</f>
-        <v/>
-      </c>
-      <c r="J67" t="str">
-        <f t="shared" ref="J67:J79" si="20">IF(B67&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B67,"_",C67,":   ; break;"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="7:10">
-      <c r="G68" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+    <row r="68" spans="8:11">
       <c r="H68" s="1" t="str">
+        <f t="shared" ref="H68:H131" si="17">IF(B68&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B68,"_",C68," ",IF(B68="CON",128,0)+D68),"")</f>
+        <v/>
+      </c>
+      <c r="I68" s="1" t="str">
+        <f t="shared" ref="I68:I131" si="18">IF(B68&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B68,"_",C68," ",E68),"")</f>
+        <v/>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" ref="J68:J131" si="19">IF(B68&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B68,"_",C68,": ","curTrameLength= LG_TRAME_",B68,"_",C68," ; break;"),"")</f>
+        <v/>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" ref="K68:K80" si="20">IF(B68&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B68,"_",C68,":   ; break;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="8:11">
+      <c r="H69" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I69" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I68" t="str">
+      <c r="J69" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J68" t="str">
+      <c r="K69" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="7:10">
-      <c r="G69" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H69" s="1" t="str">
+    <row r="70" spans="8:11">
+      <c r="H70" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I70" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I69" t="str">
+      <c r="J70" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J69" t="str">
+      <c r="K70" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="7:10">
-      <c r="G70" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H70" s="1" t="str">
+    <row r="71" spans="8:11">
+      <c r="H71" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I71" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I70" t="str">
+      <c r="J71" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J70" t="str">
+      <c r="K71" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="7:10">
-      <c r="G71" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H71" s="1" t="str">
+    <row r="72" spans="8:11">
+      <c r="H72" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I72" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I71" t="str">
+      <c r="J72" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J71" t="str">
+      <c r="K72" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="7:10">
-      <c r="G72" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H72" s="1" t="str">
+    <row r="73" spans="8:11">
+      <c r="H73" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I73" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I72" t="str">
+      <c r="J73" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J72" t="str">
+      <c r="K73" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="7:10">
-      <c r="G73" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H73" s="1" t="str">
+    <row r="74" spans="8:11">
+      <c r="H74" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I74" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I73" t="str">
+      <c r="J74" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J73" t="str">
+      <c r="K74" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="7:10">
-      <c r="G74" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H74" s="1" t="str">
+    <row r="75" spans="8:11">
+      <c r="H75" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I75" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I74" t="str">
+      <c r="J75" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J74" t="str">
+      <c r="K75" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="7:10">
-      <c r="G75" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H75" s="1" t="str">
+    <row r="76" spans="8:11">
+      <c r="H76" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I76" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I75" t="str">
+      <c r="J76" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J75" t="str">
+      <c r="K76" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="7:10">
-      <c r="G76" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H76" s="1" t="str">
+    <row r="77" spans="8:11">
+      <c r="H77" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I77" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I76" t="str">
+      <c r="J77" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J76" t="str">
+      <c r="K77" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="7:10">
-      <c r="G77" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H77" s="1" t="str">
+    <row r="78" spans="8:11">
+      <c r="H78" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I78" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I77" t="str">
+      <c r="J78" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J77" t="str">
+      <c r="K78" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="7:10">
-      <c r="G78" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H78" s="1" t="str">
+    <row r="79" spans="8:11">
+      <c r="H79" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I79" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I78" t="str">
+      <c r="J79" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J78" t="str">
+      <c r="K79" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="7:10">
-      <c r="G79" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H79" s="1" t="str">
+    <row r="80" spans="8:11">
+      <c r="H80" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I80" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I79" t="str">
+      <c r="J80" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J79" t="str">
+      <c r="K80" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="7:10">
-      <c r="G80" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H80" s="1" t="str">
+    <row r="81" spans="8:11">
+      <c r="H81" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I81" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I80" t="str">
+      <c r="J81" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J80" t="str">
-        <f t="shared" ref="J80:J130" si="21">IF(B80&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B80,"_",C80,":   ; break;"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="7:10">
-      <c r="G81" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H81" s="1" t="str">
+      <c r="K81" t="str">
+        <f t="shared" ref="K81:K131" si="21">IF(B81&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B81,"_",C81,":   ; break;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="8:11">
+      <c r="H82" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I82" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I81" t="str">
+      <c r="J82" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J81" t="str">
+      <c r="K82" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="7:10">
-      <c r="G82" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H82" s="1" t="str">
+    <row r="83" spans="8:11">
+      <c r="H83" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I83" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I82" t="str">
+      <c r="J83" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J82" t="str">
+      <c r="K83" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="7:10">
-      <c r="G83" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H83" s="1" t="str">
+    <row r="84" spans="8:11">
+      <c r="H84" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I84" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I83" t="str">
+      <c r="J84" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J83" t="str">
+      <c r="K84" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="7:10">
-      <c r="G84" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H84" s="1" t="str">
+    <row r="85" spans="8:11">
+      <c r="H85" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I85" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I84" t="str">
+      <c r="J85" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J84" t="str">
+      <c r="K85" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="7:10">
-      <c r="G85" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H85" s="1" t="str">
+    <row r="86" spans="8:11">
+      <c r="H86" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I86" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I85" t="str">
+      <c r="J86" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J85" t="str">
+      <c r="K86" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="7:10">
-      <c r="G86" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H86" s="1" t="str">
+    <row r="87" spans="8:11">
+      <c r="H87" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I87" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I86" t="str">
+      <c r="J87" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J86" t="str">
+      <c r="K87" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="7:10">
-      <c r="G87" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H87" s="1" t="str">
+    <row r="88" spans="8:11">
+      <c r="H88" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I88" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I87" t="str">
+      <c r="J88" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J87" t="str">
+      <c r="K88" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="7:10">
-      <c r="G88" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H88" s="1" t="str">
+    <row r="89" spans="8:11">
+      <c r="H89" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I89" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I88" t="str">
+      <c r="J89" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J88" t="str">
+      <c r="K89" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="7:10">
-      <c r="G89" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H89" s="1" t="str">
+    <row r="90" spans="8:11">
+      <c r="H90" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I90" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I89" t="str">
+      <c r="J90" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J89" t="str">
+      <c r="K90" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="7:10">
-      <c r="G90" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H90" s="1" t="str">
+    <row r="91" spans="8:11">
+      <c r="H91" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I91" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I90" t="str">
+      <c r="J91" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J90" t="str">
+      <c r="K91" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="7:10">
-      <c r="G91" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H91" s="1" t="str">
+    <row r="92" spans="8:11">
+      <c r="H92" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I92" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I91" t="str">
+      <c r="J92" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J91" t="str">
+      <c r="K92" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="7:10">
-      <c r="G92" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H92" s="1" t="str">
+    <row r="93" spans="8:11">
+      <c r="H93" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I93" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I92" t="str">
+      <c r="J93" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J92" t="str">
+      <c r="K93" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="7:10">
-      <c r="G93" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H93" s="1" t="str">
+    <row r="94" spans="8:11">
+      <c r="H94" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I94" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I93" t="str">
+      <c r="J94" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J93" t="str">
+      <c r="K94" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="7:10">
-      <c r="G94" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H94" s="1" t="str">
+    <row r="95" spans="8:11">
+      <c r="H95" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I95" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I94" t="str">
+      <c r="J95" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J94" t="str">
+      <c r="K95" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="7:10">
-      <c r="G95" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H95" s="1" t="str">
+    <row r="96" spans="8:11">
+      <c r="H96" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I96" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I95" t="str">
+      <c r="J96" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J95" t="str">
+      <c r="K96" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="7:10">
-      <c r="G96" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H96" s="1" t="str">
+    <row r="97" spans="8:11">
+      <c r="H97" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I97" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I96" t="str">
+      <c r="J97" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J96" t="str">
+      <c r="K97" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="7:10">
-      <c r="G97" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H97" s="1" t="str">
+    <row r="98" spans="8:11">
+      <c r="H98" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I98" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I97" t="str">
+      <c r="J98" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J97" t="str">
+      <c r="K98" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="7:10">
-      <c r="G98" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H98" s="1" t="str">
+    <row r="99" spans="8:11">
+      <c r="H99" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I99" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I98" t="str">
+      <c r="J99" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J98" t="str">
+      <c r="K99" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="7:10">
-      <c r="G99" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H99" s="1" t="str">
+    <row r="100" spans="8:11">
+      <c r="H100" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I100" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I99" t="str">
+      <c r="J100" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J99" t="str">
+      <c r="K100" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="7:10">
-      <c r="G100" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H100" s="1" t="str">
+    <row r="101" spans="8:11">
+      <c r="H101" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I101" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I100" t="str">
+      <c r="J101" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J100" t="str">
+      <c r="K101" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="7:10">
-      <c r="G101" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H101" s="1" t="str">
+    <row r="102" spans="8:11">
+      <c r="H102" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I102" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I101" t="str">
+      <c r="J102" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J101" t="str">
+      <c r="K102" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="7:10">
-      <c r="G102" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H102" s="1" t="str">
+    <row r="103" spans="8:11">
+      <c r="H103" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I103" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I102" t="str">
+      <c r="J103" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J102" t="str">
+      <c r="K103" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="7:10">
-      <c r="G103" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H103" s="1" t="str">
+    <row r="104" spans="8:11">
+      <c r="H104" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I104" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I103" t="str">
+      <c r="J104" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J103" t="str">
+      <c r="K104" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="7:10">
-      <c r="G104" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H104" s="1" t="str">
+    <row r="105" spans="8:11">
+      <c r="H105" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I105" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I104" t="str">
+      <c r="J105" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J104" t="str">
+      <c r="K105" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="7:10">
-      <c r="G105" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H105" s="1" t="str">
+    <row r="106" spans="8:11">
+      <c r="H106" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I106" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I105" t="str">
+      <c r="J106" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J105" t="str">
+      <c r="K106" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="7:10">
-      <c r="G106" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H106" s="1" t="str">
+    <row r="107" spans="8:11">
+      <c r="H107" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I107" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I106" t="str">
+      <c r="J107" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J106" t="str">
+      <c r="K107" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="7:10">
-      <c r="G107" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H107" s="1" t="str">
+    <row r="108" spans="8:11">
+      <c r="H108" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I108" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I107" t="str">
+      <c r="J108" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J107" t="str">
+      <c r="K108" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="7:10">
-      <c r="G108" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H108" s="1" t="str">
+    <row r="109" spans="8:11">
+      <c r="H109" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I109" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I108" t="str">
+      <c r="J109" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J108" t="str">
+      <c r="K109" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="7:10">
-      <c r="G109" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H109" s="1" t="str">
+    <row r="110" spans="8:11">
+      <c r="H110" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I110" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I109" t="str">
+      <c r="J110" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J109" t="str">
+      <c r="K110" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="7:10">
-      <c r="G110" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H110" s="1" t="str">
+    <row r="111" spans="8:11">
+      <c r="H111" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I111" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I110" t="str">
+      <c r="J111" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J110" t="str">
+      <c r="K111" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="7:10">
-      <c r="G111" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H111" s="1" t="str">
+    <row r="112" spans="8:11">
+      <c r="H112" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I112" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I111" t="str">
+      <c r="J112" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J111" t="str">
+      <c r="K112" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="7:10">
-      <c r="G112" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H112" s="1" t="str">
+    <row r="113" spans="8:11">
+      <c r="H113" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I113" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I112" t="str">
+      <c r="J113" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J112" t="str">
+      <c r="K113" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="7:10">
-      <c r="G113" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H113" s="1" t="str">
+    <row r="114" spans="8:11">
+      <c r="H114" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I114" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I113" t="str">
+      <c r="J114" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J113" t="str">
+      <c r="K114" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="7:10">
-      <c r="G114" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H114" s="1" t="str">
+    <row r="115" spans="8:11">
+      <c r="H115" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I115" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I114" t="str">
+      <c r="J115" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J114" t="str">
+      <c r="K115" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="7:10">
-      <c r="G115" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H115" s="1" t="str">
+    <row r="116" spans="8:11">
+      <c r="H116" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I116" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I115" t="str">
+      <c r="J116" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J115" t="str">
+      <c r="K116" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="7:10">
-      <c r="G116" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H116" s="1" t="str">
+    <row r="117" spans="8:11">
+      <c r="H117" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I117" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I116" t="str">
+      <c r="J117" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J116" t="str">
+      <c r="K117" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="7:10">
-      <c r="G117" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H117" s="1" t="str">
+    <row r="118" spans="8:11">
+      <c r="H118" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I118" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I117" t="str">
+      <c r="J118" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J117" t="str">
+      <c r="K118" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="7:10">
-      <c r="G118" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H118" s="1" t="str">
+    <row r="119" spans="8:11">
+      <c r="H119" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I119" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I118" t="str">
+      <c r="J119" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J118" t="str">
+      <c r="K119" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="7:10">
-      <c r="G119" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H119" s="1" t="str">
+    <row r="120" spans="8:11">
+      <c r="H120" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I120" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I119" t="str">
+      <c r="J120" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J119" t="str">
+      <c r="K120" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="7:10">
-      <c r="G120" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H120" s="1" t="str">
+    <row r="121" spans="8:11">
+      <c r="H121" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I121" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I120" t="str">
+      <c r="J121" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J120" t="str">
+      <c r="K121" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="7:10">
-      <c r="G121" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H121" s="1" t="str">
+    <row r="122" spans="8:11">
+      <c r="H122" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I122" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I121" t="str">
+      <c r="J122" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J121" t="str">
+      <c r="K122" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="7:10">
-      <c r="G122" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H122" s="1" t="str">
+    <row r="123" spans="8:11">
+      <c r="H123" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I123" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I122" t="str">
+      <c r="J123" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J122" t="str">
+      <c r="K123" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="7:10">
-      <c r="G123" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H123" s="1" t="str">
+    <row r="124" spans="8:11">
+      <c r="H124" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I124" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I123" t="str">
+      <c r="J124" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J123" t="str">
+      <c r="K124" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="7:10">
-      <c r="G124" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H124" s="1" t="str">
+    <row r="125" spans="8:11">
+      <c r="H125" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I125" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I124" t="str">
+      <c r="J125" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J124" t="str">
+      <c r="K125" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="7:10">
-      <c r="G125" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H125" s="1" t="str">
+    <row r="126" spans="8:11">
+      <c r="H126" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I126" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I125" t="str">
+      <c r="J126" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J125" t="str">
+      <c r="K126" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="7:10">
-      <c r="G126" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H126" s="1" t="str">
+    <row r="127" spans="8:11">
+      <c r="H127" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I127" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I126" t="str">
+      <c r="J127" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J126" t="str">
+      <c r="K127" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="7:10">
-      <c r="G127" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H127" s="1" t="str">
+    <row r="128" spans="8:11">
+      <c r="H128" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I128" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I127" t="str">
+      <c r="J128" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J127" t="str">
+      <c r="K128" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="7:10">
-      <c r="G128" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H128" s="1" t="str">
+    <row r="129" spans="8:11">
+      <c r="H129" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I129" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I128" t="str">
+      <c r="J129" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J128" t="str">
+      <c r="K129" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="7:10">
-      <c r="G129" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H129" s="1" t="str">
+    <row r="130" spans="8:11">
+      <c r="H130" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I130" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I129" t="str">
+      <c r="J130" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J129" t="str">
+      <c r="K130" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="7:10">
-      <c r="G130" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="H130" s="1" t="str">
+    <row r="131" spans="8:11">
+      <c r="H131" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="I131" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="I130" t="str">
+      <c r="J131" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="J130" t="str">
+      <c r="K131" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="7:10">
-      <c r="G131" s="1" t="str">
-        <f t="shared" ref="G131:G160" si="22">IF(B131&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B131,"_",C131," ",IF(B131="CON",128,0)+D131),"")</f>
-        <v/>
-      </c>
-      <c r="H131" s="1" t="str">
-        <f t="shared" ref="H131:H160" si="23">IF(B131&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B131,"_",C131," ",E131),"")</f>
-        <v/>
-      </c>
-      <c r="I131" t="str">
-        <f t="shared" ref="I131:I160" si="24">IF(B131&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B131,"_",C131,": ","curTrameLength= LG_TRAME_",B131,"_",C131," ; break;"),"")</f>
-        <v/>
-      </c>
-      <c r="J131" t="str">
-        <f t="shared" ref="J131:J160" si="25">IF(B131&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B131,"_",C131,":   ; break;"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="7:10">
-      <c r="G132" s="1" t="str">
+    <row r="132" spans="8:11">
+      <c r="H132" s="1" t="str">
+        <f t="shared" ref="H132:H161" si="22">IF(B132&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B132,"_",C132," ",IF(B132="CON",128,0)+D132),"")</f>
+        <v/>
+      </c>
+      <c r="I132" s="1" t="str">
+        <f t="shared" ref="I132:I161" si="23">IF(B132&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B132,"_",C132," ",E132),"")</f>
+        <v/>
+      </c>
+      <c r="J132" t="str">
+        <f t="shared" ref="J132:J161" si="24">IF(B132&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B132,"_",C132,": ","curTrameLength= LG_TRAME_",B132,"_",C132," ; break;"),"")</f>
+        <v/>
+      </c>
+      <c r="K132" t="str">
+        <f t="shared" ref="K132:K161" si="25">IF(B132&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B132,"_",C132,":   ; break;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="8:11">
+      <c r="H133" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H132" s="1" t="str">
+      <c r="I133" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I132" t="str">
+      <c r="J133" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J132" t="str">
+      <c r="K133" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="7:10">
-      <c r="G133" s="1" t="str">
+    <row r="134" spans="8:11">
+      <c r="H134" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H133" s="1" t="str">
+      <c r="I134" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I133" t="str">
+      <c r="J134" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J133" t="str">
+      <c r="K134" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="7:10">
-      <c r="G134" s="1" t="str">
+    <row r="135" spans="8:11">
+      <c r="H135" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H134" s="1" t="str">
+      <c r="I135" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I134" t="str">
+      <c r="J135" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J134" t="str">
+      <c r="K135" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="7:10">
-      <c r="G135" s="1" t="str">
+    <row r="136" spans="8:11">
+      <c r="H136" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H135" s="1" t="str">
+      <c r="I136" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I135" t="str">
+      <c r="J136" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J135" t="str">
+      <c r="K136" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="7:10">
-      <c r="G136" s="1" t="str">
+    <row r="137" spans="8:11">
+      <c r="H137" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H136" s="1" t="str">
+      <c r="I137" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I136" t="str">
+      <c r="J137" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J136" t="str">
+      <c r="K137" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="7:10">
-      <c r="G137" s="1" t="str">
+    <row r="138" spans="8:11">
+      <c r="H138" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H137" s="1" t="str">
+      <c r="I138" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I137" t="str">
+      <c r="J138" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J137" t="str">
+      <c r="K138" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="7:10">
-      <c r="G138" s="1" t="str">
+    <row r="139" spans="8:11">
+      <c r="H139" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H138" s="1" t="str">
+      <c r="I139" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I138" t="str">
+      <c r="J139" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J138" t="str">
+      <c r="K139" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="7:10">
-      <c r="G139" s="1" t="str">
+    <row r="140" spans="8:11">
+      <c r="H140" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H139" s="1" t="str">
+      <c r="I140" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I139" t="str">
+      <c r="J140" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J139" t="str">
+      <c r="K140" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="7:10">
-      <c r="G140" s="1" t="str">
+    <row r="141" spans="8:11">
+      <c r="H141" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H140" s="1" t="str">
+      <c r="I141" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I140" t="str">
+      <c r="J141" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J140" t="str">
+      <c r="K141" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="7:10">
-      <c r="G141" s="1" t="str">
+    <row r="142" spans="8:11">
+      <c r="H142" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H141" s="1" t="str">
+      <c r="I142" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I141" t="str">
+      <c r="J142" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J141" t="str">
+      <c r="K142" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="7:10">
-      <c r="G142" s="1" t="str">
+    <row r="143" spans="8:11">
+      <c r="H143" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H142" s="1" t="str">
+      <c r="I143" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I142" t="str">
+      <c r="J143" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J142" t="str">
+      <c r="K143" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="7:10">
-      <c r="G143" s="1" t="str">
+    <row r="144" spans="8:11">
+      <c r="H144" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H143" s="1" t="str">
+      <c r="I144" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I143" t="str">
+      <c r="J144" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J143" t="str">
+      <c r="K144" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="7:10">
-      <c r="G144" s="1" t="str">
+    <row r="145" spans="8:11">
+      <c r="H145" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H144" s="1" t="str">
+      <c r="I145" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I144" t="str">
+      <c r="J145" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J144" t="str">
+      <c r="K145" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="7:10">
-      <c r="G145" s="1" t="str">
+    <row r="146" spans="8:11">
+      <c r="H146" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H145" s="1" t="str">
+      <c r="I146" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I145" t="str">
+      <c r="J146" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J145" t="str">
+      <c r="K146" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="7:10">
-      <c r="G146" s="1" t="str">
+    <row r="147" spans="8:11">
+      <c r="H147" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H146" s="1" t="str">
+      <c r="I147" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I146" t="str">
+      <c r="J147" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J146" t="str">
+      <c r="K147" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="7:10">
-      <c r="G147" s="1" t="str">
+    <row r="148" spans="8:11">
+      <c r="H148" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H147" s="1" t="str">
+      <c r="I148" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I147" t="str">
+      <c r="J148" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J147" t="str">
+      <c r="K148" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="7:10">
-      <c r="G148" s="1" t="str">
+    <row r="149" spans="8:11">
+      <c r="H149" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H148" s="1" t="str">
+      <c r="I149" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I148" t="str">
+      <c r="J149" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J148" t="str">
+      <c r="K149" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="7:10">
-      <c r="G149" s="1" t="str">
+    <row r="150" spans="8:11">
+      <c r="H150" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H149" s="1" t="str">
+      <c r="I150" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I149" t="str">
+      <c r="J150" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J149" t="str">
+      <c r="K150" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="7:10">
-      <c r="G150" s="1" t="str">
+    <row r="151" spans="8:11">
+      <c r="H151" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H150" s="1" t="str">
+      <c r="I151" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I150" t="str">
+      <c r="J151" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J150" t="str">
+      <c r="K151" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="7:10">
-      <c r="G151" s="1" t="str">
+    <row r="152" spans="8:11">
+      <c r="H152" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H151" s="1" t="str">
+      <c r="I152" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I151" t="str">
+      <c r="J152" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J151" t="str">
+      <c r="K152" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="7:10">
-      <c r="G152" s="1" t="str">
+    <row r="153" spans="8:11">
+      <c r="H153" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H152" s="1" t="str">
+      <c r="I153" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I152" t="str">
+      <c r="J153" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J152" t="str">
+      <c r="K153" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="7:10">
-      <c r="G153" s="1" t="str">
+    <row r="154" spans="8:11">
+      <c r="H154" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H153" s="1" t="str">
+      <c r="I154" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I153" t="str">
+      <c r="J154" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J153" t="str">
+      <c r="K154" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="7:10">
-      <c r="G154" s="1" t="str">
+    <row r="155" spans="8:11">
+      <c r="H155" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H154" s="1" t="str">
+      <c r="I155" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I154" t="str">
+      <c r="J155" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J154" t="str">
+      <c r="K155" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="7:10">
-      <c r="G155" s="1" t="str">
+    <row r="156" spans="8:11">
+      <c r="H156" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H155" s="1" t="str">
+      <c r="I156" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I155" t="str">
+      <c r="J156" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J155" t="str">
+      <c r="K156" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="7:10">
-      <c r="G156" s="1" t="str">
+    <row r="157" spans="8:11">
+      <c r="H157" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H156" s="1" t="str">
+      <c r="I157" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I156" t="str">
+      <c r="J157" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J156" t="str">
+      <c r="K157" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="7:10">
-      <c r="G157" s="1" t="str">
+    <row r="158" spans="8:11">
+      <c r="H158" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H157" s="1" t="str">
+      <c r="I158" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I157" t="str">
+      <c r="J158" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J157" t="str">
+      <c r="K158" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="7:10">
-      <c r="G158" s="1" t="str">
+    <row r="159" spans="8:11">
+      <c r="H159" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H158" s="1" t="str">
+      <c r="I159" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I158" t="str">
+      <c r="J159" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J158" t="str">
+      <c r="K159" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="7:10">
-      <c r="G159" s="1" t="str">
+    <row r="160" spans="8:11">
+      <c r="H160" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H159" s="1" t="str">
+      <c r="I160" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I159" t="str">
+      <c r="J160" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J159" t="str">
+      <c r="K160" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="7:10">
-      <c r="G160" s="1" t="str">
+    <row r="161" spans="8:11">
+      <c r="H161" s="1" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H160" s="1" t="str">
+      <c r="I161" s="1" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="I160" t="str">
+      <c r="J161" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J160" t="str">
+      <c r="K161" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="7:10">
-      <c r="G161" s="1" t="str">
-        <f t="shared" ref="G161:G188" si="26">IF(B178&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B178,"_",C178," ",IF(B178="CON",128,0)+D178),"")</f>
-        <v/>
-      </c>
-      <c r="H161" s="1" t="str">
-        <f t="shared" ref="H161:H188" si="27">IF(B178&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B178,"_",C178," ",E178),"")</f>
-        <v/>
-      </c>
-      <c r="I161" t="str">
-        <f t="shared" ref="I161:I188" si="28">IF(B178&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B178,"_",C178,": ","curTrameLength= LG_TRAME_",B178,"_",C178," ; break;"),"")</f>
-        <v/>
-      </c>
-      <c r="J161" t="str">
-        <f t="shared" ref="J161:J188" si="29">IF(B178&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B178,"_",C178,":   ; break;"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="7:10">
-      <c r="G162" s="1" t="str">
+    <row r="162" spans="8:11">
+      <c r="H162" s="1" t="str">
+        <f t="shared" ref="H162:H189" si="26">IF(B179&lt;&gt;"",CONCATENATE("#define TYPE_TRAME_",B179,"_",C179," ",IF(B179="CON",128,0)+D179),"")</f>
+        <v/>
+      </c>
+      <c r="I162" s="1" t="str">
+        <f t="shared" ref="I162:I189" si="27">IF(B179&lt;&gt;"",CONCATENATE("#define LG_TRAME_",B179,"_",C179," ",E179),"")</f>
+        <v/>
+      </c>
+      <c r="J162" t="str">
+        <f t="shared" ref="J162:J189" si="28">IF(B179&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B179,"_",C179,": ","curTrameLength= LG_TRAME_",B179,"_",C179," ; break;"),"")</f>
+        <v/>
+      </c>
+      <c r="K162" t="str">
+        <f t="shared" ref="K162:K189" si="29">IF(B179&lt;&gt;"",CONCATENATE("case TYPE_TRAME_",B179,"_",C179,":   ; break;"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="8:11">
+      <c r="H163" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H162" s="1" t="str">
+      <c r="I163" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I162" t="str">
+      <c r="J163" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J162" t="str">
+      <c r="K163" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="7:10">
-      <c r="G163" s="1" t="str">
+    <row r="164" spans="8:11">
+      <c r="H164" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H163" s="1" t="str">
+      <c r="I164" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I163" t="str">
+      <c r="J164" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J163" t="str">
+      <c r="K164" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="7:10">
-      <c r="G164" s="1" t="str">
+    <row r="165" spans="8:11">
+      <c r="H165" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H164" s="1" t="str">
+      <c r="I165" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I164" t="str">
+      <c r="J165" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J164" t="str">
+      <c r="K165" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="7:10">
-      <c r="G165" s="1" t="str">
+    <row r="166" spans="8:11">
+      <c r="H166" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H165" s="1" t="str">
+      <c r="I166" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I165" t="str">
+      <c r="J166" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J165" t="str">
+      <c r="K166" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="7:10">
-      <c r="G166" s="1" t="str">
+    <row r="167" spans="8:11">
+      <c r="H167" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H166" s="1" t="str">
+      <c r="I167" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I166" t="str">
+      <c r="J167" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J166" t="str">
+      <c r="K167" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="7:10">
-      <c r="G167" s="1" t="str">
+    <row r="168" spans="8:11">
+      <c r="H168" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H167" s="1" t="str">
+      <c r="I168" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I167" t="str">
+      <c r="J168" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J167" t="str">
+      <c r="K168" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="7:10">
-      <c r="G168" s="1" t="str">
+    <row r="169" spans="8:11">
+      <c r="H169" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H168" s="1" t="str">
+      <c r="I169" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I168" t="str">
+      <c r="J169" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J168" t="str">
+      <c r="K169" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="7:10">
-      <c r="G169" s="1" t="str">
+    <row r="170" spans="8:11">
+      <c r="H170" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H169" s="1" t="str">
+      <c r="I170" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I169" t="str">
+      <c r="J170" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J169" t="str">
+      <c r="K170" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="7:10">
-      <c r="G170" s="1" t="str">
+    <row r="171" spans="8:11">
+      <c r="H171" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H170" s="1" t="str">
+      <c r="I171" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I170" t="str">
+      <c r="J171" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J170" t="str">
+      <c r="K171" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="7:10">
-      <c r="G171" s="1" t="str">
+    <row r="172" spans="8:11">
+      <c r="H172" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H171" s="1" t="str">
+      <c r="I172" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I171" t="str">
+      <c r="J172" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J171" t="str">
+      <c r="K172" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="7:10">
-      <c r="G172" s="1" t="str">
+    <row r="173" spans="8:11">
+      <c r="H173" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H172" s="1" t="str">
+      <c r="I173" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I172" t="str">
+      <c r="J173" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J172" t="str">
+      <c r="K173" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="7:10">
-      <c r="G173" s="1" t="str">
+    <row r="174" spans="8:11">
+      <c r="H174" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H173" s="1" t="str">
+      <c r="I174" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I173" t="str">
+      <c r="J174" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J173" t="str">
+      <c r="K174" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="7:10">
-      <c r="G174" s="1" t="str">
+    <row r="175" spans="8:11">
+      <c r="H175" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H174" s="1" t="str">
+      <c r="I175" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I174" t="str">
+      <c r="J175" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J174" t="str">
+      <c r="K175" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="7:10">
-      <c r="G175" s="1" t="str">
+    <row r="176" spans="8:11">
+      <c r="H176" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H175" s="1" t="str">
+      <c r="I176" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I175" t="str">
+      <c r="J176" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J175" t="str">
+      <c r="K176" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="7:10">
-      <c r="G176" s="1" t="str">
+    <row r="177" spans="8:11">
+      <c r="H177" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H176" s="1" t="str">
+      <c r="I177" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I176" t="str">
+      <c r="J177" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J176" t="str">
+      <c r="K177" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="7:10">
-      <c r="G177" s="1" t="str">
+    <row r="178" spans="8:11">
+      <c r="H178" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H177" s="1" t="str">
+      <c r="I178" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I177" t="str">
+      <c r="J178" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J177" t="str">
+      <c r="K178" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="7:10">
-      <c r="G178" s="1" t="str">
+    <row r="179" spans="8:11">
+      <c r="H179" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H178" s="1" t="str">
+      <c r="I179" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I178" t="str">
+      <c r="J179" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J178" t="str">
+      <c r="K179" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="7:10">
-      <c r="G179" s="1" t="str">
+    <row r="180" spans="8:11">
+      <c r="H180" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H179" s="1" t="str">
+      <c r="I180" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I179" t="str">
+      <c r="J180" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J179" t="str">
+      <c r="K180" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="7:10">
-      <c r="G180" s="1" t="str">
+    <row r="181" spans="8:11">
+      <c r="H181" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H180" s="1" t="str">
+      <c r="I181" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I180" t="str">
+      <c r="J181" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J180" t="str">
+      <c r="K181" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="7:10">
-      <c r="G181" s="1" t="str">
+    <row r="182" spans="8:11">
+      <c r="H182" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H181" s="1" t="str">
+      <c r="I182" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I181" t="str">
+      <c r="J182" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J181" t="str">
+      <c r="K182" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="7:10">
-      <c r="G182" s="1" t="str">
+    <row r="183" spans="8:11">
+      <c r="H183" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H182" s="1" t="str">
+      <c r="I183" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I182" t="str">
+      <c r="J183" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J182" t="str">
+      <c r="K183" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="7:10">
-      <c r="G183" s="1" t="str">
+    <row r="184" spans="8:11">
+      <c r="H184" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H183" s="1" t="str">
+      <c r="I184" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I183" t="str">
+      <c r="J184" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J183" t="str">
+      <c r="K184" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="7:10">
-      <c r="G184" s="1" t="str">
+    <row r="185" spans="8:11">
+      <c r="H185" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H184" s="1" t="str">
+      <c r="I185" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I184" t="str">
+      <c r="J185" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J184" t="str">
+      <c r="K185" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="7:10">
-      <c r="G185" s="1" t="str">
+    <row r="186" spans="8:11">
+      <c r="H186" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H185" s="1" t="str">
+      <c r="I186" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I185" t="str">
+      <c r="J186" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J185" t="str">
+      <c r="K186" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="7:10">
-      <c r="G186" s="1" t="str">
+    <row r="187" spans="8:11">
+      <c r="H187" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H186" s="1" t="str">
+      <c r="I187" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I186" t="str">
+      <c r="J187" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J186" t="str">
+      <c r="K187" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="7:10">
-      <c r="G187" s="1" t="str">
+    <row r="188" spans="8:11">
+      <c r="H188" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H187" s="1" t="str">
+      <c r="I188" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I187" t="str">
+      <c r="J188" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J187" t="str">
+      <c r="K188" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="7:10">
-      <c r="G188" s="1" t="str">
+    <row r="189" spans="8:11">
+      <c r="H189" s="1" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H188" s="1" t="str">
+      <c r="I189" s="1" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I188" t="str">
+      <c r="J189" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J188" t="str">
+      <c r="K189" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
@@ -5114,7 +5399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -5711,7 +5996,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
@@ -5744,7 +6029,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
@@ -7243,16 +7528,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>